--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B11D12B-8811-485E-8EAB-9163078FE681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC98B716-6195-4C08-8BAE-34EA51B5F407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="1663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="1664">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -5014,6 +5014,9 @@
   </si>
   <si>
     <t>Bạch Hổ, Thiên Hình đồng cung tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Hữu Bật tọa thủ tại Phụ Mẫu</t>
   </si>
 </sst>
 </file>
@@ -5552,10 +5555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B1663"/>
+  <dimension ref="A1:B1664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1577" workbookViewId="0">
-      <selection activeCell="P1589" sqref="P1589"/>
+    <sheetView tabSelected="1" topLeftCell="A1652" workbookViewId="0">
+      <selection activeCell="B1664" sqref="B1664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18865,6 +18868,14 @@
       </c>
       <c r="B1663" t="s">
         <v>1662</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1664" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>1663</v>
       </c>
     </row>
   </sheetData>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2395DC4-BD9E-4B05-A333-C8A56E0BFA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D9E98C-5FF7-4893-AE05-377C437ED69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7624" uniqueCount="3734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7706" uniqueCount="3775">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11227,6 +11227,129 @@
   </si>
   <si>
     <t>Thai Phụ tọa thủ tại Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Tham Lang tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Phủ tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Thiên Tướng tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Thất Sát tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Phá Quân tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung với Thiên Phủ tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung với Thiên Tướng tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung với Thất Sát tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung với Tham Lang tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung với Thiên Lương tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung với Thái Âm tại Phụ Mẫu ở Tý</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung với Thái Âm tại Phụ Mẫu ở Ngọ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung với Cự Môn tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Phụ Mẫu đồng cung Phá Quân</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Phụ Mẫu đồng cung Thất Sát</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Phụ Mẫu đồng cung Thiên Tướng</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Phụ Mẫu đồng cung Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Phụ Mẫu ở Sửu đồng cung Thái Âm</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Phụ Mẫu ở Mùi đồng cung Thái Âm</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Phụ Mẫu đồng cung Thái Âm ở Dần</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Phụ Mẫu đồng cung Thái Âm ở Thân</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Phụ Mẫu đồng cung Thiên Lương</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Phụ Mẫu đồng cung Cự Môn</t>
+  </si>
+  <si>
+    <t>Tham Lang Vũ Khúc đồng cung tại cung Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thiên Lương đồng cung Thái Dương tại cung Phụ Mẫu ở Mão</t>
+  </si>
+  <si>
+    <t>Thiên Lương đồng cung Thái Dương tại cung Phụ Mẫu ở Dậu</t>
+  </si>
+  <si>
+    <t>Kình Dương, Liêm Trinh đồng cung tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Kình Dương, Thất Sát đồng cung tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Kình Dương, Tham Lang đồng cung tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Đà La, Liêm Trinh đồng cung tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Đà La, Thất Sát đồng cung tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Đà La, Tham Lang đồng cung tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung với Hỏa Tinh tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung với Linh Tinh tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Phá Quân đồng cung với Hỏa Tinh tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Phá Quân đồng cung với Linh Tinh tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thái Dương, Thái Âm, Hóa kỵ đồng cung tại Sửu</t>
+  </si>
+  <si>
+    <t>Thái Dương, Thái Âm, Hóa kỵ đồng cung tại Mùi</t>
+  </si>
+  <si>
+    <t>Kình Dương, Đà La, Thiên Mã đồng cung tại Phụ Mẫu gặp Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Kình Dương, Đà La, Thái Tuế đồng cung tại Phụ Mẫu gặp Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Đào Hoa, Hồng Loan, Thái Tuế đồng cung tại Phụ Mẫu</t>
   </si>
 </sst>
 </file>
@@ -11268,7 +11391,167 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11805,10 +12088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3813"/>
+  <dimension ref="A1:B3855"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1652" workbookViewId="0">
-      <selection activeCell="P1658" sqref="P1658"/>
+    <sheetView tabSelected="1" topLeftCell="A3822" workbookViewId="0">
+      <selection activeCell="R3827" sqref="R3827"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42312,63 +42595,419 @@
         <v>3612</v>
       </c>
     </row>
+    <row r="3815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3815" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B3815" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3816" t="s">
+        <v>3735</v>
+      </c>
+      <c r="B3816" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="3817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3817" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B3817" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3818" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B3818" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3819" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B3819" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3820" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B3820" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3821" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B3821" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3822" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B3822" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3823" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B3823" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3824" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B3824" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3825" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B3825" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3826" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B3826" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3827" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B3827" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3828" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B3828" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3829" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B3829" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3830" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B3830" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3831" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B3831" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3832" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B3832" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3833" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B3833" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3834" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B3834" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3835" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B3835" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3836" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B3836" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3837" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B3837" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3838" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B3838" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3839" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B3839" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3840" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B3840" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="3841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3841" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B3841" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3842" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B3842" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3843" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B3843" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3844" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B3844" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3845" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B3845" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3846" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B3846" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="3847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3847" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B3847" t="s">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3848" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B3848" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3849" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B3849" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3850" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B3850" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3851" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B3851" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="3852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3852" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B3852" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="3853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3853" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B3853" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3854" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B3854" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3855" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B3855" t="s">
+        <v>3774</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="25" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="23" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="21" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="19" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A3682:A1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1806:A1810 A3443:A3681">
-    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1811:A3340">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143">
-    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1806:B1810 B3443:B3681">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1811:B3340">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3682:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+  <conditionalFormatting sqref="B3682:B3831 B3838 B3844:B3846 B3853:B1048576">
+    <cfRule type="duplicateValues" dxfId="17" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3832:B3833">
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3834:B3837">
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3839:B3840">
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3841:B3843">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3847:B3848">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3849:B3850">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3851:B3852">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D9E98C-5FF7-4893-AE05-377C437ED69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE917066-9A16-49C1-82DD-A6D46914DB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7706" uniqueCount="3775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7760" uniqueCount="3802">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11350,6 +11350,87 @@
   </si>
   <si>
     <t>Đào Hoa, Hồng Loan, Thái Tuế đồng cung tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Song Hao Quyền Lộc Kiếp Hoả</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Xương Khúc Khôi Việt Tả Hữu Khoa Quyền Lộc Long</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Tả Hữu Khoa Quyền Lộc Long Phượng</t>
+  </si>
+  <si>
+    <t>Tử Khúc Phá Dương Đà</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương gặp Xương Khúc Tả Hữu</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Khoa Tả Hữu Quang Quý Quan Phúc</t>
+  </si>
+  <si>
+    <t>Sát Quyền</t>
+  </si>
+  <si>
+    <t>Lộc Mã</t>
+  </si>
+  <si>
+    <t>Kiếp Hư Hao Quyền</t>
+  </si>
+  <si>
+    <t>Tuế Hổ Phù Xương Khúc</t>
+  </si>
+  <si>
+    <t>Xương Khúc Tấu Long Phượng</t>
+  </si>
+  <si>
+    <t>Đào Hồng Riêu Tấu Cơ Vũ</t>
+  </si>
+  <si>
+    <t>Binh Hình Tướng Ấn</t>
+  </si>
+  <si>
+    <t>Hổ Tấu</t>
+  </si>
+  <si>
+    <t>Hình Riêu Y</t>
+  </si>
+  <si>
+    <t>Mã Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Thai Tọa Hồng Đào</t>
+  </si>
+  <si>
+    <t>Tả Hữu Không Kiếp</t>
+  </si>
+  <si>
+    <t>Tả Hữu Binh Tướng</t>
+  </si>
+  <si>
+    <t>Đào Quyền</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Cái Hữu</t>
+  </si>
+  <si>
+    <t>Quan Phúc Quang Tấu</t>
+  </si>
+  <si>
+    <t>Đào Hồng Xương Khúc</t>
+  </si>
+  <si>
+    <t>Đào Tử Phủ</t>
+  </si>
+  <si>
+    <t>Hổ Kình Sát</t>
+  </si>
+  <si>
+    <t>Hổ Tang Kiếp</t>
+  </si>
+  <si>
+    <t>Hổ Tang Không Kiếp</t>
   </si>
 </sst>
 </file>
@@ -11391,17 +11472,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -12088,10 +12159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3855"/>
+  <dimension ref="A1:B3883"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3822" workbookViewId="0">
-      <selection activeCell="R3827" sqref="R3827"/>
+    <sheetView tabSelected="1" topLeftCell="A3831" workbookViewId="0">
+      <selection activeCell="A3857" sqref="A3857:B3883"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42923,91 +42994,310 @@
         <v>3774</v>
       </c>
     </row>
+    <row r="3857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3857" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B3857" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="3858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3858" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B3858" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="3859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3859" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B3859" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3860" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B3860" t="s">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3861" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B3861" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="3862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3862" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B3862" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="3863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3863" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B3863" t="s">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="3864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3864" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B3864" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="3865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3865" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B3865" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3866" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B3866" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3867" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B3867" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3868" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B3868" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="3869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3869" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B3869" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="3870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3870" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B3870" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="3871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3871" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B3871" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3872" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B3872" t="s">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3873" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B3873" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3874" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B3874" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="3875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3875" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B3875" t="s">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="3876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3876" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B3876" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="3877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3877" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B3877" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="3878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3878" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B3878" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="3879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3879" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3879" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="3880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3880" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B3880" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="3881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3881" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B3881" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="3882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3882" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B3882" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="3883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3883" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B3883" t="s">
+        <v>3801</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="41" priority="88"/>
     <cfRule type="duplicateValues" dxfId="40" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="39" priority="58"/>
     <cfRule type="duplicateValues" dxfId="38" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="37" priority="62"/>
     <cfRule type="duplicateValues" dxfId="36" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="35" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A3682:A1048576">
-    <cfRule type="duplicateValues" dxfId="34" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="99"/>
+  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A3682:A3856 A3884:A1048576">
+    <cfRule type="duplicateValues" dxfId="33" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1806:A1810 A3443:A3681">
-    <cfRule type="duplicateValues" dxfId="32" priority="19"/>
     <cfRule type="duplicateValues" dxfId="31" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1811:A3340">
-    <cfRule type="duplicateValues" dxfId="30" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="29" priority="26"/>
     <cfRule type="duplicateValues" dxfId="28" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
     <cfRule type="duplicateValues" dxfId="26" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
     <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143">
-    <cfRule type="duplicateValues" dxfId="22" priority="28"/>
     <cfRule type="duplicateValues" dxfId="21" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1806:B1810 B3443:B3681">
-    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
     <cfRule type="duplicateValues" dxfId="19" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1811:B3340">
-    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3682:B3831 B3838 B3844:B3846 B3853:B1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="38"/>
+  <conditionalFormatting sqref="B3682:B3831 B3838 B3844:B3846 B3853:B3856 B3884:B1048576">
     <cfRule type="duplicateValues" dxfId="16" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3832:B3833">
-    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
     <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3834:B3837">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
     <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3839:B3840">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3841:B3843">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3847:B3848">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3849:B3850">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3851:B3852">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3857:A3883">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE917066-9A16-49C1-82DD-A6D46914DB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE7133D-0AE0-4060-A7CB-90506775531C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7760" uniqueCount="3802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7830" uniqueCount="3837">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11431,6 +11431,111 @@
   </si>
   <si>
     <t>Hổ Tang Không Kiếp</t>
+  </si>
+  <si>
+    <t>Âm Dương Lương</t>
+  </si>
+  <si>
+    <t>Cơ Lương Gia Hội</t>
+  </si>
+  <si>
+    <t>Nhật Chiếu Lôi Môn</t>
+  </si>
+  <si>
+    <t>Tả Hữu Xương Khúc</t>
+  </si>
+  <si>
+    <t>Tham Linh Triều Viên</t>
+  </si>
+  <si>
+    <t>Cự Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Hồng Đào Kỵ</t>
+  </si>
+  <si>
+    <t>Cự Đồng Hình</t>
+  </si>
+  <si>
+    <t>Lương Phá</t>
+  </si>
+  <si>
+    <t>Khôi Việt</t>
+  </si>
+  <si>
+    <t>Tham Vũ Hỏa</t>
+  </si>
+  <si>
+    <t>Cự Kỵ</t>
+  </si>
+  <si>
+    <t>Kình Đà Hỏa</t>
+  </si>
+  <si>
+    <t>Kình Đà Không Kiếp</t>
+  </si>
+  <si>
+    <t>Đào Hồng Hỷ</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kỵ</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>Lưu Hà Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Phục Không Kiếp</t>
+  </si>
+  <si>
+    <t>Xương Khúc Khôi Việt</t>
+  </si>
+  <si>
+    <t>Khoa Quyền</t>
+  </si>
+  <si>
+    <t>Lộc Quyền</t>
+  </si>
+  <si>
+    <t>Tướng Binh Đào Hồng</t>
+  </si>
+  <si>
+    <t>Lương Khốc Tuế</t>
+  </si>
+  <si>
+    <t>Tướng Binh</t>
+  </si>
+  <si>
+    <t>Cự Tang</t>
+  </si>
+  <si>
+    <t>Cự Hỏa</t>
+  </si>
+  <si>
+    <t>Phá Hình Kỵ</t>
+  </si>
+  <si>
+    <t>Tang Trực Tuế</t>
+  </si>
+  <si>
+    <t>Tuế Xương Khúc</t>
+  </si>
+  <si>
+    <t>Tử Vi Tả Hữu</t>
+  </si>
+  <si>
+    <t>Tử Vi Tang Tả Hữu</t>
   </si>
 </sst>
 </file>
@@ -11472,7 +11577,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -12159,10 +12274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3883"/>
+  <dimension ref="A1:B3918"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3831" workbookViewId="0">
-      <selection activeCell="A3857" sqref="A3857:B3883"/>
+    <sheetView tabSelected="1" topLeftCell="A3878" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3857" sqref="A3857:B3918"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43210,93 +43325,373 @@
         <v>3801</v>
       </c>
     </row>
+    <row r="3884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3884" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B3884" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="3885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3885" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B3885" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="3886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3886" t="s">
+        <v>3804</v>
+      </c>
+      <c r="B3886" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="3887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3887" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B3887" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="3888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3888" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B3888" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="3889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3889" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B3889" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="3890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3890" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B3890" t="s">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="3891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3891" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B3891" t="s">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="3892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3892" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B3892" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="3893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3893" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B3893" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="3894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3894" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B3894" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="3895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3895" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B3895" t="s">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="3896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3896" t="s">
+        <v>3814</v>
+      </c>
+      <c r="B3896" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="3897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3897" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B3897" t="s">
+        <v>3815</v>
+      </c>
+    </row>
+    <row r="3898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3898" t="s">
+        <v>3816</v>
+      </c>
+      <c r="B3898" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="3899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3899" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B3899" t="s">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="3900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3900" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B3900" t="s">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="3901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3901" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B3901" t="s">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="3902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3902" t="s">
+        <v>3820</v>
+      </c>
+      <c r="B3902" t="s">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="3903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3903" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B3903" t="s">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="3904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3904" t="s">
+        <v>3822</v>
+      </c>
+      <c r="B3904" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="3905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3905" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B3905" t="s">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="3906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3906" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B3906" t="s">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="3907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3907" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B3907" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="3908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3908" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B3908" t="s">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="3909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3909" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B3909" t="s">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="3910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3910" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B3910" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="3911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3911" t="s">
+        <v>3829</v>
+      </c>
+      <c r="B3911" t="s">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="3912" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3912" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3912" t="s">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="3913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3913" t="s">
+        <v>3831</v>
+      </c>
+      <c r="B3913" t="s">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="3914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3914" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B3914" t="s">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="3915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3915" t="s">
+        <v>3833</v>
+      </c>
+      <c r="B3915" t="s">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="3916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3916" t="s">
+        <v>3834</v>
+      </c>
+      <c r="B3916" t="s">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="3917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3917" t="s">
+        <v>3835</v>
+      </c>
+      <c r="B3917" t="s">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="3918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3918" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B3918" t="s">
+        <v>3836</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="40" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="38" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="36" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="34" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A3682:A3856 A3884:A1048576">
-    <cfRule type="duplicateValues" dxfId="33" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="100"/>
+  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A3682:A3856 A3919:A1048576">
+    <cfRule type="duplicateValues" dxfId="34" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1806:A1810 A3443:A3681">
-    <cfRule type="duplicateValues" dxfId="31" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1811:A3340">
-    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="26" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143">
-    <cfRule type="duplicateValues" dxfId="21" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1806:B1810 B3443:B3681">
-    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1811:B3340">
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3682:B3831 B3838 B3844:B3846 B3853:B3856 B3884:B1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="40"/>
+  <conditionalFormatting sqref="B3682:B3831 B3838 B3844:B3846 B3853:B3856 B3919:B1048576">
+    <cfRule type="duplicateValues" dxfId="17" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3832:B3833">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3834:B3837">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3839:B3840">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3841:B3843">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3847:B3848">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3849:B3850">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3851:B3852">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3857:A3883">
+  <conditionalFormatting sqref="A3857:A3918">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD07DF5-B263-473D-BA42-AE7A2C748577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09EA0DD-EF8F-4CD9-BCF8-22BC91C19BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8498" uniqueCount="4249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8656" uniqueCount="4328">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -12772,6 +12772,243 @@
   </si>
   <si>
     <t>L. Đà La tọa thủ tại Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Sát Phá Tham hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cự Nhật hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Kình Đà hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Xương Khúc hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Hoả Linh hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Không Kiếp hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Quang Quý hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tả Hữu hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Song Hao hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tang Hổ hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Khốc Hư hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Hình Riêu hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thai Toạ hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Đào Hồng hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Ấn Phù hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Song Hao Quyền Lộc Kiếp Hoả hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Xương Khúc Khôi Việt Tả Hữu Khoa Quyền Lộc Long hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Tả Hữu Khoa Quyền Lộc Long Phượng hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Khúc Phá Dương Đà hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương gặp Xương Khúc Tả Hữu hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Khoa Tả Hữu Quang Quý Quan Phúc hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Sát Quyền hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Lộc Mã hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Kiếp Hư Hao Quyền hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tuế Hổ Phù Xương Khúc hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Xương Khúc Tấu Long Phượng hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Đào Hồng Riêu Tấu Cơ Vũ hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Binh Hình Tướng Ấn hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Hổ Tấu hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Hình Riêu Y hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Mã Hỏa Linh hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Thai Tọa Hồng Đào hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tả Hữu Không Kiếp hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tả Hữu Binh Tướng hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Đào Quyền hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Cái Hữu hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Quan Phúc Quang Tấu hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Đào Hồng Xương Khúc hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Đào Tử Phủ hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Hổ Kình Sát hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Hổ Tang Kiếp hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Hổ Tang Không Kiếp hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Âm Dương Lương hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cơ Lương Gia Hội hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Nhật Chiếu Lôi Môn hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tả Hữu Xương Khúc hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tham Linh Triều Viên hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cự Hỏa Linh hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Hồng Đào Kỵ hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cự Đồng Hình hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Lương Phá hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Khôi Việt hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tham Vũ Hỏa hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cự Kỵ hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Kình Đà Hỏa hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Kình Đà Không Kiếp hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Đào Hồng Hỷ hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kiếp Sát hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kỵ hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc Long Trì Phượng Các hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Lưu Hà Kiếp Sát hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Phục Không Kiếp hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Xương Khúc Khôi Việt hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Khoa Quyền hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Lộc Quyền hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tướng Binh Đào Hồng hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Lương Khốc Tuế hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tướng Binh hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cự Tang hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cự Hỏa hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Phá Hình Kỵ hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tang Trực Tuế hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tuế Xương Khúc hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi Tả Hữu hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi Tang Tả Hữu hội chiếu tại Phụ Mẫu</t>
   </si>
 </sst>
 </file>
@@ -12813,7 +13050,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13610,10 +13857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4250"/>
+  <dimension ref="A1:B4329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1730" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1664" sqref="B1664"/>
+    <sheetView tabSelected="1" topLeftCell="A4310" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4336" sqref="D4336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47610,64 +47857,699 @@
         <v>4248</v>
       </c>
     </row>
+    <row r="4251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4251" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B4251" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="4252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4252" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B4252" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4253" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B4253" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4254" t="s">
+        <v>4252</v>
+      </c>
+      <c r="B4254" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4255" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B4255" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4256" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B4256" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4257" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B4257" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4258" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B4258" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4259" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B4259" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4260" t="s">
+        <v>4258</v>
+      </c>
+      <c r="B4260" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4261" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B4261" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4262" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B4262" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4263" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B4263" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4264" t="s">
+        <v>4262</v>
+      </c>
+      <c r="B4264" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4265" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B4265" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4266" t="s">
+        <v>4264</v>
+      </c>
+      <c r="B4266" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4267" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B4267" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4268" t="s">
+        <v>4266</v>
+      </c>
+      <c r="B4268" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4269" t="s">
+        <v>4267</v>
+      </c>
+      <c r="B4269" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4270" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B4270" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4271" t="s">
+        <v>4269</v>
+      </c>
+      <c r="B4271" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4272" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B4272" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4273" t="s">
+        <v>4271</v>
+      </c>
+      <c r="B4273" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4274" t="s">
+        <v>4272</v>
+      </c>
+      <c r="B4274" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4275" t="s">
+        <v>4273</v>
+      </c>
+      <c r="B4275" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4276" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B4276" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4277" t="s">
+        <v>4275</v>
+      </c>
+      <c r="B4277" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4278" t="s">
+        <v>4276</v>
+      </c>
+      <c r="B4278" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4279" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B4279" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4280" t="s">
+        <v>4278</v>
+      </c>
+      <c r="B4280" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4281" t="s">
+        <v>4279</v>
+      </c>
+      <c r="B4281" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4282" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B4282" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4283" t="s">
+        <v>4281</v>
+      </c>
+      <c r="B4283" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4284" t="s">
+        <v>4282</v>
+      </c>
+      <c r="B4284" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4285" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B4285" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4286" t="s">
+        <v>4284</v>
+      </c>
+      <c r="B4286" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4287" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B4287" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4288" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B4288" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4289" t="s">
+        <v>4287</v>
+      </c>
+      <c r="B4289" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4290" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B4290" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4291" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B4291" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4292" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B4292" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4293" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B4293" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4294" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B4294" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4295" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B4295" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4296" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B4296" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4297" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B4297" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4298" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B4298" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4299" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B4299" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4300" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B4300" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4301" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B4301" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4302" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B4302" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4303" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B4303" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4304" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B4304" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4305" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B4305" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4306" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B4306" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4307" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B4307" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4308" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B4308" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4309" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B4309" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4310" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B4310" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4311" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B4311" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="4312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4312" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B4312" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="4313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4313" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B4313" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4314" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B4314" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4315" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B4315" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4316" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B4316" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4317" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B4317" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4318" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B4318" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4319" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B4319" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4320" t="s">
+        <v>4318</v>
+      </c>
+      <c r="B4320" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4321" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B4321" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4322" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B4322" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4323" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B4323" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4324" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B4324" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4325" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B4325" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4326" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B4326" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4327" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B4327" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4328" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B4328" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4329" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B4329" t="s">
+        <v>4327</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="51" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="49" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="47" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="45" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A3682:A3856 A3919:A4217 A6763:A1048576">
-    <cfRule type="duplicateValues" dxfId="44" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1806:A1810 A3443:A3681">
-    <cfRule type="duplicateValues" dxfId="42" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1811:A3340">
-    <cfRule type="duplicateValues" dxfId="40" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3857:A3918">
-    <cfRule type="duplicateValues" dxfId="39" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143 B3682:B3856 B3919:B4217 B6763:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1806:B1810 B3443:B3681">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1811:B3340">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3857:B3918">
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09EA0DD-EF8F-4CD9-BCF8-22BC91C19BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2FA34E-A700-4409-8F19-59428216BC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8656" uniqueCount="4328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8866" uniqueCount="4433">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13009,6 +13009,321 @@
   </si>
   <si>
     <t>Tử Vi Tang Tả Hữu hội chiếu tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Cơ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thái Dương tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Vũ Khúc tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Đồng tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Liêm Trinh tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Phủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thái Âm tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Tham Lang tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Cự Môn tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Tướng tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Lương tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thất Sát tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Phá Quân tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thái Dương tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Vũ Khúc tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Đồng tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Liêm Trinh tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Phủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thái Âm tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Tham Lang tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Cự Môn tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Tướng tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Lương tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thất Sát tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Phá Quân tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Vũ Khúc tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Đồng tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Liêm Trinh tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Phủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thái Âm tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Tham Lang tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Cự Môn tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Tướng tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Lương tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thất Sát tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Phá Quân tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Đồng tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Liêm Trinh tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Phủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thái Âm tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Tham Lang tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Cự Môn tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Tướng tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Lương tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thất Sát tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Phá Quân tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Liêm Trinh tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Phủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thái Âm tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Tham Lang tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Cự Môn tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Tướng tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Lương tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thất Sát tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Phá Quân tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Phủ tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thái Âm tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Tham Lang tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Cự Môn tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Tướng tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Lương tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thất Sát tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Phá Quân tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thái Âm tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Tham Lang tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Cự Môn tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thiên Tướng tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thiên Lương tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thất Sát tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Phá Quân tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Tham Lang tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Cự Môn tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thiên Tướng tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thiên Lương tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thất Sát tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Phá Quân tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Cự Môn tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thiên Tướng tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thiên Lương tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thất Sát tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Phá Quân tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thiên Tướng tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thiên Lương tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thất Sát tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Phá Quân tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Thiên Lương tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Thất Sát tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Phá Quân tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Lương đồng cung Thất Sát tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thiên Lương đồng cung Phá Quân tại cung đối Tật Ách</t>
+  </si>
+  <si>
+    <t>Thất Sát đồng cung Phá Quân tại cung đối Tật Ách</t>
   </si>
 </sst>
 </file>
@@ -13050,267 +13365,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13857,10 +13912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4329"/>
+  <dimension ref="A1:B4435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4310" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4336" sqref="D4336"/>
+    <sheetView tabSelected="1" topLeftCell="A4331" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4345" sqref="B4345:B4435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48489,68 +48544,908 @@
         <v>4327</v>
       </c>
     </row>
+    <row r="4331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4331" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B4331" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4332" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B4332" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4333" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B4333" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4334" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B4334" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4335" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B4335" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4336" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B4336" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4337" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B4337" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4338" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B4338" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4339" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B4339" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4340" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B4340" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4341" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B4341" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4342" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B4342" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4343" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B4343" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4344" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B4344" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4345" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B4345" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4346" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B4346" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4347" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B4347" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4348" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B4348" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4349" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B4349" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="4350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4350" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B4350" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4351" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B4351" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4352" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B4352" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="4353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4353" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B4353" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="4354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4354" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B4354" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="4355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4355" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B4355" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4356" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B4356" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4357" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B4357" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4358" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B4358" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4359" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B4359" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4360" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B4360" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4361" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B4361" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4362" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B4362" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4363" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B4363" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4364" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B4364" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4365" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B4365" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4366" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B4366" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4367" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B4367" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4368" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B4368" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4369" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B4369" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4370" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B4370" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4371" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B4371" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4372" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B4372" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4373" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B4373" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4374" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B4374" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4375" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B4375" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4376" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B4376" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4377" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B4377" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4378" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B4378" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4379" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B4379" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4380" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B4380" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4381" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B4381" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4382" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B4382" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4383" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B4383" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4384" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B4384" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4385" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B4385" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4386" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B4386" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4387" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B4387" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4388" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B4388" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4389" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B4389" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4390" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B4390" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4391" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B4391" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4392" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B4392" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4393" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B4393" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4394" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B4394" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4395" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B4395" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4396" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B4396" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="4397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4397" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B4397" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="4398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4398" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B4398" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="4399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4399" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B4399" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="4400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4400" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B4400" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="4401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4401" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B4401" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="4402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4402" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B4402" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="4403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4403" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B4403" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4404" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B4404" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="4405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4405" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B4405" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="4406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4406" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B4406" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="4407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4407" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B4407" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="4408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4408" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B4408" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="4409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4409" t="s">
+        <v>4406</v>
+      </c>
+      <c r="B4409" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="4410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4410" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B4410" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="4411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4411" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B4411" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="4412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4412" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B4412" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="4413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4413" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B4413" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="4414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4414" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B4414" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="4415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4415" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B4415" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="4416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4416" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B4416" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="4417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4417" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B4417" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="4418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4418" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B4418" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="4419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4419" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B4419" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="4420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4420" t="s">
+        <v>4417</v>
+      </c>
+      <c r="B4420" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="4421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4421" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B4421" t="s">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="4422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4422" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B4422" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4423" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B4423" t="s">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="4424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4424" t="s">
+        <v>4421</v>
+      </c>
+      <c r="B4424" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="4425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4425" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B4425" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="4426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4426" t="s">
+        <v>4423</v>
+      </c>
+      <c r="B4426" t="s">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="4427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4427" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B4427" t="s">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="4428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4428" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B4428" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="4429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4429" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B4429" t="s">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="4430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4430" t="s">
+        <v>4427</v>
+      </c>
+      <c r="B4430" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="4431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4431" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B4431" t="s">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="4432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4432" t="s">
+        <v>4429</v>
+      </c>
+      <c r="B4432" t="s">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="4433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4433" t="s">
+        <v>4430</v>
+      </c>
+      <c r="B4433" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="4434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4434" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B4434" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="4435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4435" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B4435" t="s">
+        <v>4432</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="52" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="50" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="48" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="46" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A3682:A3856 A3919:A4217 A6763:A1048576">
-    <cfRule type="duplicateValues" dxfId="45" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1806:A1810 A3443:A3681">
-    <cfRule type="duplicateValues" dxfId="43" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1811:A3340">
-    <cfRule type="duplicateValues" dxfId="41" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3857:A3918">
-    <cfRule type="duplicateValues" dxfId="40" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="39" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="37" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="35" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="33" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143 B3682:B3856 B3919:B4217 B6763:B1048576">
-    <cfRule type="duplicateValues" dxfId="32" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1806:B1810 B3443:B3681">
-    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1811:B3340">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3857:B3918">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2FA34E-A700-4409-8F19-59428216BC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9745E400-F3F5-4580-A558-F7859F35D4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13914,8 +13914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A1:B4435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4331" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4345" sqref="B4345:B4435"/>
+    <sheetView tabSelected="1" topLeftCell="A391" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L409" sqref="L409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B7AC66-8947-4456-8FB3-9410FB263AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290630E7-62C1-4D7D-9C76-2C3A9D783A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8829" uniqueCount="4469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8859" uniqueCount="4534">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13363,9 +13363,6 @@
 trong hai thân. </t>
   </si>
   <si>
-    <t xml:space="preserve">sớm xa cách hai thân. Trong nhà thiếu hòa khí. Có đi xa hay làm con nuôi họ khác mới tránh được mọi sự hình khắc. Nhưng dù sao chăng nữa, ít nhất là phải sớm lìa bỏ một trong hai thân. </t>
-  </si>
-  <si>
     <t>Sớm khắc một trong hai thân.</t>
   </si>
   <si>
@@ -13439,6 +13436,215 @@
   </si>
   <si>
     <t>Sớm khắc một trong hai thân. Nếu không, cũng phải xa cách hai thân. Cha mẹ bình thường. Trong nhà thiếu hòa khí nên làm con họ nhà khác.</t>
+  </si>
+  <si>
+    <t>Cha mẹ cũng bất hòa. Trong nhà có sự tranh chấp.</t>
+  </si>
+  <si>
+    <t>Cha mẹ cũng bất hòa. Trong nhà có sự tranh chấp. Cha mẹ giàu sang, nhưng không hợp tính với 
+con.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cha mẹ cũng bất hòa. Trong nhà có sự tranh chấp. hai thân thường xa cách nhau. Nếu không, cũng sớm khắc một trong hai thân. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cha mẹ cũng bất hòa. Trong nhà có sự tranh chấp. cha mẹ bỏ nhau, hay một còn một mất từ lúc con 
+còn ít tuổi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai thân giàu có, qúy hiển và sống lâu, lợi ích cho 
+cha nhiều hơn cho mẹ. </t>
+  </si>
+  <si>
+    <t>Hai thân vất và, sớm khắc một trong hai thân. 
+Nên làm con nuôi họ khác.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sớm xa cách hai thân. Trong nhà thiếu hòa khí. Có đi xa hay làm con nuôi họ khác mới tránh được mọi sự hình khắc. Nhưng dù sao chăng nữa, ít nhất là phải sớm lìa bỏ một trong hai thân. </t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cha mẹ sống lâu.</t>
+  </si>
+  <si>
+    <t>Hai thân khá giả nhưng hay bất hòa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai thân bình thường. Nên làm con nuôi họ khác 
+để tránh mọi hình khắc. </t>
+  </si>
+  <si>
+    <t>Cha mẹ nhân đức, giàu sang và sống lâu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai thân bình thường. Trong nhà thiếu hòa khí. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai thân bất hòa, hay xa cách nhau. Sớm lìa bỏ một 
+trong hai thân. Nếu không, cha mẹ và con cũng không thể sống chung với nhau lâu dài được. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai thân vất và, sớm khắc một trong hai thân. 
+Nên làm con nuôi họ khác. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cha mẹ cũng bất hòa. Nếu không, cha mẹ và con cũng không hợp tính nhau. </t>
+  </si>
+  <si>
+    <t>Cha mẹ qúy hiến và sống lâu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cha mẹ khá giả, nhưng sớm xa cách một trong hai 
+thân. </t>
+  </si>
+  <si>
+    <t>Cha mẹ túng thiếu, vất vả, thường mang cố tật, hay mắc ác bệnh. Nếu không, tất mắc nhiều tai họa. Sớm khắc một trong hai thân, cha mẹ và con cũng không thể sống chung với nhau lâu dài được. Nên làm con nuôi họ khác.</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Phụ Mẫu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sớm khắc một trong hai thân. Nếu không, hai thân cũng phải xa cách nhau. Trong nhà thiếu hòa khí. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cha mẹ khá giá. </t>
+  </si>
+  <si>
+    <t>Cha mẹ bất hòa. Nên ở xa cha mẹ hay làm con nuôi họ khác.</t>
+  </si>
+  <si>
+    <t>Cha mẹ vất vả, không hợp tính với con. Sớm xa cách một trong hai thân.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cha mẹ và con cũng không hợp tính nhau </t>
+  </si>
+  <si>
+    <t>Cha mẹ và con cũng không hợp tính nhau</t>
+  </si>
+  <si>
+    <t>Hai thân hay mắc nạn, nhất là kiện cáo tù tội và thường phải xa cách nhau. Gia đình túng thiếu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sớm xa cách hai thân, cha mẹ khó tránh được hình thương họa hại. </t>
+  </si>
+  <si>
+    <t>Cha hay mẹ là người hoang đàng chơi bời. Sớm xa cách một trong hai thân.</t>
+  </si>
+  <si>
+    <t>Bố mẹ giảm thọ. Trong nhà thiếu hòa khí.</t>
+  </si>
+  <si>
+    <t>Cha mẹ qúy hiến và giàu sang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sớm khắc hai thân. Nếu không, cũng phải sớm xa cách, đi cư ngụ ở nơi đất khách quê người, cha mẹ thường mắc tai nạn bất kỳ, rất đáng lo ngại. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai thân cũng vất vả. Nếu không cũng bất hòa, cha 
+mẹ và con không hợp tính nhau. </t>
+  </si>
+  <si>
+    <t>Hai thân có học vấn</t>
+  </si>
+  <si>
+    <t>Cha mẹ thường là con trưởng. Nếu không, cũng đoạt trưởng gánh vác công việc gia đình có danh chức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai thân khá giả, nâng đỡ con trong nhiều công việc. Trong nhà có hòa khí. </t>
+  </si>
+  <si>
+    <t>Hai thân có của, nhưng con phá tán mất khá nhiều. Cha mẹ và con không hợp tính nhau. Nên ở xa cha mẹ.</t>
+  </si>
+  <si>
+    <t>Hai bố mẹ có của.</t>
+  </si>
+  <si>
+    <t>Bố mẹ có uy quyền, và nghiêm khắc với con cái.</t>
+  </si>
+  <si>
+    <t>Hai bố mẹ thông minh, nhân hậu, có danh chức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai thân bất hòa. Nếu không, cha mẹ và con cũng không hợp tính nhau. </t>
+  </si>
+  <si>
+    <t>Thái Dương Thái Âm Hóa Kỵ đồng cung tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cha mẹ giàu sang</t>
+  </si>
+  <si>
+    <t>Hóa Kỵ Văn Xương, Văn Khúc đồng cung tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cha mẹ giảm thọ</t>
+  </si>
+  <si>
+    <t>Thiên Mã toạ thủ cung Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Hai thân có danh giá, nhưng thường hay xa cách nhau.</t>
+  </si>
+  <si>
+    <t>Thiên Mã, Hóa Lộc đồng cung tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Cha mẹ rất khá giả. Nhưng con nên ở xa cha mẹ.</t>
+  </si>
+  <si>
+    <t>Thiên Mã, Kình Đà đồng cung tại Phụ Mẫu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai thân bất hòa, thường hay xung đột. Cha mẹ và con không hợp tính nhau. Nên ở xa cha mẹ. </t>
+  </si>
+  <si>
+    <t>Thiên Mã, Kình Đà đồng cung tại Phụ Mẫu gặp Hỏa Tinh, Linh Tinh, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chắc chắn là cha mẹ bỏ nhau. Nếu không, cũng một còn một mất, từ lúc con còn ít tuổi. Ngoài ra, cha mẹ thường mắc phải những tai nạn rất đáng lo ngại. </t>
+  </si>
+  <si>
+    <t>Thái Tuế toạ thủ cung Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Tuế Phá toạ thủ cung Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Trong nhà thiếu hòa khí, hay có sự tranh chấp. Cha mẹ và con không hợp tính nhau.</t>
+  </si>
+  <si>
+    <t>Thái Tuế toạ thủ cung Phụ Mẫu gặp Hỏa Tinh, Kình Dương, Đà La, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tất cha mẹ phải xa cách nhau. Gia đình ly tán. Ngoài ra, cha mẹ thường hay mắc tai họa, đáng lo ngại nhất là mắc kiện cáo. </t>
+  </si>
+  <si>
+    <t>Cô Thần toạ thủ cung Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Quả Tú toạ thủ cung Phụ Mẫu</t>
+  </si>
+  <si>
+    <t>Hai thân không hợp tính nhau. Cha mẹ và con không thể ở gần nhau lâu được.</t>
+  </si>
+  <si>
+    <t>Cô Thần toạ thủ cung Phụ Mẫu gặp Hỏa Tinh, Kình Dương, Đà La, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quả Tú toạ thủ cung Phụ Mẫu gặp Hỏa Tinh, Kình Dương, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Hai thân không hợp tính nhau. Cha mẹ và con không thể ở gần nhau lâu được. Cô Thần lại gặp nhiều Sát tinh xâm phạm, tất sớm khắc một trong hai thân. Nên làm con nuôi họ khác</t>
+  </si>
+  <si>
+    <t>Hai thân không hợp tính nhau. Cha mẹ và con không thể ở gần nhau lâu 
+được. Quả Túlại gặp nhiều Sát tinh xâm phạm, tất sớm khắc một trong hai thân. Nên làm con nuôi họ khác</t>
+  </si>
+  <si>
+    <t>Cha hay mẹ thường là người tài hoa, phóng đãng. Đào Hồng Thái Tuế đồng cung, tất cha có vợ lẽ, ngoại tình, hay mẹ là người bất chính</t>
   </si>
 </sst>
 </file>
@@ -14153,10 +14359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G4415"/>
+  <dimension ref="A2:G4430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2542" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2543" sqref="E2543"/>
+    <sheetView tabSelected="1" topLeftCell="A3754" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3754" sqref="C3754"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15242,7 +15448,7 @@
         <v>272</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -15282,7 +15488,7 @@
         <v>277</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -15322,7 +15528,7 @@
         <v>282</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -15362,7 +15568,7 @@
         <v>287</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -15402,7 +15608,7 @@
         <v>292</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -15538,7 +15744,7 @@
         <v>309</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15570,7 +15776,7 @@
         <v>313</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15602,7 +15808,7 @@
         <v>317</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15634,7 +15840,7 @@
         <v>321</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15666,7 +15872,7 @@
         <v>325</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15793,8 +15999,8 @@
       <c r="A205" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>341</v>
+      <c r="B205" t="s">
+        <v>4493</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16026,7 +16232,7 @@
         <v>370</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>370</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16146,7 +16352,7 @@
         <v>385</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>385</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16162,7 +16368,7 @@
         <v>387</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>387</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16877,7 +17083,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>477</v>
       </c>
@@ -16885,7 +17091,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>478</v>
       </c>
@@ -17525,12 +17731,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>553</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>553</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17565,12 +17771,12 @@
         <v>557</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>558</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>558</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17770,7 +17976,7 @@
         <v>583</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18165,7 +18371,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>633</v>
       </c>
@@ -18517,7 +18723,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="546" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>677</v>
       </c>
@@ -18901,7 +19107,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="594" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>724</v>
       </c>
@@ -19493,20 +19699,20 @@
         <v>797</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
         <v>798</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>799</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -22026,7 +22232,7 @@
         <v>1113</v>
       </c>
       <c r="B984" s="2" t="s">
-        <v>1113</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="985" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -22074,7 +22280,7 @@
         <v>1119</v>
       </c>
       <c r="B990" s="2" t="s">
-        <v>1119</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="991" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -22146,7 +22352,7 @@
         <v>1128</v>
       </c>
       <c r="B999" s="2" t="s">
-        <v>1128</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1000" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -22197,12 +22403,12 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1006" s="2" t="s">
         <v>1135</v>
       </c>
       <c r="B1006" s="2" t="s">
-        <v>1135</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1007" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -23394,7 +23600,7 @@
         <v>1284</v>
       </c>
       <c r="B1155" s="1" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.25">
@@ -23538,7 +23744,7 @@
         <v>1287</v>
       </c>
       <c r="B1173" s="1" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24245,7 +24451,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="1262" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1262" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1262" s="2" t="s">
         <v>1372</v>
       </c>
@@ -24434,7 +24640,7 @@
         <v>1395</v>
       </c>
       <c r="B1285" s="2" t="s">
-        <v>1395</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24442,7 +24648,7 @@
         <v>1396</v>
       </c>
       <c r="B1286" s="2" t="s">
-        <v>1396</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1287" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24877,12 +25083,12 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="1341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1341" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1341" s="2" t="s">
         <v>1451</v>
       </c>
       <c r="B1341" s="2" t="s">
-        <v>1451</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
@@ -25450,7 +25656,7 @@
         <v>1522</v>
       </c>
       <c r="B1412" s="2" t="s">
-        <v>1522</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.25">
@@ -25458,7 +25664,7 @@
         <v>1523</v>
       </c>
       <c r="B1413" s="2" t="s">
-        <v>1523</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.25">
@@ -26229,12 +26435,12 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="1510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1510" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1510" s="2" t="s">
         <v>1620</v>
       </c>
       <c r="B1510" s="2" t="s">
-        <v>1620</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1511" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26293,12 +26499,12 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="1518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1518" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1518" s="2" t="s">
         <v>1628</v>
       </c>
       <c r="B1518" s="2" t="s">
-        <v>1628</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1519" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26381,12 +26587,12 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="1529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1529" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1529" s="2" t="s">
         <v>1639</v>
       </c>
       <c r="B1529" s="2" t="s">
-        <v>1639</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1530" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -26629,12 +26835,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1560" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1560" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B1560" s="2" t="s">
-        <v>37</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.25">
@@ -27274,7 +27480,7 @@
         <v>111</v>
       </c>
       <c r="B1640" s="2" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1641" spans="1:2" x14ac:dyDescent="0.25">
@@ -33938,7 +34144,7 @@
         <v>2362</v>
       </c>
       <c r="B2473" s="2" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="2474" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -33946,7 +34152,7 @@
         <v>2363</v>
       </c>
       <c r="B2474" s="2" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="2475" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -33954,7 +34160,7 @@
         <v>2364</v>
       </c>
       <c r="B2475" s="2" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="2476" spans="1:2" x14ac:dyDescent="0.25">
@@ -34042,7 +34248,7 @@
         <v>2375</v>
       </c>
       <c r="B2486" s="1" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="2487" spans="1:2" x14ac:dyDescent="0.25">
@@ -34050,7 +34256,7 @@
         <v>2376</v>
       </c>
       <c r="B2487" s="1" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="2488" spans="1:2" x14ac:dyDescent="0.25">
@@ -34058,7 +34264,7 @@
         <v>2377</v>
       </c>
       <c r="B2488" s="1" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="2489" spans="1:2" x14ac:dyDescent="0.25">
@@ -34066,7 +34272,7 @@
         <v>2378</v>
       </c>
       <c r="B2489" s="1" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="2490" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34074,7 +34280,7 @@
         <v>2379</v>
       </c>
       <c r="B2490" s="1" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="2491" spans="1:2" x14ac:dyDescent="0.25">
@@ -34082,7 +34288,7 @@
         <v>2380</v>
       </c>
       <c r="B2491" s="1" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="2492" spans="1:2" x14ac:dyDescent="0.25">
@@ -34090,7 +34296,7 @@
         <v>2381</v>
       </c>
       <c r="B2492" s="1" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="2493" spans="1:2" x14ac:dyDescent="0.25">
@@ -34098,7 +34304,7 @@
         <v>2382</v>
       </c>
       <c r="B2493" s="1" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="2494" spans="1:2" x14ac:dyDescent="0.25">
@@ -34106,7 +34312,7 @@
         <v>2383</v>
       </c>
       <c r="B2494" s="1" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="2495" spans="1:2" x14ac:dyDescent="0.25">
@@ -34114,7 +34320,7 @@
         <v>2384</v>
       </c>
       <c r="B2495" s="1" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="2496" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34122,7 +34328,7 @@
         <v>2385</v>
       </c>
       <c r="B2496" s="1" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="2497" spans="1:2" x14ac:dyDescent="0.25">
@@ -34130,7 +34336,7 @@
         <v>2386</v>
       </c>
       <c r="B2497" s="1" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="2498" spans="1:2" x14ac:dyDescent="0.25">
@@ -34330,7 +34536,7 @@
         <v>2411</v>
       </c>
       <c r="B2522" s="2" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="2523" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34338,7 +34544,7 @@
         <v>2412</v>
       </c>
       <c r="B2523" s="2" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="2524" spans="1:2" x14ac:dyDescent="0.25">
@@ -34346,7 +34552,7 @@
         <v>2413</v>
       </c>
       <c r="B2524" s="2" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="2525" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34354,7 +34560,7 @@
         <v>2414</v>
       </c>
       <c r="B2525" s="2" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="2526" spans="1:2" x14ac:dyDescent="0.25">
@@ -34362,7 +34568,7 @@
         <v>2415</v>
       </c>
       <c r="B2526" s="2" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="2527" spans="1:2" x14ac:dyDescent="0.25">
@@ -34370,7 +34576,7 @@
         <v>2416</v>
       </c>
       <c r="B2527" s="2" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="2528" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34378,7 +34584,7 @@
         <v>2417</v>
       </c>
       <c r="B2528" s="2" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="2529" spans="1:2" x14ac:dyDescent="0.25">
@@ -34386,7 +34592,7 @@
         <v>2418</v>
       </c>
       <c r="B2529" s="2" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="2530" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34394,7 +34600,7 @@
         <v>2419</v>
       </c>
       <c r="B2530" s="2" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="2531" spans="1:2" x14ac:dyDescent="0.25">
@@ -34402,7 +34608,7 @@
         <v>2420</v>
       </c>
       <c r="B2531" s="2" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="2532" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34410,7 +34616,7 @@
         <v>2421</v>
       </c>
       <c r="B2532" s="2" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="2533" spans="1:2" x14ac:dyDescent="0.25">
@@ -34490,7 +34696,7 @@
         <v>2431</v>
       </c>
       <c r="B2542" s="2" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="2543" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34498,7 +34704,7 @@
         <v>2432</v>
       </c>
       <c r="B2543" s="2" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="2544" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34506,7 +34712,7 @@
         <v>2433</v>
       </c>
       <c r="B2544" s="2" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="2545" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -34514,7 +34720,7 @@
         <v>2434</v>
       </c>
       <c r="B2545" s="2" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="2546" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34522,7 +34728,7 @@
         <v>2435</v>
       </c>
       <c r="B2546" s="2" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="2547" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34530,7 +34736,7 @@
         <v>2436</v>
       </c>
       <c r="B2547" s="2" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="2548" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34538,7 +34744,7 @@
         <v>2437</v>
       </c>
       <c r="B2548" s="2" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="2549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34546,7 +34752,7 @@
         <v>2438</v>
       </c>
       <c r="B2549" s="2" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="2550" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34554,7 +34760,7 @@
         <v>2439</v>
       </c>
       <c r="B2550" s="2" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="2551" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -34562,7 +34768,7 @@
         <v>2440</v>
       </c>
       <c r="B2551" s="2" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="2552" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34570,7 +34776,7 @@
         <v>2441</v>
       </c>
       <c r="B2552" s="2" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="2553" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34578,7 +34784,7 @@
         <v>2442</v>
       </c>
       <c r="B2553" s="2" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="2554" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34586,7 +34792,7 @@
         <v>2443</v>
       </c>
       <c r="B2554" s="2" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="2555" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34594,7 +34800,7 @@
         <v>2444</v>
       </c>
       <c r="B2555" s="2" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="2556" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34602,15 +34808,15 @@
         <v>2445</v>
       </c>
       <c r="B2556" s="2" t="s">
-        <v>4465</v>
-      </c>
-    </row>
-    <row r="2557" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2557" s="2" t="s">
         <v>2446</v>
       </c>
       <c r="B2557" s="2" t="s">
-        <v>2446</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="2558" spans="1:2" x14ac:dyDescent="0.25">
@@ -34618,7 +34824,7 @@
         <v>2447</v>
       </c>
       <c r="B2558" s="2" t="s">
-        <v>2447</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="2559" spans="1:2" x14ac:dyDescent="0.25">
@@ -34626,7 +34832,7 @@
         <v>2448</v>
       </c>
       <c r="B2559" s="2" t="s">
-        <v>2448</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="2560" spans="1:2" x14ac:dyDescent="0.25">
@@ -34634,31 +34840,31 @@
         <v>2449</v>
       </c>
       <c r="B2560" s="2" t="s">
-        <v>2449</v>
-      </c>
-    </row>
-    <row r="2561" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2561" s="2" t="s">
         <v>2450</v>
       </c>
       <c r="B2561" s="2" t="s">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="2562" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2562" s="2" t="s">
         <v>2451</v>
       </c>
       <c r="B2562" s="2" t="s">
-        <v>2451</v>
-      </c>
-    </row>
-    <row r="2563" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2563" s="2" t="s">
         <v>2452</v>
       </c>
       <c r="B2563" s="2" t="s">
-        <v>2452</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="2564" spans="1:2" x14ac:dyDescent="0.25">
@@ -34666,7 +34872,7 @@
         <v>2453</v>
       </c>
       <c r="B2564" s="2" t="s">
-        <v>2453</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="2565" spans="1:2" x14ac:dyDescent="0.25">
@@ -34674,7 +34880,7 @@
         <v>2454</v>
       </c>
       <c r="B2565" s="2" t="s">
-        <v>2454</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="2566" spans="1:2" x14ac:dyDescent="0.25">
@@ -34682,23 +34888,23 @@
         <v>2455</v>
       </c>
       <c r="B2566" s="2" t="s">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="2567" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2567" s="2" t="s">
         <v>2456</v>
       </c>
       <c r="B2567" s="2" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2568" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2568" s="2" t="s">
         <v>2457</v>
       </c>
       <c r="B2568" s="2" t="s">
-        <v>2457</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="2569" spans="1:2" x14ac:dyDescent="0.25">
@@ -34714,7 +34920,7 @@
         <v>2459</v>
       </c>
       <c r="B2570" s="2" t="s">
-        <v>2459</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="2571" spans="1:2" x14ac:dyDescent="0.25">
@@ -34725,12 +34931,12 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="2572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2572" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2572" s="2" t="s">
         <v>2461</v>
       </c>
       <c r="B2572" s="2" t="s">
-        <v>2461</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="2573" spans="1:2" x14ac:dyDescent="0.25">
@@ -34746,7 +34952,7 @@
         <v>2463</v>
       </c>
       <c r="B2574" s="2" t="s">
-        <v>2463</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="2575" spans="1:2" x14ac:dyDescent="0.25">
@@ -34762,7 +34968,7 @@
         <v>2465</v>
       </c>
       <c r="B2576" s="2" t="s">
-        <v>2465</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="2577" spans="1:2" x14ac:dyDescent="0.25">
@@ -34786,15 +34992,15 @@
         <v>2468</v>
       </c>
       <c r="B2579" s="2" t="s">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="2580" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2580" s="2" t="s">
         <v>2469</v>
       </c>
       <c r="B2580" s="2" t="s">
-        <v>2469</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="2581" spans="1:2" x14ac:dyDescent="0.25">
@@ -34802,7 +35008,7 @@
         <v>2470</v>
       </c>
       <c r="B2581" s="2" t="s">
-        <v>2470</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="2582" spans="1:2" x14ac:dyDescent="0.25">
@@ -34834,7 +35040,7 @@
         <v>2474</v>
       </c>
       <c r="B2585" s="2" t="s">
-        <v>2474</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="2586" spans="1:2" x14ac:dyDescent="0.25">
@@ -34842,7 +35048,7 @@
         <v>2475</v>
       </c>
       <c r="B2586" s="2" t="s">
-        <v>2475</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="2587" spans="1:2" x14ac:dyDescent="0.25">
@@ -34850,7 +35056,7 @@
         <v>2476</v>
       </c>
       <c r="B2587" s="2" t="s">
-        <v>2476</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="2588" spans="1:2" x14ac:dyDescent="0.25">
@@ -34877,12 +35083,12 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="2591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2591" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2591" s="2" t="s">
         <v>2480</v>
       </c>
       <c r="B2591" s="2" t="s">
-        <v>2480</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="2592" spans="1:2" x14ac:dyDescent="0.25">
@@ -34906,7 +35112,7 @@
         <v>2483</v>
       </c>
       <c r="B2594" s="2" t="s">
-        <v>2483</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="2595" spans="1:2" x14ac:dyDescent="0.25">
@@ -34917,28 +35123,28 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="2596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2596" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2596" s="2" t="s">
         <v>2485</v>
       </c>
       <c r="B2596" s="2" t="s">
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="2597" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2597" s="2" t="s">
         <v>2486</v>
       </c>
       <c r="B2597" s="2" t="s">
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="2598" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2598" s="2" t="s">
         <v>2487</v>
       </c>
       <c r="B2598" s="2" t="s">
-        <v>2487</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="2599" spans="1:2" x14ac:dyDescent="0.25">
@@ -34954,7 +35160,7 @@
         <v>2489</v>
       </c>
       <c r="B2600" s="2" t="s">
-        <v>2489</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="2601" spans="1:2" x14ac:dyDescent="0.25">
@@ -34965,12 +35171,12 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="2602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2602" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2602" s="2" t="s">
         <v>2491</v>
       </c>
       <c r="B2602" s="2" t="s">
-        <v>2491</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="2603" spans="1:2" x14ac:dyDescent="0.25">
@@ -34986,7 +35192,7 @@
         <v>2493</v>
       </c>
       <c r="B2604" s="2" t="s">
-        <v>2493</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="2605" spans="1:2" x14ac:dyDescent="0.25">
@@ -35001,8 +35207,8 @@
       <c r="A2606" s="2" t="s">
         <v>2495</v>
       </c>
-      <c r="B2606" s="2" t="s">
-        <v>2495</v>
+      <c r="B2606" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="2607" spans="1:2" x14ac:dyDescent="0.25">
@@ -35017,8 +35223,8 @@
       <c r="A2608" s="2" t="s">
         <v>2497</v>
       </c>
-      <c r="B2608" s="2" t="s">
-        <v>2497</v>
+      <c r="B2608" t="s">
+        <v>4491</v>
       </c>
     </row>
     <row r="2609" spans="1:2" x14ac:dyDescent="0.25">
@@ -35034,7 +35240,7 @@
         <v>2499</v>
       </c>
       <c r="B2610" s="2" t="s">
-        <v>2499</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="2611" spans="1:2" x14ac:dyDescent="0.25">
@@ -35049,8 +35255,8 @@
       <c r="A2612" s="2" t="s">
         <v>2501</v>
       </c>
-      <c r="B2612" s="2" t="s">
-        <v>2501</v>
+      <c r="B2612" t="s">
+        <v>4490</v>
       </c>
     </row>
     <row r="2613" spans="1:2" x14ac:dyDescent="0.25">
@@ -35065,8 +35271,8 @@
       <c r="A2614" s="2" t="s">
         <v>2503</v>
       </c>
-      <c r="B2614" s="2" t="s">
-        <v>2503</v>
+      <c r="B2614" t="s">
+        <v>4491</v>
       </c>
     </row>
     <row r="2615" spans="1:2" x14ac:dyDescent="0.25">
@@ -35562,7 +35768,7 @@
         <v>2565</v>
       </c>
       <c r="B2676" s="2" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="2677" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -35570,7 +35776,7 @@
         <v>2566</v>
       </c>
       <c r="B2677" s="2" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="2678" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -35578,7 +35784,7 @@
         <v>2567</v>
       </c>
       <c r="B2678" s="2" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="2679" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -35586,7 +35792,7 @@
         <v>2568</v>
       </c>
       <c r="B2679" s="2" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="2680" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -35594,7 +35800,7 @@
         <v>2569</v>
       </c>
       <c r="B2680" s="2" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="2681" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -35602,7 +35808,7 @@
         <v>2570</v>
       </c>
       <c r="B2681" s="2" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="2682" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -35610,7 +35816,7 @@
         <v>2571</v>
       </c>
       <c r="B2682" s="2" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="2683" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -35618,7 +35824,7 @@
         <v>2572</v>
       </c>
       <c r="B2683" s="2" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="2684" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -35626,7 +35832,7 @@
         <v>2573</v>
       </c>
       <c r="B2684" s="2" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="2685" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -35634,7 +35840,7 @@
         <v>2574</v>
       </c>
       <c r="B2685" s="2" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="2686" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -35642,7 +35848,7 @@
         <v>2575</v>
       </c>
       <c r="B2686" s="2" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="2687" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -35650,7 +35856,7 @@
         <v>2576</v>
       </c>
       <c r="B2687" s="2" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="2688" spans="1:2" x14ac:dyDescent="0.25">
@@ -38245,12 +38451,12 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="3012" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3012" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3012" s="2" t="s">
         <v>2901</v>
       </c>
       <c r="B3012" s="2" t="s">
-        <v>2901</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="3013" spans="1:2" x14ac:dyDescent="0.25">
@@ -38293,12 +38499,12 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="3018" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3018" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3018" s="2" t="s">
         <v>2907</v>
       </c>
       <c r="B3018" s="2" t="s">
-        <v>2907</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="3019" spans="1:2" x14ac:dyDescent="0.25">
@@ -43962,7 +44168,7 @@
         <v>3726</v>
       </c>
       <c r="B3726" s="2" t="s">
-        <v>4443</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="3727" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -43970,7 +44176,7 @@
         <v>3727</v>
       </c>
       <c r="B3727" s="1" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="3728" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -43978,7 +44184,7 @@
         <v>3728</v>
       </c>
       <c r="B3728" s="1" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="3729" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -43986,7 +44192,7 @@
         <v>3729</v>
       </c>
       <c r="B3729" s="1" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="3730" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -43994,7 +44200,7 @@
         <v>3730</v>
       </c>
       <c r="B3730" s="1" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="3731" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -44002,7 +44208,7 @@
         <v>3731</v>
       </c>
       <c r="B3731" s="2" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="3732" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -44010,7 +44216,7 @@
         <v>3732</v>
       </c>
       <c r="B3732" s="2" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="3733" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -44018,7 +44224,7 @@
         <v>3733</v>
       </c>
       <c r="B3733" s="2" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="3734" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -44026,7 +44232,7 @@
         <v>3734</v>
       </c>
       <c r="B3734" s="2" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="3735" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -44034,7 +44240,7 @@
         <v>3735</v>
       </c>
       <c r="B3735" s="2" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="3736" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -44042,7 +44248,7 @@
         <v>3736</v>
       </c>
       <c r="B3736" s="2" t="s">
-        <v>4457</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="3737" spans="1:2" x14ac:dyDescent="0.25">
@@ -44069,28 +44275,28 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="3740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3740" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3740" s="2" t="s">
         <v>3740</v>
       </c>
       <c r="B3740" s="2" t="s">
-        <v>3740</v>
-      </c>
-    </row>
-    <row r="3741" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="3741" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3741" s="2" t="s">
         <v>3741</v>
       </c>
       <c r="B3741" s="2" t="s">
-        <v>3741</v>
-      </c>
-    </row>
-    <row r="3742" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="3742" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3742" s="2" t="s">
         <v>3742</v>
       </c>
       <c r="B3742" s="2" t="s">
-        <v>3742</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="3743" spans="1:2" x14ac:dyDescent="0.25">
@@ -44122,7 +44328,7 @@
         <v>3746</v>
       </c>
       <c r="B3746" s="2" t="s">
-        <v>3746</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="3747" spans="1:2" x14ac:dyDescent="0.25">
@@ -44130,23 +44336,23 @@
         <v>3747</v>
       </c>
       <c r="B3747" s="2" t="s">
-        <v>3747</v>
-      </c>
-    </row>
-    <row r="3748" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="3748" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3748" s="2" t="s">
         <v>3748</v>
       </c>
       <c r="B3748" s="2" t="s">
-        <v>3748</v>
-      </c>
-    </row>
-    <row r="3749" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="3749" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3749" s="2" t="s">
         <v>3749</v>
       </c>
       <c r="B3749" s="2" t="s">
-        <v>3749</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="3750" spans="1:2" x14ac:dyDescent="0.25">
@@ -44181,12 +44387,12 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="3754" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3754" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3754" s="2" t="s">
         <v>3754</v>
       </c>
       <c r="B3754" s="2" t="s">
-        <v>3754</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="3755" spans="1:2" x14ac:dyDescent="0.25">
@@ -49494,11 +49700,131 @@
       <c r="F4415" s="1"/>
       <c r="G4415" s="1"/>
     </row>
+    <row r="4416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4416" s="1" t="s">
+        <v>4475</v>
+      </c>
+      <c r="B4416" s="1" t="s">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="4417" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4417" s="1" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B4417" s="1" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="4418" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4418" s="1" t="s">
+        <v>4509</v>
+      </c>
+      <c r="B4418" s="1" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="4419" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4419" s="1" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B4419" s="1" t="s">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="4420" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4420" s="1" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B4420" s="1" t="s">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="4421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4421" s="1" t="s">
+        <v>4515</v>
+      </c>
+      <c r="B4421" s="1" t="s">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="4422" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4422" s="1" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B4422" s="1" t="s">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="4423" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4423" s="1" t="s">
+        <v>4519</v>
+      </c>
+      <c r="B4423" s="1" t="s">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="4424" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4424" s="1" t="s">
+        <v>4522</v>
+      </c>
+      <c r="B4424" s="1" t="s">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="4425" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4425" s="1" t="s">
+        <v>4521</v>
+      </c>
+      <c r="B4425" s="1" t="s">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="4426" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4426" s="1" t="s">
+        <v>4524</v>
+      </c>
+      <c r="B4426" s="1" t="s">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="4427" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4427" s="1" t="s">
+        <v>4526</v>
+      </c>
+      <c r="B4427" s="1" t="s">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="4428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4428" s="1" t="s">
+        <v>4527</v>
+      </c>
+      <c r="B4428" s="1" t="s">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="4429" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4429" s="1" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B4429" s="1" t="s">
+        <v>4531</v>
+      </c>
+    </row>
+    <row r="4430" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4430" s="1" t="s">
+        <v>4530</v>
+      </c>
+      <c r="B4430" s="1" t="s">
+        <v>4532</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:G4415" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A4416:A1048576 A2:A4412">
-    <cfRule type="duplicateValues" dxfId="38" priority="13"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="38" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
     <cfRule type="duplicateValues" dxfId="37" priority="142"/>
@@ -49515,84 +49841,84 @@
   <conditionalFormatting sqref="A145:A208">
     <cfRule type="duplicateValues" dxfId="31" priority="111"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6740:A1048576 A3660:A3834 A209:A1631 A2:A23 A25:A84 A143 A3897:A4195">
-    <cfRule type="duplicateValues" dxfId="30" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="153"/>
+  <conditionalFormatting sqref="A1810:A3318">
+    <cfRule type="duplicateValues" dxfId="30" priority="367"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3421:A3659 A1805:A1809">
+    <cfRule type="duplicateValues" dxfId="29" priority="74"/>
     <cfRule type="duplicateValues" dxfId="28" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3835:A3896">
-    <cfRule type="duplicateValues" dxfId="26" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4416:A1048576 A2:A4412">
+    <cfRule type="duplicateValues" dxfId="26" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4416:A1048576 A2:A4413">
+    <cfRule type="duplicateValues" dxfId="25" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4416:A1048576 A2:A4414">
+    <cfRule type="duplicateValues" dxfId="24" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6740:A1048576 A3660:A3834 A209:A1631 A2:A23 A25:A84 A143 A3897:A4195">
+    <cfRule type="duplicateValues" dxfId="23" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C172 A174:C176 A173 C173 A178:C180 A177 C177 A182:C184 A181 C181 A186:C188 A185 C185 A189 C189 A2473:A2475 C2473:C2475 A190:C204 A2476:C2541 A2542:A2556 C2542:C2556 A2557:C2605 A2607:C2607 A2606 C2606 A2613:C2613 A2612 C2612 A2609:C2611 A2608 C2608 A2614 C2614 A205 C205 A2615:C1048576 A206:C2472">
+    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="25" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B141">
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B145:B172 B174:B176 B178:B180 B182:B184 B186:B188 B190:B208">
-    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
+  <conditionalFormatting sqref="B145:B172 B174:B176 B178:B180 B182:B184 B186:B188 B190:B204 B206:B208">
+    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6740:B1048576 B209:B1631 B2:B23 B25:B84 B143 B3897:B4195 B3660:B3834">
-    <cfRule type="duplicateValues" dxfId="18" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="26"/>
+  <conditionalFormatting sqref="B1155">
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1173">
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1640">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1810:B2472 B2476:B2541 B2557:B2605 B2607 B2613 B2609:B2611 B2615:B3318">
+    <cfRule type="duplicateValues" dxfId="8" priority="369"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3421:B3659 B1805:B1809">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3835:B3896">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6740:B1048576 B2:B23 B25:B84 B143 B3897:B4195 B3660:B3834 B209:B1631">
+    <cfRule type="duplicateValues" dxfId="4" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4413:W4413">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4416:A1048576 A2:A4413">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4414:W4414">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4416:A1048576 A2:A4414">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1810:A3318">
-    <cfRule type="duplicateValues" dxfId="9" priority="367"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1810:B2472 B2476:B2541 B2557:B3318">
-    <cfRule type="duplicateValues" dxfId="8" priority="369"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4415:W4415">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C172 A174:C176 A173 C173 A178:C180 A177 C177 A182:C184 A181 C181 A186:C188 A185 C185 A189 C189 A2473:A2475 C2473:C2475 A190:C2472 A2476:C2541 A2557:C1048576 A2542:A2556 C2542:C2556">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1155">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1173">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B141">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1640">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A588C6-A998-4BEF-8E6E-F82CD64F5627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF50030-5AD8-406D-AF1C-0CEA38C71733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6764" uniqueCount="3495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6765" uniqueCount="3496">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -10528,6 +10528,9 @@
   </si>
   <si>
     <t>Tả Phù tọa thủ tại Mệnh</t>
+  </si>
+  <si>
+    <t>Thái Dương và Cự Môn đồng cung tại Phụ Mẫu</t>
   </si>
 </sst>
 </file>
@@ -11245,10 +11248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G3382"/>
+  <dimension ref="A2:G3383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3085" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3112" sqref="E3112"/>
+    <sheetView tabSelected="1" topLeftCell="A3374" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3381" sqref="D3381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38325,6 +38328,11 @@
         <v>3484</v>
       </c>
     </row>
+    <row r="3383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3383" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:G3367" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
@@ -38336,8 +38344,8 @@
     <cfRule type="duplicateValues" dxfId="36" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="35" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
     <cfRule type="duplicateValues" dxfId="33" priority="116"/>
@@ -38346,84 +38354,84 @@
   <conditionalFormatting sqref="A145:A208">
     <cfRule type="duplicateValues" dxfId="31" priority="111"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1571:A2487">
+    <cfRule type="duplicateValues" dxfId="30" priority="5046"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1642:A1644 A1:C172 A174:C176 A173 C173 A178:C180 A177 C177 A182:C184 A181 C181 A186:C188 A185 C185 A189 C189 C1642:C1644 A190:C204 A1645:C1710 A1711:A1725 C1711:C1725 A1726:C1774 A1776:C1776 A1775 C1775 A1782:C1782 A1781 C1781 A1778:C1780 A1777 C1777 A1783 C1783 A205 C205 A1784:C1048576 A206:C1641">
+    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2590:A2828 A1570">
-    <cfRule type="duplicateValues" dxfId="30" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3004:A3065">
-    <cfRule type="duplicateValues" dxfId="28" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3368:A1048576 A2:A3364">
-    <cfRule type="duplicateValues" dxfId="27" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3368:A1048576 A2:A3365">
-    <cfRule type="duplicateValues" dxfId="26" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3368:A1048576 A2:A3366">
-    <cfRule type="duplicateValues" dxfId="25" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5692:A1048576 A2829:A3003 A209:A1551 A2:A23 A25:A84 A143 A3066:A3147">
-    <cfRule type="duplicateValues" dxfId="24" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="153"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1642:A1644 A1:C172 A174:C176 A173 C173 A178:C180 A177 C177 A182:C184 A181 C181 A186:C188 A185 C185 A189 C189 C1642:C1644 A190:C204 A1645:C1710 A1711:A1725 C1711:C1725 A1726:C1774 A1776:C1776 A1775 C1775 A1782:C1782 A1781 C1781 A1778:C1780 A1777 C1777 A1783 C1783 A205 C205 A1784:C1048576 A206:C1641">
-    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
     <cfRule type="duplicateValues" dxfId="20" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="15" priority="21"/>
     <cfRule type="duplicateValues" dxfId="14" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B172 B174:B176 B178:B180 B182:B184 B186:B188 B190:B204 B206:B208">
-    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1155">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1156">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1553">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1645:B1710 B1571:B1641 B1726:B1774 B1776 B1782 B1778:B1780 B1784:B2487">
-    <cfRule type="duplicateValues" dxfId="9" priority="369"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="369"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2590:B2828 B1570">
-    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
     <cfRule type="duplicateValues" dxfId="7" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3004:B3065">
-    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5692:B1048576 B2:B23 B25:B84 B143 B3066:B3147 B2829:B3003 B209:B1551">
-    <cfRule type="duplicateValues" dxfId="5" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3365:W3365">
-    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3366:W3366">
-    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3367:W3367">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1571:A2487">
-    <cfRule type="duplicateValues" dxfId="0" priority="5046"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D7984C-93A7-49F0-B3AB-BFE7A0C62A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DE1F5A-A0F6-4883-9FA3-1385C7683B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$G$3189</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$G$3202</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6431" uniqueCount="3388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6425" uniqueCount="3389">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -4800,9 +4800,6 @@
     <t>Quan Phù tọa thủ tại Phụ Mẫu</t>
   </si>
   <si>
-    <t>Quý Nhân tọa thủ tại Phụ Mẫu</t>
-  </si>
-  <si>
     <t>Tử Vi tọa thủ tại Tý</t>
   </si>
   <si>
@@ -8976,9 +8973,6 @@
     <t>Văn Tinh tọa thủ tại Phụ Mẫu</t>
   </si>
   <si>
-    <t>Phúc Đức tọa thủ tại Phúc Đức</t>
-  </si>
-  <si>
     <t>(Hóa Khoa - ĐV) tọa thủ tại Phụ Mẫu</t>
   </si>
   <si>
@@ -9016,9 +9010,6 @@
   </si>
   <si>
     <t>Đẩu Quân tọa thủ tại Phụ Mẫu</t>
-  </si>
-  <si>
-    <t>Kình Dương (ĐV) tọa thủ tại Mệnh</t>
   </si>
   <si>
     <t>Kình Dương (ĐV) tọa thủ tại Phụ Mẫu</t>
@@ -10208,6 +10199,18 @@
   </si>
   <si>
     <t>Cha mẹ là những người có sức khỏe, cao lớn, chịu khó làm ăn không nề hà việc lớn bé.</t>
+  </si>
+  <si>
+    <t>Mẹ cha là người thanh lịch, có học thức, hiền lành, đức độ.</t>
+  </si>
+  <si>
+    <t>Cha mẹ sẽ có tí đường công danh, ít nhiều uy lực uy quyền, lời ăn tiếng nói với tổ chức xã hội ở bên ngoài. Cha mẹ cơ bản sẽ khá giả</t>
+  </si>
+  <si>
+    <t>Giúp tăng thọ trường, đem lại may lắm cho cha mẹ. Cha mẹ là người đẹp đẽ, thanh cao, ôn hòa, có tài chính, điền sản, người hay làm phước thiện.</t>
+  </si>
+  <si>
+    <t>Cha mẹ có chức vị, có học thức và bằng cấp cao. Cha mẹ hay được khen thưởng, vinh danh, thăng cấp. Người có nhiều bằng sắc, giấy công nhận. Con cháu sau này cũng sẽ nhiều bằng cấp, học vị cao.</t>
   </si>
 </sst>
 </file>
@@ -10925,10 +10928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G3205"/>
+  <dimension ref="A2:G3202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1590" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1602" sqref="C1602"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10951,7 +10954,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -10959,7 +10962,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -10967,7 +10970,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -10975,7 +10978,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -10983,7 +10986,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -11004,10 +11007,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12015,7 +12018,7 @@
         <v>157</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -12055,7 +12058,7 @@
         <v>162</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -12095,7 +12098,7 @@
         <v>167</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -12135,7 +12138,7 @@
         <v>172</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -12175,7 +12178,7 @@
         <v>177</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -12311,7 +12314,7 @@
         <v>194</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12343,7 +12346,7 @@
         <v>198</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12375,7 +12378,7 @@
         <v>202</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12407,7 +12410,7 @@
         <v>206</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12439,7 +12442,7 @@
         <v>210</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12567,7 +12570,7 @@
         <v>226</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12799,7 +12802,7 @@
         <v>255</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12919,7 +12922,7 @@
         <v>270</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12935,7 +12938,7 @@
         <v>272</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14303,7 +14306,7 @@
         <v>438</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14343,7 +14346,7 @@
         <v>443</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -14543,7 +14546,7 @@
         <v>468</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16271,7 +16274,7 @@
         <v>683</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="669" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16279,7 +16282,7 @@
         <v>684</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -18799,7 +18802,7 @@
         <v>998</v>
       </c>
       <c r="B984" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="985" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18847,7 +18850,7 @@
         <v>1004</v>
       </c>
       <c r="B990" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="991" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18919,7 +18922,7 @@
         <v>1013</v>
       </c>
       <c r="B999" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="1000" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18975,7 +18978,7 @@
         <v>1020</v>
       </c>
       <c r="B1006" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="1007" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20151,7 +20154,7 @@
         <v>1167</v>
       </c>
       <c r="B1153" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.25">
@@ -20159,7 +20162,7 @@
         <v>1168</v>
       </c>
       <c r="B1154" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="1155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21047,7 +21050,7 @@
         <v>1276</v>
       </c>
       <c r="B1265" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="1266" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21055,7 +21058,7 @@
         <v>1277</v>
       </c>
       <c r="B1266" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="1267" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21495,7 +21498,7 @@
         <v>1332</v>
       </c>
       <c r="B1321" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.25">
@@ -22063,7 +22066,7 @@
         <v>1403</v>
       </c>
       <c r="B1392" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.25">
@@ -22071,7 +22074,7 @@
         <v>1404</v>
       </c>
       <c r="B1393" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.25">
@@ -22847,7 +22850,7 @@
         <v>1501</v>
       </c>
       <c r="B1490" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="1491" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -22911,7 +22914,7 @@
         <v>1509</v>
       </c>
       <c r="B1498" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="1499" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -22999,7 +23002,7 @@
         <v>1520</v>
       </c>
       <c r="B1509" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="1510" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -23175,7 +23178,7 @@
         <v>12</v>
       </c>
       <c r="B1531" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="1532" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -23183,7 +23186,7 @@
         <v>13</v>
       </c>
       <c r="B1532" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="1533" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -23191,7 +23194,7 @@
         <v>14</v>
       </c>
       <c r="B1533" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="1534" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -23199,10 +23202,10 @@
         <v>15</v>
       </c>
       <c r="B1534" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="C1534" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="1535" spans="1:3" x14ac:dyDescent="0.25">
@@ -23210,10 +23213,10 @@
         <v>16</v>
       </c>
       <c r="B1535" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="C1535" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="1536" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -23221,7 +23224,7 @@
         <v>17</v>
       </c>
       <c r="B1536" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="1537" spans="1:3" x14ac:dyDescent="0.25">
@@ -23237,7 +23240,7 @@
         <v>19</v>
       </c>
       <c r="B1538" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="1539" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -23245,7 +23248,7 @@
         <v>20</v>
       </c>
       <c r="B1539" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="1540" spans="1:3" x14ac:dyDescent="0.25">
@@ -23261,7 +23264,7 @@
         <v>22</v>
       </c>
       <c r="B1541" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="1542" spans="1:3" x14ac:dyDescent="0.25">
@@ -23293,7 +23296,7 @@
         <v>1543</v>
       </c>
       <c r="B1545" s="1" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="1546" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -23301,7 +23304,7 @@
         <v>1544</v>
       </c>
       <c r="B1546" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="1547" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -23309,7 +23312,7 @@
         <v>1545</v>
       </c>
       <c r="B1547" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="1548" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -23317,7 +23320,7 @@
         <v>1546</v>
       </c>
       <c r="B1548" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="1549" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -23325,7 +23328,7 @@
         <v>1547</v>
       </c>
       <c r="B1549" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="1550" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -23333,7 +23336,7 @@
         <v>1548</v>
       </c>
       <c r="B1550" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="1551" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -23341,7 +23344,7 @@
         <v>1549</v>
       </c>
       <c r="B1551" s="1" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="1552" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -23349,10 +23352,10 @@
         <v>1550</v>
       </c>
       <c r="B1552" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="C1552" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="1553" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -23360,7 +23363,7 @@
         <v>1551</v>
       </c>
       <c r="B1553" s="1" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="1554" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -23368,7 +23371,7 @@
         <v>1552</v>
       </c>
       <c r="B1554" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="1555" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -23376,7 +23379,7 @@
         <v>1553</v>
       </c>
       <c r="B1555" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="1556" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -23384,7 +23387,7 @@
         <v>1554</v>
       </c>
       <c r="B1556" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="1557" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -23392,7 +23395,7 @@
         <v>1555</v>
       </c>
       <c r="B1557" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="1558" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -23400,7 +23403,7 @@
         <v>1556</v>
       </c>
       <c r="B1558" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="1559" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -23408,10 +23411,10 @@
         <v>1557</v>
       </c>
       <c r="B1559" s="1" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="C1559" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="1560" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -23419,7 +23422,7 @@
         <v>1558</v>
       </c>
       <c r="B1560" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="1561" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -23427,7 +23430,7 @@
         <v>1559</v>
       </c>
       <c r="B1561" s="1" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="1562" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -23435,13 +23438,13 @@
         <v>1560</v>
       </c>
       <c r="B1562" s="1" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="C1562" s="1" t="s">
+        <v>3322</v>
+      </c>
+      <c r="D1562" s="1" t="s">
         <v>3325</v>
-      </c>
-      <c r="D1562" s="1" t="s">
-        <v>3328</v>
       </c>
     </row>
     <row r="1563" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -23449,10 +23452,10 @@
         <v>1561</v>
       </c>
       <c r="B1563" s="1" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="C1563" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="1564" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -23460,7 +23463,7 @@
         <v>1562</v>
       </c>
       <c r="B1564" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="1565" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -23468,7 +23471,7 @@
         <v>1563</v>
       </c>
       <c r="B1565" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="1566" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -23476,7 +23479,7 @@
         <v>1564</v>
       </c>
       <c r="B1566" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="1567" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -23484,7 +23487,7 @@
         <v>1565</v>
       </c>
       <c r="B1567" s="1" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="1568" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -23492,10 +23495,10 @@
         <v>1566</v>
       </c>
       <c r="B1568" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C1568" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="1569" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -23503,10 +23506,10 @@
         <v>1567</v>
       </c>
       <c r="B1569" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="C1569" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="1570" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -23514,10 +23517,10 @@
         <v>1568</v>
       </c>
       <c r="B1570" s="1" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="C1570" s="1" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1571" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -23525,10 +23528,10 @@
         <v>1569</v>
       </c>
       <c r="B1571" s="1" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="C1571" s="1" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="1572" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -23536,7 +23539,7 @@
         <v>1570</v>
       </c>
       <c r="B1572" s="1" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="1573" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -23544,7 +23547,7 @@
         <v>1571</v>
       </c>
       <c r="B1573" s="1" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="1574" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -23552,7 +23555,7 @@
         <v>1572</v>
       </c>
       <c r="B1574" s="1" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="1575" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -23560,7 +23563,7 @@
         <v>1573</v>
       </c>
       <c r="B1575" s="1" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="1576" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -23568,10 +23571,10 @@
         <v>1574</v>
       </c>
       <c r="B1576" s="1" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="C1576" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="1577" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -23579,10 +23582,10 @@
         <v>1575</v>
       </c>
       <c r="B1577" s="1" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="C1577" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="1578" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -23590,10 +23593,10 @@
         <v>1576</v>
       </c>
       <c r="B1578" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="C1578" s="1" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="1579" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -23601,7 +23604,7 @@
         <v>1577</v>
       </c>
       <c r="B1579" s="1" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="1580" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -23609,7 +23612,7 @@
         <v>1579</v>
       </c>
       <c r="B1580" s="1" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="1581" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -23617,7 +23620,7 @@
         <v>1580</v>
       </c>
       <c r="B1581" s="1" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="1582" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -23625,10 +23628,10 @@
         <v>1581</v>
       </c>
       <c r="B1582" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="C1582" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="1583" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -23636,10 +23639,10 @@
         <v>1582</v>
       </c>
       <c r="B1583" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="C1583" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="1584" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -23647,10 +23650,10 @@
         <v>1583</v>
       </c>
       <c r="B1584" s="1" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="C1584" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="1585" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -23658,7 +23661,7 @@
         <v>1584</v>
       </c>
       <c r="B1585" s="1" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="1586" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -23666,7 +23669,7 @@
         <v>1585</v>
       </c>
       <c r="B1586" s="1" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="1587" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -23674,23 +23677,23 @@
         <v>1586</v>
       </c>
       <c r="B1587" s="1" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="1588" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1588" s="2" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="B1588" s="1" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="1589" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1589" s="2" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="B1589" s="1" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="1590" spans="1:3" x14ac:dyDescent="0.25">
@@ -23698,7 +23701,7 @@
         <v>1589</v>
       </c>
       <c r="B1590" s="1" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="1591" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -23706,74 +23709,74 @@
         <v>1588</v>
       </c>
       <c r="B1591" s="1" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="1592" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1592" s="2" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="B1592" s="1" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="1593" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1593" s="2" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="B1593" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="C1593" s="1" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="1594" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1594" s="2" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B1594" s="1" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1595" s="2" t="s">
         <v>2860</v>
       </c>
-      <c r="B1594" s="1" t="s">
-        <v>3387</v>
-      </c>
-    </row>
-    <row r="1595" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1595" s="2" t="s">
+      <c r="B1595" s="1" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1596" s="2" t="s">
         <v>2861</v>
       </c>
-      <c r="B1595" s="1" t="s">
-        <v>2861</v>
-      </c>
-    </row>
-    <row r="1596" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1596" s="2" t="s">
-        <v>2862</v>
-      </c>
       <c r="B1596" s="1" t="s">
-        <v>2862</v>
-      </c>
-    </row>
-    <row r="1597" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1597" s="2" t="s">
         <v>1587</v>
       </c>
       <c r="B1597" s="1" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="1598" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1598" s="2" t="s">
-        <v>1590</v>
+        <v>2862</v>
       </c>
       <c r="B1598" s="1" t="s">
-        <v>1590</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="1599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1599" s="2" t="s">
-        <v>2863</v>
+        <v>1590</v>
       </c>
       <c r="B1599" s="1" t="s">
-        <v>2863</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="1600" spans="1:3" x14ac:dyDescent="0.25">
@@ -23781,7 +23784,7 @@
         <v>1591</v>
       </c>
       <c r="B1600" s="1" t="s">
-        <v>3199</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1601" spans="1:2" x14ac:dyDescent="0.25">
@@ -23821,7 +23824,7 @@
         <v>1596</v>
       </c>
       <c r="B1605" s="1" t="s">
-        <v>1596</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.25">
@@ -23829,7 +23832,7 @@
         <v>1597</v>
       </c>
       <c r="B1606" s="1" t="s">
-        <v>3198</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1607" spans="1:2" x14ac:dyDescent="0.25">
@@ -23909,7 +23912,7 @@
         <v>1607</v>
       </c>
       <c r="B1616" s="1" t="s">
-        <v>1607</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="1617" spans="1:2" x14ac:dyDescent="0.25">
@@ -23917,7 +23920,7 @@
         <v>1608</v>
       </c>
       <c r="B1617" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="1618" spans="1:2" x14ac:dyDescent="0.25">
@@ -23925,7 +23928,7 @@
         <v>1609</v>
       </c>
       <c r="B1618" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="1619" spans="1:2" x14ac:dyDescent="0.25">
@@ -23933,7 +23936,7 @@
         <v>1610</v>
       </c>
       <c r="B1619" s="1" t="s">
-        <v>3199</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1620" spans="1:2" x14ac:dyDescent="0.25">
@@ -23952,12 +23955,12 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="1622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1622" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1622" s="2" t="s">
         <v>1613</v>
       </c>
       <c r="B1622" s="1" t="s">
-        <v>1613</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="1623" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -23965,7 +23968,7 @@
         <v>1614</v>
       </c>
       <c r="B1623" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="1624" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -23973,15 +23976,15 @@
         <v>1615</v>
       </c>
       <c r="B1624" s="1" t="s">
-        <v>3226</v>
-      </c>
-    </row>
-    <row r="1625" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1625" s="2" t="s">
         <v>1616</v>
       </c>
       <c r="B1625" s="1" t="s">
-        <v>3226</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1626" spans="1:2" x14ac:dyDescent="0.25">
@@ -24057,11 +24060,11 @@
       </c>
     </row>
     <row r="1635" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1635" s="2" t="s">
+      <c r="A1635" s="1" t="s">
         <v>1626</v>
       </c>
       <c r="B1635" s="1" t="s">
-        <v>1626</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="1636" spans="1:2" x14ac:dyDescent="0.25">
@@ -24069,7 +24072,7 @@
         <v>1627</v>
       </c>
       <c r="B1636" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="1637" spans="1:2" x14ac:dyDescent="0.25">
@@ -24077,7 +24080,7 @@
         <v>1628</v>
       </c>
       <c r="B1637" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="1638" spans="1:2" x14ac:dyDescent="0.25">
@@ -24085,23 +24088,23 @@
         <v>1629</v>
       </c>
       <c r="B1638" s="1" t="s">
-        <v>3217</v>
-      </c>
-    </row>
-    <row r="1639" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1639" s="1" t="s">
         <v>1630</v>
       </c>
       <c r="B1639" s="1" t="s">
-        <v>3217</v>
-      </c>
-    </row>
-    <row r="1640" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1640" s="1" t="s">
         <v>1631</v>
       </c>
       <c r="B1640" s="1" t="s">
-        <v>3218</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="1641" spans="1:2" x14ac:dyDescent="0.25">
@@ -24109,7 +24112,7 @@
         <v>1632</v>
       </c>
       <c r="B1641" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="1642" spans="1:2" x14ac:dyDescent="0.25">
@@ -24117,7 +24120,7 @@
         <v>1633</v>
       </c>
       <c r="B1642" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="1643" spans="1:2" x14ac:dyDescent="0.25">
@@ -24125,7 +24128,7 @@
         <v>1634</v>
       </c>
       <c r="B1643" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="1644" spans="1:2" x14ac:dyDescent="0.25">
@@ -24133,31 +24136,31 @@
         <v>1635</v>
       </c>
       <c r="B1644" s="1" t="s">
-        <v>3217</v>
-      </c>
-    </row>
-    <row r="1645" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1645" s="1" t="s">
         <v>1636</v>
       </c>
       <c r="B1645" s="1" t="s">
-        <v>3217</v>
-      </c>
-    </row>
-    <row r="1646" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1646" s="1" t="s">
         <v>1637</v>
       </c>
       <c r="B1646" s="1" t="s">
-        <v>3218</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="1647" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1647" s="1" t="s">
+      <c r="A1647" s="2" t="s">
         <v>1638</v>
       </c>
       <c r="B1647" s="1" t="s">
-        <v>3217</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1648" spans="1:2" x14ac:dyDescent="0.25">
@@ -24181,10 +24184,10 @@
         <v>1641</v>
       </c>
       <c r="B1650" s="1" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="1651" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1651" s="2" t="s">
         <v>1642</v>
       </c>
@@ -24192,20 +24195,20 @@
         <v>3210</v>
       </c>
     </row>
-    <row r="1652" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1652" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1652" s="2" t="s">
         <v>1643</v>
       </c>
       <c r="B1652" s="1" t="s">
-        <v>3213</v>
-      </c>
-    </row>
-    <row r="1653" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1653" s="2" t="s">
         <v>1644</v>
       </c>
       <c r="B1653" s="1" t="s">
-        <v>3212</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1654" spans="1:2" x14ac:dyDescent="0.25">
@@ -24229,31 +24232,31 @@
         <v>1647</v>
       </c>
       <c r="B1656" s="1" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1657" s="2" t="s">
         <v>1648</v>
       </c>
       <c r="B1657" s="1" t="s">
-        <v>3211</v>
-      </c>
-    </row>
-    <row r="1658" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1658" s="2" t="s">
         <v>1649</v>
       </c>
       <c r="B1658" s="1" t="s">
-        <v>3213</v>
-      </c>
-    </row>
-    <row r="1659" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1659" s="2" t="s">
         <v>1650</v>
       </c>
       <c r="B1659" s="1" t="s">
-        <v>3212</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1660" spans="1:2" x14ac:dyDescent="0.25">
@@ -24264,20 +24267,20 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="1661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1661" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1661" s="2" t="s">
         <v>1652</v>
       </c>
       <c r="B1661" s="1" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="1662" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1662" s="2" t="s">
         <v>1653</v>
       </c>
       <c r="B1662" s="1" t="s">
-        <v>3209</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1663" spans="1:2" x14ac:dyDescent="0.25">
@@ -24312,20 +24315,20 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="1667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1667" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1667" s="2" t="s">
         <v>1658</v>
       </c>
       <c r="B1667" s="1" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="1668" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1668" s="2" t="s">
         <v>1659</v>
       </c>
       <c r="B1668" s="1" t="s">
-        <v>3209</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1669" spans="1:2" x14ac:dyDescent="0.25">
@@ -24349,39 +24352,39 @@
         <v>1662</v>
       </c>
       <c r="B1671" s="1" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="1672" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1672" s="2" t="s">
         <v>1663</v>
       </c>
       <c r="B1672" s="1" t="s">
-        <v>3232</v>
-      </c>
-    </row>
-    <row r="1673" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1673" s="2" t="s">
         <v>1664</v>
       </c>
       <c r="B1673" s="1" t="s">
-        <v>3234</v>
-      </c>
-    </row>
-    <row r="1674" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1674" s="2" t="s">
         <v>1665</v>
       </c>
       <c r="B1674" s="1" t="s">
-        <v>3232</v>
-      </c>
-    </row>
-    <row r="1675" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1675" s="2" t="s">
         <v>1666</v>
       </c>
       <c r="B1675" s="1" t="s">
-        <v>3234</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="1676" spans="1:2" x14ac:dyDescent="0.25">
@@ -24389,55 +24392,55 @@
         <v>1667</v>
       </c>
       <c r="B1676" s="1" t="s">
-        <v>3232</v>
-      </c>
-    </row>
-    <row r="1677" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1677" s="2" t="s">
         <v>1668</v>
       </c>
       <c r="B1677" s="1" t="s">
-        <v>3232</v>
-      </c>
-    </row>
-    <row r="1678" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1678" s="2" t="s">
         <v>1669</v>
       </c>
       <c r="B1678" s="1" t="s">
-        <v>3234</v>
-      </c>
-    </row>
-    <row r="1679" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1679" s="2" t="s">
         <v>1670</v>
       </c>
       <c r="B1679" s="1" t="s">
-        <v>3232</v>
-      </c>
-    </row>
-    <row r="1680" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1680" s="2" t="s">
         <v>1671</v>
       </c>
       <c r="B1680" s="1" t="s">
-        <v>3234</v>
-      </c>
-    </row>
-    <row r="1681" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1681" s="2" t="s">
         <v>1672</v>
       </c>
       <c r="B1681" s="1" t="s">
-        <v>3232</v>
-      </c>
-    </row>
-    <row r="1682" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1682" s="2" t="s">
         <v>1673</v>
       </c>
       <c r="B1682" s="1" t="s">
-        <v>3233</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1683" spans="1:2" x14ac:dyDescent="0.25">
@@ -24504,12 +24507,12 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="1691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1691" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1691" s="2" t="s">
         <v>1682</v>
       </c>
       <c r="B1691" s="1" t="s">
-        <v>1682</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="1692" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24517,7 +24520,7 @@
         <v>1683</v>
       </c>
       <c r="B1692" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="1693" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24525,23 +24528,23 @@
         <v>1684</v>
       </c>
       <c r="B1693" s="1" t="s">
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="1694" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1694" s="2" t="s">
         <v>1685</v>
       </c>
       <c r="B1694" s="1" t="s">
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1695" s="2" t="s">
         <v>1686</v>
       </c>
       <c r="B1695" s="1" t="s">
-        <v>3241</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="1696" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24549,7 +24552,7 @@
         <v>1687</v>
       </c>
       <c r="B1696" s="1" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="1697" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24557,7 +24560,7 @@
         <v>1688</v>
       </c>
       <c r="B1697" s="1" t="s">
-        <v>3240</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="1698" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24565,7 +24568,7 @@
         <v>1689</v>
       </c>
       <c r="B1698" s="1" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="1699" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24573,23 +24576,23 @@
         <v>1690</v>
       </c>
       <c r="B1699" s="1" t="s">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="1700" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1700" s="2" t="s">
         <v>1691</v>
       </c>
       <c r="B1700" s="1" t="s">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1701" s="2" t="s">
         <v>1692</v>
       </c>
       <c r="B1701" s="1" t="s">
-        <v>3241</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="1702" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24597,7 +24600,7 @@
         <v>1693</v>
       </c>
       <c r="B1702" s="1" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="1703" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24605,7 +24608,7 @@
         <v>1694</v>
       </c>
       <c r="B1703" s="1" t="s">
-        <v>3240</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="1704" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24613,7 +24616,7 @@
         <v>1695</v>
       </c>
       <c r="B1704" s="1" t="s">
-        <v>3238</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="1705" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24621,23 +24624,23 @@
         <v>1696</v>
       </c>
       <c r="B1705" s="1" t="s">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="1706" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1706" s="2" t="s">
         <v>1697</v>
       </c>
       <c r="B1706" s="1" t="s">
-        <v>3238</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1707" s="2" t="s">
         <v>1698</v>
       </c>
       <c r="B1707" s="1" t="s">
-        <v>3243</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="1708" spans="1:2" x14ac:dyDescent="0.25">
@@ -24645,7 +24648,7 @@
         <v>1699</v>
       </c>
       <c r="B1708" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="1709" spans="1:2" x14ac:dyDescent="0.25">
@@ -24653,10 +24656,10 @@
         <v>1700</v>
       </c>
       <c r="B1709" s="1" t="s">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="1710" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1710" s="2" t="s">
         <v>1701</v>
       </c>
@@ -24669,7 +24672,7 @@
         <v>1702</v>
       </c>
       <c r="B1711" s="1" t="s">
-        <v>3245</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="1712" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -24677,15 +24680,15 @@
         <v>1703</v>
       </c>
       <c r="B1712" s="1" t="s">
-        <v>3244</v>
-      </c>
-    </row>
-    <row r="1713" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1713" s="2" t="s">
         <v>1704</v>
       </c>
       <c r="B1713" s="1" t="s">
-        <v>3243</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="1714" spans="1:2" x14ac:dyDescent="0.25">
@@ -24693,7 +24696,7 @@
         <v>1705</v>
       </c>
       <c r="B1714" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="1715" spans="1:2" x14ac:dyDescent="0.25">
@@ -24701,10 +24704,10 @@
         <v>1706</v>
       </c>
       <c r="B1715" s="1" t="s">
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="1716" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1716" s="2" t="s">
         <v>1707</v>
       </c>
@@ -24717,15 +24720,15 @@
         <v>1708</v>
       </c>
       <c r="B1717" s="1" t="s">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="1718" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1718" s="2" t="s">
         <v>1709</v>
       </c>
       <c r="B1718" s="1" t="s">
-        <v>3243</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1719" spans="1:2" x14ac:dyDescent="0.25">
@@ -24733,7 +24736,7 @@
         <v>1710</v>
       </c>
       <c r="B1719" s="1" t="s">
-        <v>1710</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="1720" spans="1:2" x14ac:dyDescent="0.25">
@@ -24741,23 +24744,23 @@
         <v>1711</v>
       </c>
       <c r="B1720" s="1" t="s">
-        <v>3251</v>
-      </c>
-    </row>
-    <row r="1721" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1721" s="2" t="s">
         <v>1712</v>
       </c>
       <c r="B1721" s="1" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="1722" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1722" s="2" t="s">
         <v>1713</v>
       </c>
       <c r="B1722" s="1" t="s">
-        <v>3252</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1723" spans="1:2" x14ac:dyDescent="0.25">
@@ -24765,7 +24768,7 @@
         <v>1714</v>
       </c>
       <c r="B1723" s="1" t="s">
-        <v>1714</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="1724" spans="1:2" x14ac:dyDescent="0.25">
@@ -24773,7 +24776,7 @@
         <v>1715</v>
       </c>
       <c r="B1724" s="1" t="s">
-        <v>3251</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1725" spans="1:2" x14ac:dyDescent="0.25">
@@ -24781,7 +24784,7 @@
         <v>1716</v>
       </c>
       <c r="B1725" s="1" t="s">
-        <v>1716</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="1726" spans="1:2" x14ac:dyDescent="0.25">
@@ -24789,7 +24792,7 @@
         <v>1717</v>
       </c>
       <c r="B1726" s="1" t="s">
-        <v>3251</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1727" spans="1:2" x14ac:dyDescent="0.25">
@@ -24805,23 +24808,23 @@
         <v>1719</v>
       </c>
       <c r="B1728" s="1" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="1729" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1729" s="2" t="s">
         <v>1720</v>
       </c>
       <c r="B1729" s="1" t="s">
-        <v>3251</v>
-      </c>
-    </row>
-    <row r="1730" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1730" s="2" t="s">
         <v>1721</v>
       </c>
       <c r="B1730" s="1" t="s">
-        <v>3255</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="1731" spans="1:2" x14ac:dyDescent="0.25">
@@ -24829,7 +24832,7 @@
         <v>1722</v>
       </c>
       <c r="B1731" s="1" t="s">
-        <v>3254</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1732" spans="1:2" x14ac:dyDescent="0.25">
@@ -24853,7 +24856,7 @@
         <v>1725</v>
       </c>
       <c r="B1734" s="1" t="s">
-        <v>1725</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="1735" spans="1:2" x14ac:dyDescent="0.25">
@@ -24861,7 +24864,7 @@
         <v>1726</v>
       </c>
       <c r="B1735" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="1736" spans="1:2" x14ac:dyDescent="0.25">
@@ -24869,7 +24872,7 @@
         <v>1727</v>
       </c>
       <c r="B1736" s="1" t="s">
-        <v>3253</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="1737" spans="1:2" x14ac:dyDescent="0.25">
@@ -24877,7 +24880,7 @@
         <v>1728</v>
       </c>
       <c r="B1737" s="1" t="s">
-        <v>3254</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1738" spans="1:2" x14ac:dyDescent="0.25">
@@ -24896,20 +24899,20 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="1740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1740" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1740" s="2" t="s">
         <v>1731</v>
       </c>
       <c r="B1740" s="1" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="1741" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1741" s="2" t="s">
         <v>1732</v>
       </c>
       <c r="B1741" s="1" t="s">
-        <v>3255</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1742" spans="1:2" x14ac:dyDescent="0.25">
@@ -24925,7 +24928,7 @@
         <v>1734</v>
       </c>
       <c r="B1743" s="1" t="s">
-        <v>1734</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="1744" spans="1:2" x14ac:dyDescent="0.25">
@@ -24933,23 +24936,23 @@
         <v>1735</v>
       </c>
       <c r="B1744" s="1" t="s">
-        <v>3258</v>
-      </c>
-    </row>
-    <row r="1745" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1745" s="2" t="s">
         <v>1736</v>
       </c>
       <c r="B1745" s="1" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="1746" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1746" s="2" t="s">
         <v>1737</v>
       </c>
       <c r="B1746" s="1" t="s">
-        <v>3260</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="1747" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24957,15 +24960,15 @@
         <v>1738</v>
       </c>
       <c r="B1747" s="1" t="s">
-        <v>3259</v>
-      </c>
-    </row>
-    <row r="1748" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1748" s="2" t="s">
         <v>1739</v>
       </c>
       <c r="B1748" s="1" t="s">
-        <v>3259</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1749" spans="1:2" x14ac:dyDescent="0.25">
@@ -24973,7 +24976,7 @@
         <v>1740</v>
       </c>
       <c r="B1749" s="1" t="s">
-        <v>1740</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="1750" spans="1:2" x14ac:dyDescent="0.25">
@@ -24981,23 +24984,23 @@
         <v>1741</v>
       </c>
       <c r="B1750" s="1" t="s">
-        <v>3258</v>
-      </c>
-    </row>
-    <row r="1751" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1751" s="2" t="s">
         <v>1742</v>
       </c>
       <c r="B1751" s="1" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1752" s="2" t="s">
         <v>1743</v>
       </c>
       <c r="B1752" s="1" t="s">
-        <v>3260</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1753" spans="1:2" x14ac:dyDescent="0.25">
@@ -25005,7 +25008,7 @@
         <v>1744</v>
       </c>
       <c r="B1753" s="1" t="s">
-        <v>1744</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="1754" spans="1:2" x14ac:dyDescent="0.25">
@@ -25013,39 +25016,39 @@
         <v>1745</v>
       </c>
       <c r="B1754" s="1" t="s">
-        <v>3263</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1755" s="2" t="s">
         <v>1746</v>
       </c>
-      <c r="B1755" s="1" t="s">
-        <v>1746</v>
+      <c r="B1755" s="3" t="s">
+        <v>3261</v>
       </c>
     </row>
     <row r="1756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1756" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="B1756" s="3" t="s">
-        <v>3264</v>
+      <c r="B1756" s="1" t="s">
+        <v>1747</v>
       </c>
     </row>
     <row r="1757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1757" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="B1757" s="1" t="s">
-        <v>1748</v>
+      <c r="B1757" s="3" t="s">
+        <v>3262</v>
       </c>
     </row>
     <row r="1758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1758" s="2" t="s">
         <v>1749</v>
       </c>
-      <c r="B1758" s="3" t="s">
-        <v>3265</v>
+      <c r="B1758" s="1" t="s">
+        <v>1749</v>
       </c>
     </row>
     <row r="1759" spans="1:2" x14ac:dyDescent="0.25">
@@ -25053,7 +25056,7 @@
         <v>1750</v>
       </c>
       <c r="B1759" s="1" t="s">
-        <v>1750</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="1760" spans="1:2" x14ac:dyDescent="0.25">
@@ -25061,39 +25064,39 @@
         <v>1751</v>
       </c>
       <c r="B1760" s="1" t="s">
-        <v>3263</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1761" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="B1761" s="1" t="s">
-        <v>1752</v>
+      <c r="B1761" s="3" t="s">
+        <v>3261</v>
       </c>
     </row>
     <row r="1762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1762" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="B1762" s="3" t="s">
-        <v>3264</v>
+      <c r="B1762" s="1" t="s">
+        <v>1753</v>
       </c>
     </row>
     <row r="1763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1763" s="2" t="s">
         <v>1754</v>
       </c>
-      <c r="B1763" s="1" t="s">
-        <v>1754</v>
+      <c r="B1763" s="3" t="s">
+        <v>3262</v>
       </c>
     </row>
     <row r="1764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1764" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="B1764" s="3" t="s">
-        <v>3265</v>
+      <c r="B1764" s="1" t="s">
+        <v>1755</v>
       </c>
     </row>
     <row r="1765" spans="1:2" x14ac:dyDescent="0.25">
@@ -25576,12 +25579,12 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="1825" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1825" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1825" s="2" t="s">
         <v>1816</v>
       </c>
       <c r="B1825" s="1" t="s">
-        <v>1816</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="1826" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25589,7 +25592,7 @@
         <v>1817</v>
       </c>
       <c r="B1826" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="1827" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25597,7 +25600,7 @@
         <v>1818</v>
       </c>
       <c r="B1827" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="1828" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25605,7 +25608,7 @@
         <v>1819</v>
       </c>
       <c r="B1828" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="1829" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25613,7 +25616,7 @@
         <v>1820</v>
       </c>
       <c r="B1829" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="1830" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25621,7 +25624,7 @@
         <v>1821</v>
       </c>
       <c r="B1830" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="1831" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25629,7 +25632,7 @@
         <v>1822</v>
       </c>
       <c r="B1831" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="1832" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25637,7 +25640,7 @@
         <v>1823</v>
       </c>
       <c r="B1832" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="1833" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25645,7 +25648,7 @@
         <v>1824</v>
       </c>
       <c r="B1833" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="1834" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25653,7 +25656,7 @@
         <v>1825</v>
       </c>
       <c r="B1834" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="1835" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25661,7 +25664,7 @@
         <v>1826</v>
       </c>
       <c r="B1835" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="1836" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25669,15 +25672,15 @@
         <v>1827</v>
       </c>
       <c r="B1836" s="1" t="s">
-        <v>3235</v>
-      </c>
-    </row>
-    <row r="1837" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1837" s="2" t="s">
         <v>1828</v>
       </c>
       <c r="B1837" s="1" t="s">
-        <v>3235</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1838" spans="1:2" x14ac:dyDescent="0.25">
@@ -28264,20 +28267,20 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="2161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2161" s="2" t="s">
         <v>2152</v>
       </c>
       <c r="B2161" s="1" t="s">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="2162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2162" s="2" t="s">
         <v>2153</v>
       </c>
       <c r="B2162" s="1" t="s">
-        <v>3246</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="2163" spans="1:2" x14ac:dyDescent="0.25">
@@ -28312,20 +28315,20 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="2167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2167" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2167" s="2" t="s">
         <v>2158</v>
       </c>
       <c r="B2167" s="1" t="s">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="2168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2168" s="2" t="s">
         <v>2159</v>
       </c>
       <c r="B2168" s="1" t="s">
-        <v>3256</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="2169" spans="1:2" x14ac:dyDescent="0.25">
@@ -28529,7 +28532,7 @@
       </c>
     </row>
     <row r="2194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2194" s="2" t="s">
+      <c r="A2194" s="1" t="s">
         <v>2185</v>
       </c>
       <c r="B2194" s="1" t="s">
@@ -29481,7 +29484,7 @@
       </c>
     </row>
     <row r="2313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2313" s="1" t="s">
+      <c r="A2313" s="2" t="s">
         <v>2304</v>
       </c>
       <c r="B2313" s="1" t="s">
@@ -33880,12 +33883,12 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="2863" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2863" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2863" s="2" t="s">
-        <v>2854</v>
+        <v>2863</v>
       </c>
       <c r="B2863" s="1" t="s">
-        <v>2854</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="2864" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -33893,7 +33896,7 @@
         <v>2864</v>
       </c>
       <c r="B2864" s="1" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="2865" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -33901,7 +33904,7 @@
         <v>2865</v>
       </c>
       <c r="B2865" s="1" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="2866" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -33909,47 +33912,47 @@
         <v>2866</v>
       </c>
       <c r="B2866" s="1" t="s">
-        <v>3202</v>
-      </c>
-    </row>
-    <row r="2867" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2867" s="2" t="s">
         <v>2867</v>
       </c>
       <c r="B2867" s="1" t="s">
-        <v>3203</v>
-      </c>
-    </row>
-    <row r="2868" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2868" s="2" t="s">
         <v>2868</v>
       </c>
       <c r="B2868" s="1" t="s">
-        <v>3204</v>
-      </c>
-    </row>
-    <row r="2869" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2869" s="2" t="s">
         <v>2869</v>
       </c>
       <c r="B2869" s="1" t="s">
-        <v>3205</v>
-      </c>
-    </row>
-    <row r="2870" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2870" s="2" t="s">
         <v>2870</v>
       </c>
       <c r="B2870" s="1" t="s">
-        <v>3206</v>
-      </c>
-    </row>
-    <row r="2871" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2871" s="2" t="s">
         <v>2871</v>
       </c>
       <c r="B2871" s="1" t="s">
-        <v>3207</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="2872" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -33957,7 +33960,7 @@
         <v>2872</v>
       </c>
       <c r="B2872" s="1" t="s">
-        <v>3208</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="2873" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -33965,7 +33968,7 @@
         <v>2873</v>
       </c>
       <c r="B2873" s="1" t="s">
-        <v>3214</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="2874" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -33973,39 +33976,39 @@
         <v>2874</v>
       </c>
       <c r="B2874" s="1" t="s">
-        <v>3215</v>
-      </c>
-    </row>
-    <row r="2875" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2875" s="2" t="s">
         <v>2875</v>
       </c>
       <c r="B2875" s="1" t="s">
-        <v>3216</v>
-      </c>
-    </row>
-    <row r="2876" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2876" s="2" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2876" s="1" t="s">
         <v>2876</v>
       </c>
       <c r="B2876" s="1" t="s">
-        <v>3248</v>
-      </c>
-    </row>
-    <row r="2877" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2877" s="1" t="s">
         <v>2877</v>
       </c>
       <c r="B2877" s="1" t="s">
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="2878" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2878" s="1" t="s">
         <v>2878</v>
       </c>
       <c r="B2878" s="1" t="s">
-        <v>3221</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="2879" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34013,15 +34016,15 @@
         <v>2879</v>
       </c>
       <c r="B2879" s="1" t="s">
-        <v>3220</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="2880" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2880" s="1" t="s">
+      <c r="A2880" s="2" t="s">
         <v>2880</v>
       </c>
       <c r="B2880" s="1" t="s">
-        <v>3219</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="2881" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34029,7 +34032,7 @@
         <v>2881</v>
       </c>
       <c r="B2881" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="2882" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34045,7 +34048,7 @@
         <v>2883</v>
       </c>
       <c r="B2883" s="1" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="2884" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34053,7 +34056,7 @@
         <v>2884</v>
       </c>
       <c r="B2884" s="1" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="2885" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34061,18 +34064,18 @@
         <v>2885</v>
       </c>
       <c r="B2885" s="1" t="s">
-        <v>3229</v>
-      </c>
-    </row>
-    <row r="2886" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2886" s="2" t="s">
         <v>2886</v>
       </c>
       <c r="B2886" s="1" t="s">
-        <v>3230</v>
-      </c>
-    </row>
-    <row r="2887" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2887" s="2" t="s">
         <v>2887</v>
       </c>
@@ -34093,7 +34096,7 @@
         <v>2889</v>
       </c>
       <c r="B2889" s="1" t="s">
-        <v>2889</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="2890" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34101,7 +34104,7 @@
         <v>2890</v>
       </c>
       <c r="B2890" s="1" t="s">
-        <v>3268</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="2891" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -34109,15 +34112,15 @@
         <v>2891</v>
       </c>
       <c r="B2891" s="1" t="s">
-        <v>3269</v>
-      </c>
-    </row>
-    <row r="2892" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2892" s="2" t="s">
         <v>2892</v>
       </c>
       <c r="B2892" s="1" t="s">
-        <v>3270</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="2893" spans="1:2" x14ac:dyDescent="0.25">
@@ -34141,7 +34144,7 @@
         <v>2895</v>
       </c>
       <c r="B2895" s="1" t="s">
-        <v>2895</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="2896" spans="1:2" x14ac:dyDescent="0.25">
@@ -34149,15 +34152,15 @@
         <v>2896</v>
       </c>
       <c r="B2896" s="1" t="s">
-        <v>3272</v>
-      </c>
-    </row>
-    <row r="2897" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2897" s="2" t="s">
         <v>2897</v>
       </c>
       <c r="B2897" s="1" t="s">
-        <v>3272</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="2898" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -34165,15 +34168,15 @@
         <v>2898</v>
       </c>
       <c r="B2898" s="1" t="s">
-        <v>3273</v>
-      </c>
-    </row>
-    <row r="2899" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2899" s="2" t="s">
         <v>2899</v>
       </c>
       <c r="B2899" s="1" t="s">
-        <v>3273</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="2900" spans="1:2" x14ac:dyDescent="0.25">
@@ -34184,7 +34187,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="2901" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2901" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2901" s="2" t="s">
         <v>2901</v>
       </c>
@@ -34200,23 +34203,23 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="2903" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2903" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2903" s="2" t="s">
         <v>2903</v>
       </c>
       <c r="B2903" s="1" t="s">
-        <v>2903</v>
-      </c>
-    </row>
-    <row r="2904" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2904" s="2" t="s">
         <v>2904</v>
       </c>
       <c r="B2904" s="1" t="s">
-        <v>3307</v>
-      </c>
-    </row>
-    <row r="2905" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2905" s="2" t="s">
         <v>2905</v>
       </c>
@@ -34232,7 +34235,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="2907" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2907" s="2" t="s">
         <v>2907</v>
       </c>
@@ -34248,7 +34251,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="2909" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2909" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2909" s="2" t="s">
         <v>2909</v>
       </c>
@@ -34256,7 +34259,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="2910" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2910" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2910" s="2" t="s">
         <v>2910</v>
       </c>
@@ -34576,7 +34579,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="2950" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2950" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2950" s="2" t="s">
         <v>2950</v>
       </c>
@@ -34584,7 +34587,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="2951" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2951" s="2" t="s">
         <v>2951</v>
       </c>
@@ -34664,7 +34667,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="2961" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2961" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2961" s="2" t="s">
         <v>2961</v>
       </c>
@@ -34672,7 +34675,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="2962" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2962" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2962" s="2" t="s">
         <v>2962</v>
       </c>
@@ -34680,7 +34683,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="2963" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2963" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2963" s="2" t="s">
         <v>2963</v>
       </c>
@@ -34688,7 +34691,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="2964" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2964" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2964" s="2" t="s">
         <v>2964</v>
       </c>
@@ -34696,7 +34699,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="2965" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2965" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2965" s="2" t="s">
         <v>2965</v>
       </c>
@@ -34704,7 +34707,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="2966" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2966" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2966" s="2" t="s">
         <v>2966</v>
       </c>
@@ -34712,7 +34715,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="2967" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2967" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2967" s="2" t="s">
         <v>2967</v>
       </c>
@@ -34720,7 +34723,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="2968" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2968" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2968" s="2" t="s">
         <v>2968</v>
       </c>
@@ -34728,7 +34731,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="2969" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2969" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2969" s="2" t="s">
         <v>2969</v>
       </c>
@@ -34736,7 +34739,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="2970" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2970" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2970" s="2" t="s">
         <v>2970</v>
       </c>
@@ -34744,7 +34747,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="2971" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2971" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2971" s="2" t="s">
         <v>2971</v>
       </c>
@@ -34752,31 +34755,31 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="2972" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2972" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2972" s="2" t="s">
         <v>2972</v>
       </c>
       <c r="B2972" s="1" t="s">
-        <v>2972</v>
-      </c>
-    </row>
-    <row r="2973" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2973" s="2" t="s">
         <v>2973</v>
       </c>
       <c r="B2973" s="1" t="s">
-        <v>3358</v>
-      </c>
-    </row>
-    <row r="2974" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2974" s="2" t="s">
         <v>2974</v>
       </c>
       <c r="B2974" s="1" t="s">
-        <v>3359</v>
-      </c>
-    </row>
-    <row r="2975" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2975" s="2" t="s">
         <v>2975</v>
       </c>
@@ -34784,34 +34787,34 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="2976" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2976" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2976" s="2" t="s">
         <v>2976</v>
       </c>
       <c r="B2976" s="1" t="s">
-        <v>2976</v>
-      </c>
-    </row>
-    <row r="2977" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>3357</v>
+      </c>
+      <c r="C2976" s="1" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2977" s="2" t="s">
         <v>2977</v>
       </c>
       <c r="B2977" s="1" t="s">
+        <v>3359</v>
+      </c>
+      <c r="C2977" s="1" t="s">
         <v>3360</v>
       </c>
-      <c r="C2977" s="1" t="s">
-        <v>3361</v>
-      </c>
-    </row>
-    <row r="2978" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2978" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2978" s="2" t="s">
         <v>2978</v>
       </c>
       <c r="B2978" s="1" t="s">
-        <v>3362</v>
-      </c>
-      <c r="C2978" s="1" t="s">
-        <v>3363</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="2979" spans="1:4" x14ac:dyDescent="0.25">
@@ -34822,26 +34825,26 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="2980" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2980" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2980" s="2" t="s">
         <v>2980</v>
       </c>
       <c r="B2980" s="1" t="s">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="2981" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>3361</v>
+      </c>
+      <c r="C2980" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D2980" s="1" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2981" s="2" t="s">
         <v>2981</v>
       </c>
       <c r="B2981" s="1" t="s">
-        <v>3364</v>
-      </c>
-      <c r="C2981" s="1" t="s">
-        <v>3365</v>
-      </c>
-      <c r="D2981" s="1" t="s">
-        <v>3366</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="2982" spans="1:4" x14ac:dyDescent="0.25">
@@ -34924,37 +34927,38 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="2992" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2992" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2992" s="2" t="s">
         <v>2992</v>
       </c>
       <c r="B2992" s="1" t="s">
-        <v>2992</v>
-      </c>
-    </row>
-    <row r="2993" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A2993" s="2" t="s">
         <v>2993</v>
       </c>
       <c r="B2993" s="1" t="s">
-        <v>2993</v>
-      </c>
-    </row>
-    <row r="2994" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2994" s="2" t="s">
         <v>2994</v>
       </c>
       <c r="B2994" s="1" t="s">
-        <v>3331</v>
-      </c>
-    </row>
-    <row r="2995" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2995" s="2" t="s">
         <v>2995</v>
       </c>
       <c r="B2995" s="1" t="s">
-        <v>3332</v>
-      </c>
+        <v>2995</v>
+      </c>
+      <c r="C2995"/>
     </row>
     <row r="2996" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2996" s="2" t="s">
@@ -34963,6 +34967,7 @@
       <c r="B2996" s="1" t="s">
         <v>2996</v>
       </c>
+      <c r="C2996"/>
     </row>
     <row r="2997" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2997" s="2" t="s">
@@ -34971,15 +34976,18 @@
       <c r="B2997" s="1" t="s">
         <v>2997</v>
       </c>
-    </row>
-    <row r="2998" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2997"/>
+    </row>
+    <row r="2998" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A2998" s="2" t="s">
         <v>2998</v>
       </c>
       <c r="B2998" s="1" t="s">
-        <v>2998</v>
-      </c>
-      <c r="C2998"/>
+        <v>3326</v>
+      </c>
+      <c r="C2998" s="1" t="s">
+        <v>3327</v>
+      </c>
     </row>
     <row r="2999" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2999" s="2" t="s">
@@ -34990,24 +34998,21 @@
       </c>
       <c r="C2999"/>
     </row>
-    <row r="3000" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3000" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3000" s="2" t="s">
         <v>3000</v>
       </c>
       <c r="B3000" s="1" t="s">
-        <v>3000</v>
+        <v>3354</v>
       </c>
       <c r="C3000"/>
     </row>
-    <row r="3001" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="3001" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3001" s="2" t="s">
         <v>3001</v>
       </c>
       <c r="B3001" s="1" t="s">
-        <v>3329</v>
-      </c>
-      <c r="C3001" s="1" t="s">
-        <v>3330</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="3002" spans="1:3" x14ac:dyDescent="0.25">
@@ -35017,16 +35022,14 @@
       <c r="B3002" s="1" t="s">
         <v>3002</v>
       </c>
-      <c r="C3002"/>
-    </row>
-    <row r="3003" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3003" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3003" s="2" t="s">
         <v>3003</v>
       </c>
       <c r="B3003" s="1" t="s">
-        <v>3357</v>
-      </c>
-      <c r="C3003"/>
+        <v>3003</v>
+      </c>
     </row>
     <row r="3004" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3004" s="2" t="s">
@@ -35132,7 +35135,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="3017" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3017" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3017" s="2" t="s">
         <v>3017</v>
       </c>
@@ -35140,7 +35143,7 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="3018" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3018" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3018" s="2" t="s">
         <v>3018</v>
       </c>
@@ -35148,7 +35151,7 @@
         <v>3018</v>
       </c>
     </row>
-    <row r="3019" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3019" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3019" s="2" t="s">
         <v>3019</v>
       </c>
@@ -35156,7 +35159,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="3020" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3020" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3020" s="2" t="s">
         <v>3020</v>
       </c>
@@ -35188,7 +35191,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="3024" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3024" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3024" s="2" t="s">
         <v>3024</v>
       </c>
@@ -35196,7 +35199,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="3025" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3025" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3025" s="2" t="s">
         <v>3025</v>
       </c>
@@ -35212,7 +35215,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="3027" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3027" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3027" s="2" t="s">
         <v>3027</v>
       </c>
@@ -35236,7 +35239,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="3030" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3030" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3030" s="2" t="s">
         <v>3030</v>
       </c>
@@ -35492,7 +35495,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="3062" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3062" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3062" s="2" t="s">
         <v>3062</v>
       </c>
@@ -35500,7 +35503,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="3063" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3063" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3063" s="2" t="s">
         <v>3063</v>
       </c>
@@ -35516,7 +35519,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="3065" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3065" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3065" s="2" t="s">
         <v>3065</v>
       </c>
@@ -35524,7 +35527,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="3066" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3066" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3066" s="2" t="s">
         <v>3066</v>
       </c>
@@ -35653,7 +35656,7 @@
       </c>
     </row>
     <row r="3082" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3082" s="2" t="s">
+      <c r="A3082" s="1" t="s">
         <v>3082</v>
       </c>
       <c r="B3082" s="1" t="s">
@@ -35677,7 +35680,7 @@
       </c>
     </row>
     <row r="3085" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3085" s="1" t="s">
+      <c r="A3085" s="2" t="s">
         <v>3085</v>
       </c>
       <c r="B3085" s="1" t="s">
@@ -35844,7 +35847,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="3106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3106" s="2" t="s">
         <v>3106</v>
       </c>
@@ -35860,7 +35863,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="3108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3108" s="2" t="s">
         <v>3108</v>
       </c>
@@ -35876,7 +35879,7 @@
         <v>3109</v>
       </c>
     </row>
-    <row r="3110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3110" s="2" t="s">
         <v>3110</v>
       </c>
@@ -35884,7 +35887,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="3111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3111" s="2" t="s">
         <v>3111</v>
       </c>
@@ -35900,7 +35903,7 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="3113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3113" s="2" t="s">
         <v>3113</v>
       </c>
@@ -35908,7 +35911,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="3114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3114" s="2" t="s">
         <v>3114</v>
       </c>
@@ -35932,7 +35935,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="3117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3117" s="2" t="s">
         <v>3117</v>
       </c>
@@ -35948,7 +35951,7 @@
         <v>3118</v>
       </c>
     </row>
-    <row r="3119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3119" s="2" t="s">
         <v>3119</v>
       </c>
@@ -35956,7 +35959,7 @@
         <v>3119</v>
       </c>
     </row>
-    <row r="3120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3120" s="2" t="s">
         <v>3120</v>
       </c>
@@ -36029,30 +36032,30 @@
       </c>
     </row>
     <row r="3129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3129" s="2" t="s">
+      <c r="A3129" s="1" t="s">
         <v>3129</v>
       </c>
       <c r="B3129" s="1" t="s">
         <v>3129</v>
       </c>
     </row>
-    <row r="3130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3130" s="2" t="s">
+    <row r="3130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3130" s="1" t="s">
         <v>3130</v>
       </c>
       <c r="B3130" s="1" t="s">
         <v>3130</v>
       </c>
     </row>
-    <row r="3131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3131" s="2" t="s">
+    <row r="3131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3131" s="1" t="s">
         <v>3131</v>
       </c>
       <c r="B3131" s="1" t="s">
         <v>3131</v>
       </c>
     </row>
-    <row r="3132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3132" s="1" t="s">
         <v>3132</v>
       </c>
@@ -36076,7 +36079,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="3135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3135" s="1" t="s">
         <v>3135</v>
       </c>
@@ -36084,7 +36087,7 @@
         <v>3135</v>
       </c>
     </row>
-    <row r="3136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3136" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3136" s="1" t="s">
         <v>3136</v>
       </c>
@@ -36100,7 +36103,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="3138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3138" s="1" t="s">
         <v>3138</v>
       </c>
@@ -36109,23 +36112,23 @@
       </c>
     </row>
     <row r="3139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3139" s="1" t="s">
+      <c r="A3139" s="2" t="s">
         <v>3139</v>
       </c>
       <c r="B3139" s="1" t="s">
         <v>3139</v>
       </c>
     </row>
-    <row r="3140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3140" s="1" t="s">
+    <row r="3140" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3140" s="2" t="s">
         <v>3140</v>
       </c>
       <c r="B3140" s="1" t="s">
         <v>3140</v>
       </c>
     </row>
-    <row r="3141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3141" s="1" t="s">
+    <row r="3141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3141" s="2" t="s">
         <v>3141</v>
       </c>
       <c r="B3141" s="1" t="s">
@@ -36188,7 +36191,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="3149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3149" s="2" t="s">
         <v>3149</v>
       </c>
@@ -36204,7 +36207,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="3151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3151" s="2" t="s">
         <v>3151</v>
       </c>
@@ -36212,7 +36215,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="3152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3152" s="2" t="s">
         <v>3152</v>
       </c>
@@ -36244,7 +36247,7 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="3156" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3156" s="2" t="s">
         <v>3156</v>
       </c>
@@ -36252,7 +36255,7 @@
         <v>3156</v>
       </c>
     </row>
-    <row r="3157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3157" s="2" t="s">
         <v>3157</v>
       </c>
@@ -36260,7 +36263,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="3158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3158" s="2" t="s">
         <v>3158</v>
       </c>
@@ -36268,7 +36271,7 @@
         <v>3158</v>
       </c>
     </row>
-    <row r="3159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3159" s="2" t="s">
         <v>3159</v>
       </c>
@@ -36300,7 +36303,7 @@
         <v>3162</v>
       </c>
     </row>
-    <row r="3163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3163" s="2" t="s">
         <v>3163</v>
       </c>
@@ -36324,7 +36327,7 @@
         <v>3165</v>
       </c>
     </row>
-    <row r="3166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3166" s="2" t="s">
         <v>3166</v>
       </c>
@@ -36340,7 +36343,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="3168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3168" s="2" t="s">
         <v>3168</v>
       </c>
@@ -36348,7 +36351,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="3169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3169" s="2" t="s">
         <v>3169</v>
       </c>
@@ -36356,7 +36359,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="3170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3170" s="2" t="s">
         <v>3170</v>
       </c>
@@ -36364,7 +36367,7 @@
         <v>3170</v>
       </c>
     </row>
-    <row r="3171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3171" s="2" t="s">
         <v>3171</v>
       </c>
@@ -36372,7 +36375,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="3172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3172" s="2" t="s">
         <v>3172</v>
       </c>
@@ -36380,7 +36383,7 @@
         <v>3172</v>
       </c>
     </row>
-    <row r="3173" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3173" s="2" t="s">
         <v>3173</v>
       </c>
@@ -36388,7 +36391,7 @@
         <v>3173</v>
       </c>
     </row>
-    <row r="3174" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3174" s="2" t="s">
         <v>3174</v>
       </c>
@@ -36396,7 +36399,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="3175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3175" s="2" t="s">
         <v>3175</v>
       </c>
@@ -36404,7 +36407,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="3176" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3176" s="2" t="s">
         <v>3176</v>
       </c>
@@ -36412,7 +36415,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="3177" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3177" s="2" t="s">
         <v>3177</v>
       </c>
@@ -36420,7 +36423,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="3178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3178" s="2" t="s">
         <v>3178</v>
       </c>
@@ -36428,31 +36431,34 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="3179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3179" s="2" t="s">
         <v>3179</v>
       </c>
       <c r="B3179" s="1" t="s">
         <v>3179</v>
       </c>
-    </row>
-    <row r="3180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3179"/>
+    </row>
+    <row r="3180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3180" s="2" t="s">
         <v>3180</v>
       </c>
       <c r="B3180" s="1" t="s">
         <v>3180</v>
       </c>
-    </row>
-    <row r="3181" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3180"/>
+    </row>
+    <row r="3181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3181" s="2" t="s">
         <v>3181</v>
       </c>
       <c r="B3181" s="1" t="s">
         <v>3181</v>
       </c>
-    </row>
-    <row r="3182" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3181"/>
+    </row>
+    <row r="3182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3182" s="2" t="s">
         <v>3182</v>
       </c>
@@ -36461,7 +36467,7 @@
       </c>
       <c r="C3182"/>
     </row>
-    <row r="3183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3183" s="2" t="s">
         <v>3183</v>
       </c>
@@ -36470,199 +36476,172 @@
       </c>
       <c r="C3183"/>
     </row>
-    <row r="3184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3184" s="2" t="s">
-        <v>3184</v>
+    <row r="3184" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3184" s="1" t="s">
+        <v>1578</v>
       </c>
       <c r="B3184" s="1" t="s">
         <v>3184</v>
       </c>
-      <c r="C3184"/>
-    </row>
-    <row r="3185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3185" s="2" t="s">
+      <c r="D3184" s="1"/>
+      <c r="E3184" s="1"/>
+      <c r="F3184" s="1"/>
+      <c r="G3184" s="1"/>
+    </row>
+    <row r="3185" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3185" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B3185" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C3185" s="1" t="s">
         <v>3185</v>
       </c>
-      <c r="B3185" s="1" t="s">
-        <v>3185</v>
-      </c>
-      <c r="C3185"/>
-    </row>
-    <row r="3186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3186" s="2" t="s">
-        <v>3186</v>
+      <c r="D3185" s="1"/>
+      <c r="E3185" s="1"/>
+      <c r="F3185" s="1"/>
+      <c r="G3185" s="1"/>
+    </row>
+    <row r="3186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3186" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B3186" s="1" t="s">
-        <v>3186</v>
-      </c>
-      <c r="C3186"/>
-    </row>
-    <row r="3187" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>3187</v>
+      </c>
+      <c r="D3186" s="1"/>
+      <c r="E3186" s="1"/>
+      <c r="F3186" s="1"/>
+      <c r="G3186" s="1"/>
+    </row>
+    <row r="3187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3187" s="1" t="s">
-        <v>1578</v>
+        <v>3246</v>
       </c>
       <c r="B3187" s="1" t="s">
-        <v>3187</v>
-      </c>
-      <c r="D3187" s="1"/>
-      <c r="E3187" s="1"/>
-      <c r="F3187" s="1"/>
-      <c r="G3187" s="1"/>
-    </row>
-    <row r="3188" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3188" s="1" t="s">
-        <v>2859</v>
+        <v>3258</v>
       </c>
       <c r="B3188" s="1" t="s">
-        <v>3189</v>
-      </c>
-      <c r="C3188" s="1" t="s">
-        <v>3188</v>
-      </c>
-      <c r="D3188" s="1"/>
-      <c r="E3188" s="1"/>
-      <c r="F3188" s="1"/>
-      <c r="G3188" s="1"/>
+        <v>3259</v>
+      </c>
     </row>
     <row r="3189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3189" s="1" t="s">
-        <v>30</v>
+        <v>3280</v>
       </c>
       <c r="B3189" s="1" t="s">
-        <v>3190</v>
-      </c>
-      <c r="D3189" s="1"/>
-      <c r="E3189" s="1"/>
-      <c r="F3189" s="1"/>
-      <c r="G3189" s="1"/>
-    </row>
-    <row r="3190" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3190" s="1" t="s">
-        <v>3249</v>
+        <v>3282</v>
       </c>
       <c r="B3190" s="1" t="s">
-        <v>3250</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="3191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3191" s="1" t="s">
-        <v>3261</v>
+        <v>3284</v>
       </c>
       <c r="B3191" s="1" t="s">
-        <v>3262</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3192" s="1" t="s">
-        <v>3283</v>
+        <v>3286</v>
       </c>
       <c r="B3192" s="1" t="s">
-        <v>3284</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="3193" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3193" s="1" t="s">
-        <v>3285</v>
+        <v>3288</v>
       </c>
       <c r="B3193" s="1" t="s">
-        <v>3286</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3194" s="1" t="s">
-        <v>3287</v>
+        <v>3290</v>
       </c>
       <c r="B3194" s="1" t="s">
-        <v>3288</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3195" s="1" t="s">
-        <v>3289</v>
+        <v>3293</v>
       </c>
       <c r="B3195" s="1" t="s">
-        <v>3290</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="3196" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3196" s="1" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="B3196" s="1" t="s">
-        <v>3292</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3197" s="1" t="s">
-        <v>3293</v>
+        <v>3295</v>
       </c>
       <c r="B3197" s="1" t="s">
-        <v>3294</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="3198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3198" s="1" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="B3198" s="1" t="s">
-        <v>3297</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="3199" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3199" s="1" t="s">
-        <v>3295</v>
+        <v>3298</v>
       </c>
       <c r="B3199" s="1" t="s">
-        <v>3297</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3200" s="1" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="B3200" s="1" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3201" s="1" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="B3201" s="1" t="s">
-        <v>3302</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3202" s="1" t="s">
-        <v>3301</v>
-      </c>
-      <c r="B3202" s="1" t="s">
-        <v>3302</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3203" s="1" t="s">
-        <v>3303</v>
-      </c>
-      <c r="B3203" s="1" t="s">
-        <v>3305</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3204" s="1" t="s">
-        <v>3304</v>
-      </c>
-      <c r="B3204" s="1" t="s">
-        <v>3306</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3205" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G3189" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
+  <autoFilter ref="A2:G3202" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="38" priority="7"/>
@@ -36682,26 +36661,26 @@
   <conditionalFormatting sqref="A145:A208">
     <cfRule type="duplicateValues" dxfId="31" priority="111"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1623:A1625 A1:C172 A174:C176 A173 C173 A178:C180 A177 C177 A182:C184 A181 C181 A186:C188 A185 C185 A189 C189 C1623:C1625 A190:C204 A1626:C1691 A1692:A1706 C1692:C1706 A1707:C1755 A1757:C1757 A1756 C1756 A1763:C1763 A1762 C1762 A1759:C1761 A1758 C1758 A1764 C1764 A205 C205 A1765:C1048576 A206:C1622">
+  <conditionalFormatting sqref="A1622:A1624 A1:C172 A174:C176 A173 C173 A178:C180 A177 C177 A182:C184 A181 C181 A186:C188 A185 C185 A189 C189 C1622:C1624 A190:C204 A1625:C1690 A1691:A1705 C1691:C1705 A1706:C1754 A1756:C1756 A1755 C1755 A1762:C1762 A1761 C1761 A1758:C1760 A1757 C1757 A1763 C1763 A205 C205 A1764:C1048576 A206:C1621">
     <cfRule type="duplicateValues" dxfId="30" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2571:A2809 A1554">
+  <conditionalFormatting sqref="A2570:A2808 A1554">
     <cfRule type="duplicateValues" dxfId="29" priority="73"/>
     <cfRule type="duplicateValues" dxfId="28" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2970:A2974">
+  <conditionalFormatting sqref="A2969:A2973">
     <cfRule type="duplicateValues" dxfId="27" priority="5481"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3190:A1048576 A2:A3186">
+  <conditionalFormatting sqref="A3187:A1048576 A2:A3183">
     <cfRule type="duplicateValues" dxfId="26" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3190:A1048576 A2:A3187">
+  <conditionalFormatting sqref="A3187:A1048576 A2:A3184">
     <cfRule type="duplicateValues" dxfId="25" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3190:A1048576 A2:A3188">
+  <conditionalFormatting sqref="A3187:A1048576 A2:A3185">
     <cfRule type="duplicateValues" dxfId="24" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5514:A1048576 A2810:A2969 A209:A1540 A2:A23 A25:A84 A143 A2975:A2999">
+  <conditionalFormatting sqref="A5511:A1048576 A2809:A2968 A209:A1540 A2:A23 A25:A84 A143 A2974:A2996">
     <cfRule type="duplicateValues" dxfId="23" priority="151"/>
     <cfRule type="duplicateValues" dxfId="22" priority="153"/>
   </conditionalFormatting>
@@ -36735,31 +36714,31 @@
   <conditionalFormatting sqref="B1541">
     <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1626:B1691 B1707:B1755 B1757 B1763 B1759:B1761 B1765:B2468 B1555:B1622">
+  <conditionalFormatting sqref="B1625:B1690 B1706:B1754 B1756 B1762 B1758:B1760 B1764:B2467 B1555:B1621">
     <cfRule type="duplicateValues" dxfId="9" priority="369"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2571:B2809 B1554">
+  <conditionalFormatting sqref="B2570:B2808 B1554">
     <cfRule type="duplicateValues" dxfId="8" priority="16"/>
     <cfRule type="duplicateValues" dxfId="7" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2970:B2974">
+  <conditionalFormatting sqref="B2969:B2973">
     <cfRule type="duplicateValues" dxfId="6" priority="5482"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5514:B1048576 B2:B23 B25:B84 B143 B2975:B2999 B2810:B2969 B209:B1540">
+  <conditionalFormatting sqref="B5511:B1048576 B2:B23 B25:B84 B143 B2974:B2996 B2809:B2968 B209:B1540">
     <cfRule type="duplicateValues" dxfId="5" priority="25"/>
     <cfRule type="duplicateValues" dxfId="4" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3187:W3187">
+  <conditionalFormatting sqref="G3184:W3184">
     <cfRule type="duplicateValues" dxfId="3" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3188:W3188">
+  <conditionalFormatting sqref="G3185:W3185">
     <cfRule type="duplicateValues" dxfId="2" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3189:W3189">
+  <conditionalFormatting sqref="G3186:W3186">
     <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1555:A2468">
-    <cfRule type="duplicateValues" dxfId="0" priority="5572"/>
+  <conditionalFormatting sqref="A1555:A2467">
+    <cfRule type="duplicateValues" dxfId="0" priority="5576"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DE1F5A-A0F6-4883-9FA3-1385C7683B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FEB460-06A8-45F3-AC8B-8AFA41B0C7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -10931,7 +10931,7 @@
   <dimension ref="A2:G3202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36641,7 +36641,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G3202" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="38" priority="7"/>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6D5D56-7D15-4398-83B1-2649CC15AB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21340C16-4514-4030-921C-D42F5E1926BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$F$2158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$F$2156</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4337" uniqueCount="2348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="2362">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -5361,12 +5361,6 @@
     <t>Vũ Khúc và Thiên Tướng đồng cung tại Thân</t>
   </si>
   <si>
-    <t>Vũ Khúc và Thất Sát đồng cung tại Tý</t>
-  </si>
-  <si>
-    <t>Vũ Khúc và Thất Sát đồng cung tại Sửu</t>
-  </si>
-  <si>
     <t>Vũ Khúc và Thất Sát đồng cung tại Mão</t>
   </si>
   <si>
@@ -5380,9 +5374,6 @@
   </si>
   <si>
     <t>Thiên Đồng và Thái Âm đồng cung tại Tý</t>
-  </si>
-  <si>
-    <t>Thiên Đồng và Cự Môn đồng cung tại Tý</t>
   </si>
   <si>
     <t>Thiên Đồng và Cự Môn đồng cung tại Sửu</t>
@@ -7088,6 +7079,57 @@
   </si>
   <si>
     <t>Cha mẹ là người hiền lành, dễ tin người, hay bị người ngoài lừa gạt. Cha mẹ là người sống nội tâm, thâm trầm, ít nói.</t>
+  </si>
+  <si>
+    <t>Cha mẹ vinh hiển. Gia đình yên vui, phúc lộc dồi dào</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cha mẹ phú qúy, nhưng bất hòa. Con không hợp với tính cha mẹ. Gia đình ly tán. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong nhà hay có sự bất hòa: cha mẹ khá giả. Nhưng sớm khắc mộc trong hai thân, hay phải xa cách từ lúc thiếu thời. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cha mẹ hay gặp tai nạn bất kỳ và rất vất vả. Con không thể chung sống được với cha mẹ. Nên làm con nuôi họ khác. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cha mẹ khốn cùng hay mắc tai ương và xa cách nhau. Sớm lìa bỏ hai thân. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sớm xa cách hai thân. Trong nhà thiếu hòa khí. Có đi xa hay làm con nuôi họ khác mới tránh được mọi sự hình khắc. Nhưng dù sao chăng nữa, ít nhất là phải sớm lìa bỏ một trong hai thân. </t>
+  </si>
+  <si>
+    <t>Cha mẹ có uy quyền và nhiều của cải.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cha mẹ giàu, nhưng con không hợp tính cha mẹ. Trong nhà thiếu hòa khí. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai thân bần khổ, hay mắc tai ương. Nếu không, tất phải mang bệnh tật, hay đau yếu. Nên sớm xa cách hai thân. Nên làm con nuôi họ khác, để tránh mọi hình khắc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai thân vất và, sớm khắc một trong hai thân. Nên làm con nuôi họ khác. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai thân bất hòa, cha mẹ khá giả nhưng con không thể ở gần được. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai thân khá giá. </t>
+  </si>
+  <si>
+    <t>Hai thân giàu có, nhưng sớm xa cách một trong hai thân. Không lợi ích cho mẹ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cha mẹ giàu sang và sống lâu. </t>
+  </si>
+  <si>
+    <t>Thiên Cơ và Thiên Lương đồng cung tại Tuất</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sớm khắc một trong hai thân. Nên phải xa cách hai thân. Trong nhà thiếu hòa khí </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cha mẹ vinh hiển và nhiều của cải. Trong nhà hay có sự bất hòa. Sớm xa cách một trong hai thân. </t>
   </si>
 </sst>
 </file>
@@ -7132,7 +7174,117 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7839,10 +7991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G2158"/>
+  <dimension ref="A2:G2156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1808" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1808" sqref="A2:D2158"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7852,12 +8004,12 @@
     <col min="4" max="7" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -7865,7 +8017,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7873,7 +8025,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7881,7 +8033,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7889,7 +8041,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7897,7 +8049,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7918,10 +8070,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8849,7 +9001,7 @@
         <v>147</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -8889,7 +9041,7 @@
         <v>152</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -8929,7 +9081,7 @@
         <v>157</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -8969,7 +9121,7 @@
         <v>162</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -9009,7 +9161,7 @@
         <v>167</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -9145,7 +9297,7 @@
         <v>184</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -9177,7 +9329,7 @@
         <v>188</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -9209,7 +9361,7 @@
         <v>192</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -9241,7 +9393,7 @@
         <v>196</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -9273,7 +9425,7 @@
         <v>200</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -9401,7 +9553,7 @@
         <v>216</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9633,7 +9785,7 @@
         <v>245</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9753,7 +9905,7 @@
         <v>260</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9769,7 +9921,7 @@
         <v>262</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -11137,7 +11289,7 @@
         <v>428</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -11177,7 +11329,7 @@
         <v>433</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -11377,7 +11529,7 @@
         <v>458</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13105,7 +13257,7 @@
         <v>673</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="659" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13113,7 +13265,7 @@
         <v>674</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -15633,7 +15785,7 @@
         <v>988</v>
       </c>
       <c r="B974" s="1" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="975" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15681,7 +15833,7 @@
         <v>994</v>
       </c>
       <c r="B980" s="1" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="981" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15753,7 +15905,7 @@
         <v>1003</v>
       </c>
       <c r="B989" s="1" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="990" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15809,7 +15961,7 @@
         <v>1010</v>
       </c>
       <c r="B996" s="1" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="997" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16985,7 +17137,7 @@
         <v>1157</v>
       </c>
       <c r="B1143" s="1" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.25">
@@ -16993,7 +17145,7 @@
         <v>1158</v>
       </c>
       <c r="B1144" s="1" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17881,7 +18033,7 @@
         <v>1266</v>
       </c>
       <c r="B1255" s="1" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1256" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17889,7 +18041,7 @@
         <v>1267</v>
       </c>
       <c r="B1256" s="1" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1257" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18329,7 +18481,7 @@
         <v>1322</v>
       </c>
       <c r="B1311" s="1" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.25">
@@ -18897,7 +19049,7 @@
         <v>1393</v>
       </c>
       <c r="B1382" s="1" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.25">
@@ -18905,7 +19057,7 @@
         <v>1394</v>
       </c>
       <c r="B1383" s="1" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.25">
@@ -19681,7 +19833,7 @@
         <v>1491</v>
       </c>
       <c r="B1480" s="1" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1481" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -19745,7 +19897,7 @@
         <v>1499</v>
       </c>
       <c r="B1488" s="1" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1489" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -19833,7 +19985,7 @@
         <v>1510</v>
       </c>
       <c r="B1499" s="1" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1500" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20009,7 +20161,7 @@
         <v>12</v>
       </c>
       <c r="B1521" s="1" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1522" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20017,7 +20169,7 @@
         <v>13</v>
       </c>
       <c r="B1522" s="1" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1523" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -20025,7 +20177,7 @@
         <v>14</v>
       </c>
       <c r="B1523" s="1" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1524" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20033,10 +20185,10 @@
         <v>15</v>
       </c>
       <c r="B1524" s="1" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="C1524" s="1" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1525" spans="1:3" x14ac:dyDescent="0.25">
@@ -20044,10 +20196,10 @@
         <v>16</v>
       </c>
       <c r="B1525" s="1" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="C1525" s="1" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1526" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20055,7 +20207,7 @@
         <v>17</v>
       </c>
       <c r="B1526" s="1" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1527" spans="1:3" x14ac:dyDescent="0.25">
@@ -20071,7 +20223,7 @@
         <v>19</v>
       </c>
       <c r="B1528" s="1" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1529" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20079,15 +20231,15 @@
         <v>20</v>
       </c>
       <c r="B1529" s="1" t="s">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="1530" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1530" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B1530" s="1" t="s">
-        <v>21</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1531" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20095,15 +20247,15 @@
         <v>22</v>
       </c>
       <c r="B1531" s="1" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="1532" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1532" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B1532" s="1" t="s">
-        <v>23</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1533" spans="1:3" x14ac:dyDescent="0.25">
@@ -20127,7 +20279,7 @@
         <v>1533</v>
       </c>
       <c r="B1535" s="1" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1536" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20135,7 +20287,7 @@
         <v>1534</v>
       </c>
       <c r="B1536" s="1" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1537" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -20143,7 +20295,7 @@
         <v>1535</v>
       </c>
       <c r="B1537" s="1" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1538" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -20151,7 +20303,7 @@
         <v>1536</v>
       </c>
       <c r="B1538" s="1" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1539" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -20159,7 +20311,7 @@
         <v>1537</v>
       </c>
       <c r="B1539" s="1" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1540" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -20167,7 +20319,7 @@
         <v>1538</v>
       </c>
       <c r="B1540" s="1" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1541" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -20175,7 +20327,7 @@
         <v>1539</v>
       </c>
       <c r="B1541" s="1" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1542" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -20183,10 +20335,10 @@
         <v>1540</v>
       </c>
       <c r="B1542" s="1" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="C1542" s="1" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1543" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -20194,7 +20346,7 @@
         <v>1541</v>
       </c>
       <c r="B1543" s="1" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1544" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -20202,7 +20354,7 @@
         <v>1542</v>
       </c>
       <c r="B1544" s="1" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="1545" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -20210,7 +20362,7 @@
         <v>1543</v>
       </c>
       <c r="B1545" s="1" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1546" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -20218,7 +20370,7 @@
         <v>1544</v>
       </c>
       <c r="B1546" s="1" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1547" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -20226,7 +20378,7 @@
         <v>1545</v>
       </c>
       <c r="B1547" s="1" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1548" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -20234,7 +20386,7 @@
         <v>1546</v>
       </c>
       <c r="B1548" s="1" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1549" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -20242,10 +20394,10 @@
         <v>1547</v>
       </c>
       <c r="B1549" s="1" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
       <c r="C1549" s="1" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1550" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -20253,7 +20405,7 @@
         <v>1548</v>
       </c>
       <c r="B1550" s="1" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1551" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -20261,7 +20413,7 @@
         <v>1549</v>
       </c>
       <c r="B1551" s="1" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1552" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -20269,13 +20421,13 @@
         <v>1550</v>
       </c>
       <c r="B1552" s="1" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="C1552" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D1552" s="1" t="s">
         <v>2278</v>
-      </c>
-      <c r="D1552" s="1" t="s">
-        <v>2281</v>
       </c>
     </row>
     <row r="1553" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20283,10 +20435,10 @@
         <v>1551</v>
       </c>
       <c r="B1553" s="1" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="C1553" s="1" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1554" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20294,7 +20446,7 @@
         <v>1552</v>
       </c>
       <c r="B1554" s="1" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1555" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20302,7 +20454,7 @@
         <v>1553</v>
       </c>
       <c r="B1555" s="1" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1556" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -20310,7 +20462,7 @@
         <v>1554</v>
       </c>
       <c r="B1556" s="1" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1557" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -20318,7 +20470,7 @@
         <v>1555</v>
       </c>
       <c r="B1557" s="1" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="1558" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -20326,10 +20478,10 @@
         <v>1556</v>
       </c>
       <c r="B1558" s="1" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
       <c r="C1558" s="1" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1559" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20337,10 +20489,10 @@
         <v>1557</v>
       </c>
       <c r="B1559" s="1" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="C1559" s="1" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1560" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20348,10 +20500,10 @@
         <v>1558</v>
       </c>
       <c r="B1560" s="1" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
       <c r="C1560" s="1" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1561" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20359,10 +20511,10 @@
         <v>1559</v>
       </c>
       <c r="B1561" s="1" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="C1561" s="1" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1562" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -20370,7 +20522,7 @@
         <v>1560</v>
       </c>
       <c r="B1562" s="1" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1563" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20378,7 +20530,7 @@
         <v>1561</v>
       </c>
       <c r="B1563" s="1" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1564" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -20386,7 +20538,7 @@
         <v>1562</v>
       </c>
       <c r="B1564" s="1" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1565" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -20394,7 +20546,7 @@
         <v>1563</v>
       </c>
       <c r="B1565" s="1" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1566" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20402,10 +20554,10 @@
         <v>1564</v>
       </c>
       <c r="B1566" s="1" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="C1566" s="1" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1567" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20413,10 +20565,10 @@
         <v>1565</v>
       </c>
       <c r="B1567" s="1" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="C1567" s="1" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1568" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -20424,10 +20576,10 @@
         <v>1566</v>
       </c>
       <c r="B1568" s="1" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="C1568" s="1" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1569" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20435,7 +20587,7 @@
         <v>1567</v>
       </c>
       <c r="B1569" s="1" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1570" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20443,7 +20595,7 @@
         <v>1569</v>
       </c>
       <c r="B1570" s="1" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1571" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20451,7 +20603,7 @@
         <v>1570</v>
       </c>
       <c r="B1571" s="1" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1572" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -20459,10 +20611,10 @@
         <v>1571</v>
       </c>
       <c r="B1572" s="1" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="C1572" s="1" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1573" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -20470,10 +20622,10 @@
         <v>1572</v>
       </c>
       <c r="B1573" s="1" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="C1573" s="1" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1574" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20481,10 +20633,10 @@
         <v>1573</v>
       </c>
       <c r="B1574" s="1" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="C1574" s="1" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1575" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20492,7 +20644,7 @@
         <v>1574</v>
       </c>
       <c r="B1575" s="1" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1576" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -20500,7 +20652,7 @@
         <v>1575</v>
       </c>
       <c r="B1576" s="1" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1577" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20508,23 +20660,23 @@
         <v>1576</v>
       </c>
       <c r="B1577" s="1" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1578" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1578" s="1" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="B1578" s="1" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1579" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1579" s="1" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="B1579" s="1" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1580" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20532,7 +20684,7 @@
         <v>1579</v>
       </c>
       <c r="B1580" s="1" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1581" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20540,50 +20692,50 @@
         <v>1578</v>
       </c>
       <c r="B1581" s="1" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1582" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1582" s="1" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="B1582" s="1" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1583" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1583" s="1" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="B1583" s="1" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="C1583" s="1" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1584" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1584" s="1" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="B1584" s="1" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1585" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1585" s="1" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="B1585" s="1" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1586" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1586" s="1" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="B1586" s="1" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1587" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20591,15 +20743,15 @@
         <v>1577</v>
       </c>
       <c r="B1587" s="1" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1588" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1588" s="1" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="B1588" s="1" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.25">
@@ -20607,7 +20759,7 @@
         <v>1580</v>
       </c>
       <c r="B1589" s="1" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1590" spans="1:2" x14ac:dyDescent="0.25">
@@ -20655,7 +20807,7 @@
         <v>1586</v>
       </c>
       <c r="B1595" s="1" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1596" spans="1:2" x14ac:dyDescent="0.25">
@@ -20743,7 +20895,7 @@
         <v>1597</v>
       </c>
       <c r="B1606" s="1" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1607" spans="1:2" x14ac:dyDescent="0.25">
@@ -20751,7 +20903,7 @@
         <v>1598</v>
       </c>
       <c r="B1607" s="1" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1608" spans="1:2" x14ac:dyDescent="0.25">
@@ -20759,7 +20911,7 @@
         <v>1599</v>
       </c>
       <c r="B1608" s="1" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1609" spans="1:2" x14ac:dyDescent="0.25">
@@ -20791,7 +20943,7 @@
         <v>1603</v>
       </c>
       <c r="B1612" s="1" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1613" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20799,7 +20951,7 @@
         <v>1604</v>
       </c>
       <c r="B1613" s="1" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1614" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20807,47 +20959,47 @@
         <v>1605</v>
       </c>
       <c r="B1614" s="1" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="1615" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1615" s="1" t="s">
         <v>1606</v>
       </c>
       <c r="B1615" s="1" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="1616" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1616" s="1" t="s">
         <v>1607</v>
       </c>
       <c r="B1616" s="1" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="1617" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1617" s="1" t="s">
         <v>1608</v>
       </c>
       <c r="B1617" s="1" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="1618" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1618" s="1" t="s">
         <v>1609</v>
       </c>
       <c r="B1618" s="1" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="1619" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1619" s="1" t="s">
         <v>1610</v>
       </c>
       <c r="B1619" s="1" t="s">
-        <v>1610</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1620" spans="1:2" x14ac:dyDescent="0.25">
@@ -20858,36 +21010,36 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="1621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1621" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1621" s="1" t="s">
         <v>1612</v>
       </c>
       <c r="B1621" s="1" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="1622" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1622" s="1" t="s">
         <v>1613</v>
       </c>
       <c r="B1622" s="1" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="1623" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1623" s="1" t="s">
         <v>1614</v>
       </c>
       <c r="B1623" s="1" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="1624" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1624" s="1" t="s">
         <v>1615</v>
       </c>
       <c r="B1624" s="1" t="s">
-        <v>1615</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1625" spans="1:2" x14ac:dyDescent="0.25">
@@ -20895,7 +21047,7 @@
         <v>1616</v>
       </c>
       <c r="B1625" s="1" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1626" spans="1:2" x14ac:dyDescent="0.25">
@@ -20903,7 +21055,7 @@
         <v>1617</v>
       </c>
       <c r="B1626" s="1" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1627" spans="1:2" x14ac:dyDescent="0.25">
@@ -20911,7 +21063,7 @@
         <v>1618</v>
       </c>
       <c r="B1627" s="1" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1628" spans="1:2" x14ac:dyDescent="0.25">
@@ -20919,7 +21071,7 @@
         <v>1619</v>
       </c>
       <c r="B1628" s="1" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1629" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20927,7 +21079,7 @@
         <v>1620</v>
       </c>
       <c r="B1629" s="1" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1630" spans="1:2" x14ac:dyDescent="0.25">
@@ -20935,7 +21087,7 @@
         <v>1621</v>
       </c>
       <c r="B1630" s="1" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1631" spans="1:2" x14ac:dyDescent="0.25">
@@ -20943,7 +21095,7 @@
         <v>1622</v>
       </c>
       <c r="B1631" s="1" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1632" spans="1:2" x14ac:dyDescent="0.25">
@@ -20951,7 +21103,7 @@
         <v>1623</v>
       </c>
       <c r="B1632" s="1" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1633" spans="1:2" x14ac:dyDescent="0.25">
@@ -20959,7 +21111,7 @@
         <v>1624</v>
       </c>
       <c r="B1633" s="1" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1634" spans="1:2" x14ac:dyDescent="0.25">
@@ -20967,7 +21119,7 @@
         <v>1625</v>
       </c>
       <c r="B1634" s="1" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1635" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20975,7 +21127,7 @@
         <v>1626</v>
       </c>
       <c r="B1635" s="1" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1636" spans="1:2" x14ac:dyDescent="0.25">
@@ -20983,7 +21135,7 @@
         <v>1627</v>
       </c>
       <c r="B1636" s="1" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1637" spans="1:2" x14ac:dyDescent="0.25">
@@ -21015,7 +21167,7 @@
         <v>1631</v>
       </c>
       <c r="B1640" s="1" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1641" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21023,7 +21175,7 @@
         <v>1632</v>
       </c>
       <c r="B1641" s="1" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1642" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21031,7 +21183,7 @@
         <v>1633</v>
       </c>
       <c r="B1642" s="1" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1643" spans="1:2" x14ac:dyDescent="0.25">
@@ -21063,7 +21215,7 @@
         <v>1637</v>
       </c>
       <c r="B1646" s="1" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1647" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21071,7 +21223,7 @@
         <v>1638</v>
       </c>
       <c r="B1647" s="1" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1648" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21079,7 +21231,7 @@
         <v>1639</v>
       </c>
       <c r="B1648" s="1" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1649" spans="1:2" x14ac:dyDescent="0.25">
@@ -21103,7 +21255,7 @@
         <v>1642</v>
       </c>
       <c r="B1651" s="1" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1652" spans="1:2" x14ac:dyDescent="0.25">
@@ -21151,7 +21303,7 @@
         <v>1648</v>
       </c>
       <c r="B1657" s="1" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1658" spans="1:2" x14ac:dyDescent="0.25">
@@ -21183,7 +21335,7 @@
         <v>1652</v>
       </c>
       <c r="B1661" s="1" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1662" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21191,7 +21343,7 @@
         <v>1653</v>
       </c>
       <c r="B1662" s="1" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1663" spans="1:2" x14ac:dyDescent="0.25">
@@ -21199,7 +21351,7 @@
         <v>1654</v>
       </c>
       <c r="B1663" s="1" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1664" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21207,7 +21359,7 @@
         <v>1655</v>
       </c>
       <c r="B1664" s="1" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1665" spans="1:2" x14ac:dyDescent="0.25">
@@ -21215,7 +21367,7 @@
         <v>1656</v>
       </c>
       <c r="B1665" s="1" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1666" spans="1:2" x14ac:dyDescent="0.25">
@@ -21223,7 +21375,7 @@
         <v>1657</v>
       </c>
       <c r="B1666" s="1" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1667" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21231,7 +21383,7 @@
         <v>1658</v>
       </c>
       <c r="B1667" s="1" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1668" spans="1:2" x14ac:dyDescent="0.25">
@@ -21239,7 +21391,7 @@
         <v>1659</v>
       </c>
       <c r="B1668" s="1" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1669" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21247,7 +21399,7 @@
         <v>1660</v>
       </c>
       <c r="B1669" s="1" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1670" spans="1:2" x14ac:dyDescent="0.25">
@@ -21255,7 +21407,7 @@
         <v>1661</v>
       </c>
       <c r="B1670" s="1" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1671" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21263,7 +21415,7 @@
         <v>1662</v>
       </c>
       <c r="B1671" s="1" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1672" spans="1:2" x14ac:dyDescent="0.25">
@@ -21343,7 +21495,7 @@
         <v>1672</v>
       </c>
       <c r="B1681" s="1" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1682" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21351,7 +21503,7 @@
         <v>1673</v>
       </c>
       <c r="B1682" s="1" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1683" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21359,7 +21511,7 @@
         <v>1674</v>
       </c>
       <c r="B1683" s="1" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1684" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21367,7 +21519,7 @@
         <v>1675</v>
       </c>
       <c r="B1684" s="1" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1685" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21375,7 +21527,7 @@
         <v>1676</v>
       </c>
       <c r="B1685" s="1" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1686" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21383,7 +21535,7 @@
         <v>1677</v>
       </c>
       <c r="B1686" s="1" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1687" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21391,7 +21543,7 @@
         <v>1678</v>
       </c>
       <c r="B1687" s="1" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1688" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21399,7 +21551,7 @@
         <v>1679</v>
       </c>
       <c r="B1688" s="1" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1689" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21407,7 +21559,7 @@
         <v>1680</v>
       </c>
       <c r="B1689" s="1" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1690" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21415,7 +21567,7 @@
         <v>1681</v>
       </c>
       <c r="B1690" s="1" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1691" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21423,7 +21575,7 @@
         <v>1682</v>
       </c>
       <c r="B1691" s="1" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1692" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21431,7 +21583,7 @@
         <v>1683</v>
       </c>
       <c r="B1692" s="1" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1693" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21439,7 +21591,7 @@
         <v>1684</v>
       </c>
       <c r="B1693" s="1" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1694" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21447,7 +21599,7 @@
         <v>1685</v>
       </c>
       <c r="B1694" s="1" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1695" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21455,7 +21607,7 @@
         <v>1686</v>
       </c>
       <c r="B1695" s="1" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1696" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21463,7 +21615,7 @@
         <v>1687</v>
       </c>
       <c r="B1696" s="1" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1697" spans="1:2" x14ac:dyDescent="0.25">
@@ -21471,7 +21623,7 @@
         <v>1688</v>
       </c>
       <c r="B1697" s="1" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1698" spans="1:2" x14ac:dyDescent="0.25">
@@ -21479,7 +21631,7 @@
         <v>1689</v>
       </c>
       <c r="B1698" s="1" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1699" spans="1:2" x14ac:dyDescent="0.25">
@@ -21487,7 +21639,7 @@
         <v>1690</v>
       </c>
       <c r="B1699" s="1" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1700" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21495,7 +21647,7 @@
         <v>1691</v>
       </c>
       <c r="B1700" s="1" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1701" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21503,7 +21655,7 @@
         <v>1692</v>
       </c>
       <c r="B1701" s="1" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1702" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21511,7 +21663,7 @@
         <v>1693</v>
       </c>
       <c r="B1702" s="1" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1703" spans="1:2" x14ac:dyDescent="0.25">
@@ -21519,7 +21671,7 @@
         <v>1694</v>
       </c>
       <c r="B1703" s="1" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1704" spans="1:2" x14ac:dyDescent="0.25">
@@ -21527,7 +21679,7 @@
         <v>1695</v>
       </c>
       <c r="B1704" s="1" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1705" spans="1:2" x14ac:dyDescent="0.25">
@@ -21535,7 +21687,7 @@
         <v>1696</v>
       </c>
       <c r="B1705" s="1" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1706" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21543,7 +21695,7 @@
         <v>1697</v>
       </c>
       <c r="B1706" s="1" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1707" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21551,7 +21703,7 @@
         <v>1698</v>
       </c>
       <c r="B1707" s="1" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1708" spans="1:2" x14ac:dyDescent="0.25">
@@ -21567,7 +21719,7 @@
         <v>1700</v>
       </c>
       <c r="B1709" s="1" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1710" spans="1:2" x14ac:dyDescent="0.25">
@@ -21583,7 +21735,7 @@
         <v>1702</v>
       </c>
       <c r="B1711" s="1" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1712" spans="1:2" x14ac:dyDescent="0.25">
@@ -21599,7 +21751,7 @@
         <v>1704</v>
       </c>
       <c r="B1713" s="1" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1714" spans="1:2" x14ac:dyDescent="0.25">
@@ -21615,7 +21767,7 @@
         <v>1706</v>
       </c>
       <c r="B1715" s="1" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1716" spans="1:2" x14ac:dyDescent="0.25">
@@ -21639,7 +21791,7 @@
         <v>1709</v>
       </c>
       <c r="B1718" s="1" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1719" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21647,7 +21799,7 @@
         <v>1710</v>
       </c>
       <c r="B1719" s="1" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1720" spans="1:2" x14ac:dyDescent="0.25">
@@ -21655,7 +21807,7 @@
         <v>1711</v>
       </c>
       <c r="B1720" s="1" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1721" spans="1:2" x14ac:dyDescent="0.25">
@@ -21687,7 +21839,7 @@
         <v>1715</v>
       </c>
       <c r="B1724" s="1" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1725" spans="1:2" x14ac:dyDescent="0.25">
@@ -21695,7 +21847,7 @@
         <v>1716</v>
       </c>
       <c r="B1725" s="1" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1726" spans="1:2" x14ac:dyDescent="0.25">
@@ -21703,7 +21855,7 @@
         <v>1717</v>
       </c>
       <c r="B1726" s="1" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1727" spans="1:2" x14ac:dyDescent="0.25">
@@ -21735,7 +21887,7 @@
         <v>1721</v>
       </c>
       <c r="B1730" s="1" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1731" spans="1:2" x14ac:dyDescent="0.25">
@@ -21759,7 +21911,7 @@
         <v>1724</v>
       </c>
       <c r="B1733" s="1" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1734" spans="1:2" x14ac:dyDescent="0.25">
@@ -21775,7 +21927,7 @@
         <v>1726</v>
       </c>
       <c r="B1735" s="1" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1736" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21783,7 +21935,7 @@
         <v>1727</v>
       </c>
       <c r="B1736" s="1" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1737" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21791,7 +21943,7 @@
         <v>1728</v>
       </c>
       <c r="B1737" s="1" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1738" spans="1:2" x14ac:dyDescent="0.25">
@@ -21807,7 +21959,7 @@
         <v>1730</v>
       </c>
       <c r="B1739" s="1" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1740" spans="1:2" x14ac:dyDescent="0.25">
@@ -21823,7 +21975,7 @@
         <v>1732</v>
       </c>
       <c r="B1741" s="1" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1742" spans="1:2" x14ac:dyDescent="0.25">
@@ -21839,7 +21991,7 @@
         <v>1734</v>
       </c>
       <c r="B1743" s="1" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1744" spans="1:2" x14ac:dyDescent="0.25">
@@ -21855,7 +22007,7 @@
         <v>1736</v>
       </c>
       <c r="B1745" s="1" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="1746" spans="1:2" x14ac:dyDescent="0.25">
@@ -21871,7 +22023,7 @@
         <v>1738</v>
       </c>
       <c r="B1747" s="1" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="1748" spans="1:2" x14ac:dyDescent="0.25">
@@ -21887,7 +22039,7 @@
         <v>1740</v>
       </c>
       <c r="B1749" s="1" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1750" spans="1:2" x14ac:dyDescent="0.25">
@@ -21903,7 +22055,7 @@
         <v>1742</v>
       </c>
       <c r="B1751" s="1" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="1752" spans="1:2" x14ac:dyDescent="0.25">
@@ -21919,7 +22071,7 @@
         <v>1744</v>
       </c>
       <c r="B1753" s="1" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="1754" spans="1:2" x14ac:dyDescent="0.25">
@@ -21935,7 +22087,7 @@
         <v>1746</v>
       </c>
       <c r="B1755" s="1" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1756" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21943,71 +22095,71 @@
         <v>1747</v>
       </c>
       <c r="B1756" s="1" t="s">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="1757" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1757" s="1" t="s">
         <v>1748</v>
       </c>
       <c r="B1757" s="1" t="s">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="1758" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1758" s="1" t="s">
         <v>1749</v>
       </c>
       <c r="B1758" s="1" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="1759" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1759" s="1" t="s">
         <v>1750</v>
       </c>
       <c r="B1759" s="1" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="1760" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1760" s="1" t="s">
         <v>1751</v>
       </c>
       <c r="B1760" s="1" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="1761" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1761" s="1" t="s">
         <v>1752</v>
       </c>
       <c r="B1761" s="1" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="1762" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1762" s="1" t="s">
         <v>1753</v>
       </c>
       <c r="B1762" s="1" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="1763" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1763" s="1" t="s">
         <v>1754</v>
       </c>
       <c r="B1763" s="1" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="1764" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1764" s="1" t="s">
         <v>1755</v>
       </c>
       <c r="B1764" s="1" t="s">
-        <v>1755</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1765" spans="1:2" x14ac:dyDescent="0.25">
@@ -22015,7 +22167,7 @@
         <v>1756</v>
       </c>
       <c r="B1765" s="1" t="s">
-        <v>1756</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1766" spans="1:2" x14ac:dyDescent="0.25">
@@ -22058,20 +22210,20 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="1771" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1771" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1771" s="1" t="s">
         <v>1762</v>
       </c>
       <c r="B1771" s="1" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="1772" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1772" s="1" t="s">
         <v>1763</v>
       </c>
       <c r="B1772" s="1" t="s">
-        <v>1763</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1773" spans="1:2" x14ac:dyDescent="0.25">
@@ -22079,508 +22231,508 @@
         <v>1764</v>
       </c>
       <c r="B1773" s="1" t="s">
-        <v>1764</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1774" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B1774" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1775" s="1" t="s">
         <v>1765</v>
       </c>
-      <c r="B1774" s="1" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="1775" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1775" s="1" t="s">
+      <c r="B1775" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1776" s="1" t="s">
         <v>1766</v>
       </c>
-      <c r="B1775" s="1" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="1776" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1776" s="1" t="s">
-        <v>1767</v>
-      </c>
       <c r="B1776" s="1" t="s">
-        <v>1767</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1777" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B1777" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1778" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1778" s="1" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1779" s="1" t="s">
         <v>1769</v>
       </c>
-      <c r="B1778" s="1" t="s">
+      <c r="B1779" s="1" t="s">
         <v>1769</v>
-      </c>
-    </row>
-    <row r="1779" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1779" s="1" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B1779" s="1" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="1780" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1780" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1780" s="1" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1781" s="1" t="s">
         <v>1771</v>
       </c>
-      <c r="B1780" s="1" t="s">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="1781" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1781" s="1" t="s">
-        <v>1772</v>
-      </c>
       <c r="B1781" s="1" t="s">
-        <v>1772</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1782" s="1" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B1782" s="1" t="s">
-        <v>1773</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1783" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1783" s="1" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1784" s="1" t="s">
         <v>1774</v>
       </c>
-      <c r="B1783" s="1" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="1784" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1784" s="1" t="s">
-        <v>1775</v>
-      </c>
       <c r="B1784" s="1" t="s">
-        <v>1775</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1785" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B1785" s="1" t="s">
-        <v>1776</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1786" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1786" s="1" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1787" s="1" t="s">
         <v>1777</v>
       </c>
-      <c r="B1786" s="1" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="1787" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1787" s="1" t="s">
+      <c r="B1787" s="1" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1788" s="1" t="s">
         <v>1778</v>
       </c>
-      <c r="B1787" s="1" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="1788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1788" s="1" t="s">
+      <c r="B1788" s="1" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1789" s="1" t="s">
         <v>1779</v>
       </c>
-      <c r="B1788" s="1" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="1789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1789" s="1" t="s">
+      <c r="B1789" s="1" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1790" s="1" t="s">
         <v>1780</v>
       </c>
-      <c r="B1789" s="1" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="1790" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1790" s="1" t="s">
-        <v>1781</v>
-      </c>
       <c r="B1790" s="1" t="s">
-        <v>1781</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1791" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1791" s="1" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1792" s="1" t="s">
         <v>1782</v>
       </c>
-      <c r="B1791" s="1" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="1792" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1792" s="1" t="s">
+      <c r="B1792" s="1" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1793" s="1" t="s">
         <v>1783</v>
       </c>
-      <c r="B1792" s="1" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="1793" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1793" s="1" t="s">
-        <v>1784</v>
-      </c>
       <c r="B1793" s="1" t="s">
-        <v>1784</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1794" s="1" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B1794" s="1" t="s">
-        <v>1785</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1795" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1795" s="1" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1796" s="1" t="s">
         <v>1786</v>
       </c>
-      <c r="B1795" s="1" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="1796" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1796" s="1" t="s">
+      <c r="B1796" s="1" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1797" s="1" t="s">
         <v>1787</v>
       </c>
-      <c r="B1796" s="1" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="1797" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1797" s="1" t="s">
+      <c r="B1797" s="1" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1798" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="B1797" s="1" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="1798" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1798" s="1" t="s">
+      <c r="B1798" s="1" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1799" s="1" t="s">
         <v>1789</v>
       </c>
-      <c r="B1798" s="1" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="1799" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1799" s="1" t="s">
+      <c r="B1799" s="1" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1800" s="1" t="s">
         <v>1790</v>
       </c>
-      <c r="B1799" s="1" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="1800" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1800" s="1" t="s">
+      <c r="B1800" s="1" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1801" s="1" t="s">
         <v>1791</v>
       </c>
-      <c r="B1800" s="1" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="1801" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1801" s="1" t="s">
+      <c r="B1801" s="1" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1802" s="1" t="s">
         <v>1792</v>
       </c>
-      <c r="B1801" s="1" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="1802" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1802" s="1" t="s">
+      <c r="B1802" s="1" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1803" s="1" t="s">
         <v>1793</v>
       </c>
-      <c r="B1802" s="1" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="1803" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1803" s="1" t="s">
-        <v>1794</v>
-      </c>
       <c r="B1803" s="1" t="s">
-        <v>1794</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1804" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B1804" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="1805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1805" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B1805" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1806" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B1806" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1807" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B1807" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1808" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B1808" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1809" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B1809" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1810" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B1810" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1811" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B1811" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1812" s="1" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B1812" s="1" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1813" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B1813" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1814" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B1814" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1815" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B1815" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1816" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B1816" s="1" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="1817" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1817" s="1" t="s">
-        <v>1808</v>
+        <v>1816</v>
       </c>
       <c r="B1817" s="1" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="1818" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1818" s="1" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="B1818" s="1" t="s">
-        <v>1809</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1819" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1819" s="1" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B1819" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="1820" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1820" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1820" s="1" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1821" s="1" t="s">
         <v>1820</v>
       </c>
-      <c r="B1820" s="1" t="s">
+      <c r="B1821" s="1" t="s">
         <v>2154</v>
-      </c>
-    </row>
-    <row r="1821" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1821" s="1" t="s">
-        <v>1821</v>
-      </c>
-      <c r="B1821" s="1" t="s">
-        <v>2155</v>
       </c>
     </row>
     <row r="1822" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1822" s="1" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B1822" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1823" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1823" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1823" s="1" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1824" s="1" t="s">
         <v>1823</v>
       </c>
-      <c r="B1823" s="1" t="s">
+      <c r="B1824" s="1" t="s">
         <v>2157</v>
       </c>
     </row>
-    <row r="1824" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1824" s="1" t="s">
+    <row r="1825" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1825" s="1" t="s">
         <v>1824</v>
       </c>
-      <c r="B1824" s="1" t="s">
+      <c r="B1825" s="1" t="s">
         <v>2158</v>
       </c>
     </row>
-    <row r="1825" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1825" s="1" t="s">
+    <row r="1826" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1826" s="1" t="s">
         <v>1825</v>
       </c>
-      <c r="B1825" s="1" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="1826" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1826" s="1" t="s">
-        <v>1826</v>
-      </c>
       <c r="B1826" s="1" t="s">
-        <v>2160</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1827" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1827" s="1" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B1827" s="1" t="s">
-        <v>2161</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1828" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1828" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B1828" s="1" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1829" s="1" t="s">
         <v>1828</v>
       </c>
-      <c r="B1828" s="1" t="s">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="1829" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1829" s="1" t="s">
+      <c r="B1829" s="1" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1830" s="1" t="s">
         <v>1829</v>
       </c>
-      <c r="B1829" s="1" t="s">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="1830" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1830" s="1" t="s">
-        <v>1830</v>
-      </c>
       <c r="B1830" s="1" t="s">
-        <v>2169</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1831" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1831" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1831" s="1" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1832" s="1" t="s">
         <v>1831</v>
       </c>
-      <c r="B1831" s="1" t="s">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="1832" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1832" s="1" t="s">
+      <c r="B1832" s="1" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1833" s="1" t="s">
         <v>1832</v>
       </c>
-      <c r="B1832" s="1" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="1833" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1833" s="1" t="s">
-        <v>1833</v>
-      </c>
       <c r="B1833" s="1" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1834" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1834" s="1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B1834" s="1" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1835" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1835" s="1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B1835" s="1" t="s">
-        <v>2172</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1836" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1836" s="1" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B1836" s="1" t="s">
         <v>2178</v>
@@ -22588,2456 +22740,2467 @@
     </row>
     <row r="1837" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1837" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B1837" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1838" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1838" s="1" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B1838" s="1" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1839" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1839" s="1" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B1839" s="1" t="s">
         <v>2180</v>
       </c>
     </row>
-    <row r="1840" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1840" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B1840" s="1" t="s">
-        <v>2182</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1841" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1841" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1841" s="1" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1842" s="1" t="s">
         <v>1841</v>
       </c>
-      <c r="B1841" s="1" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="1842" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1842" s="1" t="s">
-        <v>1842</v>
-      </c>
       <c r="B1842" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1843" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1843" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B1843" s="1" t="s">
-        <v>1843</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="1844" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1844" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B1844" s="1" t="s">
-        <v>1844</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1845" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1845" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B1845" s="1" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1846" s="1" t="s">
         <v>1845</v>
       </c>
-      <c r="B1845" s="1" t="s">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="1846" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1846" s="1" t="s">
+      <c r="B1846" s="1" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1847" s="1" t="s">
         <v>1846</v>
       </c>
-      <c r="B1846" s="1" t="s">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="1847" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1847" s="1" t="s">
-        <v>1847</v>
-      </c>
       <c r="B1847" s="1" t="s">
-        <v>2223</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1848" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1848" s="1" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B1848" s="1" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1849" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1849" s="1" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B1849" s="1" t="s">
-        <v>1849</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="1850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1850" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B1850" s="1" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1851" s="1" t="s">
         <v>1850</v>
       </c>
-      <c r="B1850" s="1" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="1851" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1851" s="1" t="s">
+      <c r="B1851" s="1" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1852" s="1" t="s">
         <v>1851</v>
       </c>
-      <c r="B1851" s="1" t="s">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="1852" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1852" s="1" t="s">
+      <c r="B1852" s="1" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1853" s="1" t="s">
         <v>1852</v>
       </c>
-      <c r="B1852" s="1" t="s">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="1853" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1853" s="1" t="s">
+      <c r="B1853" s="1" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1854" s="1" t="s">
         <v>1853</v>
       </c>
-      <c r="B1853" s="1" t="s">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="1854" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1854" s="1" t="s">
+      <c r="B1854" s="1" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1855" s="1" t="s">
         <v>1854</v>
       </c>
-      <c r="B1854" s="1" t="s">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="1855" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1855" s="1" t="s">
+      <c r="B1855" s="1" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1856" s="1" t="s">
         <v>1855</v>
       </c>
-      <c r="B1855" s="1" t="s">
+      <c r="B1856" s="1" t="s">
         <v>1855</v>
       </c>
     </row>
-    <row r="1856" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1856" s="1" t="s">
+    <row r="1857" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1857" s="1" t="s">
         <v>1856</v>
       </c>
-      <c r="B1856" s="1" t="s">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="1857" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1857" s="1" t="s">
+      <c r="B1857" s="1" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1858" s="1" t="s">
         <v>1857</v>
       </c>
-      <c r="B1857" s="1" t="s">
+      <c r="B1858" s="1" t="s">
         <v>1857</v>
       </c>
     </row>
-    <row r="1858" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1858" s="1" t="s">
+    <row r="1859" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1859" s="1" t="s">
         <v>1858</v>
       </c>
-      <c r="B1858" s="1" t="s">
+      <c r="B1859" s="1" t="s">
         <v>1858</v>
       </c>
     </row>
-    <row r="1859" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1859" s="1" t="s">
+    <row r="1860" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1860" s="1" t="s">
         <v>1859</v>
       </c>
-      <c r="B1859" s="1" t="s">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="1860" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1860" s="1" t="s">
+      <c r="B1860" s="1" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1861" s="1" t="s">
         <v>1860</v>
       </c>
-      <c r="B1860" s="1" t="s">
+      <c r="B1861" s="1" t="s">
         <v>1860</v>
       </c>
     </row>
-    <row r="1861" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1861" s="1" t="s">
+    <row r="1862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1862" s="1" t="s">
         <v>1861</v>
       </c>
-      <c r="B1861" s="1" t="s">
+      <c r="B1862" s="1" t="s">
         <v>1861</v>
       </c>
     </row>
-    <row r="1862" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1862" s="1" t="s">
+    <row r="1863" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1863" s="1" t="s">
         <v>1862</v>
       </c>
-      <c r="B1862" s="1" t="s">
+      <c r="B1863" s="1" t="s">
         <v>1862</v>
-      </c>
-    </row>
-    <row r="1863" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1863" s="1" t="s">
-        <v>1863</v>
-      </c>
-      <c r="B1863" s="1" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="1864" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1864" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1864" s="1" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1865" s="1" t="s">
         <v>1864</v>
       </c>
-      <c r="B1864" s="1" t="s">
+      <c r="B1865" s="1" t="s">
         <v>1864</v>
-      </c>
-    </row>
-    <row r="1865" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1865" s="1" t="s">
-        <v>1865</v>
-      </c>
-      <c r="B1865" s="1" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="1866" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1866" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B1866" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1867" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1867" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B1867" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1868" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1868" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B1868" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1869" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1869" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B1869" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1870" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1870" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B1870" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1871" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1871" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B1871" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1872" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1872" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B1872" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1873" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B1873" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1874" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1874" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B1874" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1875" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1875" s="1" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B1875" s="1" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1876" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B1876" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1877" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1877" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B1877" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1878" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1878" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B1878" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1879" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1879" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B1879" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1880" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1880" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B1880" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1881" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B1881" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1882" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B1882" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1883" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B1883" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1884" s="1" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B1884" s="1" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1885" s="1" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B1885" s="1" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1886" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B1886" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1887" s="1" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B1887" s="1" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1888" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B1888" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1889" s="1" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B1889" s="1" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1890" s="1" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B1890" s="1" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1891" s="1" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B1891" s="1" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1892" s="1" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B1892" s="1" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1893" s="1" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B1893" s="1" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1894" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B1894" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1895" s="1" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B1895" s="1" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1896" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B1896" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1897" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B1897" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1898" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1898" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B1898" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1899" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B1899" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1900" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B1900" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1901" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1901" s="1" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B1901" s="1" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1902" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1902" s="1" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B1902" s="1" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1903" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1903" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1903" s="1" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1904" s="1" t="s">
         <v>1903</v>
       </c>
-      <c r="B1903" s="1" t="s">
+      <c r="B1904" s="1" t="s">
         <v>1903</v>
-      </c>
-    </row>
-    <row r="1904" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1904" s="1" t="s">
-        <v>1904</v>
-      </c>
-      <c r="B1904" s="1" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="1905" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1905" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B1905" s="1" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1906" s="1" t="s">
         <v>1905</v>
       </c>
-      <c r="B1905" s="1" t="s">
+      <c r="B1906" s="1" t="s">
         <v>1905</v>
-      </c>
-    </row>
-    <row r="1906" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1906" s="1" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B1906" s="1" t="s">
-        <v>1906</v>
       </c>
     </row>
     <row r="1907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1907" s="1" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B1907" s="1" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1908" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1908" s="1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B1908" s="1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1909" s="1" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B1909" s="1" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1910" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1910" s="1" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B1910" s="1" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1911" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1911" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B1911" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1912" s="1" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B1912" s="1" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1913" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1913" s="1" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B1913" s="1" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1914" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1914" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1914" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1915" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1915" s="1" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B1915" s="1" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1916" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1916" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B1916" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1917" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1917" s="1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B1917" s="1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1918" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1918" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B1918" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1919" s="1" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B1919" s="1" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1920" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1920" s="1" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B1920" s="1" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1921" s="1" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B1921" s="1" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1922" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B1922" s="1" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1923" s="1" t="s">
         <v>1922</v>
       </c>
-      <c r="B1922" s="1" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="1923" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1923" s="1" t="s">
-        <v>1923</v>
-      </c>
       <c r="B1923" s="1" t="s">
-        <v>1923</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1924" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B1924" s="1" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1925" s="1" t="s">
         <v>1924</v>
       </c>
-      <c r="B1924" s="1" t="s">
+      <c r="B1925" s="1" t="s">
         <v>1924</v>
       </c>
     </row>
-    <row r="1925" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1925" s="1" t="s">
+    <row r="1926" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1926" s="1" t="s">
         <v>1925</v>
       </c>
-      <c r="B1925" s="1" t="s">
-        <v>2344</v>
-      </c>
-    </row>
-    <row r="1926" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1926" s="1" t="s">
+      <c r="B1926" s="1" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1927" s="1" t="s">
         <v>1926</v>
       </c>
-      <c r="B1926" s="1" t="s">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="1927" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1927" s="1" t="s">
+      <c r="B1927" s="1" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1928" s="1" t="s">
         <v>1927</v>
       </c>
-      <c r="B1927" s="1" t="s">
+      <c r="B1928" s="1" t="s">
         <v>1927</v>
       </c>
     </row>
-    <row r="1928" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1928" s="1" t="s">
+    <row r="1929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1929" s="1" t="s">
         <v>1928</v>
       </c>
-      <c r="B1928" s="1" t="s">
+      <c r="B1929" s="1" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1930" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B1930" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1930" s="1" t="s">
         <v>2311</v>
       </c>
     </row>
-    <row r="1929" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1929" s="1" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B1929" s="1" t="s">
+    <row r="1931" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1931" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B1931" s="1" t="s">
         <v>2312</v>
       </c>
-    </row>
-    <row r="1930" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1930" s="1" t="s">
-        <v>1930</v>
-      </c>
-      <c r="B1930" s="1" t="s">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="1931" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1931" s="1" t="s">
+      <c r="C1931" s="1" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1932" s="1" t="s">
         <v>1931</v>
       </c>
-      <c r="B1931" s="1" t="s">
+      <c r="B1932" s="1" t="s">
         <v>1931</v>
       </c>
     </row>
-    <row r="1932" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1932" s="1" t="s">
+    <row r="1933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1933" s="1" t="s">
         <v>1932</v>
       </c>
-      <c r="B1932" s="1" t="s">
-        <v>2313</v>
-      </c>
-      <c r="C1932" s="1" t="s">
+      <c r="B1933" s="1" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1934" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1934" s="1" t="s">
         <v>2314</v>
       </c>
-    </row>
-    <row r="1933" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1933" s="1" t="s">
-        <v>1933</v>
-      </c>
-      <c r="B1933" s="1" t="s">
+      <c r="C1934" s="1" t="s">
         <v>2315</v>
       </c>
-      <c r="C1933" s="1" t="s">
+      <c r="D1934" s="1" t="s">
         <v>2316</v>
-      </c>
-    </row>
-    <row r="1934" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1934" s="1" t="s">
-        <v>1934</v>
-      </c>
-      <c r="B1934" s="1" t="s">
-        <v>1934</v>
       </c>
     </row>
     <row r="1935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1935" s="1" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B1935" s="1" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1936" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1936" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1936" s="1" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1937" s="1" t="s">
         <v>1936</v>
       </c>
-      <c r="B1936" s="1" t="s">
-        <v>2317</v>
-      </c>
-      <c r="C1936" s="1" t="s">
-        <v>2318</v>
-      </c>
-      <c r="D1936" s="1" t="s">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="1937" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1937" s="1" t="s">
+      <c r="B1937" s="1" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1938" s="1" t="s">
         <v>1937</v>
       </c>
-      <c r="B1937" s="1" t="s">
+      <c r="B1938" s="1" t="s">
         <v>1937</v>
       </c>
     </row>
-    <row r="1938" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1938" s="1" t="s">
+    <row r="1939" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1939" s="1" t="s">
         <v>1938</v>
       </c>
-      <c r="B1938" s="1" t="s">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="1939" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1939" s="1" t="s">
-        <v>1939</v>
-      </c>
       <c r="B1939" s="1" t="s">
-        <v>2346</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1940" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1940" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1940" s="1" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1941" s="1" t="s">
         <v>1940</v>
       </c>
-      <c r="B1940" s="1" t="s">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="1941" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1941" s="1" t="s">
-        <v>1941</v>
-      </c>
       <c r="B1941" s="1" t="s">
-        <v>1941</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1942" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1942" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B1942" s="1" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1943" s="1" t="s">
         <v>1942</v>
       </c>
-      <c r="B1942" s="1" t="s">
+      <c r="B1943" s="1" t="s">
         <v>1942</v>
-      </c>
-    </row>
-    <row r="1943" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1943" s="1" t="s">
-        <v>1943</v>
-      </c>
-      <c r="B1943" s="1" t="s">
-        <v>2347</v>
       </c>
     </row>
     <row r="1944" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1944" s="1" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B1944" s="1" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1945" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1945" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B1945" s="1" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1946" s="1" t="s">
         <v>1945</v>
       </c>
-      <c r="B1945" s="1" t="s">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="1946" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1946" s="1" t="s">
+      <c r="B1946" s="1" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1947" s="1" t="s">
         <v>1946</v>
       </c>
-      <c r="B1946" s="1" t="s">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="1947" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1947" s="1" t="s">
+      <c r="B1947" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1948" s="1" t="s">
         <v>1947</v>
       </c>
-      <c r="B1947" s="1" t="s">
+      <c r="B1948" s="1" t="s">
         <v>1947</v>
       </c>
     </row>
-    <row r="1948" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1948" s="1" t="s">
+    <row r="1949" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1949" s="1" t="s">
         <v>1948</v>
       </c>
-      <c r="B1948" s="1" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="1949" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1949" s="1" t="s">
-        <v>1949</v>
-      </c>
       <c r="B1949" s="1" t="s">
-        <v>2285</v>
-      </c>
+        <v>1948</v>
+      </c>
+      <c r="C1949"/>
     </row>
     <row r="1950" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1950" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B1950" s="1" t="s">
-        <v>1950</v>
-      </c>
+        <v>1949</v>
+      </c>
+      <c r="C1950"/>
     </row>
     <row r="1951" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1951" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1951" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C1951"/>
+    </row>
+    <row r="1952" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1952" s="1" t="s">
         <v>1951</v>
       </c>
-      <c r="B1951" s="1" t="s">
-        <v>1951</v>
-      </c>
-      <c r="C1951"/>
-    </row>
-    <row r="1952" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1952" s="1" t="s">
-        <v>1952</v>
-      </c>
       <c r="B1952" s="1" t="s">
-        <v>1952</v>
-      </c>
-      <c r="C1952"/>
+        <v>2279</v>
+      </c>
+      <c r="C1952" s="1" t="s">
+        <v>2280</v>
+      </c>
     </row>
     <row r="1953" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1953" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B1953" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C1953"/>
+    </row>
+    <row r="1954" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1954" s="1" t="s">
         <v>1953</v>
       </c>
-      <c r="B1953" s="1" t="s">
-        <v>1953</v>
-      </c>
-      <c r="C1953"/>
-    </row>
-    <row r="1954" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A1954" s="1" t="s">
-        <v>1954</v>
-      </c>
       <c r="B1954" s="1" t="s">
-        <v>2282</v>
-      </c>
-      <c r="C1954" s="1" t="s">
-        <v>2283</v>
-      </c>
+        <v>2307</v>
+      </c>
+      <c r="C1954"/>
     </row>
     <row r="1955" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1955" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1955" s="1" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1956" s="1" t="s">
         <v>1955</v>
       </c>
-      <c r="B1955" s="1" t="s">
+      <c r="B1956" s="1" t="s">
         <v>1955</v>
       </c>
-      <c r="C1955"/>
-    </row>
-    <row r="1956" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1956" s="1" t="s">
-        <v>1956</v>
-      </c>
-      <c r="B1956" s="1" t="s">
-        <v>2310</v>
-      </c>
-      <c r="C1956"/>
     </row>
     <row r="1957" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1957" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B1957" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1958" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1958" s="1" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1958" s="1" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1959" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1959" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1959" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1960" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1960" s="1" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B1960" s="1" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1961" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1961" s="1" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B1961" s="1" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1962" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1962" s="1" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B1962" s="1" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1963" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1963" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B1963" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1964" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1964" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B1964" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1965" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1965" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B1965" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1966" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1966" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B1966" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1967" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1967" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B1967" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1968" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1968" s="1" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B1968" s="1" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1969" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1969" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B1969" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1970" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1970" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B1970" s="1" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1971" s="1" t="s">
         <v>1970</v>
       </c>
-      <c r="B1970" s="1" t="s">
+      <c r="B1971" s="1" t="s">
         <v>1970</v>
       </c>
     </row>
-    <row r="1971" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1971" s="1" t="s">
+    <row r="1972" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1972" s="1" t="s">
         <v>1971</v>
       </c>
-      <c r="B1971" s="1" t="s">
+      <c r="B1972" s="1" t="s">
         <v>1971</v>
-      </c>
-    </row>
-    <row r="1972" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1972" s="1" t="s">
-        <v>1972</v>
-      </c>
-      <c r="B1972" s="1" t="s">
-        <v>1972</v>
       </c>
     </row>
     <row r="1973" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1973" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B1973" s="1" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1974" s="1" t="s">
         <v>1973</v>
       </c>
-      <c r="B1973" s="1" t="s">
+      <c r="B1974" s="1" t="s">
         <v>1973</v>
-      </c>
-    </row>
-    <row r="1974" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1974" s="1" t="s">
-        <v>1974</v>
-      </c>
-      <c r="B1974" s="1" t="s">
-        <v>1974</v>
       </c>
     </row>
     <row r="1975" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1975" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1975" s="1" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1976" s="1" t="s">
         <v>1975</v>
       </c>
-      <c r="B1975" s="1" t="s">
+      <c r="B1976" s="1" t="s">
         <v>1975</v>
       </c>
     </row>
-    <row r="1976" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1976" s="1" t="s">
+    <row r="1977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1977" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="B1976" s="1" t="s">
+      <c r="B1977" s="1" t="s">
         <v>1976</v>
       </c>
     </row>
-    <row r="1977" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1977" s="1" t="s">
+    <row r="1978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1978" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="B1977" s="1" t="s">
+      <c r="B1978" s="1" t="s">
         <v>1977</v>
-      </c>
-    </row>
-    <row r="1978" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1978" s="1" t="s">
-        <v>1978</v>
-      </c>
-      <c r="B1978" s="1" t="s">
-        <v>1978</v>
       </c>
     </row>
     <row r="1979" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1979" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B1979" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1980" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1980" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1980" s="1" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1981" s="1" t="s">
         <v>1980</v>
       </c>
-      <c r="B1980" s="1" t="s">
+      <c r="B1981" s="1" t="s">
         <v>1980</v>
-      </c>
-    </row>
-    <row r="1981" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1981" s="1" t="s">
-        <v>1981</v>
-      </c>
-      <c r="B1981" s="1" t="s">
-        <v>1981</v>
       </c>
     </row>
     <row r="1982" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1982" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B1982" s="1" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1983" s="1" t="s">
         <v>1982</v>
       </c>
-      <c r="B1982" s="1" t="s">
+      <c r="B1983" s="1" t="s">
         <v>1982</v>
-      </c>
-    </row>
-    <row r="1983" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1983" s="1" t="s">
-        <v>1983</v>
-      </c>
-      <c r="B1983" s="1" t="s">
-        <v>1983</v>
       </c>
     </row>
     <row r="1984" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1984" s="1" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B1984" s="1" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1985" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1985" s="1" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B1985" s="1" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1986" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1986" s="1" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B1986" s="1" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1987" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1987" s="1" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1987" s="1" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1988" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1988" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B1988" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1989" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1989" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B1989" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1990" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1990" s="1" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B1990" s="1" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1991" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1991" s="1" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B1991" s="1" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1992" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1992" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B1992" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1993" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1993" s="1" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B1993" s="1" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1994" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1994" s="1" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B1994" s="1" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1995" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1995" s="1" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B1995" s="1" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1996" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1996" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B1996" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1997" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1997" s="1" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B1997" s="1" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1998" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1998" s="1" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B1998" s="1" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1999" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1999" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B1999" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="2000" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2000" s="1" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B2000" s="1" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="2001" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2001" s="1" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B2001" s="1" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="2002" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2002" s="1" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B2002" s="1" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="2003" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2003" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B2003" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="2004" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2004" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B2004" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="2005" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2005" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B2005" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="2006" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2006" s="1" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B2006" s="1" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="2007" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2007" s="1" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B2007" s="1" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="2008" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2008" s="1" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B2008" s="1" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="2009" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2009" s="1" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B2009" s="1" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="2010" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2010" s="1" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B2010" s="1" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="2011" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2011" s="1" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B2011" s="1" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="2012" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2012" s="1" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B2012" s="1" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="2013" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2013" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B2013" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="2014" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2014" s="1" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B2014" s="1" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="2015" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2015" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B2015" s="1" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2016" s="1" t="s">
         <v>2015</v>
       </c>
-      <c r="B2015" s="1" t="s">
+      <c r="B2016" s="1" t="s">
         <v>2015</v>
       </c>
     </row>
-    <row r="2016" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2016" s="1" t="s">
+    <row r="2017" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2017" s="1" t="s">
         <v>2016</v>
       </c>
-      <c r="B2016" s="1" t="s">
+      <c r="B2017" s="1" t="s">
         <v>2016</v>
       </c>
     </row>
-    <row r="2017" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2017" s="1" t="s">
+    <row r="2018" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2018" s="1" t="s">
         <v>2017</v>
       </c>
-      <c r="B2017" s="1" t="s">
+      <c r="B2018" s="1" t="s">
         <v>2017</v>
       </c>
     </row>
-    <row r="2018" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2018" s="1" t="s">
+    <row r="2019" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2019" s="1" t="s">
         <v>2018</v>
       </c>
-      <c r="B2018" s="1" t="s">
+      <c r="B2019" s="1" t="s">
         <v>2018</v>
-      </c>
-    </row>
-    <row r="2019" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2019" s="1" t="s">
-        <v>2019</v>
-      </c>
-      <c r="B2019" s="1" t="s">
-        <v>2019</v>
       </c>
     </row>
     <row r="2020" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2020" s="1" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B2020" s="1" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2021" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2021" s="1" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B2021" s="1" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2022" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2022" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B2022" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2023" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2023" s="1" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B2023" s="1" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="2024" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2024" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B2024" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2025" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2025" s="1" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B2025" s="1" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="2026" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2026" s="1" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B2026" s="1" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="2027" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2027" s="1" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B2027" s="1" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="2028" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2028" s="1" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B2028" s="1" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2029" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2029" s="1" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B2029" s="1" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="2030" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2030" s="1" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B2030" s="1" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="2031" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2031" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B2031" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="2032" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2032" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B2032" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="2033" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2033" s="1" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B2033" s="1" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="2034" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2034" s="1" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B2034" s="1" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="2035" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2035" s="1" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B2035" s="1" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="2036" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2036" s="1" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B2036" s="1" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="2037" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2037" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B2037" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="2038" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2038" s="1" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B2038" s="1" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="2039" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2039" s="1" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B2039" s="1" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="2040" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2040" s="1" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B2040" s="1" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="2041" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2041" s="1" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B2041" s="1" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="2042" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2042" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2042" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="2043" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2043" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B2043" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="2044" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2044" s="1" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B2044" s="1" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="2045" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2045" s="1" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B2045" s="1" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="2046" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2046" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B2046" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="2047" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2047" s="1" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B2047" s="1" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="2048" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2048" s="1" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B2048" s="1" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="2049" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2049" s="1" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B2049" s="1" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="2050" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2050" s="1" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B2050" s="1" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="2051" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2051" s="1" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B2051" s="1" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="2052" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2052" s="1" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B2052" s="1" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="2053" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2053" s="1" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B2053" s="1" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="2054" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2054" s="1" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B2054" s="1" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="2055" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2055" s="1" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B2055" s="1" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="2056" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2056" s="1" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B2056" s="1" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="2057" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2057" s="1" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B2057" s="1" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="2058" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2058" s="1" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B2058" s="1" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="2059" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2059" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B2059" s="1" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2060" s="1" t="s">
         <v>2059</v>
       </c>
-      <c r="B2059" s="1" t="s">
+      <c r="B2060" s="1" t="s">
         <v>2059</v>
-      </c>
-    </row>
-    <row r="2060" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2060" s="1" t="s">
-        <v>2060</v>
-      </c>
-      <c r="B2060" s="1" t="s">
-        <v>2060</v>
       </c>
     </row>
     <row r="2061" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2061" s="1" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B2061" s="1" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="2062" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2062" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B2062" s="1" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2063" s="1" t="s">
         <v>2062</v>
       </c>
-      <c r="B2062" s="1" t="s">
+      <c r="B2063" s="1" t="s">
         <v>2062</v>
-      </c>
-    </row>
-    <row r="2063" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2063" s="1" t="s">
-        <v>2063</v>
-      </c>
-      <c r="B2063" s="1" t="s">
-        <v>2063</v>
       </c>
     </row>
     <row r="2064" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2064" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B2064" s="1" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2065" s="1" t="s">
         <v>2064</v>
       </c>
-      <c r="B2064" s="1" t="s">
+      <c r="B2065" s="1" t="s">
         <v>2064</v>
-      </c>
-    </row>
-    <row r="2065" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2065" s="1" t="s">
-        <v>2065</v>
-      </c>
-      <c r="B2065" s="1" t="s">
-        <v>2065</v>
       </c>
     </row>
     <row r="2066" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2066" s="1" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B2066" s="1" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="2067" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2067" s="1" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B2067" s="1" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="2068" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2068" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B2068" s="1" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2069" s="1" t="s">
         <v>2068</v>
       </c>
-      <c r="B2068" s="1" t="s">
+      <c r="B2069" s="1" t="s">
         <v>2068</v>
       </c>
     </row>
-    <row r="2069" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2069" s="1" t="s">
+    <row r="2070" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2070" s="1" t="s">
         <v>2069</v>
       </c>
-      <c r="B2069" s="1" t="s">
+      <c r="B2070" s="1" t="s">
         <v>2069</v>
       </c>
     </row>
-    <row r="2070" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2070" s="1" t="s">
+    <row r="2071" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2071" s="1" t="s">
         <v>2070</v>
       </c>
-      <c r="B2070" s="1" t="s">
+      <c r="B2071" s="1" t="s">
         <v>2070</v>
       </c>
     </row>
-    <row r="2071" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2071" s="1" t="s">
+    <row r="2072" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2072" s="1" t="s">
         <v>2071</v>
       </c>
-      <c r="B2071" s="1" t="s">
+      <c r="B2072" s="1" t="s">
         <v>2071</v>
       </c>
     </row>
-    <row r="2072" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2072" s="1" t="s">
+    <row r="2073" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2073" s="1" t="s">
         <v>2072</v>
       </c>
-      <c r="B2072" s="1" t="s">
+      <c r="B2073" s="1" t="s">
         <v>2072</v>
-      </c>
-    </row>
-    <row r="2073" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2073" s="1" t="s">
-        <v>2073</v>
-      </c>
-      <c r="B2073" s="1" t="s">
-        <v>2073</v>
       </c>
     </row>
     <row r="2074" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2074" s="1" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B2074" s="1" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="2075" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2075" s="1" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B2075" s="1" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="2076" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2076" s="1" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B2076" s="1" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="2077" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2077" s="1" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B2077" s="1" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="2078" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2078" s="1" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B2078" s="1" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="2079" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2079" s="1" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B2079" s="1" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="2080" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2080" s="1" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B2080" s="1" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="2081" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2081" s="1" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B2081" s="1" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="2082" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2082" s="1" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B2082" s="1" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="2083" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2083" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B2083" s="1" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2084" s="1" t="s">
         <v>2083</v>
       </c>
-      <c r="B2083" s="1" t="s">
+      <c r="B2084" s="1" t="s">
         <v>2083</v>
       </c>
     </row>
-    <row r="2084" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2084" s="1" t="s">
+    <row r="2085" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2085" s="1" t="s">
         <v>2084</v>
       </c>
-      <c r="B2084" s="1" t="s">
+      <c r="B2085" s="1" t="s">
         <v>2084</v>
-      </c>
-    </row>
-    <row r="2085" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2085" s="1" t="s">
-        <v>2085</v>
-      </c>
-      <c r="B2085" s="1" t="s">
-        <v>2085</v>
       </c>
     </row>
     <row r="2086" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2086" s="1" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B2086" s="1" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="2087" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2087" s="1" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B2087" s="1" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="2088" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2088" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B2088" s="1" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2089" s="1" t="s">
         <v>2088</v>
       </c>
-      <c r="B2088" s="1" t="s">
+      <c r="B2089" s="1" t="s">
         <v>2088</v>
       </c>
     </row>
-    <row r="2089" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2089" s="1" t="s">
+    <row r="2090" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2090" s="1" t="s">
         <v>2089</v>
       </c>
-      <c r="B2089" s="1" t="s">
+      <c r="B2090" s="1" t="s">
         <v>2089</v>
       </c>
     </row>
-    <row r="2090" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2090" s="1" t="s">
+    <row r="2091" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2091" s="1" t="s">
         <v>2090</v>
       </c>
-      <c r="B2090" s="1" t="s">
+      <c r="B2091" s="1" t="s">
         <v>2090</v>
       </c>
     </row>
-    <row r="2091" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2091" s="1" t="s">
+    <row r="2092" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2092" s="1" t="s">
         <v>2091</v>
       </c>
-      <c r="B2091" s="1" t="s">
+      <c r="B2092" s="1" t="s">
         <v>2091</v>
       </c>
     </row>
-    <row r="2092" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2092" s="1" t="s">
+    <row r="2093" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2093" s="1" t="s">
         <v>2092</v>
       </c>
-      <c r="B2092" s="1" t="s">
+      <c r="B2093" s="1" t="s">
         <v>2092</v>
       </c>
     </row>
-    <row r="2093" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2093" s="1" t="s">
+    <row r="2094" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2094" s="1" t="s">
         <v>2093</v>
       </c>
-      <c r="B2093" s="1" t="s">
+      <c r="B2094" s="1" t="s">
         <v>2093</v>
-      </c>
-    </row>
-    <row r="2094" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2094" s="1" t="s">
-        <v>2094</v>
-      </c>
-      <c r="B2094" s="1" t="s">
-        <v>2094</v>
       </c>
     </row>
     <row r="2095" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2095" s="1" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B2095" s="1" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="2096" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2096" s="1" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B2096" s="1" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="2097" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2097" s="1" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B2097" s="1" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="2098" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2098" s="1" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B2098" s="1" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="2099" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2099" s="1" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B2099" s="1" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="2100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2100" s="1" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B2100" s="1" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="2101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2101" s="1" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B2101" s="1" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="2102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2102" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B2102" s="1" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2103" s="1" t="s">
         <v>2102</v>
       </c>
-      <c r="B2102" s="1" t="s">
+      <c r="B2103" s="1" t="s">
         <v>2102</v>
-      </c>
-    </row>
-    <row r="2103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2103" s="1" t="s">
-        <v>2103</v>
-      </c>
-      <c r="B2103" s="1" t="s">
-        <v>2103</v>
       </c>
     </row>
     <row r="2104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2104" s="1" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B2104" s="1" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="2105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2105" s="1" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B2105" s="1" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="2106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2106" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B2106" s="1" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2107" s="1" t="s">
         <v>2106</v>
       </c>
-      <c r="B2106" s="1" t="s">
+      <c r="B2107" s="1" t="s">
         <v>2106</v>
       </c>
     </row>
-    <row r="2107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2107" s="1" t="s">
+    <row r="2108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2108" s="1" t="s">
         <v>2107</v>
       </c>
-      <c r="B2107" s="1" t="s">
+      <c r="B2108" s="1" t="s">
         <v>2107</v>
-      </c>
-    </row>
-    <row r="2108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2108" s="1" t="s">
-        <v>2108</v>
-      </c>
-      <c r="B2108" s="1" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="2109" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2109" s="1" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B2109" s="1" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="2110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2110" s="1" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B2110" s="1" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="2111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2111" s="1" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B2111" s="1" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="2112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2112" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B2112" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="2113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2113" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B2113" s="1" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2114" s="1" t="s">
         <v>2113</v>
       </c>
-      <c r="B2113" s="1" t="s">
+      <c r="B2114" s="1" t="s">
         <v>2113</v>
       </c>
     </row>
-    <row r="2114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2114" s="1" t="s">
+    <row r="2115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2115" s="1" t="s">
         <v>2114</v>
       </c>
-      <c r="B2114" s="1" t="s">
+      <c r="B2115" s="1" t="s">
         <v>2114</v>
-      </c>
-    </row>
-    <row r="2115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2115" s="1" t="s">
-        <v>2115</v>
-      </c>
-      <c r="B2115" s="1" t="s">
-        <v>2115</v>
       </c>
     </row>
     <row r="2116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2116" s="1" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B2116" s="1" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="2117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2117" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B2117" s="1" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2118" s="1" t="s">
         <v>2117</v>
       </c>
-      <c r="B2117" s="1" t="s">
+      <c r="B2118" s="1" t="s">
         <v>2117</v>
       </c>
     </row>
-    <row r="2118" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2118" s="1" t="s">
+    <row r="2119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2119" s="1" t="s">
         <v>2118</v>
       </c>
-      <c r="B2118" s="1" t="s">
+      <c r="B2119" s="1" t="s">
         <v>2118</v>
       </c>
     </row>
-    <row r="2119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2119" s="1" t="s">
+    <row r="2120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2120" s="1" t="s">
         <v>2119</v>
       </c>
-      <c r="B2119" s="1" t="s">
+      <c r="B2120" s="1" t="s">
         <v>2119</v>
       </c>
     </row>
-    <row r="2120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2120" s="1" t="s">
+    <row r="2121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2121" s="1" t="s">
         <v>2120</v>
       </c>
-      <c r="B2120" s="1" t="s">
+      <c r="B2121" s="1" t="s">
         <v>2120</v>
       </c>
     </row>
-    <row r="2121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2121" s="1" t="s">
+    <row r="2122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2122" s="1" t="s">
         <v>2121</v>
       </c>
-      <c r="B2121" s="1" t="s">
+      <c r="B2122" s="1" t="s">
         <v>2121</v>
-      </c>
-    </row>
-    <row r="2122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2122" s="1" t="s">
-        <v>2122</v>
-      </c>
-      <c r="B2122" s="1" t="s">
-        <v>2122</v>
       </c>
     </row>
     <row r="2123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2123" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B2123" s="1" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2124" s="1" t="s">
         <v>2123</v>
       </c>
-      <c r="B2123" s="1" t="s">
+      <c r="B2124" s="1" t="s">
         <v>2123</v>
       </c>
     </row>
-    <row r="2124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2124" s="1" t="s">
+    <row r="2125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2125" s="1" t="s">
         <v>2124</v>
       </c>
-      <c r="B2124" s="1" t="s">
+      <c r="B2125" s="1" t="s">
         <v>2124</v>
       </c>
     </row>
-    <row r="2125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2125" s="1" t="s">
+    <row r="2126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2126" s="1" t="s">
         <v>2125</v>
       </c>
-      <c r="B2125" s="1" t="s">
+      <c r="B2126" s="1" t="s">
         <v>2125</v>
-      </c>
-    </row>
-    <row r="2126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2126" s="1" t="s">
-        <v>2126</v>
-      </c>
-      <c r="B2126" s="1" t="s">
-        <v>2126</v>
       </c>
     </row>
     <row r="2127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2127" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B2127" s="1" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2128" s="1" t="s">
         <v>2127</v>
       </c>
-      <c r="B2127" s="1" t="s">
+      <c r="B2128" s="1" t="s">
         <v>2127</v>
-      </c>
-    </row>
-    <row r="2128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2128" s="1" t="s">
-        <v>2128</v>
-      </c>
-      <c r="B2128" s="1" t="s">
-        <v>2128</v>
       </c>
     </row>
     <row r="2129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2129" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B2129" s="1" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2130" s="1" t="s">
         <v>2129</v>
       </c>
-      <c r="B2129" s="1" t="s">
+      <c r="B2130" s="1" t="s">
         <v>2129</v>
       </c>
     </row>
-    <row r="2130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2130" s="1" t="s">
+    <row r="2131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2131" s="1" t="s">
         <v>2130</v>
       </c>
-      <c r="B2130" s="1" t="s">
+      <c r="B2131" s="1" t="s">
         <v>2130</v>
       </c>
     </row>
-    <row r="2131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2131" s="1" t="s">
+    <row r="2132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2132" s="1" t="s">
         <v>2131</v>
       </c>
-      <c r="B2131" s="1" t="s">
+      <c r="B2132" s="1" t="s">
         <v>2131</v>
       </c>
     </row>
-    <row r="2132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2132" s="1" t="s">
+    <row r="2133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2133" s="1" t="s">
         <v>2132</v>
       </c>
-      <c r="B2132" s="1" t="s">
+      <c r="B2133" s="1" t="s">
         <v>2132</v>
       </c>
-    </row>
-    <row r="2133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2133" s="1" t="s">
-        <v>2133</v>
-      </c>
-      <c r="B2133" s="1" t="s">
-        <v>2133</v>
-      </c>
+      <c r="C2133"/>
     </row>
     <row r="2134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2134" s="1" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B2134" s="1" t="s">
-        <v>2134</v>
-      </c>
+        <v>2133</v>
+      </c>
+      <c r="C2134"/>
     </row>
     <row r="2135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2135" s="1" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B2135" s="1" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="C2135"/>
     </row>
     <row r="2136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2136" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B2136" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C2136"/>
+    </row>
+    <row r="2137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2137" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="B2136" s="1" t="s">
+      <c r="B2137" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="C2136"/>
-    </row>
-    <row r="2137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2137" s="1" t="s">
+      <c r="C2137"/>
+    </row>
+    <row r="2138" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2138" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B2138" s="1" t="s">
         <v>2137</v>
       </c>
-      <c r="B2137" s="1" t="s">
-        <v>2137</v>
-      </c>
-      <c r="C2137"/>
-    </row>
-    <row r="2138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2138" s="1" t="s">
-        <v>2138</v>
-      </c>
-      <c r="B2138" s="1" t="s">
-        <v>2138</v>
-      </c>
-      <c r="C2138"/>
-    </row>
-    <row r="2139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2138" s="1"/>
+      <c r="E2138" s="1"/>
+      <c r="F2138" s="1"/>
+      <c r="G2138" s="1"/>
+    </row>
+    <row r="2139" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2139" s="1" t="s">
-        <v>2139</v>
+        <v>1811</v>
       </c>
       <c r="B2139" s="1" t="s">
         <v>2139</v>
       </c>
-      <c r="C2139"/>
-    </row>
-    <row r="2140" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="C2139" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D2139" s="1"/>
+      <c r="E2139" s="1"/>
+      <c r="F2139" s="1"/>
+      <c r="G2139" s="1"/>
+    </row>
+    <row r="2140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2140" s="1" t="s">
-        <v>1568</v>
+        <v>30</v>
       </c>
       <c r="B2140" s="1" t="s">
         <v>2140</v>
@@ -25047,114 +25210,103 @@
       <c r="F2140" s="1"/>
       <c r="G2140" s="1"/>
     </row>
-    <row r="2141" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2141" s="1" t="s">
-        <v>1814</v>
+        <v>2199</v>
       </c>
       <c r="B2141" s="1" t="s">
-        <v>2142</v>
-      </c>
-      <c r="C2141" s="1" t="s">
-        <v>2141</v>
-      </c>
-      <c r="D2141" s="1"/>
-      <c r="E2141" s="1"/>
-      <c r="F2141" s="1"/>
-      <c r="G2141" s="1"/>
+        <v>2200</v>
+      </c>
     </row>
     <row r="2142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2142" s="1" t="s">
-        <v>30</v>
+        <v>2211</v>
       </c>
       <c r="B2142" s="1" t="s">
-        <v>2143</v>
-      </c>
-      <c r="D2142" s="1"/>
-      <c r="E2142" s="1"/>
-      <c r="F2142" s="1"/>
-      <c r="G2142" s="1"/>
-    </row>
-    <row r="2143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2143" s="1" t="s">
-        <v>2202</v>
+        <v>2233</v>
       </c>
       <c r="B2143" s="1" t="s">
-        <v>2203</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="2144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2144" s="1" t="s">
-        <v>2214</v>
+        <v>2235</v>
       </c>
       <c r="B2144" s="1" t="s">
-        <v>2215</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="2145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2145" s="1" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="B2145" s="1" t="s">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="2146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2146" s="1" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="B2146" s="1" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="2147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2147" s="1" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="B2147" s="1" t="s">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="2148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2148" s="1" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="B2148" s="1" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="2149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2149" s="1" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="B2149" s="1" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2150" s="1" t="s">
         <v>2245</v>
-      </c>
-    </row>
-    <row r="2150" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2150" s="1" t="s">
-        <v>2246</v>
       </c>
       <c r="B2150" s="1" t="s">
         <v>2247</v>
       </c>
     </row>
-    <row r="2151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2151" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2151" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B2151" s="1" t="s">
         <v>2249</v>
-      </c>
-      <c r="B2151" s="1" t="s">
-        <v>2250</v>
       </c>
     </row>
     <row r="2152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2152" s="1" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="B2152" s="1" t="s">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="2153" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2153" s="1" t="s">
         <v>2251</v>
       </c>
@@ -25162,7 +25314,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="2154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2154" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2154" s="1" t="s">
         <v>2253</v>
       </c>
@@ -25170,142 +25322,155 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="2155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2155" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2155" s="1" t="s">
         <v>2254</v>
       </c>
       <c r="B2155" s="1" t="s">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="2156" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2156" s="1" t="s">
-        <v>2256</v>
-      </c>
-      <c r="B2156" s="1" t="s">
-        <v>2258</v>
-      </c>
-    </row>
-    <row r="2157" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2157" s="1" t="s">
-        <v>2257</v>
-      </c>
-      <c r="B2157" s="1" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="2158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2158" s="1" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F2158" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
+  <autoFilter ref="A2:F2156" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="42" priority="11"/>
+  <conditionalFormatting sqref="A1:A1772 A1774:A1048576">
+    <cfRule type="duplicateValues" dxfId="53" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="41" priority="146"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A132">
-    <cfRule type="duplicateValues" dxfId="39" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134">
-    <cfRule type="duplicateValues" dxfId="37" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:A198">
-    <cfRule type="duplicateValues" dxfId="35" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="126"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1612:A1614 A1:C162 A164:C166 A163 C163 A168:C170 A167 C167 A172:C174 A171 C171 A176:C178 A175 C175 A179 C179 C1612:C1614 A180:C194 A1615:C1680 A1681:A1695 C1681:C1695 A1696:C1744 A1746:C1746 A1745 C1745 A1752:C1752 A1751 C1751 A1748:C1750 A1747 C1747 A1753 C1753 A195 C195 A1754:C1048576 A196:C1611">
-    <cfRule type="duplicateValues" dxfId="34" priority="10"/>
+  <conditionalFormatting sqref="A1612:A1614 A1:C162 A164:C166 A163 C163 A168:C170 A167 C167 A172:C174 A171 C171 A176:C178 A175 C175 A179 C179 C1612:C1614 A180:C194 A1681:A1695 C1681:C1695 A1696:C1744 A1746:C1746 A1745 C1745 A1752:C1752 A1751 C1751 A1748:C1750 A1747 C1747 A1753 C1753 A195 C195 A196:C1611 A1615:C1680 A1774:C1048576 A1754:C1772">
+    <cfRule type="duplicateValues" dxfId="45" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1925:A1929">
-    <cfRule type="duplicateValues" dxfId="33" priority="5485"/>
+  <conditionalFormatting sqref="A1923:A1927">
+    <cfRule type="duplicateValues" dxfId="44" priority="5496"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2143:A1048576 A2:A2139">
-    <cfRule type="duplicateValues" dxfId="32" priority="17"/>
+  <conditionalFormatting sqref="A2141:A1048576 A2:A1772 A1774:A2137">
+    <cfRule type="duplicateValues" dxfId="43" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2143:A1048576 A2:A2140">
-    <cfRule type="duplicateValues" dxfId="31" priority="15"/>
+  <conditionalFormatting sqref="A2141:A1048576 A2:A1772 A1774:A2138">
+    <cfRule type="duplicateValues" dxfId="42" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2143:A1048576 A2:A2141">
-    <cfRule type="duplicateValues" dxfId="30" priority="13"/>
+  <conditionalFormatting sqref="A2141:A1048576 A2:A1772 A1774:A2139">
+    <cfRule type="duplicateValues" dxfId="41" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4467:A1048576 A1807:A1924 A199:A1530 A2:A13 A15:A74 A133 A1930:A1952">
-    <cfRule type="duplicateValues" dxfId="29" priority="155"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="157"/>
+  <conditionalFormatting sqref="A4465:A1048576 A1805:A1922 A199:A1530 A2:A13 A15:A74 A133 A1928:A1950">
+    <cfRule type="duplicateValues" dxfId="40" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="27" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B132">
-    <cfRule type="duplicateValues" dxfId="25" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135:B162 B164:B166 B168:B170 B172:B174 B176:B178 B180:B194 B196:B198">
-    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1143">
-    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1144">
-    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1531">
-    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1925:B1929">
-    <cfRule type="duplicateValues" dxfId="15" priority="5486"/>
+  <conditionalFormatting sqref="B1923:B1927">
+    <cfRule type="duplicateValues" dxfId="26" priority="5497"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4467:B1048576 B2:B13 B15:B74 B133 B1930:B1952 B1807:B1924 B199:B1530">
-    <cfRule type="duplicateValues" dxfId="14" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="30"/>
+  <conditionalFormatting sqref="B4465:B1048576 B2:B13 B15:B74 B133 B1928:B1950 B1805:B1922 B199:B1530">
+    <cfRule type="duplicateValues" dxfId="25" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2138:W2138">
+    <cfRule type="duplicateValues" dxfId="23" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2139:W2139">
+    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2140:W2140">
-    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2141:W2141">
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2142:W2142">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  <conditionalFormatting sqref="A1774:B1048576 A1:B1772">
+    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1580">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1615:B1680 B1696:B1744 B1746 B1752 B1748:B1750 B1754:B1801 B1545:B1611">
-    <cfRule type="duplicateValues" dxfId="5" priority="13741"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1545:A1801">
-    <cfRule type="duplicateValues" dxfId="4" priority="13748"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1544">
-    <cfRule type="duplicateValues" dxfId="3" priority="15549"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="15550"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="15560"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15561"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1544">
-    <cfRule type="duplicateValues" dxfId="1" priority="15551"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="15552"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15562"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15563"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1530">
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1696:B1744 B1746 B1752 B1748:B1750 B1545:B1611 B1615:B1680 B1774:B1799 B1754:B1772">
+    <cfRule type="duplicateValues" dxfId="11" priority="15735"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1545:A1772 A1774:A1799">
+    <cfRule type="duplicateValues" dxfId="10" priority="15743"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1773">
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1773:C1773">
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1773">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1773">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1773">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1773:B1773">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1773">
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1773">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21340C16-4514-4030-921C-D42F5E1926BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD5387D-6033-4450-AD5F-84B3B60DED98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$F$2156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$F$2112</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="2362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4245" uniqueCount="2319">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -4773,54 +4773,9 @@
     <t>Tử Vi tọa thủ tại Tý</t>
   </si>
   <si>
-    <t>Tử Vi tọa thủ tại Sửu</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ tại Dần</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ tại Mão</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ tại Thìn</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ tại Tỵ</t>
-  </si>
-  <si>
     <t>Tử Vi tọa thủ tại Ngọ</t>
   </si>
   <si>
-    <t>Tử Vi tọa thủ tại Mùi</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ tại Thân</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ tại Dậu</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ tại Tuất</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ tại Hợi</t>
-  </si>
-  <si>
-    <t>Thiên Cơ tọa thủ tại Tý</t>
-  </si>
-  <si>
-    <t>Thiên Cơ tọa thủ tại Sửu</t>
-  </si>
-  <si>
-    <t>Thiên Cơ tọa thủ tại Dần</t>
-  </si>
-  <si>
-    <t>Thiên Cơ tọa thủ tại Mão</t>
-  </si>
-  <si>
-    <t>Thiên Cơ tọa thủ tại Thìn</t>
-  </si>
-  <si>
     <t>Thiên Cơ tọa thủ tại Tỵ</t>
   </si>
   <si>
@@ -4830,15 +4785,6 @@
     <t>Thiên Cơ tọa thủ tại Mùi</t>
   </si>
   <si>
-    <t>Thiên Cơ tọa thủ tại Thân</t>
-  </si>
-  <si>
-    <t>Thiên Cơ tọa thủ tại Dậu</t>
-  </si>
-  <si>
-    <t>Thiên Cơ tọa thủ tại Tuất</t>
-  </si>
-  <si>
     <t>Thiên Cơ tọa thủ tại Hợi</t>
   </si>
   <si>
@@ -4863,9 +4809,6 @@
     <t>Thái Dương tọa thủ tại Ngọ</t>
   </si>
   <si>
-    <t>Thái Dương tọa thủ tại Mùi</t>
-  </si>
-  <si>
     <t>Thái Dương tọa thủ tại Thân</t>
   </si>
   <si>
@@ -4914,15 +4857,6 @@
     <t>Vũ Khúc tọa thủ tại Hợi</t>
   </si>
   <si>
-    <t>Thiên Đồng tọa thủ tại Tý</t>
-  </si>
-  <si>
-    <t>Thiên Đồng tọa thủ tại Sửu</t>
-  </si>
-  <si>
-    <t>Thiên Đồng tọa thủ tại Dần</t>
-  </si>
-  <si>
     <t>Thiên Đồng tọa thủ tại Mão</t>
   </si>
   <si>
@@ -4932,15 +4866,6 @@
     <t>Thiên Đồng tọa thủ tại Tỵ</t>
   </si>
   <si>
-    <t>Thiên Đồng tọa thủ tại Ngọ</t>
-  </si>
-  <si>
-    <t>Thiên Đồng tọa thủ tại Mùi</t>
-  </si>
-  <si>
-    <t>Thiên Đồng tọa thủ tại Thân</t>
-  </si>
-  <si>
     <t>Thiên Đồng tọa thủ tại Dậu</t>
   </si>
   <si>
@@ -4950,42 +4875,12 @@
     <t>Thiên Đồng tọa thủ tại Hợi</t>
   </si>
   <si>
-    <t>Liêm Trinh tọa thủ tại Tý</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ tại Sửu</t>
-  </si>
-  <si>
     <t>Liêm Trinh tọa thủ tại Dần</t>
   </si>
   <si>
-    <t>Liêm Trinh tọa thủ tại Mão</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ tại Thìn</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ tại Tỵ</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ tại Ngọ</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ tại Mùi</t>
-  </si>
-  <si>
     <t>Liêm Trinh tọa thủ tại Thân</t>
   </si>
   <si>
-    <t>Liêm Trinh tọa thủ tại Dậu</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ tại Tuất</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ tại Hợi</t>
-  </si>
-  <si>
     <t>Thiên Phủ tọa thủ tại Tý</t>
   </si>
   <si>
@@ -5017,33 +4912,6 @@
   </si>
   <si>
     <t>Thiên Phủ tọa thủ tại Hợi</t>
-  </si>
-  <si>
-    <t>Thái Âm tọa thủ tại Tý</t>
-  </si>
-  <si>
-    <t>Thái Âm tọa thủ tại Sửu</t>
-  </si>
-  <si>
-    <t>Thái Âm tọa thủ tại Dần</t>
-  </si>
-  <si>
-    <t>Thái Âm tọa thủ tại Mão</t>
-  </si>
-  <si>
-    <t>Thái Âm tọa thủ tại Thìn</t>
-  </si>
-  <si>
-    <t>Thái Âm tọa thủ tại Tỵ</t>
-  </si>
-  <si>
-    <t>Thái Âm tọa thủ tại Ngọ</t>
-  </si>
-  <si>
-    <t>Thái Âm tọa thủ tại Mùi</t>
-  </si>
-  <si>
-    <t>Thái Âm tọa thủ tại Thân</t>
   </si>
   <si>
     <t>Thái Âm tọa thủ tại Dậu</t>
@@ -7130,6 +6998,9 @@
   </si>
   <si>
     <t xml:space="preserve">Cha mẹ vinh hiển và nhiều của cải. Trong nhà hay có sự bất hòa. Sớm xa cách một trong hai thân. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cha mẹ khá giả và sống lâu. </t>
   </si>
 </sst>
 </file>
@@ -7991,10 +7862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G2156"/>
+  <dimension ref="A2:G2112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2111" sqref="D2111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8009,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2352</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -8017,7 +7888,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2141</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -8025,7 +7896,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2142</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -8033,7 +7904,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2143</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -8041,7 +7912,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2144</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -8049,7 +7920,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2145</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8070,10 +7941,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2146</v>
+        <v>2102</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2147</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -9001,7 +8872,7 @@
         <v>147</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>2173</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -9041,7 +8912,7 @@
         <v>152</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>2173</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -9081,7 +8952,7 @@
         <v>157</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>2173</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -9121,7 +8992,7 @@
         <v>162</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>2173</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -9161,7 +9032,7 @@
         <v>167</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>2173</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -9297,7 +9168,7 @@
         <v>184</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>2174</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -9329,7 +9200,7 @@
         <v>188</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>2174</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -9361,7 +9232,7 @@
         <v>192</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>2174</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -9393,7 +9264,7 @@
         <v>196</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>2174</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -9425,7 +9296,7 @@
         <v>200</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>2174</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -9553,7 +9424,7 @@
         <v>216</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>2217</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9785,7 +9656,7 @@
         <v>245</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>2216</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9905,7 +9776,7 @@
         <v>260</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>2221</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9921,7 +9792,7 @@
         <v>262</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>2221</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -11289,7 +11160,7 @@
         <v>428</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>2227</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -11329,7 +11200,7 @@
         <v>433</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>2227</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -11529,7 +11400,7 @@
         <v>458</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>2181</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13257,7 +13128,7 @@
         <v>673</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>2224</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="659" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -13265,7 +13136,7 @@
         <v>674</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>2224</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -15785,7 +15656,7 @@
         <v>988</v>
       </c>
       <c r="B974" s="1" t="s">
-        <v>2229</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="975" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15833,7 +15704,7 @@
         <v>994</v>
       </c>
       <c r="B980" s="1" t="s">
-        <v>2230</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="981" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15905,7 +15776,7 @@
         <v>1003</v>
       </c>
       <c r="B989" s="1" t="s">
-        <v>2231</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="990" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15961,7 +15832,7 @@
         <v>1010</v>
       </c>
       <c r="B996" s="1" t="s">
-        <v>2232</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="997" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17137,7 +17008,7 @@
         <v>1157</v>
       </c>
       <c r="B1143" s="1" t="s">
-        <v>2167</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.25">
@@ -17145,7 +17016,7 @@
         <v>1158</v>
       </c>
       <c r="B1144" s="1" t="s">
-        <v>2167</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18033,7 +17904,7 @@
         <v>1266</v>
       </c>
       <c r="B1255" s="1" t="s">
-        <v>2196</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="1256" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18041,7 +17912,7 @@
         <v>1267</v>
       </c>
       <c r="B1256" s="1" t="s">
-        <v>2197</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="1257" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18481,7 +18352,7 @@
         <v>1322</v>
       </c>
       <c r="B1311" s="1" t="s">
-        <v>2207</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.25">
@@ -19049,7 +18920,7 @@
         <v>1393</v>
       </c>
       <c r="B1382" s="1" t="s">
-        <v>2225</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.25">
@@ -19057,7 +18928,7 @@
         <v>1394</v>
       </c>
       <c r="B1383" s="1" t="s">
-        <v>2225</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.25">
@@ -19833,7 +19704,7 @@
         <v>1491</v>
       </c>
       <c r="B1480" s="1" t="s">
-        <v>2226</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1481" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -19897,7 +19768,7 @@
         <v>1499</v>
       </c>
       <c r="B1488" s="1" t="s">
-        <v>2226</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1489" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -19985,7 +19856,7 @@
         <v>1510</v>
       </c>
       <c r="B1499" s="1" t="s">
-        <v>2228</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1500" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20161,7 +20032,7 @@
         <v>12</v>
       </c>
       <c r="B1521" s="1" t="s">
-        <v>2258</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="1522" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20169,7 +20040,7 @@
         <v>13</v>
       </c>
       <c r="B1522" s="1" t="s">
-        <v>2259</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="1523" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -20177,7 +20048,7 @@
         <v>14</v>
       </c>
       <c r="B1523" s="1" t="s">
-        <v>2260</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1524" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20185,10 +20056,10 @@
         <v>15</v>
       </c>
       <c r="B1524" s="1" t="s">
-        <v>2261</v>
+        <v>2217</v>
       </c>
       <c r="C1524" s="1" t="s">
-        <v>2262</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="1525" spans="1:3" x14ac:dyDescent="0.25">
@@ -20196,10 +20067,10 @@
         <v>16</v>
       </c>
       <c r="B1525" s="1" t="s">
-        <v>2263</v>
+        <v>2219</v>
       </c>
       <c r="C1525" s="1" t="s">
-        <v>2317</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1526" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20207,7 +20078,7 @@
         <v>17</v>
       </c>
       <c r="B1526" s="1" t="s">
-        <v>2264</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1527" spans="1:3" x14ac:dyDescent="0.25">
@@ -20223,7 +20094,7 @@
         <v>19</v>
       </c>
       <c r="B1528" s="1" t="s">
-        <v>2265</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="1529" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20231,7 +20102,7 @@
         <v>20</v>
       </c>
       <c r="B1529" s="1" t="s">
-        <v>2202</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1530" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20239,7 +20110,7 @@
         <v>21</v>
       </c>
       <c r="B1530" s="1" t="s">
-        <v>2346</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1531" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20247,7 +20118,7 @@
         <v>22</v>
       </c>
       <c r="B1531" s="1" t="s">
-        <v>2183</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1532" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20255,7 +20126,7 @@
         <v>23</v>
       </c>
       <c r="B1532" s="1" t="s">
-        <v>2361</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1533" spans="1:3" x14ac:dyDescent="0.25">
@@ -20279,7 +20150,7 @@
         <v>1533</v>
       </c>
       <c r="B1535" s="1" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1536" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20287,7 +20158,7 @@
         <v>1534</v>
       </c>
       <c r="B1536" s="1" t="s">
-        <v>2284</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1537" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -20295,7 +20166,7 @@
         <v>1535</v>
       </c>
       <c r="B1537" s="1" t="s">
-        <v>2284</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1538" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -20303,7 +20174,7 @@
         <v>1536</v>
       </c>
       <c r="B1538" s="1" t="s">
-        <v>2285</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1539" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -20311,7 +20182,7 @@
         <v>1537</v>
       </c>
       <c r="B1539" s="1" t="s">
-        <v>2286</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1540" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -20319,7 +20190,7 @@
         <v>1538</v>
       </c>
       <c r="B1540" s="1" t="s">
-        <v>2287</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1541" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -20327,7 +20198,7 @@
         <v>1539</v>
       </c>
       <c r="B1541" s="1" t="s">
-        <v>2288</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1542" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -20335,10 +20206,10 @@
         <v>1540</v>
       </c>
       <c r="B1542" s="1" t="s">
-        <v>2261</v>
+        <v>2217</v>
       </c>
       <c r="C1542" s="1" t="s">
-        <v>2262</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="1543" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -20346,7 +20217,7 @@
         <v>1541</v>
       </c>
       <c r="B1543" s="1" t="s">
-        <v>2289</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1544" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -20354,7 +20225,7 @@
         <v>1542</v>
       </c>
       <c r="B1544" s="1" t="s">
-        <v>2290</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1545" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -20362,7 +20233,7 @@
         <v>1543</v>
       </c>
       <c r="B1545" s="1" t="s">
-        <v>2267</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1546" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -20370,7 +20241,7 @@
         <v>1544</v>
       </c>
       <c r="B1546" s="1" t="s">
-        <v>2267</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1547" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -20378,7 +20249,7 @@
         <v>1545</v>
       </c>
       <c r="B1547" s="1" t="s">
-        <v>2268</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1548" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -20386,7 +20257,7 @@
         <v>1546</v>
       </c>
       <c r="B1548" s="1" t="s">
-        <v>2269</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1549" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -20394,10 +20265,10 @@
         <v>1547</v>
       </c>
       <c r="B1549" s="1" t="s">
-        <v>2271</v>
+        <v>2227</v>
       </c>
       <c r="C1549" s="1" t="s">
-        <v>2272</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1550" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -20405,7 +20276,7 @@
         <v>1548</v>
       </c>
       <c r="B1550" s="1" t="s">
-        <v>2270</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1551" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -20413,7 +20284,7 @@
         <v>1549</v>
       </c>
       <c r="B1551" s="1" t="s">
-        <v>2273</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1552" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -20421,13 +20292,13 @@
         <v>1550</v>
       </c>
       <c r="B1552" s="1" t="s">
-        <v>2274</v>
+        <v>2230</v>
       </c>
       <c r="C1552" s="1" t="s">
-        <v>2275</v>
+        <v>2231</v>
       </c>
       <c r="D1552" s="1" t="s">
-        <v>2278</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1553" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20435,10 +20306,10 @@
         <v>1551</v>
       </c>
       <c r="B1553" s="1" t="s">
-        <v>2276</v>
+        <v>2232</v>
       </c>
       <c r="C1553" s="1" t="s">
-        <v>2277</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1554" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20446,7 +20317,7 @@
         <v>1552</v>
       </c>
       <c r="B1554" s="1" t="s">
-        <v>2291</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1555" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20454,7 +20325,7 @@
         <v>1553</v>
       </c>
       <c r="B1555" s="1" t="s">
-        <v>2291</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1556" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -20462,7 +20333,7 @@
         <v>1554</v>
       </c>
       <c r="B1556" s="1" t="s">
-        <v>2292</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1557" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -20470,7 +20341,7 @@
         <v>1555</v>
       </c>
       <c r="B1557" s="1" t="s">
-        <v>2293</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1558" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -20478,10 +20349,10 @@
         <v>1556</v>
       </c>
       <c r="B1558" s="1" t="s">
-        <v>2294</v>
+        <v>2250</v>
       </c>
       <c r="C1558" s="1" t="s">
-        <v>2295</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1559" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20489,10 +20360,10 @@
         <v>1557</v>
       </c>
       <c r="B1559" s="1" t="s">
-        <v>2296</v>
+        <v>2252</v>
       </c>
       <c r="C1559" s="1" t="s">
-        <v>2297</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1560" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20500,10 +20371,10 @@
         <v>1558</v>
       </c>
       <c r="B1560" s="1" t="s">
-        <v>2298</v>
+        <v>2254</v>
       </c>
       <c r="C1560" s="1" t="s">
-        <v>2299</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1561" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20511,10 +20382,10 @@
         <v>1559</v>
       </c>
       <c r="B1561" s="1" t="s">
-        <v>2300</v>
+        <v>2256</v>
       </c>
       <c r="C1561" s="1" t="s">
-        <v>2301</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1562" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -20522,7 +20393,7 @@
         <v>1560</v>
       </c>
       <c r="B1562" s="1" t="s">
-        <v>2302</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1563" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20530,7 +20401,7 @@
         <v>1561</v>
       </c>
       <c r="B1563" s="1" t="s">
-        <v>2303</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1564" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -20538,7 +20409,7 @@
         <v>1562</v>
       </c>
       <c r="B1564" s="1" t="s">
-        <v>2304</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1565" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -20546,7 +20417,7 @@
         <v>1563</v>
       </c>
       <c r="B1565" s="1" t="s">
-        <v>2304</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1566" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20554,10 +20425,10 @@
         <v>1564</v>
       </c>
       <c r="B1566" s="1" t="s">
-        <v>2305</v>
+        <v>2261</v>
       </c>
       <c r="C1566" s="1" t="s">
-        <v>2306</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1567" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20565,10 +20436,10 @@
         <v>1565</v>
       </c>
       <c r="B1567" s="1" t="s">
-        <v>2305</v>
+        <v>2261</v>
       </c>
       <c r="C1567" s="1" t="s">
-        <v>2306</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1568" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -20576,10 +20447,10 @@
         <v>1566</v>
       </c>
       <c r="B1568" s="1" t="s">
-        <v>2318</v>
+        <v>2274</v>
       </c>
       <c r="C1568" s="1" t="s">
-        <v>2319</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1569" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20587,7 +20458,7 @@
         <v>1567</v>
       </c>
       <c r="B1569" s="1" t="s">
-        <v>2320</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1570" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20595,7 +20466,7 @@
         <v>1569</v>
       </c>
       <c r="B1570" s="1" t="s">
-        <v>2321</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1571" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20603,7 +20474,7 @@
         <v>1570</v>
       </c>
       <c r="B1571" s="1" t="s">
-        <v>2322</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1572" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -20611,10 +20482,10 @@
         <v>1571</v>
       </c>
       <c r="B1572" s="1" t="s">
-        <v>2324</v>
+        <v>2280</v>
       </c>
       <c r="C1572" s="1" t="s">
-        <v>2323</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1573" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -20622,10 +20493,10 @@
         <v>1572</v>
       </c>
       <c r="B1573" s="1" t="s">
-        <v>2324</v>
+        <v>2280</v>
       </c>
       <c r="C1573" s="1" t="s">
-        <v>2323</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1574" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20633,10 +20504,10 @@
         <v>1573</v>
       </c>
       <c r="B1574" s="1" t="s">
-        <v>2325</v>
+        <v>2281</v>
       </c>
       <c r="C1574" s="1" t="s">
-        <v>2326</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1575" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20644,7 +20515,7 @@
         <v>1574</v>
       </c>
       <c r="B1575" s="1" t="s">
-        <v>2327</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1576" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -20652,7 +20523,7 @@
         <v>1575</v>
       </c>
       <c r="B1576" s="1" t="s">
-        <v>2328</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1577" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20660,23 +20531,23 @@
         <v>1576</v>
       </c>
       <c r="B1577" s="1" t="s">
-        <v>2329</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1578" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1578" s="1" t="s">
-        <v>1807</v>
+        <v>1763</v>
       </c>
       <c r="B1578" s="1" t="s">
-        <v>2330</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1579" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1579" s="1" t="s">
-        <v>1808</v>
+        <v>1764</v>
       </c>
       <c r="B1579" s="1" t="s">
-        <v>2331</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1580" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20684,7 +20555,7 @@
         <v>1579</v>
       </c>
       <c r="B1580" s="1" t="s">
-        <v>2341</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1581" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20692,50 +20563,50 @@
         <v>1578</v>
       </c>
       <c r="B1581" s="1" t="s">
-        <v>2332</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1582" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1582" s="1" t="s">
-        <v>1809</v>
+        <v>1765</v>
       </c>
       <c r="B1582" s="1" t="s">
-        <v>2333</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1583" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1583" s="1" t="s">
-        <v>1810</v>
+        <v>1766</v>
       </c>
       <c r="B1583" s="1" t="s">
-        <v>2334</v>
+        <v>2290</v>
       </c>
       <c r="C1583" s="1" t="s">
-        <v>2335</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1584" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1584" s="1" t="s">
-        <v>1812</v>
+        <v>1768</v>
       </c>
       <c r="B1584" s="1" t="s">
-        <v>2336</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1585" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1585" s="1" t="s">
-        <v>1813</v>
+        <v>1769</v>
       </c>
       <c r="B1585" s="1" t="s">
-        <v>2337</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="1586" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1586" s="1" t="s">
-        <v>1814</v>
+        <v>1770</v>
       </c>
       <c r="B1586" s="1" t="s">
-        <v>2338</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="1587" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20743,15 +20614,15 @@
         <v>1577</v>
       </c>
       <c r="B1587" s="1" t="s">
-        <v>2339</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1588" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1588" s="1" t="s">
-        <v>1815</v>
+        <v>1771</v>
       </c>
       <c r="B1588" s="1" t="s">
-        <v>2340</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.25">
@@ -20759,7 +20630,7 @@
         <v>1580</v>
       </c>
       <c r="B1589" s="1" t="s">
-        <v>2149</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1590" spans="1:2" x14ac:dyDescent="0.25">
@@ -20767,7 +20638,7 @@
         <v>1581</v>
       </c>
       <c r="B1590" s="1" t="s">
-        <v>1581</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.25">
@@ -20775,7 +20646,7 @@
         <v>1582</v>
       </c>
       <c r="B1591" s="1" t="s">
-        <v>1582</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1592" spans="1:2" x14ac:dyDescent="0.25">
@@ -20783,7 +20654,7 @@
         <v>1583</v>
       </c>
       <c r="B1592" s="1" t="s">
-        <v>1583</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1593" spans="1:2" x14ac:dyDescent="0.25">
@@ -20791,103 +20662,103 @@
         <v>1584</v>
       </c>
       <c r="B1593" s="1" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="1594" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1594" s="1" t="s">
         <v>1585</v>
       </c>
       <c r="B1594" s="1" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="1595" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1595" s="1" t="s">
         <v>1586</v>
       </c>
       <c r="B1595" s="1" t="s">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="1596" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1596" s="1" t="s">
         <v>1587</v>
       </c>
       <c r="B1596" s="1" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="1597" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1597" s="1" t="s">
         <v>1588</v>
       </c>
       <c r="B1597" s="1" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="1598" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1598" s="1" t="s">
         <v>1589</v>
       </c>
       <c r="B1598" s="1" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="1599" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1599" s="1" t="s">
         <v>1590</v>
       </c>
       <c r="B1599" s="1" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="1600" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1600" s="1" t="s">
         <v>1591</v>
       </c>
       <c r="B1600" s="1" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="1601" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1601" s="1" t="s">
         <v>1592</v>
       </c>
       <c r="B1601" s="1" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="1602" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1602" s="1" t="s">
         <v>1593</v>
       </c>
       <c r="B1602" s="1" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1603" s="1" t="s">
         <v>1594</v>
       </c>
       <c r="B1603" s="1" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="1604" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1604" s="1" t="s">
         <v>1595</v>
       </c>
       <c r="B1604" s="1" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="1605" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1605" s="1" t="s">
         <v>1596</v>
       </c>
       <c r="B1605" s="1" t="s">
-        <v>1596</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.25">
@@ -20895,7 +20766,7 @@
         <v>1597</v>
       </c>
       <c r="B1606" s="1" t="s">
-        <v>2149</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1607" spans="1:2" x14ac:dyDescent="0.25">
@@ -20903,7 +20774,7 @@
         <v>1598</v>
       </c>
       <c r="B1607" s="1" t="s">
-        <v>2149</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1608" spans="1:2" x14ac:dyDescent="0.25">
@@ -20911,7 +20782,7 @@
         <v>1599</v>
       </c>
       <c r="B1608" s="1" t="s">
-        <v>2149</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1609" spans="1:2" x14ac:dyDescent="0.25">
@@ -20919,15 +20790,15 @@
         <v>1600</v>
       </c>
       <c r="B1609" s="1" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="1610" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1610" s="1" t="s">
         <v>1601</v>
       </c>
       <c r="B1610" s="1" t="s">
-        <v>1601</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1611" spans="1:2" x14ac:dyDescent="0.25">
@@ -20935,39 +20806,39 @@
         <v>1602</v>
       </c>
       <c r="B1611" s="1" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="1612" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1612" s="1" t="s">
         <v>1603</v>
       </c>
       <c r="B1612" s="1" t="s">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="1613" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1613" s="1" t="s">
         <v>1604</v>
       </c>
       <c r="B1613" s="1" t="s">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="1614" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1614" s="1" t="s">
         <v>1605</v>
       </c>
       <c r="B1614" s="1" t="s">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="1615" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1615" s="1" t="s">
         <v>1606</v>
       </c>
       <c r="B1615" s="1" t="s">
-        <v>2173</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1616" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20975,55 +20846,55 @@
         <v>1607</v>
       </c>
       <c r="B1616" s="1" t="s">
-        <v>2173</v>
-      </c>
-    </row>
-    <row r="1617" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1617" s="1" t="s">
         <v>1608</v>
       </c>
       <c r="B1617" s="1" t="s">
-        <v>2173</v>
-      </c>
-    </row>
-    <row r="1618" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1618" s="1" t="s">
         <v>1609</v>
       </c>
       <c r="B1618" s="1" t="s">
-        <v>2173</v>
-      </c>
-    </row>
-    <row r="1619" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1619" s="1" t="s">
         <v>1610</v>
       </c>
       <c r="B1619" s="1" t="s">
-        <v>2173</v>
-      </c>
-    </row>
-    <row r="1620" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1620" s="1" t="s">
         <v>1611</v>
       </c>
       <c r="B1620" s="1" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="1621" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1621" s="1" t="s">
         <v>1612</v>
       </c>
       <c r="B1621" s="1" t="s">
-        <v>2354</v>
-      </c>
-    </row>
-    <row r="1622" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1622" s="1" t="s">
         <v>1613</v>
       </c>
       <c r="B1622" s="1" t="s">
-        <v>2354</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="1623" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21031,23 +20902,23 @@
         <v>1614</v>
       </c>
       <c r="B1623" s="1" t="s">
-        <v>2354</v>
-      </c>
-    </row>
-    <row r="1624" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1624" s="1" t="s">
         <v>1615</v>
       </c>
       <c r="B1624" s="1" t="s">
-        <v>2354</v>
-      </c>
-    </row>
-    <row r="1625" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1625" s="1" t="s">
         <v>1616</v>
       </c>
       <c r="B1625" s="1" t="s">
-        <v>2167</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="1626" spans="1:2" x14ac:dyDescent="0.25">
@@ -21055,15 +20926,15 @@
         <v>1617</v>
       </c>
       <c r="B1626" s="1" t="s">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="1627" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1627" s="1" t="s">
         <v>1618</v>
       </c>
       <c r="B1627" s="1" t="s">
-        <v>2167</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1628" spans="1:2" x14ac:dyDescent="0.25">
@@ -21071,7 +20942,7 @@
         <v>1619</v>
       </c>
       <c r="B1628" s="1" t="s">
-        <v>2167</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1629" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21079,7 +20950,7 @@
         <v>1620</v>
       </c>
       <c r="B1629" s="1" t="s">
-        <v>2168</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1630" spans="1:2" x14ac:dyDescent="0.25">
@@ -21087,7 +20958,7 @@
         <v>1621</v>
       </c>
       <c r="B1630" s="1" t="s">
-        <v>2167</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1631" spans="1:2" x14ac:dyDescent="0.25">
@@ -21095,15 +20966,15 @@
         <v>1622</v>
       </c>
       <c r="B1631" s="1" t="s">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="1632" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1632" s="1" t="s">
         <v>1623</v>
       </c>
       <c r="B1632" s="1" t="s">
-        <v>2167</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1633" spans="1:2" x14ac:dyDescent="0.25">
@@ -21111,71 +20982,71 @@
         <v>1624</v>
       </c>
       <c r="B1633" s="1" t="s">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="1634" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1634" s="1" t="s">
         <v>1625</v>
       </c>
       <c r="B1634" s="1" t="s">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="1635" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1635" s="1" t="s">
         <v>1626</v>
       </c>
       <c r="B1635" s="1" t="s">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="1636" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1636" s="1" t="s">
         <v>1627</v>
       </c>
       <c r="B1636" s="1" t="s">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="1637" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1637" s="1" t="s">
         <v>1628</v>
       </c>
       <c r="B1637" s="1" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="1638" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1638" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="B1638" s="1" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="1639" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1639" s="1" t="s">
         <v>1630</v>
       </c>
       <c r="B1639" s="1" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="1640" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1640" s="1" t="s">
         <v>1631</v>
       </c>
       <c r="B1640" s="1" t="s">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="1641" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1641" s="1" t="s">
         <v>1632</v>
       </c>
       <c r="B1641" s="1" t="s">
-        <v>2163</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="1642" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21183,47 +21054,47 @@
         <v>1633</v>
       </c>
       <c r="B1642" s="1" t="s">
-        <v>2162</v>
-      </c>
-    </row>
-    <row r="1643" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1643" s="1" t="s">
         <v>1634</v>
       </c>
       <c r="B1643" s="1" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="1644" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1644" s="1" t="s">
         <v>1635</v>
       </c>
       <c r="B1644" s="1" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="1645" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1645" s="1" t="s">
         <v>1636</v>
       </c>
       <c r="B1645" s="1" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="1646" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1646" s="1" t="s">
         <v>1637</v>
       </c>
       <c r="B1646" s="1" t="s">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="1647" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1647" s="1" t="s">
         <v>1638</v>
       </c>
       <c r="B1647" s="1" t="s">
-        <v>2163</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="1648" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21231,39 +21102,39 @@
         <v>1639</v>
       </c>
       <c r="B1648" s="1" t="s">
-        <v>2162</v>
-      </c>
-    </row>
-    <row r="1649" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1649" s="1" t="s">
         <v>1640</v>
       </c>
       <c r="B1649" s="1" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="1650" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1650" s="1" t="s">
         <v>1641</v>
       </c>
       <c r="B1650" s="1" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="1651" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1651" s="1" t="s">
         <v>1642</v>
       </c>
       <c r="B1651" s="1" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="1652" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1652" s="1" t="s">
         <v>1643</v>
       </c>
       <c r="B1652" s="1" t="s">
-        <v>1643</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1653" spans="1:2" x14ac:dyDescent="0.25">
@@ -21271,7 +21142,7 @@
         <v>1644</v>
       </c>
       <c r="B1653" s="1" t="s">
-        <v>1644</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1654" spans="1:2" x14ac:dyDescent="0.25">
@@ -21279,7 +21150,7 @@
         <v>1645</v>
       </c>
       <c r="B1654" s="1" t="s">
-        <v>1645</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1655" spans="1:2" x14ac:dyDescent="0.25">
@@ -21287,15 +21158,15 @@
         <v>1646</v>
       </c>
       <c r="B1655" s="1" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="1656" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1656" s="1" t="s">
         <v>1647</v>
       </c>
       <c r="B1656" s="1" t="s">
-        <v>1647</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1657" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21303,15 +21174,15 @@
         <v>1648</v>
       </c>
       <c r="B1657" s="1" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="1658" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1658" s="1" t="s">
         <v>1649</v>
       </c>
       <c r="B1658" s="1" t="s">
-        <v>1649</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1659" spans="1:2" x14ac:dyDescent="0.25">
@@ -21319,7 +21190,7 @@
         <v>1650</v>
       </c>
       <c r="B1659" s="1" t="s">
-        <v>1650</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1660" spans="1:2" x14ac:dyDescent="0.25">
@@ -21327,7 +21198,7 @@
         <v>1651</v>
       </c>
       <c r="B1660" s="1" t="s">
-        <v>1651</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1661" spans="1:2" x14ac:dyDescent="0.25">
@@ -21335,31 +21206,31 @@
         <v>1652</v>
       </c>
       <c r="B1661" s="1" t="s">
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="1662" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1662" s="1" t="s">
         <v>1653</v>
       </c>
       <c r="B1662" s="1" t="s">
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="1663" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1663" s="1" t="s">
         <v>1654</v>
       </c>
       <c r="B1663" s="1" t="s">
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="1664" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1664" s="1" t="s">
         <v>1655</v>
       </c>
       <c r="B1664" s="1" t="s">
-        <v>2184</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1665" spans="1:2" x14ac:dyDescent="0.25">
@@ -21367,7 +21238,7 @@
         <v>1656</v>
       </c>
       <c r="B1665" s="1" t="s">
-        <v>2182</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1666" spans="1:2" x14ac:dyDescent="0.25">
@@ -21375,7 +21246,7 @@
         <v>1657</v>
       </c>
       <c r="B1666" s="1" t="s">
-        <v>2182</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1667" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21383,7 +21254,7 @@
         <v>1658</v>
       </c>
       <c r="B1667" s="1" t="s">
-        <v>2184</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1668" spans="1:2" x14ac:dyDescent="0.25">
@@ -21391,15 +21262,15 @@
         <v>1659</v>
       </c>
       <c r="B1668" s="1" t="s">
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="1669" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1669" s="1" t="s">
         <v>1660</v>
       </c>
       <c r="B1669" s="1" t="s">
-        <v>2184</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1670" spans="1:2" x14ac:dyDescent="0.25">
@@ -21407,15 +21278,15 @@
         <v>1661</v>
       </c>
       <c r="B1670" s="1" t="s">
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="1671" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1671" s="1" t="s">
         <v>1662</v>
       </c>
       <c r="B1671" s="1" t="s">
-        <v>2183</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1672" spans="1:2" x14ac:dyDescent="0.25">
@@ -21439,15 +21310,15 @@
         <v>1665</v>
       </c>
       <c r="B1674" s="1" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="1675" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1675" s="1" t="s">
         <v>1666</v>
       </c>
       <c r="B1675" s="1" t="s">
-        <v>1666</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1676" spans="1:2" x14ac:dyDescent="0.25">
@@ -21455,7 +21326,7 @@
         <v>1667</v>
       </c>
       <c r="B1676" s="1" t="s">
-        <v>1667</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1677" spans="1:2" x14ac:dyDescent="0.25">
@@ -21487,95 +21358,95 @@
         <v>1671</v>
       </c>
       <c r="B1680" s="1" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="1681" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1681" s="1" t="s">
         <v>1672</v>
       </c>
       <c r="B1681" s="1" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="1682" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1682" s="1" t="s">
         <v>1673</v>
       </c>
       <c r="B1682" s="1" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="1683" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1683" s="1" t="s">
         <v>1674</v>
       </c>
       <c r="B1683" s="1" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="1684" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1684" s="1" t="s">
         <v>1675</v>
       </c>
       <c r="B1684" s="1" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="1685" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1685" s="1" t="s">
         <v>1676</v>
       </c>
       <c r="B1685" s="1" t="s">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="1686" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1686" s="1" t="s">
         <v>1677</v>
       </c>
       <c r="B1686" s="1" t="s">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="1687" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1687" s="1" t="s">
         <v>1678</v>
       </c>
       <c r="B1687" s="1" t="s">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="1688" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1688" s="1" t="s">
         <v>1679</v>
       </c>
       <c r="B1688" s="1" t="s">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="1689" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1689" s="1" t="s">
         <v>1680</v>
       </c>
       <c r="B1689" s="1" t="s">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="1690" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1690" s="1" t="s">
         <v>1681</v>
       </c>
       <c r="B1690" s="1" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="1691" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1691" s="1" t="s">
         <v>1682</v>
       </c>
       <c r="B1691" s="1" t="s">
-        <v>2188</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1692" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21583,7 +21454,7 @@
         <v>1683</v>
       </c>
       <c r="B1692" s="1" t="s">
-        <v>2190</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1693" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21591,39 +21462,39 @@
         <v>1684</v>
       </c>
       <c r="B1693" s="1" t="s">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="1694" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1694" s="1" t="s">
         <v>1685</v>
       </c>
       <c r="B1694" s="1" t="s">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1695" s="1" t="s">
         <v>1686</v>
       </c>
       <c r="B1695" s="1" t="s">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1696" s="1" t="s">
         <v>1687</v>
       </c>
       <c r="B1696" s="1" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1697" s="1" t="s">
         <v>1688</v>
       </c>
       <c r="B1697" s="1" t="s">
-        <v>2192</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1698" spans="1:2" x14ac:dyDescent="0.25">
@@ -21631,7 +21502,7 @@
         <v>1689</v>
       </c>
       <c r="B1698" s="1" t="s">
-        <v>2192</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1699" spans="1:2" x14ac:dyDescent="0.25">
@@ -21639,39 +21510,39 @@
         <v>1690</v>
       </c>
       <c r="B1699" s="1" t="s">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="1700" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1700" s="1" t="s">
         <v>1691</v>
       </c>
       <c r="B1700" s="1" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1701" s="1" t="s">
         <v>1692</v>
       </c>
       <c r="B1701" s="1" t="s">
-        <v>2194</v>
-      </c>
-    </row>
-    <row r="1702" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1702" s="1" t="s">
         <v>1693</v>
       </c>
       <c r="B1702" s="1" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="1703" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1703" s="1" t="s">
         <v>1694</v>
       </c>
       <c r="B1703" s="1" t="s">
-        <v>2192</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1704" spans="1:2" x14ac:dyDescent="0.25">
@@ -21679,7 +21550,7 @@
         <v>1695</v>
       </c>
       <c r="B1704" s="1" t="s">
-        <v>2192</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1705" spans="1:2" x14ac:dyDescent="0.25">
@@ -21687,23 +21558,23 @@
         <v>1696</v>
       </c>
       <c r="B1705" s="1" t="s">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="1706" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1706" s="1" t="s">
         <v>1697</v>
       </c>
       <c r="B1706" s="1" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1707" s="1" t="s">
         <v>1698</v>
       </c>
       <c r="B1707" s="1" t="s">
-        <v>2193</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1708" spans="1:2" x14ac:dyDescent="0.25">
@@ -21714,12 +21585,12 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="1709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1709" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1709" s="1" t="s">
         <v>1700</v>
       </c>
       <c r="B1709" s="1" t="s">
-        <v>2201</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1710" spans="1:2" x14ac:dyDescent="0.25">
@@ -21735,79 +21606,79 @@
         <v>1702</v>
       </c>
       <c r="B1711" s="1" t="s">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="1712" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1712" s="1" t="s">
         <v>1703</v>
       </c>
       <c r="B1712" s="1" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="1713" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1713" s="1" t="s">
         <v>1704</v>
       </c>
       <c r="B1713" s="1" t="s">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="1714" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1714" s="1" t="s">
         <v>1705</v>
       </c>
       <c r="B1714" s="1" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="1715" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1715" s="1" t="s">
         <v>1706</v>
       </c>
       <c r="B1715" s="1" t="s">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="1716" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1716" s="1" t="s">
         <v>1707</v>
       </c>
       <c r="B1716" s="1" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="1717" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1717" s="1" t="s">
         <v>1708</v>
       </c>
       <c r="B1717" s="1" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="1718" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1718" s="1" t="s">
         <v>1709</v>
       </c>
       <c r="B1718" s="1" t="s">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="1719" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1719" s="1" t="s">
         <v>1710</v>
       </c>
       <c r="B1719" s="1" t="s">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="1720" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1720" s="1" t="s">
         <v>1711</v>
       </c>
       <c r="B1720" s="1" t="s">
-        <v>2204</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1721" spans="1:2" x14ac:dyDescent="0.25">
@@ -21815,7 +21686,7 @@
         <v>1712</v>
       </c>
       <c r="B1721" s="1" t="s">
-        <v>1712</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1722" spans="1:2" x14ac:dyDescent="0.25">
@@ -21839,7 +21710,7 @@
         <v>1715</v>
       </c>
       <c r="B1724" s="1" t="s">
-        <v>2203</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1725" spans="1:2" x14ac:dyDescent="0.25">
@@ -21847,7 +21718,7 @@
         <v>1716</v>
       </c>
       <c r="B1725" s="1" t="s">
-        <v>2203</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1726" spans="1:2" x14ac:dyDescent="0.25">
@@ -21855,23 +21726,23 @@
         <v>1717</v>
       </c>
       <c r="B1726" s="1" t="s">
-        <v>2204</v>
-      </c>
-    </row>
-    <row r="1727" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1727" s="1" t="s">
         <v>1718</v>
       </c>
       <c r="B1727" s="1" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="1728" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1728" s="1" t="s">
         <v>1719</v>
       </c>
       <c r="B1728" s="1" t="s">
-        <v>1719</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1729" spans="1:2" x14ac:dyDescent="0.25">
@@ -21879,719 +21750,719 @@
         <v>1720</v>
       </c>
       <c r="B1729" s="1" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="1730" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1730" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B1730" s="1" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1731" s="1" t="s">
         <v>1721</v>
       </c>
-      <c r="B1730" s="1" t="s">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="1731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1731" s="1" t="s">
+      <c r="B1731" s="1" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1732" s="1" t="s">
         <v>1722</v>
       </c>
-      <c r="B1731" s="1" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="1732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1732" s="1" t="s">
-        <v>1723</v>
-      </c>
       <c r="B1732" s="1" t="s">
-        <v>1723</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1733" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B1733" s="1" t="s">
-        <v>2208</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1734" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B1734" s="1" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1735" s="1" t="s">
         <v>1725</v>
       </c>
-      <c r="B1734" s="1" t="s">
+      <c r="B1735" s="1" t="s">
         <v>1725</v>
-      </c>
-    </row>
-    <row r="1735" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1735" s="1" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B1735" s="1" t="s">
-        <v>2210</v>
       </c>
     </row>
     <row r="1736" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1736" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B1736" s="1" t="s">
-        <v>2209</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="1737" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1737" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B1737" s="1" t="s">
-        <v>2209</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1738" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B1738" s="1" t="s">
-        <v>1729</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1739" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B1739" s="1" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1740" s="1" t="s">
         <v>1730</v>
       </c>
-      <c r="B1739" s="1" t="s">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="1740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1740" s="1" t="s">
+      <c r="B1740" s="1" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1741" s="1" t="s">
         <v>1731</v>
       </c>
-      <c r="B1740" s="1" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="1741" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1741" s="1" t="s">
-        <v>1732</v>
-      </c>
       <c r="B1741" s="1" t="s">
-        <v>2210</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1742" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B1742" s="1" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1743" s="1" t="s">
         <v>1733</v>
       </c>
-      <c r="B1742" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="1743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1743" s="1" t="s">
+      <c r="B1743" s="1" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1744" s="1" t="s">
         <v>1734</v>
       </c>
-      <c r="B1743" s="1" t="s">
-        <v>2213</v>
-      </c>
-    </row>
-    <row r="1744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1744" s="1" t="s">
+      <c r="B1744" s="1" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1745" s="1" t="s">
         <v>1735</v>
       </c>
-      <c r="B1744" s="1" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1745" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1745" s="1" t="s">
+      <c r="B1745" s="1" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1746" s="1" t="s">
         <v>1736</v>
       </c>
-      <c r="B1745" s="1" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="1746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1746" s="1" t="s">
+      <c r="B1746" s="1" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1747" s="1" t="s">
         <v>1737</v>
       </c>
-      <c r="B1746" s="1" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="1747" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1747" s="1" t="s">
+      <c r="B1747" s="1" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1748" s="1" t="s">
         <v>1738</v>
       </c>
-      <c r="B1747" s="1" t="s">
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="1748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1748" s="1" t="s">
+      <c r="B1748" s="1" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1749" s="1" t="s">
         <v>1739</v>
       </c>
-      <c r="B1748" s="1" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="1749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1749" s="1" t="s">
-        <v>1740</v>
-      </c>
       <c r="B1749" s="1" t="s">
-        <v>2213</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1750" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B1750" s="1" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1751" s="1" t="s">
         <v>1741</v>
       </c>
-      <c r="B1750" s="1" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="1751" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1751" s="1" t="s">
+      <c r="B1751" s="1" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1752" s="1" t="s">
         <v>1742</v>
       </c>
-      <c r="B1751" s="1" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1752" s="1" t="s">
-        <v>1743</v>
-      </c>
       <c r="B1752" s="1" t="s">
-        <v>1743</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="1753" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1753" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1753" s="1" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1754" s="1" t="s">
         <v>1744</v>
       </c>
-      <c r="B1753" s="1" t="s">
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="1754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1754" s="1" t="s">
-        <v>1745</v>
-      </c>
       <c r="B1754" s="1" t="s">
-        <v>1745</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1755" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1755" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1755" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1756" s="1" t="s">
         <v>1746</v>
       </c>
-      <c r="B1755" s="1" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="1756" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1756" s="1" t="s">
+      <c r="B1756" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1757" s="1" t="s">
         <v>1747</v>
       </c>
-      <c r="B1756" s="1" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="1757" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1757" s="1" t="s">
+      <c r="B1757" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1758" s="1" t="s">
         <v>1748</v>
       </c>
-      <c r="B1757" s="1" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="1758" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1758" s="1" t="s">
+      <c r="B1758" s="1" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1759" s="1" t="s">
         <v>1749</v>
       </c>
-      <c r="B1758" s="1" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="1759" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1759" s="1" t="s">
+      <c r="B1759" s="1" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1760" s="1" t="s">
         <v>1750</v>
       </c>
-      <c r="B1759" s="1" t="s">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="1760" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1760" s="1" t="s">
+      <c r="B1760" s="1" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1761" s="1" t="s">
         <v>1751</v>
       </c>
-      <c r="B1760" s="1" t="s">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="1761" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1761" s="1" t="s">
+      <c r="B1761" s="1" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1762" s="1" t="s">
         <v>1752</v>
       </c>
-      <c r="B1761" s="1" t="s">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="1762" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1762" s="1" t="s">
+      <c r="B1762" s="1" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1763" s="1" t="s">
         <v>1753</v>
       </c>
-      <c r="B1762" s="1" t="s">
-        <v>2347</v>
-      </c>
-    </row>
-    <row r="1763" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1763" s="1" t="s">
+      <c r="B1763" s="1" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1764" s="1" t="s">
         <v>1754</v>
       </c>
-      <c r="B1763" s="1" t="s">
-        <v>2347</v>
-      </c>
-    </row>
-    <row r="1764" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1764" s="1" t="s">
-        <v>1755</v>
-      </c>
       <c r="B1764" s="1" t="s">
-        <v>2357</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1765" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1765" s="1" t="s">
-        <v>2356</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1766" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B1766" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1767" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B1767" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1768" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B1768" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1769" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B1769" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1770" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B1770" s="1" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1771" s="1" t="s">
         <v>1761</v>
       </c>
-      <c r="B1770" s="1" t="s">
+      <c r="B1771" s="1" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="1771" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1771" s="1" t="s">
+    <row r="1772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1772" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="B1771" s="1" t="s">
-        <v>2360</v>
-      </c>
-    </row>
-    <row r="1772" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1772" s="1" t="s">
-        <v>1763</v>
-      </c>
       <c r="B1772" s="1" t="s">
-        <v>2360</v>
-      </c>
-    </row>
-    <row r="1773" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1773" s="1" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="B1773" s="1" t="s">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="1774" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1774" s="1" t="s">
-        <v>2359</v>
+        <v>1773</v>
       </c>
       <c r="B1774" s="1" t="s">
-        <v>2358</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1775" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1775" s="1" t="s">
-        <v>1765</v>
+        <v>1774</v>
       </c>
       <c r="B1775" s="1" t="s">
-        <v>2355</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="1776" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1776" s="1" t="s">
-        <v>1766</v>
+        <v>1775</v>
       </c>
       <c r="B1776" s="1" t="s">
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="1777" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1777" s="1" t="s">
-        <v>1767</v>
+        <v>1776</v>
       </c>
       <c r="B1777" s="1" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="1778" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1778" s="1" t="s">
-        <v>1768</v>
+        <v>1777</v>
       </c>
       <c r="B1778" s="1" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="1779" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1779" s="1" t="s">
-        <v>1769</v>
+        <v>1778</v>
       </c>
       <c r="B1779" s="1" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1780" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1780" s="1" t="s">
-        <v>1770</v>
+        <v>1779</v>
       </c>
       <c r="B1780" s="1" t="s">
-        <v>2196</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1781" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1781" s="1" t="s">
-        <v>1771</v>
+        <v>1780</v>
       </c>
       <c r="B1781" s="1" t="s">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="1782" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1782" s="1" t="s">
-        <v>1772</v>
+        <v>1781</v>
       </c>
       <c r="B1782" s="1" t="s">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="1783" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1783" s="1" t="s">
-        <v>1773</v>
+        <v>1782</v>
       </c>
       <c r="B1783" s="1" t="s">
-        <v>2169</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1784" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1784" s="1" t="s">
-        <v>1774</v>
+        <v>1783</v>
       </c>
       <c r="B1784" s="1" t="s">
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="1785" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1785" s="1" t="s">
-        <v>1775</v>
+        <v>1784</v>
       </c>
       <c r="B1785" s="1" t="s">
-        <v>2351</v>
-      </c>
-    </row>
-    <row r="1786" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1786" s="1" t="s">
-        <v>1776</v>
+        <v>1785</v>
       </c>
       <c r="B1786" s="1" t="s">
-        <v>2351</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1787" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1787" s="1" t="s">
-        <v>1777</v>
+        <v>1786</v>
       </c>
       <c r="B1787" s="1" t="s">
-        <v>2353</v>
-      </c>
-    </row>
-    <row r="1788" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1788" s="1" t="s">
-        <v>1778</v>
+        <v>1787</v>
       </c>
       <c r="B1788" s="1" t="s">
-        <v>2353</v>
-      </c>
-    </row>
-    <row r="1789" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1789" s="1" t="s">
-        <v>1779</v>
+        <v>1788</v>
       </c>
       <c r="B1789" s="1" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="1790" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1790" s="1" t="s">
-        <v>1780</v>
+        <v>1789</v>
       </c>
       <c r="B1790" s="1" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="1791" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1791" s="1" t="s">
-        <v>1781</v>
+        <v>1790</v>
       </c>
       <c r="B1791" s="1" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="1792" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1792" s="1" t="s">
-        <v>1782</v>
+        <v>1791</v>
       </c>
       <c r="B1792" s="1" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="1793" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1793" s="1" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="B1793" s="1" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="1794" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1794" s="1" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="B1794" s="1" t="s">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="1795" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1795" s="1" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="B1795" s="1" t="s">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="1796" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1796" s="1" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="B1796" s="1" t="s">
-        <v>2155</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1797" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1797" s="1" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="B1797" s="1" t="s">
-        <v>2155</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1798" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1798" s="1" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="B1798" s="1" t="s">
-        <v>2349</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1799" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1799" s="1" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="B1799" s="1" t="s">
-        <v>2349</v>
-      </c>
-    </row>
-    <row r="1800" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1800" s="1" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="B1800" s="1" t="s">
-        <v>2348</v>
-      </c>
-    </row>
-    <row r="1801" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1801" s="1" t="s">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="B1801" s="1" t="s">
-        <v>2348</v>
-      </c>
-    </row>
-    <row r="1802" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1802" s="1" t="s">
-        <v>1792</v>
+        <v>1801</v>
       </c>
       <c r="B1802" s="1" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="1803" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1803" s="1" t="s">
-        <v>1793</v>
+        <v>1802</v>
       </c>
       <c r="B1803" s="1" t="s">
-        <v>2157</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1804" s="1" t="s">
-        <v>1794</v>
+        <v>1803</v>
       </c>
       <c r="B1804" s="1" t="s">
-        <v>1794</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1805" s="1" t="s">
-        <v>1795</v>
+        <v>1804</v>
       </c>
       <c r="B1805" s="1" t="s">
-        <v>1795</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="1806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1806" s="1" t="s">
-        <v>1796</v>
+        <v>1805</v>
       </c>
       <c r="B1806" s="1" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="1807" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1807" s="1" t="s">
-        <v>1797</v>
+        <v>1806</v>
       </c>
       <c r="B1807" s="1" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="1808" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1808" s="1" t="s">
-        <v>1798</v>
+        <v>1807</v>
       </c>
       <c r="B1808" s="1" t="s">
-        <v>1798</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1809" s="1" t="s">
-        <v>1799</v>
+        <v>1808</v>
       </c>
       <c r="B1809" s="1" t="s">
-        <v>1799</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1810" s="1" t="s">
-        <v>1800</v>
+        <v>1809</v>
       </c>
       <c r="B1810" s="1" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="1811" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1811" s="1" t="s">
-        <v>1801</v>
+        <v>1810</v>
       </c>
       <c r="B1811" s="1" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="1812" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1812" s="1" t="s">
-        <v>1802</v>
+        <v>1811</v>
       </c>
       <c r="B1812" s="1" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="1813" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1813" s="1" t="s">
-        <v>1803</v>
+        <v>1812</v>
       </c>
       <c r="B1813" s="1" t="s">
-        <v>1803</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1814" s="1" t="s">
-        <v>1804</v>
+        <v>1813</v>
       </c>
       <c r="B1814" s="1" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="1815" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1815" s="1" t="s">
-        <v>1805</v>
+        <v>1814</v>
       </c>
       <c r="B1815" s="1" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="1816" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1816" s="1" t="s">
-        <v>1806</v>
+        <v>1815</v>
       </c>
       <c r="B1816" s="1" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="1817" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1817" s="1" t="s">
         <v>1816</v>
       </c>
       <c r="B1817" s="1" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="1818" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1818" s="1" t="s">
         <v>1817</v>
       </c>
       <c r="B1818" s="1" t="s">
-        <v>2151</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1819" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -22599,167 +22470,167 @@
         <v>1818</v>
       </c>
       <c r="B1819" s="1" t="s">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="1820" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1820" s="1" t="s">
         <v>1819</v>
       </c>
       <c r="B1820" s="1" t="s">
-        <v>2153</v>
-      </c>
-    </row>
-    <row r="1821" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1821" s="1" t="s">
         <v>1820</v>
       </c>
       <c r="B1821" s="1" t="s">
-        <v>2154</v>
-      </c>
-    </row>
-    <row r="1822" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1822" s="1" t="s">
         <v>1821</v>
       </c>
       <c r="B1822" s="1" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="1823" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1823" s="1" t="s">
         <v>1822</v>
       </c>
       <c r="B1823" s="1" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="1824" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1824" s="1" t="s">
         <v>1823</v>
       </c>
       <c r="B1824" s="1" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="1825" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1825" s="1" t="s">
         <v>1824</v>
       </c>
       <c r="B1825" s="1" t="s">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="1826" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1826" s="1" t="s">
         <v>1825</v>
       </c>
       <c r="B1826" s="1" t="s">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="1827" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1827" s="1" t="s">
         <v>1826</v>
       </c>
       <c r="B1827" s="1" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="1828" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1828" s="1" t="s">
         <v>1827</v>
       </c>
       <c r="B1828" s="1" t="s">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="1829" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1829" s="1" t="s">
         <v>1828</v>
       </c>
       <c r="B1829" s="1" t="s">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="1830" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1830" s="1" t="s">
         <v>1829</v>
       </c>
       <c r="B1830" s="1" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="1831" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1831" s="1" t="s">
         <v>1830</v>
       </c>
       <c r="B1831" s="1" t="s">
-        <v>2171</v>
-      </c>
-    </row>
-    <row r="1832" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1832" s="1" t="s">
         <v>1831</v>
       </c>
       <c r="B1832" s="1" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="1833" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1833" s="1" t="s">
         <v>1832</v>
       </c>
       <c r="B1833" s="1" t="s">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="1834" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1834" s="1" t="s">
         <v>1833</v>
       </c>
       <c r="B1834" s="1" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="1835" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1835" s="1" t="s">
         <v>1834</v>
       </c>
       <c r="B1835" s="1" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="1836" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1836" s="1" t="s">
         <v>1835</v>
       </c>
       <c r="B1836" s="1" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="1837" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1837" s="1" t="s">
         <v>1836</v>
       </c>
       <c r="B1837" s="1" t="s">
-        <v>2177</v>
-      </c>
-    </row>
-    <row r="1838" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1838" s="1" t="s">
         <v>1837</v>
       </c>
       <c r="B1838" s="1" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="1839" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1839" s="1" t="s">
         <v>1838</v>
       </c>
       <c r="B1839" s="1" t="s">
-        <v>2180</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1840" spans="1:2" x14ac:dyDescent="0.25">
@@ -22770,7 +22641,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="1841" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1841" s="1" t="s">
         <v>1840</v>
       </c>
@@ -22778,7 +22649,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="1842" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1842" s="1" t="s">
         <v>1841</v>
       </c>
@@ -22786,28 +22657,28 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="1843" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1843" s="1" t="s">
         <v>1842</v>
       </c>
       <c r="B1843" s="1" t="s">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="1844" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1844" s="1" t="s">
         <v>1843</v>
       </c>
       <c r="B1844" s="1" t="s">
-        <v>2219</v>
-      </c>
-    </row>
-    <row r="1845" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1845" s="1" t="s">
         <v>1844</v>
       </c>
       <c r="B1845" s="1" t="s">
-        <v>2220</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1846" spans="1:2" x14ac:dyDescent="0.25">
@@ -22839,7 +22710,7 @@
         <v>1848</v>
       </c>
       <c r="B1849" s="1" t="s">
-        <v>2222</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1850" spans="1:2" x14ac:dyDescent="0.25">
@@ -22847,23 +22718,23 @@
         <v>1849</v>
       </c>
       <c r="B1850" s="1" t="s">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="1851" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1851" s="1" t="s">
         <v>1850</v>
       </c>
       <c r="B1851" s="1" t="s">
-        <v>2223</v>
-      </c>
-    </row>
-    <row r="1852" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1852" s="1" t="s">
         <v>1851</v>
       </c>
       <c r="B1852" s="1" t="s">
-        <v>2223</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1853" spans="1:2" x14ac:dyDescent="0.25">
@@ -22882,7 +22753,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="1855" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1855" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1855" s="1" t="s">
         <v>1854</v>
       </c>
@@ -22890,7 +22761,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="1856" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1856" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1856" s="1" t="s">
         <v>1855</v>
       </c>
@@ -22898,12 +22769,12 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="1857" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1857" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1857" s="1" t="s">
         <v>1856</v>
       </c>
       <c r="B1857" s="1" t="s">
-        <v>2257</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1858" spans="1:2" x14ac:dyDescent="0.25">
@@ -22914,7 +22785,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="1859" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1859" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1859" s="1" t="s">
         <v>1858</v>
       </c>
@@ -22946,7 +22817,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="1863" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1863" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1863" s="1" t="s">
         <v>1862</v>
       </c>
@@ -23026,7 +22897,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="1873" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1873" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1873" s="1" t="s">
         <v>1872</v>
       </c>
@@ -23034,7 +22905,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="1874" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1874" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1874" s="1" t="s">
         <v>1873</v>
       </c>
@@ -23042,7 +22913,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="1875" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1875" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1875" s="1" t="s">
         <v>1874</v>
       </c>
@@ -23050,7 +22921,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="1876" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1876" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1876" s="1" t="s">
         <v>1875</v>
       </c>
@@ -23058,7 +22929,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="1877" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1877" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1877" s="1" t="s">
         <v>1876</v>
       </c>
@@ -23066,7 +22937,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="1878" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1878" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1878" s="1" t="s">
         <v>1877</v>
       </c>
@@ -23074,15 +22945,15 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="1879" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1879" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1879" s="1" t="s">
         <v>1878</v>
       </c>
       <c r="B1879" s="1" t="s">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="1880" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1880" s="1" t="s">
         <v>1879</v>
       </c>
@@ -23090,7 +22961,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="1881" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1881" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1881" s="1" t="s">
         <v>1880</v>
       </c>
@@ -23098,23 +22969,23 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="1882" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1882" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1882" s="1" t="s">
         <v>1881</v>
       </c>
       <c r="B1882" s="1" t="s">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="1883" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1883" s="1" t="s">
         <v>1882</v>
       </c>
       <c r="B1883" s="1" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="1884" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1884" s="1" t="s">
         <v>1883</v>
       </c>
@@ -23122,7 +22993,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="1885" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1885" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1885" s="1" t="s">
         <v>1884</v>
       </c>
@@ -23130,23 +23001,29 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="1886" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1886" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1886" s="1" t="s">
         <v>1885</v>
       </c>
       <c r="B1886" s="1" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="1887" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2266</v>
+      </c>
+      <c r="C1886" s="1" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1887" s="1" t="s">
         <v>1886</v>
       </c>
       <c r="B1887" s="1" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="1888" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2268</v>
+      </c>
+      <c r="C1887" s="1" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1888" s="1" t="s">
         <v>1887</v>
       </c>
@@ -23154,7 +23031,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="1889" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1889" s="1" t="s">
         <v>1888</v>
       </c>
@@ -23162,15 +23039,21 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="1890" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1890" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1890" s="1" t="s">
         <v>1889</v>
       </c>
       <c r="B1890" s="1" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="1891" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2270</v>
+      </c>
+      <c r="C1890" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D1890" s="1" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1891" s="1" t="s">
         <v>1890</v>
       </c>
@@ -23178,23 +23061,23 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="1892" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1892" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1892" s="1" t="s">
         <v>1891</v>
       </c>
       <c r="B1892" s="1" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="1893" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A1893" s="1" t="s">
         <v>1892</v>
       </c>
       <c r="B1893" s="1" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="1894" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1894" s="1" t="s">
         <v>1893</v>
       </c>
@@ -23202,7 +23085,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="1895" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1895" s="1" t="s">
         <v>1894</v>
       </c>
@@ -23210,7 +23093,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="1896" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1896" s="1" t="s">
         <v>1895</v>
       </c>
@@ -23218,15 +23101,15 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="1897" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1897" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1897" s="1" t="s">
         <v>1896</v>
       </c>
       <c r="B1897" s="1" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="1898" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1898" s="1" t="s">
         <v>1897</v>
       </c>
@@ -23234,7 +23117,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="1899" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1899" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1899" s="1" t="s">
         <v>1898</v>
       </c>
@@ -23242,7 +23125,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="1900" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1900" s="1" t="s">
         <v>1899</v>
       </c>
@@ -23250,7 +23133,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="1901" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1901" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1901" s="1" t="s">
         <v>1900</v>
       </c>
@@ -23258,23 +23141,23 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="1902" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1902" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1902" s="1" t="s">
         <v>1901</v>
       </c>
       <c r="B1902" s="1" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="1903" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A1903" s="1" t="s">
         <v>1902</v>
       </c>
       <c r="B1903" s="1" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="1904" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1904" s="1" t="s">
         <v>1903</v>
       </c>
@@ -23282,55 +23165,63 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="1905" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1905" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1905" s="1" t="s">
         <v>1904</v>
       </c>
       <c r="B1905" s="1" t="s">
         <v>1904</v>
       </c>
-    </row>
-    <row r="1906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1905"/>
+    </row>
+    <row r="1906" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1906" s="1" t="s">
         <v>1905</v>
       </c>
       <c r="B1906" s="1" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="1907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1906"/>
+    </row>
+    <row r="1907" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1907" s="1" t="s">
         <v>1906</v>
       </c>
       <c r="B1907" s="1" t="s">
         <v>1906</v>
       </c>
-    </row>
-    <row r="1908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1907"/>
+    </row>
+    <row r="1908" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A1908" s="1" t="s">
         <v>1907</v>
       </c>
       <c r="B1908" s="1" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="1909" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2235</v>
+      </c>
+      <c r="C1908" s="1" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1909" s="1" t="s">
         <v>1908</v>
       </c>
       <c r="B1909" s="1" t="s">
         <v>1908</v>
       </c>
-    </row>
-    <row r="1910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1909"/>
+    </row>
+    <row r="1910" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1910" s="1" t="s">
         <v>1909</v>
       </c>
       <c r="B1910" s="1" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="1911" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2263</v>
+      </c>
+      <c r="C1910"/>
+    </row>
+    <row r="1911" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1911" s="1" t="s">
         <v>1910</v>
       </c>
@@ -23338,7 +23229,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="1912" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1912" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1912" s="1" t="s">
         <v>1911</v>
       </c>
@@ -23346,7 +23237,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="1913" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1913" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1913" s="1" t="s">
         <v>1912</v>
       </c>
@@ -23354,7 +23245,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="1914" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1914" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1914" s="1" t="s">
         <v>1913</v>
       </c>
@@ -23362,7 +23253,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="1915" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1915" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1915" s="1" t="s">
         <v>1914</v>
       </c>
@@ -23370,7 +23261,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="1916" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1916" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1916" s="1" t="s">
         <v>1915</v>
       </c>
@@ -23378,7 +23269,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="1917" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1917" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1917" s="1" t="s">
         <v>1916</v>
       </c>
@@ -23386,7 +23277,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="1918" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1918" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1918" s="1" t="s">
         <v>1917</v>
       </c>
@@ -23394,7 +23285,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="1919" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1919" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1919" s="1" t="s">
         <v>1918</v>
       </c>
@@ -23402,7 +23293,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="1920" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1920" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1920" s="1" t="s">
         <v>1919</v>
       </c>
@@ -23410,7 +23301,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="1921" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1921" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1921" s="1" t="s">
         <v>1920</v>
       </c>
@@ -23418,7 +23309,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="1922" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1922" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1922" s="1" t="s">
         <v>1921</v>
       </c>
@@ -23426,15 +23317,15 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="1923" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="1923" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1923" s="1" t="s">
         <v>1922</v>
       </c>
       <c r="B1923" s="1" t="s">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="1924" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1924" s="1" t="s">
         <v>1923</v>
       </c>
@@ -23442,7 +23333,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="1925" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1925" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1925" s="1" t="s">
         <v>1924</v>
       </c>
@@ -23450,23 +23341,23 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="1926" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1926" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1926" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="B1926" s="1" t="s">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="1927" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1927" s="1" t="s">
         <v>1926</v>
       </c>
       <c r="B1927" s="1" t="s">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="1928" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1928" s="1" t="s">
         <v>1927</v>
       </c>
@@ -23474,7 +23365,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="1929" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1929" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1929" s="1" t="s">
         <v>1928</v>
       </c>
@@ -23482,29 +23373,23 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="1930" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="1930" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1930" s="1" t="s">
         <v>1929</v>
       </c>
       <c r="B1930" s="1" t="s">
-        <v>2310</v>
-      </c>
-      <c r="C1930" s="1" t="s">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="1931" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1931" s="1" t="s">
         <v>1930</v>
       </c>
       <c r="B1931" s="1" t="s">
-        <v>2312</v>
-      </c>
-      <c r="C1931" s="1" t="s">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="1932" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1932" s="1" t="s">
         <v>1931</v>
       </c>
@@ -23512,7 +23397,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="1933" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1933" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1933" s="1" t="s">
         <v>1932</v>
       </c>
@@ -23520,21 +23405,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="1934" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="1934" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1934" s="1" t="s">
         <v>1933</v>
       </c>
       <c r="B1934" s="1" t="s">
-        <v>2314</v>
-      </c>
-      <c r="C1934" s="1" t="s">
-        <v>2315</v>
-      </c>
-      <c r="D1934" s="1" t="s">
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="1935" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1935" s="1" t="s">
         <v>1934</v>
       </c>
@@ -23542,23 +23421,23 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="1936" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="1936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1936" s="1" t="s">
         <v>1935</v>
       </c>
       <c r="B1936" s="1" t="s">
-        <v>2342</v>
-      </c>
-    </row>
-    <row r="1937" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1937" s="1" t="s">
         <v>1936</v>
       </c>
       <c r="B1937" s="1" t="s">
-        <v>2343</v>
-      </c>
-    </row>
-    <row r="1938" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1938" s="1" t="s">
         <v>1937</v>
       </c>
@@ -23566,7 +23445,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="1939" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1939" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1939" s="1" t="s">
         <v>1938</v>
       </c>
@@ -23574,7 +23453,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="1940" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1940" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1940" s="1" t="s">
         <v>1939</v>
       </c>
@@ -23582,15 +23461,15 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="1941" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1941" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1941" s="1" t="s">
         <v>1940</v>
       </c>
       <c r="B1941" s="1" t="s">
-        <v>2344</v>
-      </c>
-    </row>
-    <row r="1942" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1942" s="1" t="s">
         <v>1941</v>
       </c>
@@ -23598,7 +23477,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="1943" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1943" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1943" s="1" t="s">
         <v>1942</v>
       </c>
@@ -23606,7 +23485,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="1944" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1944" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1944" s="1" t="s">
         <v>1943</v>
       </c>
@@ -23614,7 +23493,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="1945" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1945" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1945" s="1" t="s">
         <v>1944</v>
       </c>
@@ -23622,23 +23501,23 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="1946" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1946" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1946" s="1" t="s">
         <v>1945</v>
       </c>
       <c r="B1946" s="1" t="s">
-        <v>2281</v>
-      </c>
-    </row>
-    <row r="1947" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1947" s="1" t="s">
         <v>1946</v>
       </c>
       <c r="B1947" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="1948" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1948" s="1" t="s">
         <v>1947</v>
       </c>
@@ -23646,63 +23525,55 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="1949" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1949" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1949" s="1" t="s">
         <v>1948</v>
       </c>
       <c r="B1949" s="1" t="s">
         <v>1948</v>
       </c>
-      <c r="C1949"/>
-    </row>
-    <row r="1950" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1950" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1950" s="1" t="s">
         <v>1949</v>
       </c>
       <c r="B1950" s="1" t="s">
         <v>1949</v>
       </c>
-      <c r="C1950"/>
-    </row>
-    <row r="1951" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1951" s="1" t="s">
         <v>1950</v>
       </c>
       <c r="B1951" s="1" t="s">
         <v>1950</v>
       </c>
-      <c r="C1951"/>
-    </row>
-    <row r="1952" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1952" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1952" s="1" t="s">
         <v>1951</v>
       </c>
       <c r="B1952" s="1" t="s">
-        <v>2279</v>
-      </c>
-      <c r="C1952" s="1" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="1953" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1953" s="1" t="s">
         <v>1952</v>
       </c>
       <c r="B1953" s="1" t="s">
         <v>1952</v>
       </c>
-      <c r="C1953"/>
-    </row>
-    <row r="1954" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1954" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1954" s="1" t="s">
         <v>1953</v>
       </c>
       <c r="B1954" s="1" t="s">
-        <v>2307</v>
-      </c>
-      <c r="C1954"/>
-    </row>
-    <row r="1955" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1955" s="1" t="s">
         <v>1954</v>
       </c>
@@ -23710,7 +23581,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="1956" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1956" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1956" s="1" t="s">
         <v>1955</v>
       </c>
@@ -23718,7 +23589,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="1957" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1957" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1957" s="1" t="s">
         <v>1956</v>
       </c>
@@ -23726,7 +23597,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="1958" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1958" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1958" s="1" t="s">
         <v>1957</v>
       </c>
@@ -23734,7 +23605,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="1959" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1959" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1959" s="1" t="s">
         <v>1958</v>
       </c>
@@ -23742,7 +23613,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="1960" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1960" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1960" s="1" t="s">
         <v>1959</v>
       </c>
@@ -23750,7 +23621,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="1961" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1961" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1961" s="1" t="s">
         <v>1960</v>
       </c>
@@ -23758,7 +23629,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="1962" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1962" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1962" s="1" t="s">
         <v>1961</v>
       </c>
@@ -23766,7 +23637,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="1963" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1963" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1963" s="1" t="s">
         <v>1962</v>
       </c>
@@ -23774,7 +23645,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="1964" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1964" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1964" s="1" t="s">
         <v>1963</v>
       </c>
@@ -23782,7 +23653,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="1965" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1965" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1965" s="1" t="s">
         <v>1964</v>
       </c>
@@ -23790,7 +23661,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="1966" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1966" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1966" s="1" t="s">
         <v>1965</v>
       </c>
@@ -23798,7 +23669,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="1967" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1967" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1967" s="1" t="s">
         <v>1966</v>
       </c>
@@ -23806,7 +23677,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="1968" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1968" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1968" s="1" t="s">
         <v>1967</v>
       </c>
@@ -23830,7 +23701,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="1971" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1971" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1971" s="1" t="s">
         <v>1970</v>
       </c>
@@ -23862,7 +23733,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="1975" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1975" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1975" s="1" t="s">
         <v>1974</v>
       </c>
@@ -23870,7 +23741,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="1976" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1976" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1976" s="1" t="s">
         <v>1975</v>
       </c>
@@ -23910,7 +23781,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="1981" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1981" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1981" s="1" t="s">
         <v>1980</v>
       </c>
@@ -24198,7 +24069,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2017" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2017" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2017" s="1" t="s">
         <v>2016</v>
       </c>
@@ -24206,7 +24077,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2018" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2018" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2018" s="1" t="s">
         <v>2017</v>
       </c>
@@ -24214,7 +24085,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2019" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2019" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2019" s="1" t="s">
         <v>2018</v>
       </c>
@@ -24222,7 +24093,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2020" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2020" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2020" s="1" t="s">
         <v>2019</v>
       </c>
@@ -24238,7 +24109,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2022" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2022" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2022" s="1" t="s">
         <v>2021</v>
       </c>
@@ -24254,7 +24125,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2024" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2024" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2024" s="1" t="s">
         <v>2023</v>
       </c>
@@ -24262,7 +24133,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2025" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2025" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2025" s="1" t="s">
         <v>2024</v>
       </c>
@@ -24286,7 +24157,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="2028" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2028" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2028" s="1" t="s">
         <v>2027</v>
       </c>
@@ -24294,7 +24165,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="2029" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2029" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2029" s="1" t="s">
         <v>2028</v>
       </c>
@@ -24302,7 +24173,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="2030" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2030" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2030" s="1" t="s">
         <v>2029</v>
       </c>
@@ -24310,7 +24181,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="2031" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2031" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2031" s="1" t="s">
         <v>2030</v>
       </c>
@@ -24318,7 +24189,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2032" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2032" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2032" s="1" t="s">
         <v>2031</v>
       </c>
@@ -24326,7 +24197,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="2033" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2033" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2033" s="1" t="s">
         <v>2032</v>
       </c>
@@ -24334,7 +24205,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="2034" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2034" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2034" s="1" t="s">
         <v>2033</v>
       </c>
@@ -24342,7 +24213,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="2035" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2035" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2035" s="1" t="s">
         <v>2034</v>
       </c>
@@ -24350,7 +24221,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="2036" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2036" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2036" s="1" t="s">
         <v>2035</v>
       </c>
@@ -24358,7 +24229,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="2037" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2037" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2037" s="1" t="s">
         <v>2036</v>
       </c>
@@ -24366,7 +24237,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="2038" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2038" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2038" s="1" t="s">
         <v>2037</v>
       </c>
@@ -24374,7 +24245,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="2039" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2039" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2039" s="1" t="s">
         <v>2038</v>
       </c>
@@ -24422,7 +24293,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="2045" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2045" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2045" s="1" t="s">
         <v>2044</v>
       </c>
@@ -24430,7 +24301,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="2046" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2046" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2046" s="1" t="s">
         <v>2045</v>
       </c>
@@ -24454,7 +24325,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="2049" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2049" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2049" s="1" t="s">
         <v>2048</v>
       </c>
@@ -24462,7 +24333,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="2050" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2050" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2050" s="1" t="s">
         <v>2049</v>
       </c>
@@ -24470,7 +24341,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="2051" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2051" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2051" s="1" t="s">
         <v>2050</v>
       </c>
@@ -24478,7 +24349,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2052" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2052" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2052" s="1" t="s">
         <v>2051</v>
       </c>
@@ -24486,7 +24357,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="2053" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2053" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2053" s="1" t="s">
         <v>2052</v>
       </c>
@@ -24494,7 +24365,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="2054" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2054" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2054" s="1" t="s">
         <v>2053</v>
       </c>
@@ -24502,7 +24373,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="2055" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2055" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2055" s="1" t="s">
         <v>2054</v>
       </c>
@@ -24510,7 +24381,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2056" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2056" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2056" s="1" t="s">
         <v>2055</v>
       </c>
@@ -24518,7 +24389,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="2057" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2057" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2057" s="1" t="s">
         <v>2056</v>
       </c>
@@ -24526,7 +24397,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="2058" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2058" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2058" s="1" t="s">
         <v>2057</v>
       </c>
@@ -24574,7 +24445,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="2064" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2064" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2064" s="1" t="s">
         <v>2063</v>
       </c>
@@ -24582,7 +24453,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="2065" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2065" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2065" s="1" t="s">
         <v>2064</v>
       </c>
@@ -24590,7 +24461,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="2066" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2066" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2066" s="1" t="s">
         <v>2065</v>
       </c>
@@ -24598,7 +24469,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="2067" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2067" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2067" s="1" t="s">
         <v>2066</v>
       </c>
@@ -24606,7 +24477,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="2068" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2068" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2068" s="1" t="s">
         <v>2067</v>
       </c>
@@ -24622,7 +24493,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="2070" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2070" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2070" s="1" t="s">
         <v>2069</v>
       </c>
@@ -24646,7 +24517,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="2073" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2073" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2073" s="1" t="s">
         <v>2072</v>
       </c>
@@ -24654,7 +24525,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="2074" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2074" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2074" s="1" t="s">
         <v>2073</v>
       </c>
@@ -24678,7 +24549,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="2077" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2077" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2077" s="1" t="s">
         <v>2076</v>
       </c>
@@ -24686,7 +24557,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="2078" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2078" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2078" s="1" t="s">
         <v>2077</v>
       </c>
@@ -24694,7 +24565,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="2079" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2079" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2079" s="1" t="s">
         <v>2078</v>
       </c>
@@ -24710,7 +24581,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="2081" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2081" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2081" s="1" t="s">
         <v>2080</v>
       </c>
@@ -24718,7 +24589,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="2082" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2082" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2082" s="1" t="s">
         <v>2081</v>
       </c>
@@ -24726,7 +24597,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="2083" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2083" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2083" s="1" t="s">
         <v>2082</v>
       </c>
@@ -24734,7 +24605,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="2084" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2084" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2084" s="1" t="s">
         <v>2083</v>
       </c>
@@ -24742,7 +24613,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="2085" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2085" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2085" s="1" t="s">
         <v>2084</v>
       </c>
@@ -24750,7 +24621,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="2086" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2086" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2086" s="1" t="s">
         <v>2085</v>
       </c>
@@ -24758,7 +24629,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="2087" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2087" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2087" s="1" t="s">
         <v>2086</v>
       </c>
@@ -24766,7 +24637,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="2088" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2088" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2088" s="1" t="s">
         <v>2087</v>
       </c>
@@ -24774,571 +24645,219 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="2089" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2089" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2089" s="1" t="s">
         <v>2088</v>
       </c>
       <c r="B2089" s="1" t="s">
         <v>2088</v>
       </c>
-    </row>
-    <row r="2090" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2089"/>
+    </row>
+    <row r="2090" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2090" s="1" t="s">
         <v>2089</v>
       </c>
       <c r="B2090" s="1" t="s">
         <v>2089</v>
       </c>
-    </row>
-    <row r="2091" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2090"/>
+    </row>
+    <row r="2091" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2091" s="1" t="s">
         <v>2090</v>
       </c>
       <c r="B2091" s="1" t="s">
         <v>2090</v>
       </c>
-    </row>
-    <row r="2092" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2091"/>
+    </row>
+    <row r="2092" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2092" s="1" t="s">
         <v>2091</v>
       </c>
       <c r="B2092" s="1" t="s">
         <v>2091</v>
       </c>
-    </row>
-    <row r="2093" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2092"/>
+    </row>
+    <row r="2093" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2093" s="1" t="s">
         <v>2092</v>
       </c>
       <c r="B2093" s="1" t="s">
         <v>2092</v>
       </c>
-    </row>
-    <row r="2094" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2093"/>
+    </row>
+    <row r="2094" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A2094" s="1" t="s">
-        <v>2093</v>
+        <v>1568</v>
       </c>
       <c r="B2094" s="1" t="s">
         <v>2093</v>
       </c>
-    </row>
-    <row r="2095" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2094" s="1"/>
+      <c r="E2094" s="1"/>
+      <c r="F2094" s="1"/>
+      <c r="G2094" s="1"/>
+    </row>
+    <row r="2095" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2095" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B2095" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C2095" s="1" t="s">
         <v>2094</v>
       </c>
-      <c r="B2095" s="1" t="s">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="2096" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2095" s="1"/>
+      <c r="E2095" s="1"/>
+      <c r="F2095" s="1"/>
+      <c r="G2095" s="1"/>
+    </row>
+    <row r="2096" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2096" s="1" t="s">
-        <v>2095</v>
+        <v>30</v>
       </c>
       <c r="B2096" s="1" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="2097" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2096</v>
+      </c>
+      <c r="D2096" s="1"/>
+      <c r="E2096" s="1"/>
+      <c r="F2096" s="1"/>
+      <c r="G2096" s="1"/>
+    </row>
+    <row r="2097" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2097" s="1" t="s">
-        <v>2096</v>
+        <v>2155</v>
       </c>
       <c r="B2097" s="1" t="s">
-        <v>2096</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="2098" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2098" s="1" t="s">
-        <v>2097</v>
+        <v>2167</v>
       </c>
       <c r="B2098" s="1" t="s">
-        <v>2097</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="2099" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2099" s="1" t="s">
-        <v>2098</v>
+        <v>2189</v>
       </c>
       <c r="B2099" s="1" t="s">
-        <v>2098</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="2100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2100" s="1" t="s">
-        <v>2099</v>
+        <v>2191</v>
       </c>
       <c r="B2100" s="1" t="s">
-        <v>2099</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="2101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2101" s="1" t="s">
-        <v>2100</v>
+        <v>2193</v>
       </c>
       <c r="B2101" s="1" t="s">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="2102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2102" s="1" t="s">
-        <v>2101</v>
+        <v>2195</v>
       </c>
       <c r="B2102" s="1" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="2103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2103" s="1" t="s">
-        <v>2102</v>
+        <v>2197</v>
       </c>
       <c r="B2103" s="1" t="s">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="2104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2104" s="1" t="s">
-        <v>2103</v>
+        <v>2199</v>
       </c>
       <c r="B2104" s="1" t="s">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="2105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2105" s="1" t="s">
-        <v>2104</v>
+        <v>2202</v>
       </c>
       <c r="B2105" s="1" t="s">
-        <v>2104</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="2106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2106" s="1" t="s">
-        <v>2105</v>
+        <v>2201</v>
       </c>
       <c r="B2106" s="1" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="2107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2107" s="1" t="s">
-        <v>2106</v>
+        <v>2204</v>
       </c>
       <c r="B2107" s="1" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="2108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2108" s="1" t="s">
-        <v>2107</v>
+        <v>2206</v>
       </c>
       <c r="B2108" s="1" t="s">
-        <v>2107</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="2109" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2109" s="1" t="s">
-        <v>2108</v>
+        <v>2207</v>
       </c>
       <c r="B2109" s="1" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="2110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2110" s="1" t="s">
-        <v>2109</v>
+        <v>2209</v>
       </c>
       <c r="B2110" s="1" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="2111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2111" s="1" t="s">
-        <v>2110</v>
+        <v>2210</v>
       </c>
       <c r="B2111" s="1" t="s">
-        <v>2110</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="2112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2112" s="1" t="s">
-        <v>2111</v>
-      </c>
-      <c r="B2112" s="1" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="2113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2113" s="1" t="s">
-        <v>2112</v>
-      </c>
-      <c r="B2113" s="1" t="s">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="2114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2114" s="1" t="s">
-        <v>2113</v>
-      </c>
-      <c r="B2114" s="1" t="s">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="2115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2115" s="1" t="s">
-        <v>2114</v>
-      </c>
-      <c r="B2115" s="1" t="s">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="2116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2116" s="1" t="s">
-        <v>2115</v>
-      </c>
-      <c r="B2116" s="1" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="2117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2117" s="1" t="s">
-        <v>2116</v>
-      </c>
-      <c r="B2117" s="1" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="2118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2118" s="1" t="s">
-        <v>2117</v>
-      </c>
-      <c r="B2118" s="1" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="2119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2119" s="1" t="s">
-        <v>2118</v>
-      </c>
-      <c r="B2119" s="1" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="2120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2120" s="1" t="s">
-        <v>2119</v>
-      </c>
-      <c r="B2120" s="1" t="s">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="2121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2121" s="1" t="s">
-        <v>2120</v>
-      </c>
-      <c r="B2121" s="1" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="2122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2122" s="1" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B2122" s="1" t="s">
-        <v>2121</v>
-      </c>
-    </row>
-    <row r="2123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2123" s="1" t="s">
-        <v>2122</v>
-      </c>
-      <c r="B2123" s="1" t="s">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="2124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2124" s="1" t="s">
-        <v>2123</v>
-      </c>
-      <c r="B2124" s="1" t="s">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="2125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2125" s="1" t="s">
-        <v>2124</v>
-      </c>
-      <c r="B2125" s="1" t="s">
-        <v>2124</v>
-      </c>
-    </row>
-    <row r="2126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2126" s="1" t="s">
-        <v>2125</v>
-      </c>
-      <c r="B2126" s="1" t="s">
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="2127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2127" s="1" t="s">
-        <v>2126</v>
-      </c>
-      <c r="B2127" s="1" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="2128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2128" s="1" t="s">
-        <v>2127</v>
-      </c>
-      <c r="B2128" s="1" t="s">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="2129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2129" s="1" t="s">
-        <v>2128</v>
-      </c>
-      <c r="B2129" s="1" t="s">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="2130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2130" s="1" t="s">
-        <v>2129</v>
-      </c>
-      <c r="B2130" s="1" t="s">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="2131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2131" s="1" t="s">
-        <v>2130</v>
-      </c>
-      <c r="B2131" s="1" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="2132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2132" s="1" t="s">
-        <v>2131</v>
-      </c>
-      <c r="B2132" s="1" t="s">
-        <v>2131</v>
-      </c>
-    </row>
-    <row r="2133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2133" s="1" t="s">
-        <v>2132</v>
-      </c>
-      <c r="B2133" s="1" t="s">
-        <v>2132</v>
-      </c>
-      <c r="C2133"/>
-    </row>
-    <row r="2134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2134" s="1" t="s">
-        <v>2133</v>
-      </c>
-      <c r="B2134" s="1" t="s">
-        <v>2133</v>
-      </c>
-      <c r="C2134"/>
-    </row>
-    <row r="2135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2135" s="1" t="s">
-        <v>2134</v>
-      </c>
-      <c r="B2135" s="1" t="s">
-        <v>2134</v>
-      </c>
-      <c r="C2135"/>
-    </row>
-    <row r="2136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2136" s="1" t="s">
-        <v>2135</v>
-      </c>
-      <c r="B2136" s="1" t="s">
-        <v>2135</v>
-      </c>
-      <c r="C2136"/>
-    </row>
-    <row r="2137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2137" s="1" t="s">
-        <v>2136</v>
-      </c>
-      <c r="B2137" s="1" t="s">
-        <v>2136</v>
-      </c>
-      <c r="C2137"/>
-    </row>
-    <row r="2138" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2138" s="1" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B2138" s="1" t="s">
-        <v>2137</v>
-      </c>
-      <c r="D2138" s="1"/>
-      <c r="E2138" s="1"/>
-      <c r="F2138" s="1"/>
-      <c r="G2138" s="1"/>
-    </row>
-    <row r="2139" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2139" s="1" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B2139" s="1" t="s">
-        <v>2139</v>
-      </c>
-      <c r="C2139" s="1" t="s">
-        <v>2138</v>
-      </c>
-      <c r="D2139" s="1"/>
-      <c r="E2139" s="1"/>
-      <c r="F2139" s="1"/>
-      <c r="G2139" s="1"/>
-    </row>
-    <row r="2140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2140" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2140" s="1" t="s">
-        <v>2140</v>
-      </c>
-      <c r="D2140" s="1"/>
-      <c r="E2140" s="1"/>
-      <c r="F2140" s="1"/>
-      <c r="G2140" s="1"/>
-    </row>
-    <row r="2141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2141" s="1" t="s">
-        <v>2199</v>
-      </c>
-      <c r="B2141" s="1" t="s">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="2142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2142" s="1" t="s">
-        <v>2211</v>
-      </c>
-      <c r="B2142" s="1" t="s">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="2143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2143" s="1" t="s">
-        <v>2233</v>
-      </c>
-      <c r="B2143" s="1" t="s">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="2144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2144" s="1" t="s">
-        <v>2235</v>
-      </c>
-      <c r="B2144" s="1" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="2145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2145" s="1" t="s">
-        <v>2237</v>
-      </c>
-      <c r="B2145" s="1" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="2146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2146" s="1" t="s">
-        <v>2239</v>
-      </c>
-      <c r="B2146" s="1" t="s">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="2147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2147" s="1" t="s">
-        <v>2241</v>
-      </c>
-      <c r="B2147" s="1" t="s">
-        <v>2242</v>
-      </c>
-    </row>
-    <row r="2148" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2148" s="1" t="s">
-        <v>2243</v>
-      </c>
-      <c r="B2148" s="1" t="s">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="2149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2149" s="1" t="s">
-        <v>2246</v>
-      </c>
-      <c r="B2149" s="1" t="s">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="2150" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2150" s="1" t="s">
-        <v>2245</v>
-      </c>
-      <c r="B2150" s="1" t="s">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="2151" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2151" s="1" t="s">
-        <v>2248</v>
-      </c>
-      <c r="B2151" s="1" t="s">
-        <v>2249</v>
-      </c>
-    </row>
-    <row r="2152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2152" s="1" t="s">
-        <v>2250</v>
-      </c>
-      <c r="B2152" s="1" t="s">
-        <v>2252</v>
-      </c>
-    </row>
-    <row r="2153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2153" s="1" t="s">
-        <v>2251</v>
-      </c>
-      <c r="B2153" s="1" t="s">
-        <v>2252</v>
-      </c>
-    </row>
-    <row r="2154" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2154" s="1" t="s">
-        <v>2253</v>
-      </c>
-      <c r="B2154" s="1" t="s">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="2155" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2155" s="1" t="s">
-        <v>2254</v>
-      </c>
-      <c r="B2155" s="1" t="s">
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="2156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2156" s="1" t="s">
-        <v>2266</v>
+        <v>2222</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F2156" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
+  <autoFilter ref="A2:F2112" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A1:A1772 A1774:A1048576">
+  <conditionalFormatting sqref="A1730:A1048576 A1:A1728">
     <cfRule type="duplicateValues" dxfId="53" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
@@ -25356,22 +24875,22 @@
   <conditionalFormatting sqref="A135:A198">
     <cfRule type="duplicateValues" dxfId="46" priority="126"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1612:A1614 A1:C162 A164:C166 A163 C163 A168:C170 A167 C167 A172:C174 A171 C171 A176:C178 A175 C175 A179 C179 C1612:C1614 A180:C194 A1681:A1695 C1681:C1695 A1696:C1744 A1746:C1746 A1745 C1745 A1752:C1752 A1751 C1751 A1748:C1750 A1747 C1747 A1753 C1753 A195 C195 A196:C1611 A1615:C1680 A1774:C1048576 A1754:C1772">
+  <conditionalFormatting sqref="A1637:A1651 A1594:A1596 A1:C162 A164:C166 A163 C163 A168:C170 A167 C167 A172:C174 A171 C171 A176:C178 A175 C175 A179 C179 C1594:C1596 A180:C194 C1637:C1651 A1652:C1700 A1702:C1702 A1701 C1701 A1708:C1708 A1707 C1707 A1704:C1706 A1703 C1703 A1709 C1709 A195 C195 A196:C1593 A1597:C1636 A1710:C1728 A1730:C1048576">
     <cfRule type="duplicateValues" dxfId="45" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1923:A1927">
+  <conditionalFormatting sqref="A1879:A1883">
     <cfRule type="duplicateValues" dxfId="44" priority="5496"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2141:A1048576 A2:A1772 A1774:A2137">
+  <conditionalFormatting sqref="A2097:A1048576 A2:A1728 A1730:A2093">
     <cfRule type="duplicateValues" dxfId="43" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2141:A1048576 A2:A1772 A1774:A2138">
+  <conditionalFormatting sqref="A2097:A1048576 A2:A1728 A1730:A2094">
     <cfRule type="duplicateValues" dxfId="42" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2141:A1048576 A2:A1772 A1774:A2139">
+  <conditionalFormatting sqref="A2097:A1048576 A2:A1728 A1730:A2095">
     <cfRule type="duplicateValues" dxfId="41" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4465:A1048576 A1805:A1922 A199:A1530 A2:A13 A15:A74 A133 A1928:A1950">
+  <conditionalFormatting sqref="A4421:A1048576 A1761:A1878 A199:A1530 A2:A13 A15:A74 A133 A1884:A1906">
     <cfRule type="duplicateValues" dxfId="40" priority="166"/>
     <cfRule type="duplicateValues" dxfId="39" priority="168"/>
   </conditionalFormatting>
@@ -25405,23 +24924,23 @@
   <conditionalFormatting sqref="B1531">
     <cfRule type="duplicateValues" dxfId="27" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1923:B1927">
+  <conditionalFormatting sqref="B1879:B1883">
     <cfRule type="duplicateValues" dxfId="26" priority="5497"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4465:B1048576 B2:B13 B15:B74 B133 B1928:B1950 B1805:B1922 B199:B1530">
+  <conditionalFormatting sqref="B4421:B1048576 B2:B13 B15:B74 B133 B1884:B1906 B1761:B1878 B199:B1530">
     <cfRule type="duplicateValues" dxfId="25" priority="40"/>
     <cfRule type="duplicateValues" dxfId="24" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2138:W2138">
+  <conditionalFormatting sqref="G2094:W2094">
     <cfRule type="duplicateValues" dxfId="23" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2139:W2139">
+  <conditionalFormatting sqref="G2095:W2095">
     <cfRule type="duplicateValues" dxfId="22" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2140:W2140">
+  <conditionalFormatting sqref="G2096:W2096">
     <cfRule type="duplicateValues" dxfId="21" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1774:B1048576 A1:B1772">
+  <conditionalFormatting sqref="A1730:B1048576 A1:B1728">
     <cfRule type="duplicateValues" dxfId="20" priority="12"/>
     <cfRule type="duplicateValues" dxfId="19" priority="13"/>
     <cfRule type="duplicateValues" dxfId="18" priority="15"/>
@@ -25440,36 +24959,36 @@
   <conditionalFormatting sqref="B1530">
     <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1696:B1744 B1746 B1752 B1748:B1750 B1545:B1611 B1615:B1680 B1774:B1799 B1754:B1772">
+  <conditionalFormatting sqref="B1652:B1700 B1702 B1708 B1704:B1706 B1545:B1593 B1597:B1636 B1710:B1728 B1730:B1755">
     <cfRule type="duplicateValues" dxfId="11" priority="15735"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1545:A1772 A1774:A1799">
+  <conditionalFormatting sqref="A1730:A1755 A1545:A1728">
     <cfRule type="duplicateValues" dxfId="10" priority="15743"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1773">
+  <conditionalFormatting sqref="A1729">
     <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1773:C1773">
+  <conditionalFormatting sqref="A1729:C1729">
     <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1773">
+  <conditionalFormatting sqref="A1729">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1773">
+  <conditionalFormatting sqref="A1729">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1773">
+  <conditionalFormatting sqref="A1729">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1773:B1773">
+  <conditionalFormatting sqref="A1729:B1729">
     <cfRule type="duplicateValues" dxfId="4" priority="1"/>
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1773">
+  <conditionalFormatting sqref="B1729">
     <cfRule type="duplicateValues" dxfId="1" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1773">
+  <conditionalFormatting sqref="A1729">
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD5387D-6033-4450-AD5F-84B3B60DED98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C116D24-EA3D-4F82-AA8B-045690834A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4245" uniqueCount="2319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4316" uniqueCount="2377">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -6711,9 +6711,6 @@
     <t>Cha mẹ dễ khăt khe, nóng tính với con cái. Bạn khi sinh ra dễ đẻ mổ, về lâu về dài cha mẹ dễ dính nhiều tới mổ xẻ, tai nạn dao kéo. Giảm thọ cha mẹ.</t>
   </si>
   <si>
-    <t>Thái Dương và Cự Môn đồng cung tại Phụ Mẫu</t>
-  </si>
-  <si>
     <t>Bố mẹ là người có tài, có khiếu nghệ thuật. Bố lãng tử, mẹ duyên dáng lắm người theo. Bố mẹ nhanh quen sớm cưới mau đẻ con. Bố ngày trẻ cũng là người phong lưu. Đây là những điều may mắn và tốt lành cho con cái nhưng cũng là nghiệp đem lại phiền phức cho con cái, khi bố mẹ phải chia ly.</t>
   </si>
   <si>
@@ -7001,6 +6998,183 @@
   </si>
   <si>
     <t xml:space="preserve">Cha mẹ khá giả và sống lâu. </t>
+  </si>
+  <si>
+    <t>Vũ khúc là sao mang nhiều đặc tính khác nhau. Có phần năng động như Thái Dương, phần suy nghĩ như Thiên Đồng, phần mưu tính như Thiên Cơ, phần thụ động như Thái Âm; tuy vậy nói chung vẫn ngã về phía tĩnh, có tinh thần trách nhiệm, nhưng cầu mong sự an ổn. Thiên Tướng cũng mang đặc tính thụ động, muốn giảm thiểu mọi sự đổi thay. Hai sao hợp lại gây ra khuynh hướng bảo thủ, thiếu tính sáng tạo, không phát triển cái mới mà chỉ giữ những gì có sẵn. Người có Vũ Tướng cùng cung không phải lo vật lộn với miếng cơm manh áo, nhưng vì tâm lý thụ động, lại thiếu những vận may lớn nên rất khó trở thành đại phú.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Nhiều khả năng, chịu học hỏi, không quản lao khổ, lời nói đi đôi với việc làm, ra công hết sức.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tính ương nhạnh, hành sự nôn nóng, không chịu nghe lời khuyên bảo, nhiều bệnh tật, ít gặp may mắn. Thiếu khả năng sáng tạo, đời sống thường khổ tâm vì hay so sánh với người khác mà sinh bất đắc chí.</t>
+  </si>
+  <si>
+    <t>Thái Dương là "trung thiên đế vương tinh" uy cường, Thiên Lương là phúc tinh ôn nhã, hai sao cùng cung tất phải tương nhượng nhau mà hướng về trung đạo.</t>
+  </si>
+  <si>
+    <t>Hai vị trí cùng cung là Mão Dậu, thuộc "tứ chính đào hoa địa". Mão là đất vượng của Thái Dương, nên Thái Dương lấn áp Thiên Lương; Dậu là phương hãm của Thái Dương, nên ảnh hưởng của Thiên Lương có phần trội vượt. Vì đặc tính đào hoa, ở cả hai nơi cá nhân sẽ có nhiều duyên may mắn. Nếu chọn ngành thương mãi thì dễ đạt mục tiêu vật chất. Nhưng trong mọi trường hợp, e là khó tìm được hạnh phúc gia đình.</t>
+  </si>
+  <si>
+    <t>Cá nhân sẽ có nhiều điểm cố chấp nhưng lại có trái tim dễ bị xúc dộng nên khả năng quyết định không chuyên nhất, thành bại vì thế khó lường.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Quang minh chính dại, tích cực, hiền hòa, thích phục vụ xã hội, không sợ mệt nhọc, hiểm nguy, thất bại. Có phong thái quí phái, làm việc cẩn trọng suy tính. Biết trọng người trên, nhường kẻ dưới.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tâm lý do dự, khả năng phán đoán thiếu sót, không biết mình biết người, nên dễ lao tâm vô ích. Không biết lẽ tiến thủ nên hay kẹt vào những hoàn cảnh, nhất là hoàn cảnh tình cảm, không thể tìm đường giải quyết.</t>
+  </si>
+  <si>
+    <t>Là cách cục đại cát, phú quý lâu dài</t>
+  </si>
+  <si>
+    <t>Chỉ cùng cung tại Dần Thân, thuộc "tứ mã địa", đại biểu của khuynh hướng chuyển biến, nên mặc dù có tính bảo thủ đời sống lại có nhiều thay đổi.</t>
+  </si>
+  <si>
+    <t>Thiên Đồng vốn thụ động, an phận thủ thường; trong khi đó Thiên Lương mang nhiều ước vọng cao vời, cá nhân vì vậy có tâm lý rất phức tạp, nhiều khi đổi thay chỉ vì cá tính, nhiều khi đổi thay vì muốn thăng tiến sự nghiệp. Nói chung, những đổi thay thường có đắn đo kèm theo, nên thiếu sự bình tĩnh vốn là đặc tính của cả hai sao khi đứng riêng rẽ. Nhưng số may mắn, đổi thay đa số dẫn đến kết quả tốt, vô hình chung khiến con người trở thành kinh nghiệm, lịch duyệt.</t>
+  </si>
+  <si>
+    <t>Đây là loại người dấu kín nội tâm. Bề ngoài mềm mỏng, ít gây thù oán.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Có lòng tốt, thích giúp đỡ kẻ khác, thị phi phân minh. Biết chỗ đứng của mình, ít giữ thù hận trong lòng. Không tranh chấp. Đối xử hòa đồng với mọi người. Chịu khó học hỏi. Cá tính kiên nhẫn. Có duyên gặp gỡ và hòa hợp với nhiều loại người, già cũng như trẻ.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Lòng tự tôn quá caọ Tâm tư bất định. Ước muốn không rõ ràng. Thường hành sự cô độc. Cho dù có ý muốn hợp tác với người khác, thì khi vào việc vẫn có khuynh hướng chạy làng. Có nhiều duyên với người khác phái, nhưng vì vậy mà tình cảm thường gặp phức tạp. Trong khi đó tâm giao, tri kỷ thì lại hiếm hoi.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh còn là sao Tù Tinh, có tính chất ăn chơi phóng khoáng, liều lĩnh, nóng nảy, bốc đồng, khó kiểm soát bản thân, Tham Lang là sao Dâm Tinh, bướng bỉnh, ham vui ham chơi, bất cần. Vậy nên khi hai sao này đi cùng nhau rất dễ vì tình ái và sự liều lĩnh mà dễ dính dáng đến pháp luật, tính khí thất thường, sáng nắng chiều mưa</t>
+  </si>
+  <si>
+    <t>Bạn xử sự có mạch lạc, lớp lang, ngăn nắp, thứ tự, có thể dựa vào đó để định phương kế và kế hoạch làm việc, cho nên thích hợp làm công chức, hoặc đảm nhiệm chức vụ trong công ty. Xã hội hiện đại xem trọng việc quản lý công ty, rất thích hợp với Bạn có mệnh cách này.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ thuộc Mộc biểu tượng mưu trí, tính toán, nhẫn nại; Thái Âm thuộc thủy biểu tượng cung cách nho nhã, tình cảm lãng mạn. Luận về ngũ hành thì hai sao tương hợp. Nhưng Dần Thân thuộc "tứ mã địa" chủ sự dời đổi, biến chuyển; nên có thể thấy từ đặc tính của hai sao rằng đây không phải là vị trí thích hợp lắm.</t>
+  </si>
+  <si>
+    <t>Ở Dần Thái Âm hãm, ở Thân Thái Âm vượng, nên có Cơ Âm đồng cung ở Thân thì gặp nhiều may mắn hơn ở Dần; nhưng cả hai cung vẫn có chung một số tính chất. Cá nhân có "Cơ Nguyệt tương phùng cách" nội tâm ít khi thỏa mãn với hoàn cảnh hiện tại, hay thay đổi bất chợt, nhưng lại e sợ hậu quả, nên mọi đổi thay đều ở mức lưng chừng, thiếu dứt khoát, nên dễ khốn khổ vì lâm vào những hoàn cảnh khúc mắc, khó giải quyết.</t>
+  </si>
+  <si>
+    <t>Người có Cơ Nguyệt ở Dần Thân thiếu uy nghiêm nên không hợp với vai trò lãnh đạo. Nên tìm những công việc chuyên môn, hoặc buôn bán độc lập. Nếu không lượng sức mình mà đi vào những địa hạt cần quyền biến mau lẹ thì khó lòng tránh khỏi thất bại.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Cốt cách, phong tư nho nhã, dễ chiếm cảm tình của người khác (đặc biệt là người khác phái). Thông minh, hiểu chuyện mau lẹ. Có trực giác linh mẫn. Có cơ may gặp nhiều duyên lạ trong tình cảm cũng như sự nghiệp.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu nghị lực, ý chí, khả năng điều hànhg. Nhiều mơ mộng, thiếu thực tế. Trọng hư danh. Nội tâm nhiều mâu thuẫn, và (trừ khi có nhiều sao chế hóa) khá ích kỷ. Tình cảm biến đổi, trước trọng sau khinh. Khó được người đời kính trọng.</t>
+  </si>
+  <si>
+    <t>Bạn là Bạn yếu thế,nhìn đời bằng ánh mắt tiêu cực hay muốn thoát tục đi tu. Hoặc chỉ có thoát tục đi tu thì bạn mới có thể an yên, bớt vất vả.</t>
+  </si>
+  <si>
+    <t>Tử Vi vốn đã có khí phái phong lưu, Tham Lang lại là sao của lòng tham vật dục, nên trường hợp thông thường là đời sống buông thả. Nhưng chú ý! Vì khuynh hướng của hai sao quá tương phản nên liên tục khắc chế nhau, mà tùy hoàn cảnh kết cuộc có thể hoàn toàn trái ngược.</t>
+  </si>
+  <si>
+    <t>Đó là lý do tại sao Tử Tham  Dậu cũng là cách của nhiều bậc chân tu, coi thường mọi thú vui của đời sống.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Đa tài đa nghệ, học hỏi rất nhanh, kiến thức phong phú, ngôn ngữ có phong cách nho nhã, thân thiết với nhiều người, xử sự khéo léọ Nếu sống đời buông thả thì đáng gọi là tay chơi. Nếu sống đời ẩn dật lại đáng gọi là bậc chân tu.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu tính nhẫn nại, thiếu khả năng chịu đựng thất bại, nhiều chủ kiến, (thường) tham lam hưởng thụ, dễ đổi thay ý kiến, quan điểm. Sống vô kỷ luật, qui củ, gây ra những hoàn cảnh phức tạp tự mình không giải quyết nổi, thường vì tình mà khổ lụy, đời sống thành bại khó lường.</t>
+  </si>
+  <si>
+    <t>Thái Dương là trung đẩu đế tinh, nên mặc dù thuộc nhóm sao tĩnh (Cơ Nguyệt Đồng Lương Cự Nhật ) mà vẫn có nhiều tính chất xung động, mãnh liệt như nhóm "Tử Phủ Sát Phá Tham ". Ngược lại, Thái Âm là sao nhu nhuyễn, thích sự bình lặng, làm việc gì cũng muốn đạt sự toàn mỹ, mang nhiều lãng mạn tính. Hai sao hợp lại, không khỏi có nhiều mâu thuẫn.</t>
+  </si>
+  <si>
+    <t>Sửu Mùi là hai cung mộ địa mang đặc tính bảo thủ, nên khuynh hướng đấu tranh của Thái Dương bị biến hóa, trở thành bất chợt, nhưng cá nhân vẫn hiếu thắng, cố chấp.</t>
+  </si>
+  <si>
+    <t>Thái Dương nhiều năng lực, hăng hái xông pha, trong khi Thái Âm thích sự nhàn tản, lãng mạn. Hai sao hợp lại thường có bề ngoài mềm dẻo bề trong cứng cỏi, nhưng có lúc hoàn toàn ngược lại, rất khó xác định. Thích ở vị trí thủ lãnh, nhưng rất khó đóng trọn vai trò này là vì những mâu thuẫn như đã kể.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Không tham danh lợi, thích làm việc nghĩa, thích đóng vai người hùng cứu khổn phò nguy, đầu óc thông minh, học hỏi hiểu biết nhanh.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Nhiều mâu thuẫn, nhiều khi suy nghĩ trước sau trái ngược, ý chí không cứng cỏi, tình cảm bất định. Luôn cho rằng mình hơn người khác, dễ trở thành bệnh tưởng. Hôn nhân thiếu hòa thuận, không gần gủi người thân.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ trí tụê mẫn cảm, nho nhã thư sinh, dễ gây cảm tình; Cự Môn thành kiến chủ quan, cố chấp, dễ khiến người khác khó chịu. Hai sao cùng cung chế hóa nhau, kết quả là cá tính vẫn chủ quan, nhưng biết xử thế, được người yêu nhiều hơn ghét.</t>
+  </si>
+  <si>
+    <t>Mão Dậu là đào hoa địa, nên cá nhân có khuynh hướng liên quan nhiều với xã hội, có khả năng biến lạ thành quen, sinh hoạt hăng hái, xử sự nhậm lẹ. Mặc dù thỉnh thoảng ngôn ngữ bất cẩn làm kẻ khác phiền lòng, nhưng nói chung được nhiều sự yêu mến.</t>
+  </si>
+  <si>
+    <t>Chỉ tiếc là thiếu sự nhẫn nại, nên mặc dù bỏ nhiều năng lực và sáng kiến, ít khi được kết quả tương xứng, có tiếng mà không có miếng, ngay cả khi thành công cũng thường là dọn cỗ cho người còn mình chẳng được hưởng bao nhiêu.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Quyết định nhanh chóng, trí tuệ mẫn cảm, biết chịu đựng khó khăn, làm việc tận lực, biết lẽ tiến thối, liên tục học hỏi, quân bình tình cảm và lý trí. Nếu theo các nghề doanh thương, buôn bán thì rất dễ thành công lớn, vì có sự ứng hợp với cách "Cự Cơ Mão Dậu".</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Cá tính bướng bỉnh, sinh cường hiếu thắng, dễ mắc vào vòng thị phi, đời sống tình cảm không được ổn định.</t>
+  </si>
+  <si>
+    <t>Cả hai sao đều thuộc Thủỵ Chỉ cùng cung tại Tý Ngọ, thuộc "đào hao địa". Cá nhân ôn nhu, u mặc, đa tình. Ước vọng cao, nhiều cơ hội đi lại, nhiều nhân duyên kỳ diệu, lịch duyệt phong phú. Thiên đồng chủ phúc, Thái Âm chủ điền trạch, nên bất luận vượng hãm nhất định không sợ thiếu ăn thiếu mặc. Từ nhỏ đã được yêu quí. Tóm lại phúc phận tốt. Nhưng nếu ở Ngọ không bằng Tý vì Ngọ là chốn hãm của Thái Âm, nên ảnh hưởng lây Thiên Đồng, phần may mắn không thể bằng cung Tý được.</t>
+  </si>
+  <si>
+    <t>Về mặt xử thế, không hay cạnh tranh với người, nên có nhiều người thương, ít kẻ ghét.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Thông minh hiếu học, đa tài đa nghệ. Phong thái mềm dẻo, không tranh dành hơn thua với người. Có ý muốn phục vụ, được thân nhân bằng hữu ưa thích. Dễ đạt hạnh phúc.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu uy, quá dễ tin người, nhận xét sự kiện hay sai lầm. Thiếu khả năng quyết định, hay ỷ lại kẻ khác. Trốn tránh sự thật đau lòng, mơ mộng quá nhiều. Không chịu nổi hoàn cảnh khó khăn. Hay dính líu đến những hoàn cảnh tình cảm rắc rối.</t>
+  </si>
+  <si>
+    <t>Lúc thiếu thời, công danh trắc trở, tài lộc tụ tán thất thường, nhưng từ ngoài ba mươi tuổi trở đi, chắc chắn là được hưởng phú qúy song toàn và càng già lại càng giàu có.</t>
+  </si>
+  <si>
+    <t>Mùi cùng là âm Thổ mộ cung, thiếu niên chỉ tích tụ kinh nghiệm mà khó phát huy khả năng. Từ trung niên trở đi, nhờ kiến thức có sẵn, cộng thêm may mắn mới tạo thành sự nghiệp, vì thế mới có câu "Vũ Tham bất phát thiếu niên nhân "</t>
+  </si>
+  <si>
+    <t>Vũ khúc chủ sự uy nghiêm, Tham Lang chủ sự buông thả. Hợp nhất là nghề buôn bán, nghệ sĩ trình diễn v.v...Nhất định không hợp với các nghề như thầy giáo, bác sĩ, nhà văn v.v...</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Biết sống hòa với người, nhiều khả năng, biết thu nhận kinh nghiệm trải qua trong đời sống, dám bỏ cũ theo mới, không ngại gian lao khốn khó, dám làm dám chịu.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tâm tính cô độc, xem mình quá cao nên hay bất mãn, đời sống không qui củ, tình cảm thay đổi luôn luôn, thiếu tính nhẫn nại, thích tranh cường háo thắng, không chịu dưới tay kẻ khác. Dù có đạt mọi điều kiện mong muốn, vẫn vì ham muốn nhiều thú vui mà không tìm được bình an.</t>
+  </si>
+  <si>
+    <t>Thái Dương là biểu hiệu của ánh sáng, Cự Môn là ám tinh như mây che ánh sáng, đứng cùng với Thái Dương có tác dụng cản ngăn những đặc sắc của Thái Dương.</t>
+  </si>
+  <si>
+    <t>Hai sao cùng cung ở Dần Thân. Xét về thời gian thì Dần trời chưa sáng, Thân trời đã ngã về chiều, Thái Dương không đủ sức mạnh vượt thắng ảnh hưởng của Cự Môn, nên hai sao cùng cung gây ra tình trạng bất toàn. Nếu thành đạt tất phải có chuyện không ổn trong gia đình, như vợ chồng bất hòa, hoặc sức khỏe suy yếu, hoặc con cái bất hiếu v.v.. Cá nhân vẫn có thể đạt công danh, hạnh phúc, nhưng không có đủ khả năng và may mắn để đối phó với những khó khăn, nên công danh hạnh phúc bao năm đạt được chỉ cần gặp một vài chuyện không may nho nhỏ là có thể vỡ tan bất cứ lúc nào.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Tính khí cương cường, dũng cảm. Có tài miệng lưỡi, mưu trí, nhờ đó có khi biến họa thành may, biết nắm thời cơ. Có khả năng lãnh đạo.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Khá bướng bỉnh, háo thắng. Suy tính chuyện ngoài tầm tay. Tham vọng lớn, lại quá chủ quan, nên khó đạt thành công theo ý muốn.</t>
+  </si>
+  <si>
+    <t>Chỉ đồng cung tại Thìn Tuất, là đất miếu vượng của hai sao. Nên do ảnh hưởng tốt của Thiên Cơ mà có đầu óc mưu cơ, do ảnh hưởng tốt của Thiên Lương mà có sự quan tâm đến bối cảnh xung quanh, muốn phục vụ, làm lợi cho kẻ khác. Vì Thìn Tuất là "thiên la địa võng", lại là mộ địa, nên đời sống có nguyên tắc. Nếu hoàn cảnh thuận lợi, có thể là cộng sự viên đắc lực cho lãnh tụ, tài ba hoặc trở thành bậc hiền nhân danh sĩ.</t>
+  </si>
+  <si>
+    <t>Nói chung gặp nhiều may mắn, dễ đạt thành công về vật chất cũng như tình cảm. Nhưng tham vọng rất cao nên ngay cả khi thành công cũng khó bằng lòng với hoàn cảnh của mình.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Tốt bụng, thông minh, chịu học hỏi, xử thế hòa nhã với mọi ngườị Có thủy có chung, có khả năng đảm nhận trọng trách (miễn là không đòi hỏi ứng biến nhậm lẹ ).</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tham vọng quá cao, nên dễ trở thành trí xảo. Nhiều tình cảm nên hay dính líu vào những hoàn cảnh phức tạp, khó tháo gỡ. Nếu gặp quá nhiều cảnh ngoài ý muốn, rất có thể trở thành người vô cùng giả dối.</t>
+  </si>
+  <si>
+    <t>Làm mạnh thêm sắc thái thị phi khẩu thiệt, nhưng đồng thời cũng làm mạnh thêm tính chất phục vụ công chúng, vì thế rất nên theo các ngành dịch vụ, công tác xã hội,giáo dục, truyền bá, có thể thành nhân vật lãnh đạo</t>
+  </si>
+  <si>
+    <t>Hai sao chỉ cùng cung tại Sửu Mùi, là mộ địa, biểu tượng sự bảo thủ, lại cùng tĩnh diệu, chủ sự bình hòa, không mang tham vọng lớn. Cá tính thiếu chuyên nhất, nên khó phát huy khả năng, thường chỉ đạt mức trung bình về mọi mặt.</t>
+  </si>
+  <si>
+    <t>Sửu Mùi là vị trí hãm của cả hai sao. Thiên đồng hãm gây ra khuynh hướng thay đổi đường lối không đúng lúc; Cự Môn hãm gây ra khuynh hướng hay lo nghĩ vẩn vơ. Cá nhân có hai mặt: Bên ngoài là sự xung động, bên trong là sự cô độc không tìm được người chia sẻ.</t>
+  </si>
+  <si>
+    <t>Cách xử sự không được phân minh, rất dễ khiến người khác hiểu lầm. Hay nhất là yên phận thủ thường thì đời sống có thể ổn cố bình an.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Hầu hết đều có tâm lý bằng lòng với thực tại, ít tham lam, không tranh dành với kẻ khác. Đối xử dung hòa với mọi người.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Nhiều mơ ước ấu trĩ. Thiếu tự tin, không dám biểu lộ quan điểm riêng của mình. Cách suy nghĩ cũng như hành động đều bất định. Lý trí yếu, không đủ kềm hãm con tim; dễ bị thua thiệt trong tình cảm. Thiếu khả năng lãnh đạo, điều hợp. Không thể đảm nhận việc quan trọng.</t>
   </si>
 </sst>
 </file>
@@ -7036,16 +7210,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7862,10 +8049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G2112"/>
+  <dimension ref="A2:G2125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2111" sqref="D2111"/>
+    <sheetView tabSelected="1" topLeftCell="A2122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2127" sqref="B2127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7880,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -10507,7 +10694,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>352</v>
       </c>
@@ -10515,7 +10702,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>353</v>
       </c>
@@ -11795,7 +11982,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>508</v>
       </c>
@@ -12147,7 +12334,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="536" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>552</v>
       </c>
@@ -12531,7 +12718,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>599</v>
       </c>
@@ -13123,7 +13310,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="658" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>673</v>
       </c>
@@ -13131,7 +13318,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="659" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>674</v>
       </c>
@@ -17715,7 +17902,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="1232" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1232" s="1" t="s">
         <v>1243</v>
       </c>
@@ -20070,7 +20257,7 @@
         <v>2219</v>
       </c>
       <c r="C1525" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1526" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20110,7 +20297,7 @@
         <v>21</v>
       </c>
       <c r="B1530" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1531" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20126,7 +20313,7 @@
         <v>23</v>
       </c>
       <c r="B1532" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1533" spans="1:3" x14ac:dyDescent="0.25">
@@ -20150,7 +20337,7 @@
         <v>1533</v>
       </c>
       <c r="B1535" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="1536" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20158,7 +20345,7 @@
         <v>1534</v>
       </c>
       <c r="B1536" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1537" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -20166,7 +20353,7 @@
         <v>1535</v>
       </c>
       <c r="B1537" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1538" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -20174,7 +20361,7 @@
         <v>1536</v>
       </c>
       <c r="B1538" s="1" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1539" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -20182,7 +20369,7 @@
         <v>1537</v>
       </c>
       <c r="B1539" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1540" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -20190,7 +20377,7 @@
         <v>1538</v>
       </c>
       <c r="B1540" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1541" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -20198,7 +20385,7 @@
         <v>1539</v>
       </c>
       <c r="B1541" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1542" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -20217,15 +20404,15 @@
         <v>1541</v>
       </c>
       <c r="B1543" s="1" t="s">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="1544" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A1544" s="1" t="s">
         <v>1542</v>
       </c>
       <c r="B1544" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1545" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -20233,7 +20420,7 @@
         <v>1543</v>
       </c>
       <c r="B1545" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="1546" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -20241,7 +20428,7 @@
         <v>1544</v>
       </c>
       <c r="B1546" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="1547" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -20249,7 +20436,7 @@
         <v>1545</v>
       </c>
       <c r="B1547" s="1" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1548" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -20257,7 +20444,7 @@
         <v>1546</v>
       </c>
       <c r="B1548" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1549" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -20265,10 +20452,10 @@
         <v>1547</v>
       </c>
       <c r="B1549" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C1549" s="1" t="s">
         <v>2227</v>
-      </c>
-      <c r="C1549" s="1" t="s">
-        <v>2228</v>
       </c>
     </row>
     <row r="1550" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -20276,7 +20463,7 @@
         <v>1548</v>
       </c>
       <c r="B1550" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1551" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -20284,7 +20471,7 @@
         <v>1549</v>
       </c>
       <c r="B1551" s="1" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1552" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -20292,13 +20479,13 @@
         <v>1550</v>
       </c>
       <c r="B1552" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C1552" s="1" t="s">
         <v>2230</v>
       </c>
-      <c r="C1552" s="1" t="s">
-        <v>2231</v>
-      </c>
       <c r="D1552" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1553" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20306,10 +20493,10 @@
         <v>1551</v>
       </c>
       <c r="B1553" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C1553" s="1" t="s">
         <v>2232</v>
-      </c>
-      <c r="C1553" s="1" t="s">
-        <v>2233</v>
       </c>
     </row>
     <row r="1554" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20317,7 +20504,7 @@
         <v>1552</v>
       </c>
       <c r="B1554" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1555" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20325,7 +20512,7 @@
         <v>1553</v>
       </c>
       <c r="B1555" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1556" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -20333,7 +20520,7 @@
         <v>1554</v>
       </c>
       <c r="B1556" s="1" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1557" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -20341,7 +20528,7 @@
         <v>1555</v>
       </c>
       <c r="B1557" s="1" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1558" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -20349,21 +20536,21 @@
         <v>1556</v>
       </c>
       <c r="B1558" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C1558" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="C1558" s="1" t="s">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="1559" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1559" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A1559" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="B1559" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C1559" s="1" t="s">
         <v>2252</v>
-      </c>
-      <c r="C1559" s="1" t="s">
-        <v>2253</v>
       </c>
     </row>
     <row r="1560" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20371,10 +20558,10 @@
         <v>1558</v>
       </c>
       <c r="B1560" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C1560" s="1" t="s">
         <v>2254</v>
-      </c>
-      <c r="C1560" s="1" t="s">
-        <v>2255</v>
       </c>
     </row>
     <row r="1561" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20382,10 +20569,10 @@
         <v>1559</v>
       </c>
       <c r="B1561" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C1561" s="1" t="s">
         <v>2256</v>
-      </c>
-      <c r="C1561" s="1" t="s">
-        <v>2257</v>
       </c>
     </row>
     <row r="1562" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -20393,7 +20580,7 @@
         <v>1560</v>
       </c>
       <c r="B1562" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1563" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20401,7 +20588,7 @@
         <v>1561</v>
       </c>
       <c r="B1563" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1564" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -20409,7 +20596,7 @@
         <v>1562</v>
       </c>
       <c r="B1564" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1565" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -20417,7 +20604,7 @@
         <v>1563</v>
       </c>
       <c r="B1565" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1566" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20425,10 +20612,10 @@
         <v>1564</v>
       </c>
       <c r="B1566" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C1566" s="1" t="s">
         <v>2261</v>
-      </c>
-      <c r="C1566" s="1" t="s">
-        <v>2262</v>
       </c>
     </row>
     <row r="1567" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20436,10 +20623,10 @@
         <v>1565</v>
       </c>
       <c r="B1567" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C1567" s="1" t="s">
         <v>2261</v>
-      </c>
-      <c r="C1567" s="1" t="s">
-        <v>2262</v>
       </c>
     </row>
     <row r="1568" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -20447,10 +20634,10 @@
         <v>1566</v>
       </c>
       <c r="B1568" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C1568" s="1" t="s">
         <v>2274</v>
-      </c>
-      <c r="C1568" s="1" t="s">
-        <v>2275</v>
       </c>
     </row>
     <row r="1569" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20458,7 +20645,7 @@
         <v>1567</v>
       </c>
       <c r="B1569" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1570" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20466,7 +20653,7 @@
         <v>1569</v>
       </c>
       <c r="B1570" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1571" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20474,29 +20661,29 @@
         <v>1570</v>
       </c>
       <c r="B1571" s="1" t="s">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="1572" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1572" s="1" t="s">
         <v>1571</v>
       </c>
       <c r="B1572" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="C1572" s="1" t="s">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="1573" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1573" s="1" t="s">
         <v>1572</v>
       </c>
       <c r="B1573" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="C1573" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1574" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20504,10 +20691,10 @@
         <v>1573</v>
       </c>
       <c r="B1574" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C1574" s="1" t="s">
         <v>2281</v>
-      </c>
-      <c r="C1574" s="1" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="1575" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20515,7 +20702,7 @@
         <v>1574</v>
       </c>
       <c r="B1575" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1576" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -20523,7 +20710,7 @@
         <v>1575</v>
       </c>
       <c r="B1576" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1577" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20531,7 +20718,7 @@
         <v>1576</v>
       </c>
       <c r="B1577" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1578" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20539,7 +20726,7 @@
         <v>1763</v>
       </c>
       <c r="B1578" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1579" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -20547,7 +20734,7 @@
         <v>1764</v>
       </c>
       <c r="B1579" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1580" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -20555,7 +20742,7 @@
         <v>1579</v>
       </c>
       <c r="B1580" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1581" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20563,7 +20750,7 @@
         <v>1578</v>
       </c>
       <c r="B1581" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1582" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -20571,7 +20758,7 @@
         <v>1765</v>
       </c>
       <c r="B1582" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1583" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -20579,10 +20766,10 @@
         <v>1766</v>
       </c>
       <c r="B1583" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C1583" s="1" t="s">
         <v>2290</v>
-      </c>
-      <c r="C1583" s="1" t="s">
-        <v>2291</v>
       </c>
     </row>
     <row r="1584" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20590,7 +20777,7 @@
         <v>1768</v>
       </c>
       <c r="B1584" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1585" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20598,7 +20785,7 @@
         <v>1769</v>
       </c>
       <c r="B1585" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1586" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20606,7 +20793,7 @@
         <v>1770</v>
       </c>
       <c r="B1586" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="1587" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20614,15 +20801,15 @@
         <v>1577</v>
       </c>
       <c r="B1587" s="1" t="s">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="1588" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1588" s="1" t="s">
         <v>1771</v>
       </c>
       <c r="B1588" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.25">
@@ -20734,7 +20921,7 @@
         <v>1593</v>
       </c>
       <c r="B1602" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1603" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20742,7 +20929,7 @@
         <v>1594</v>
       </c>
       <c r="B1603" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1604" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20750,7 +20937,7 @@
         <v>1595</v>
       </c>
       <c r="B1604" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1605" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20758,7 +20945,7 @@
         <v>1596</v>
       </c>
       <c r="B1605" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.25">
@@ -21638,7 +21825,7 @@
         <v>1706</v>
       </c>
       <c r="B1715" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1716" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21646,7 +21833,7 @@
         <v>1707</v>
       </c>
       <c r="B1716" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1717" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21654,7 +21841,7 @@
         <v>1708</v>
       </c>
       <c r="B1717" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1718" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21662,7 +21849,7 @@
         <v>1709</v>
       </c>
       <c r="B1718" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1719" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21670,7 +21857,7 @@
         <v>1710</v>
       </c>
       <c r="B1719" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1720" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21678,7 +21865,7 @@
         <v>1711</v>
       </c>
       <c r="B1720" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1721" spans="1:2" x14ac:dyDescent="0.25">
@@ -21686,7 +21873,7 @@
         <v>1712</v>
       </c>
       <c r="B1721" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1722" spans="1:2" x14ac:dyDescent="0.25">
@@ -21734,7 +21921,7 @@
         <v>1718</v>
       </c>
       <c r="B1727" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1728" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21742,7 +21929,7 @@
         <v>1719</v>
       </c>
       <c r="B1728" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1729" spans="1:2" x14ac:dyDescent="0.25">
@@ -21750,15 +21937,15 @@
         <v>1720</v>
       </c>
       <c r="B1729" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1730" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="B1730" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1731" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21766,7 +21953,7 @@
         <v>1721</v>
       </c>
       <c r="B1731" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1732" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21774,7 +21961,7 @@
         <v>1722</v>
       </c>
       <c r="B1732" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1733" spans="1:2" x14ac:dyDescent="0.25">
@@ -21838,7 +22025,7 @@
         <v>1730</v>
       </c>
       <c r="B1740" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1741" spans="1:2" x14ac:dyDescent="0.25">
@@ -21846,7 +22033,7 @@
         <v>1731</v>
       </c>
       <c r="B1741" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1742" spans="1:2" x14ac:dyDescent="0.25">
@@ -21854,7 +22041,7 @@
         <v>1732</v>
       </c>
       <c r="B1742" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1743" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21862,7 +22049,7 @@
         <v>1733</v>
       </c>
       <c r="B1743" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1744" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21870,7 +22057,7 @@
         <v>1734</v>
       </c>
       <c r="B1744" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1745" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21902,7 +22089,7 @@
         <v>1738</v>
       </c>
       <c r="B1748" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1749" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21910,7 +22097,7 @@
         <v>1739</v>
       </c>
       <c r="B1749" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1750" spans="1:2" x14ac:dyDescent="0.25">
@@ -21918,7 +22105,7 @@
         <v>1740</v>
       </c>
       <c r="B1750" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1751" spans="1:2" x14ac:dyDescent="0.25">
@@ -21926,7 +22113,7 @@
         <v>1741</v>
       </c>
       <c r="B1751" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1752" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21950,7 +22137,7 @@
         <v>1744</v>
       </c>
       <c r="B1754" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1755" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21958,7 +22145,7 @@
         <v>1745</v>
       </c>
       <c r="B1755" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1756" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21966,7 +22153,7 @@
         <v>1746</v>
       </c>
       <c r="B1756" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1757" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21974,7 +22161,7 @@
         <v>1747</v>
       </c>
       <c r="B1757" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1758" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -22369,7 +22556,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="1807" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1807" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1807" s="1" t="s">
         <v>1806</v>
       </c>
@@ -22377,7 +22564,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="1808" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1808" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1808" s="1" t="s">
         <v>1807</v>
       </c>
@@ -22950,7 +23137,7 @@
         <v>1878</v>
       </c>
       <c r="B1879" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1880" spans="1:3" x14ac:dyDescent="0.25">
@@ -22974,7 +23161,7 @@
         <v>1881</v>
       </c>
       <c r="B1882" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1883" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -22982,7 +23169,7 @@
         <v>1882</v>
       </c>
       <c r="B1883" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1884" spans="1:3" x14ac:dyDescent="0.25">
@@ -23006,10 +23193,10 @@
         <v>1885</v>
       </c>
       <c r="B1886" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C1886" s="1" t="s">
         <v>2266</v>
-      </c>
-      <c r="C1886" s="1" t="s">
-        <v>2267</v>
       </c>
     </row>
     <row r="1887" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -23017,10 +23204,10 @@
         <v>1886</v>
       </c>
       <c r="B1887" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C1887" s="1" t="s">
         <v>2268</v>
-      </c>
-      <c r="C1887" s="1" t="s">
-        <v>2269</v>
       </c>
     </row>
     <row r="1888" spans="1:3" x14ac:dyDescent="0.25">
@@ -23044,13 +23231,13 @@
         <v>1889</v>
       </c>
       <c r="B1890" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C1890" s="1" t="s">
         <v>2270</v>
       </c>
-      <c r="C1890" s="1" t="s">
+      <c r="D1890" s="1" t="s">
         <v>2271</v>
-      </c>
-      <c r="D1890" s="1" t="s">
-        <v>2272</v>
       </c>
     </row>
     <row r="1891" spans="1:4" x14ac:dyDescent="0.25">
@@ -23066,7 +23253,7 @@
         <v>1891</v>
       </c>
       <c r="B1892" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1893" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -23074,7 +23261,7 @@
         <v>1892</v>
       </c>
       <c r="B1893" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1894" spans="1:4" x14ac:dyDescent="0.25">
@@ -23106,7 +23293,7 @@
         <v>1896</v>
       </c>
       <c r="B1897" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1898" spans="1:4" x14ac:dyDescent="0.25">
@@ -23146,7 +23333,7 @@
         <v>1901</v>
       </c>
       <c r="B1902" s="1" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1903" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -23154,7 +23341,7 @@
         <v>1902</v>
       </c>
       <c r="B1903" s="1" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1904" spans="1:4" x14ac:dyDescent="0.25">
@@ -23197,10 +23384,10 @@
         <v>1907</v>
       </c>
       <c r="B1908" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C1908" s="1" t="s">
         <v>2235</v>
-      </c>
-      <c r="C1908" s="1" t="s">
-        <v>2236</v>
       </c>
     </row>
     <row r="1909" spans="1:3" x14ac:dyDescent="0.25">
@@ -23217,7 +23404,7 @@
         <v>1909</v>
       </c>
       <c r="B1910" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C1910"/>
     </row>
@@ -24729,7 +24916,7 @@
       <c r="F2096" s="1"/>
       <c r="G2096" s="1"/>
     </row>
-    <row r="2097" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2097" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2097" s="1" t="s">
         <v>2155</v>
       </c>
@@ -24737,7 +24924,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="2098" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2098" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2098" s="1" t="s">
         <v>2167</v>
       </c>
@@ -24745,7 +24932,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="2099" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2099" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2099" s="1" t="s">
         <v>2189</v>
       </c>
@@ -24753,7 +24940,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="2100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2100" s="1" t="s">
         <v>2191</v>
       </c>
@@ -24761,7 +24948,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="2101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2101" s="1" t="s">
         <v>2193</v>
       </c>
@@ -24769,7 +24956,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="2102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2102" s="1" t="s">
         <v>2195</v>
       </c>
@@ -24777,7 +24964,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="2103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2103" s="1" t="s">
         <v>2197</v>
       </c>
@@ -24785,7 +24972,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="2104" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2104" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2104" s="1" t="s">
         <v>2199</v>
       </c>
@@ -24793,7 +24980,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="2105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2105" s="1" t="s">
         <v>2202</v>
       </c>
@@ -24801,7 +24988,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="2106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2106" s="1" t="s">
         <v>2201</v>
       </c>
@@ -24809,7 +24996,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="2107" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2107" s="1" t="s">
         <v>2204</v>
       </c>
@@ -24817,7 +25004,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="2108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2108" s="1" t="s">
         <v>2206</v>
       </c>
@@ -24825,7 +25012,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="2109" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2109" s="1" t="s">
         <v>2207</v>
       </c>
@@ -24833,7 +25020,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="2110" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2110" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2110" s="1" t="s">
         <v>2209</v>
       </c>
@@ -24841,7 +25028,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="2111" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="2111" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2111" s="1" t="s">
         <v>2210</v>
       </c>
@@ -24849,147 +25036,394 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="2112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2112" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A2112" s="1" t="s">
-        <v>2222</v>
-      </c>
+        <v>2044</v>
+      </c>
+      <c r="B2112" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C2112" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D2112" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="E2112" s="1"/>
+      <c r="F2112" s="2"/>
+    </row>
+    <row r="2113" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2113" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B2113" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C2113" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D2113" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="E2113" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="F2113" s="1" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2114" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B2114" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C2114" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D2114" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="E2114" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="F2114" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="G2114" s="1" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2115" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B2115" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D2115" s="1"/>
+      <c r="E2115" s="1"/>
+      <c r="F2115" s="2"/>
+    </row>
+    <row r="2116" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2116" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2116" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C2116" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D2116" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="E2116" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F2116" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="G2116" s="1" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2117" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B2117" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C2117" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D2117" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="E2117" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="F2117" s="1" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2118" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B2118" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C2118" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D2118" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="E2118" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="F2118" s="1" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2119" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B2119" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C2119" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D2119" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="E2119" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="F2119" s="1" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2120" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B2120" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C2120" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D2120" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="E2120" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="F2120" s="1"/>
+    </row>
+    <row r="2121" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2121" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B2121" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C2121" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D2121" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="E2121" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F2121" s="1" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2122" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B2122" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C2122" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D2122" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E2122" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F2122" s="1"/>
+      <c r="G2122" s="1"/>
+    </row>
+    <row r="2123" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2123" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B2123" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C2123" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D2123" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="E2123" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="F2123" s="1"/>
+      <c r="G2123" s="1"/>
+    </row>
+    <row r="2124" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2124" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B2124" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C2124" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D2124" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="E2124" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F2124" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="G2124" s="1" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2125" s="1"/>
+      <c r="E2125" s="1"/>
+      <c r="F2125" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F2112" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A1730:A1048576 A1:A1728">
-    <cfRule type="duplicateValues" dxfId="53" priority="22"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="52" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A132">
-    <cfRule type="duplicateValues" dxfId="50" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134">
-    <cfRule type="duplicateValues" dxfId="48" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135:A198">
-    <cfRule type="duplicateValues" dxfId="46" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="127"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1637:A1651 A1594:A1596 A1:C162 A164:C166 A163 C163 A168:C170 A167 C167 A172:C174 A171 C171 A176:C178 A175 C175 A179 C179 C1594:C1596 A180:C194 C1637:C1651 A1652:C1700 A1702:C1702 A1701 C1701 A1708:C1708 A1707 C1707 A1704:C1706 A1703 C1703 A1709 C1709 A195 C195 A196:C1593 A1597:C1636 A1710:C1728 A1730:C1048576">
-    <cfRule type="duplicateValues" dxfId="45" priority="21"/>
+  <conditionalFormatting sqref="A1544">
+    <cfRule type="duplicateValues" dxfId="47" priority="15562"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="15561"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1637:A1651 A1594:A1596 A1:C162 A164:C166 A163 C163 A168:C170 A167 C167 A172:C174 A171 C171 A176:C178 A175 C175 A179 C179 C1594:C1596 A180:C194 C1637:C1651 A1652:C1700 A1702:C1702 A1701 C1701 A1708:C1708 A1707 C1707 A1704:C1706 A1703 C1703 A1709 C1709 A195 C195 A196:C1593 A1597:C1636 A1710:C1728 A1730:C2111 A2126:C1048576">
+    <cfRule type="duplicateValues" dxfId="45" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1729">
+    <cfRule type="duplicateValues" dxfId="44" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1730:A1755 A1545:A1728">
+    <cfRule type="duplicateValues" dxfId="39" priority="15744"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1730:A2111 A1:A1728 A2126:A1048576">
+    <cfRule type="duplicateValues" dxfId="38" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1879:A1883">
-    <cfRule type="duplicateValues" dxfId="44" priority="5496"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="5497"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2097:A1048576 A2:A1728 A1730:A2093">
-    <cfRule type="duplicateValues" dxfId="43" priority="28"/>
+  <conditionalFormatting sqref="A2097:A2111 A2:A1728 A1730:A2093 A2126:A1048576">
+    <cfRule type="duplicateValues" dxfId="36" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2097:A1048576 A2:A1728 A1730:A2094">
-    <cfRule type="duplicateValues" dxfId="42" priority="26"/>
+  <conditionalFormatting sqref="A2097:A2111 A2:A1728 A1730:A2094 A2126:A1048576">
+    <cfRule type="duplicateValues" dxfId="35" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2097:A1048576 A2:A1728 A1730:A2095">
-    <cfRule type="duplicateValues" dxfId="41" priority="24"/>
+  <conditionalFormatting sqref="A2097:A2111 A2:A1728 A1730:A2095 A2126:A1048576">
+    <cfRule type="duplicateValues" dxfId="34" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4421:A1048576 A1761:A1878 A199:A1530 A2:A13 A15:A74 A133 A1884:A1906">
-    <cfRule type="duplicateValues" dxfId="40" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="169"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1729:B1729">
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1730:B2111 A1:B1728 A2126:B1048576">
+    <cfRule type="duplicateValues" dxfId="28" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1729:C1729">
+    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="38" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B132">
-    <cfRule type="duplicateValues" dxfId="36" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="34" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="duplicateValues" dxfId="33" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="duplicateValues" dxfId="32" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135:B162 B164:B166 B168:B170 B172:B174 B176:B178 B180:B194 B196:B198">
-    <cfRule type="duplicateValues" dxfId="30" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1143">
-    <cfRule type="duplicateValues" dxfId="29" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1144">
-    <cfRule type="duplicateValues" dxfId="28" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1530">
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1531">
-    <cfRule type="duplicateValues" dxfId="27" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1544">
+    <cfRule type="duplicateValues" dxfId="11" priority="15563"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="15564"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1580">
+    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1652:B1700 B1702 B1708 B1704:B1706 B1545:B1593 B1597:B1636 B1710:B1728 B1730:B1755">
+    <cfRule type="duplicateValues" dxfId="8" priority="15736"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1729">
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1879:B1883">
-    <cfRule type="duplicateValues" dxfId="26" priority="5497"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5498"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4421:B1048576 B2:B13 B15:B74 B133 B1884:B1906 B1761:B1878 B199:B1530">
-    <cfRule type="duplicateValues" dxfId="25" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2094:W2094">
-    <cfRule type="duplicateValues" dxfId="23" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2095:W2095">
-    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2096:W2096">
-    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1730:B1048576 A1:B1728">
-    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1580">
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1544">
-    <cfRule type="duplicateValues" dxfId="16" priority="15560"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="15561"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1544">
-    <cfRule type="duplicateValues" dxfId="14" priority="15562"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="15563"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1530">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1652:B1700 B1702 B1708 B1704:B1706 B1545:B1593 B1597:B1636 B1710:B1728 B1730:B1755">
-    <cfRule type="duplicateValues" dxfId="11" priority="15735"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1730:A1755 A1545:A1728">
-    <cfRule type="duplicateValues" dxfId="10" priority="15743"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1729">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1729:C1729">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1729">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1729">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1729">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1729:B1729">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1729">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1729">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  <conditionalFormatting sqref="A2112:B2125">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6BBC0B-E672-43B0-95D1-6EC7CBB72251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB89E5C-4155-4788-ACD4-7DA6CC698B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$F$2019</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$F$2018</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4106" uniqueCount="2285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4104" uniqueCount="2284">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -5653,9 +5653,6 @@
   </si>
   <si>
     <t>Tử Vi Tang Tả Hữu</t>
-  </si>
-  <si>
-    <t>Thiên Khôi (ĐV) tọa thủ tại Mệnh</t>
   </si>
   <si>
     <t>Thiên Khôi (ĐV) tọa thủ tại Phụ Mẫu</t>
@@ -6946,1108 +6943,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="110">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -8324,10 +7220,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:G2020"/>
+  <dimension ref="A2:G2019"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1989" sqref="A1989:XFD2093"/>
+      <selection activeCell="C2024" sqref="C2024"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8342,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -8350,7 +7246,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -8358,7 +7254,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -8366,7 +7262,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -8374,7 +7270,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -8382,7 +7278,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -8403,10 +7299,10 @@
     </row>
     <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>2010</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2011</v>
       </c>
     </row>
     <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -9334,7 +8230,7 @@
         <v>147</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -9374,7 +8270,7 @@
         <v>152</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -9414,7 +8310,7 @@
         <v>157</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -9454,7 +8350,7 @@
         <v>162</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -9494,7 +8390,7 @@
         <v>167</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -9630,7 +8526,7 @@
         <v>184</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -9662,7 +8558,7 @@
         <v>188</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -9694,7 +8590,7 @@
         <v>192</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -9726,7 +8622,7 @@
         <v>196</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -9758,7 +8654,7 @@
         <v>200</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -9886,7 +8782,7 @@
         <v>216</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -10118,7 +9014,7 @@
         <v>245</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -10238,7 +9134,7 @@
         <v>260</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -10254,7 +9150,7 @@
         <v>262</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -11622,7 +10518,7 @@
         <v>428</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -11662,7 +10558,7 @@
         <v>433</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -11862,7 +10758,7 @@
         <v>458</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -13590,7 +12486,7 @@
         <v>673</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="659" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -13598,7 +12494,7 @@
         <v>674</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="660" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -16118,7 +15014,7 @@
         <v>988</v>
       </c>
       <c r="B974" s="1" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="975" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -16166,7 +15062,7 @@
         <v>994</v>
       </c>
       <c r="B980" s="1" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="981" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -16238,7 +15134,7 @@
         <v>1003</v>
       </c>
       <c r="B989" s="1" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="990" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -16294,7 +15190,7 @@
         <v>1010</v>
       </c>
       <c r="B996" s="1" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="997" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -17470,7 +16366,7 @@
         <v>1157</v>
       </c>
       <c r="B1143" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -17478,7 +16374,7 @@
         <v>1158</v>
       </c>
       <c r="B1144" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1145" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -18366,7 +17262,7 @@
         <v>1266</v>
       </c>
       <c r="B1255" s="1" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1256" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -18374,7 +17270,7 @@
         <v>1267</v>
       </c>
       <c r="B1256" s="1" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1257" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -18814,7 +17710,7 @@
         <v>1322</v>
       </c>
       <c r="B1311" s="1" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1312" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -19382,7 +18278,7 @@
         <v>1393</v>
       </c>
       <c r="B1382" s="1" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1383" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -19390,7 +18286,7 @@
         <v>1394</v>
       </c>
       <c r="B1383" s="1" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1384" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -20166,7 +19062,7 @@
         <v>1491</v>
       </c>
       <c r="B1480" s="1" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1481" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -20230,7 +19126,7 @@
         <v>1499</v>
       </c>
       <c r="B1488" s="1" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1489" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -20318,7 +19214,7 @@
         <v>1510</v>
       </c>
       <c r="B1499" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1500" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -20494,7 +19390,7 @@
         <v>12</v>
       </c>
       <c r="B1521" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1522" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -20502,7 +19398,7 @@
         <v>13</v>
       </c>
       <c r="B1522" s="1" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1523" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -20510,7 +19406,7 @@
         <v>14</v>
       </c>
       <c r="B1523" s="1" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1524" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -20518,10 +19414,10 @@
         <v>15</v>
       </c>
       <c r="B1524" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C1524" s="1" t="s">
         <v>2125</v>
-      </c>
-      <c r="C1524" s="1" t="s">
-        <v>2126</v>
       </c>
     </row>
     <row r="1525" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -20529,10 +19425,10 @@
         <v>16</v>
       </c>
       <c r="B1525" s="1" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C1525" s="1" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1526" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -20540,7 +19436,7 @@
         <v>17</v>
       </c>
       <c r="B1526" s="1" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1527" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -20556,7 +19452,7 @@
         <v>19</v>
       </c>
       <c r="B1528" s="1" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1529" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -20564,7 +19460,7 @@
         <v>20</v>
       </c>
       <c r="B1529" s="1" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1530" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -20572,7 +19468,7 @@
         <v>21</v>
       </c>
       <c r="B1530" s="1" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1531" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -20580,7 +19476,7 @@
         <v>22</v>
       </c>
       <c r="B1531" s="1" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1532" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -20588,7 +19484,7 @@
         <v>23</v>
       </c>
       <c r="B1532" s="1" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1533" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -20612,7 +19508,7 @@
         <v>1533</v>
       </c>
       <c r="B1535" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="1536" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -20620,7 +19516,7 @@
         <v>1534</v>
       </c>
       <c r="B1536" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1537" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -20628,7 +19524,7 @@
         <v>1535</v>
       </c>
       <c r="B1537" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1538" spans="1:4" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -20636,7 +19532,7 @@
         <v>1536</v>
       </c>
       <c r="B1538" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="1539" spans="1:4" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -20644,7 +19540,7 @@
         <v>1537</v>
       </c>
       <c r="B1539" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1540" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -20652,7 +19548,7 @@
         <v>1538</v>
       </c>
       <c r="B1540" s="1" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1541" spans="1:4" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -20660,7 +19556,7 @@
         <v>1539</v>
       </c>
       <c r="B1541" s="1" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1542" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -20668,10 +19564,10 @@
         <v>1540</v>
       </c>
       <c r="B1542" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C1542" s="1" t="s">
         <v>2125</v>
-      </c>
-      <c r="C1542" s="1" t="s">
-        <v>2126</v>
       </c>
     </row>
     <row r="1543" spans="1:4" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -20679,7 +19575,7 @@
         <v>1541</v>
       </c>
       <c r="B1543" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1544" spans="1:4" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -20687,7 +19583,7 @@
         <v>1542</v>
       </c>
       <c r="B1544" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="1545" spans="1:4" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -20695,7 +19591,7 @@
         <v>1543</v>
       </c>
       <c r="B1545" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="1546" spans="1:4" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -20703,7 +19599,7 @@
         <v>1544</v>
       </c>
       <c r="B1546" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="1547" spans="1:4" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -20711,7 +19607,7 @@
         <v>1545</v>
       </c>
       <c r="B1547" s="1" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1548" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -20719,7 +19615,7 @@
         <v>1546</v>
       </c>
       <c r="B1548" s="1" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="1549" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -20727,10 +19623,10 @@
         <v>1547</v>
       </c>
       <c r="B1549" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C1549" s="1" t="s">
         <v>2134</v>
-      </c>
-      <c r="C1549" s="1" t="s">
-        <v>2135</v>
       </c>
     </row>
     <row r="1550" spans="1:4" ht="120" hidden="1" x14ac:dyDescent="0.25">
@@ -20738,7 +19634,7 @@
         <v>1548</v>
       </c>
       <c r="B1550" s="1" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="1551" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -20746,7 +19642,7 @@
         <v>1549</v>
       </c>
       <c r="B1551" s="1" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="1552" spans="1:4" ht="210" hidden="1" x14ac:dyDescent="0.25">
@@ -20754,13 +19650,13 @@
         <v>1550</v>
       </c>
       <c r="B1552" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C1552" s="1" t="s">
         <v>2137</v>
       </c>
-      <c r="C1552" s="1" t="s">
-        <v>2138</v>
-      </c>
       <c r="D1552" s="1" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1553" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -20768,10 +19664,10 @@
         <v>1551</v>
       </c>
       <c r="B1553" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C1553" s="1" t="s">
         <v>2139</v>
-      </c>
-      <c r="C1553" s="1" t="s">
-        <v>2140</v>
       </c>
     </row>
     <row r="1554" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -20779,7 +19675,7 @@
         <v>1552</v>
       </c>
       <c r="B1554" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="1555" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -20787,7 +19683,7 @@
         <v>1553</v>
       </c>
       <c r="B1555" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="1556" spans="1:3" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -20795,7 +19691,7 @@
         <v>1554</v>
       </c>
       <c r="B1556" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1557" spans="1:3" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -20803,7 +19699,7 @@
         <v>1555</v>
       </c>
       <c r="B1557" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1558" spans="1:3" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -20811,10 +19707,10 @@
         <v>1556</v>
       </c>
       <c r="B1558" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C1558" s="1" t="s">
         <v>2157</v>
-      </c>
-      <c r="C1558" s="1" t="s">
-        <v>2158</v>
       </c>
     </row>
     <row r="1559" spans="1:3" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -20822,10 +19718,10 @@
         <v>1557</v>
       </c>
       <c r="B1559" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C1559" s="1" t="s">
         <v>2159</v>
-      </c>
-      <c r="C1559" s="1" t="s">
-        <v>2160</v>
       </c>
     </row>
     <row r="1560" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -20833,10 +19729,10 @@
         <v>1558</v>
       </c>
       <c r="B1560" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C1560" s="1" t="s">
         <v>2161</v>
-      </c>
-      <c r="C1560" s="1" t="s">
-        <v>2162</v>
       </c>
     </row>
     <row r="1561" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -20844,10 +19740,10 @@
         <v>1559</v>
       </c>
       <c r="B1561" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C1561" s="1" t="s">
         <v>2163</v>
-      </c>
-      <c r="C1561" s="1" t="s">
-        <v>2164</v>
       </c>
     </row>
     <row r="1562" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -20855,7 +19751,7 @@
         <v>1560</v>
       </c>
       <c r="B1562" s="1" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1563" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -20863,7 +19759,7 @@
         <v>1561</v>
       </c>
       <c r="B1563" s="1" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1564" spans="1:3" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -20871,7 +19767,7 @@
         <v>1562</v>
       </c>
       <c r="B1564" s="1" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1565" spans="1:3" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -20879,7 +19775,7 @@
         <v>1563</v>
       </c>
       <c r="B1565" s="1" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1566" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -20887,10 +19783,10 @@
         <v>1564</v>
       </c>
       <c r="B1566" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C1566" s="1" t="s">
         <v>2168</v>
-      </c>
-      <c r="C1566" s="1" t="s">
-        <v>2169</v>
       </c>
     </row>
     <row r="1567" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -20898,10 +19794,10 @@
         <v>1565</v>
       </c>
       <c r="B1567" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C1567" s="1" t="s">
         <v>2168</v>
-      </c>
-      <c r="C1567" s="1" t="s">
-        <v>2169</v>
       </c>
     </row>
     <row r="1568" spans="1:3" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -20909,10 +19805,10 @@
         <v>1566</v>
       </c>
       <c r="B1568" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C1568" s="1" t="s">
         <v>2181</v>
-      </c>
-      <c r="C1568" s="1" t="s">
-        <v>2182</v>
       </c>
     </row>
     <row r="1569" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -20920,7 +19816,7 @@
         <v>1567</v>
       </c>
       <c r="B1569" s="1" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1570" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -20928,7 +19824,7 @@
         <v>1569</v>
       </c>
       <c r="B1570" s="1" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1571" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -20936,7 +19832,7 @@
         <v>1570</v>
       </c>
       <c r="B1571" s="1" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1572" spans="1:3" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -20944,10 +19840,10 @@
         <v>1571</v>
       </c>
       <c r="B1572" s="1" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C1572" s="1" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1573" spans="1:3" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -20955,10 +19851,10 @@
         <v>1572</v>
       </c>
       <c r="B1573" s="1" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C1573" s="1" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1574" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -20966,10 +19862,10 @@
         <v>1573</v>
       </c>
       <c r="B1574" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C1574" s="1" t="s">
         <v>2188</v>
-      </c>
-      <c r="C1574" s="1" t="s">
-        <v>2189</v>
       </c>
     </row>
     <row r="1575" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -20977,7 +19873,7 @@
         <v>1574</v>
       </c>
       <c r="B1575" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1576" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -20985,7 +19881,7 @@
         <v>1575</v>
       </c>
       <c r="B1576" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1577" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -20993,7 +19889,7 @@
         <v>1576</v>
       </c>
       <c r="B1577" s="1" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1578" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -21001,7 +19897,7 @@
         <v>1763</v>
       </c>
       <c r="B1578" s="1" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1579" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21009,7 +19905,7 @@
         <v>1764</v>
       </c>
       <c r="B1579" s="1" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1580" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -21017,7 +19913,7 @@
         <v>1579</v>
       </c>
       <c r="B1580" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1581" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21025,7 +19921,7 @@
         <v>1578</v>
       </c>
       <c r="B1581" s="1" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1582" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21033,7 +19929,7 @@
         <v>1765</v>
       </c>
       <c r="B1582" s="1" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1583" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -21041,10 +19937,10 @@
         <v>1766</v>
       </c>
       <c r="B1583" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C1583" s="1" t="s">
         <v>2197</v>
-      </c>
-      <c r="C1583" s="1" t="s">
-        <v>2198</v>
       </c>
     </row>
     <row r="1584" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21052,7 +19948,7 @@
         <v>1768</v>
       </c>
       <c r="B1584" s="1" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1585" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21060,7 +19956,7 @@
         <v>1769</v>
       </c>
       <c r="B1585" s="1" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1586" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21068,7 +19964,7 @@
         <v>1770</v>
       </c>
       <c r="B1586" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1587" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21076,7 +19972,7 @@
         <v>1577</v>
       </c>
       <c r="B1587" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1588" spans="1:2" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -21084,7 +19980,7 @@
         <v>1771</v>
       </c>
       <c r="B1588" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1589" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21092,7 +19988,7 @@
         <v>1580</v>
       </c>
       <c r="B1589" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1590" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21100,7 +19996,7 @@
         <v>1581</v>
       </c>
       <c r="B1590" s="1" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1591" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21108,7 +20004,7 @@
         <v>1582</v>
       </c>
       <c r="B1591" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1592" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21116,7 +20012,7 @@
         <v>1583</v>
       </c>
       <c r="B1592" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1593" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21124,7 +20020,7 @@
         <v>1584</v>
       </c>
       <c r="B1593" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1594" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21132,7 +20028,7 @@
         <v>1585</v>
       </c>
       <c r="B1594" s="1" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1595" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21140,7 +20036,7 @@
         <v>1586</v>
       </c>
       <c r="B1595" s="1" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1596" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21148,7 +20044,7 @@
         <v>1587</v>
       </c>
       <c r="B1596" s="1" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1597" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21156,7 +20052,7 @@
         <v>1588</v>
       </c>
       <c r="B1597" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1598" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21164,7 +20060,7 @@
         <v>1589</v>
       </c>
       <c r="B1598" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1599" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21172,7 +20068,7 @@
         <v>1590</v>
       </c>
       <c r="B1599" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1600" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21180,7 +20076,7 @@
         <v>1591</v>
       </c>
       <c r="B1600" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1601" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21188,7 +20084,7 @@
         <v>1592</v>
       </c>
       <c r="B1601" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1602" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21196,7 +20092,7 @@
         <v>1593</v>
       </c>
       <c r="B1602" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1603" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21204,7 +20100,7 @@
         <v>1594</v>
       </c>
       <c r="B1603" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1604" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21212,7 +20108,7 @@
         <v>1595</v>
       </c>
       <c r="B1604" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1605" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21220,7 +20116,7 @@
         <v>1596</v>
       </c>
       <c r="B1605" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1606" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21228,7 +20124,7 @@
         <v>1597</v>
       </c>
       <c r="B1606" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1607" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21236,7 +20132,7 @@
         <v>1598</v>
       </c>
       <c r="B1607" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1608" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21244,7 +20140,7 @@
         <v>1599</v>
       </c>
       <c r="B1608" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1609" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21252,7 +20148,7 @@
         <v>1600</v>
       </c>
       <c r="B1609" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1610" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21260,7 +20156,7 @@
         <v>1601</v>
       </c>
       <c r="B1610" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1611" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21268,7 +20164,7 @@
         <v>1602</v>
       </c>
       <c r="B1611" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1612" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21276,7 +20172,7 @@
         <v>1603</v>
       </c>
       <c r="B1612" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1613" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21284,7 +20180,7 @@
         <v>1604</v>
       </c>
       <c r="B1613" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1614" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21292,7 +20188,7 @@
         <v>1605</v>
       </c>
       <c r="B1614" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1615" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21300,7 +20196,7 @@
         <v>1606</v>
       </c>
       <c r="B1615" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1616" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21308,7 +20204,7 @@
         <v>1607</v>
       </c>
       <c r="B1616" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1617" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21316,7 +20212,7 @@
         <v>1608</v>
       </c>
       <c r="B1617" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1618" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21324,7 +20220,7 @@
         <v>1609</v>
       </c>
       <c r="B1618" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1619" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -21332,7 +20228,7 @@
         <v>1610</v>
       </c>
       <c r="B1619" s="1" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1620" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21340,7 +20236,7 @@
         <v>1611</v>
       </c>
       <c r="B1620" s="1" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1621" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21348,7 +20244,7 @@
         <v>1612</v>
       </c>
       <c r="B1621" s="1" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1622" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -21356,7 +20252,7 @@
         <v>1613</v>
       </c>
       <c r="B1622" s="1" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1623" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21364,7 +20260,7 @@
         <v>1614</v>
       </c>
       <c r="B1623" s="1" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1624" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21372,7 +20268,7 @@
         <v>1615</v>
       </c>
       <c r="B1624" s="1" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1625" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21380,7 +20276,7 @@
         <v>1616</v>
       </c>
       <c r="B1625" s="1" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1626" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21388,7 +20284,7 @@
         <v>1617</v>
       </c>
       <c r="B1626" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1627" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21396,7 +20292,7 @@
         <v>1618</v>
       </c>
       <c r="B1627" s="1" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1628" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21404,7 +20300,7 @@
         <v>1619</v>
       </c>
       <c r="B1628" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1629" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21412,7 +20308,7 @@
         <v>1620</v>
       </c>
       <c r="B1629" s="1" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1630" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21420,7 +20316,7 @@
         <v>1621</v>
       </c>
       <c r="B1630" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1631" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21428,7 +20324,7 @@
         <v>1622</v>
       </c>
       <c r="B1631" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1632" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21436,7 +20332,7 @@
         <v>1623</v>
       </c>
       <c r="B1632" s="1" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1633" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21444,7 +20340,7 @@
         <v>1624</v>
       </c>
       <c r="B1633" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1634" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21452,7 +20348,7 @@
         <v>1625</v>
       </c>
       <c r="B1634" s="1" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1635" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21460,7 +20356,7 @@
         <v>1626</v>
       </c>
       <c r="B1635" s="1" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1636" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21468,7 +20364,7 @@
         <v>1627</v>
       </c>
       <c r="B1636" s="1" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1637" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21476,7 +20372,7 @@
         <v>1628</v>
       </c>
       <c r="B1637" s="1" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1638" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21484,7 +20380,7 @@
         <v>1629</v>
       </c>
       <c r="B1638" s="1" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1639" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21492,7 +20388,7 @@
         <v>1630</v>
       </c>
       <c r="B1639" s="1" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1640" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21500,7 +20396,7 @@
         <v>1631</v>
       </c>
       <c r="B1640" s="1" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1641" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21508,7 +20404,7 @@
         <v>1632</v>
       </c>
       <c r="B1641" s="1" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1642" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21516,7 +20412,7 @@
         <v>1633</v>
       </c>
       <c r="B1642" s="1" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1643" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21524,7 +20420,7 @@
         <v>1634</v>
       </c>
       <c r="B1643" s="1" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1644" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21532,7 +20428,7 @@
         <v>1635</v>
       </c>
       <c r="B1644" s="1" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1645" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21540,7 +20436,7 @@
         <v>1636</v>
       </c>
       <c r="B1645" s="1" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1646" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21548,7 +20444,7 @@
         <v>1637</v>
       </c>
       <c r="B1646" s="1" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1647" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21556,7 +20452,7 @@
         <v>1638</v>
       </c>
       <c r="B1647" s="1" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1648" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21564,7 +20460,7 @@
         <v>1639</v>
       </c>
       <c r="B1648" s="1" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1649" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21572,7 +20468,7 @@
         <v>1640</v>
       </c>
       <c r="B1649" s="1" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1650" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21580,7 +20476,7 @@
         <v>1641</v>
       </c>
       <c r="B1650" s="1" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1651" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21588,7 +20484,7 @@
         <v>1642</v>
       </c>
       <c r="B1651" s="1" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1652" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21596,7 +20492,7 @@
         <v>1643</v>
       </c>
       <c r="B1652" s="1" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1653" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21604,7 +20500,7 @@
         <v>1644</v>
       </c>
       <c r="B1653" s="1" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1654" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21612,7 +20508,7 @@
         <v>1645</v>
       </c>
       <c r="B1654" s="1" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1655" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21620,7 +20516,7 @@
         <v>1646</v>
       </c>
       <c r="B1655" s="1" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1656" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21628,7 +20524,7 @@
         <v>1647</v>
       </c>
       <c r="B1656" s="1" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1657" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21636,7 +20532,7 @@
         <v>1648</v>
       </c>
       <c r="B1657" s="1" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1658" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21644,7 +20540,7 @@
         <v>1649</v>
       </c>
       <c r="B1658" s="1" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1659" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21652,7 +20548,7 @@
         <v>1650</v>
       </c>
       <c r="B1659" s="1" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1660" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21660,7 +20556,7 @@
         <v>1651</v>
       </c>
       <c r="B1660" s="1" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1661" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21668,7 +20564,7 @@
         <v>1652</v>
       </c>
       <c r="B1661" s="1" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1662" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21676,7 +20572,7 @@
         <v>1653</v>
       </c>
       <c r="B1662" s="1" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1663" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -21684,7 +20580,7 @@
         <v>1654</v>
       </c>
       <c r="B1663" s="1" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1664" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21700,7 +20596,7 @@
         <v>1656</v>
       </c>
       <c r="B1665" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1666" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21716,7 +20612,7 @@
         <v>1658</v>
       </c>
       <c r="B1667" s="1" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1668" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21732,7 +20628,7 @@
         <v>1660</v>
       </c>
       <c r="B1669" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1670" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21748,7 +20644,7 @@
         <v>1662</v>
       </c>
       <c r="B1671" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1672" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21772,7 +20668,7 @@
         <v>1665</v>
       </c>
       <c r="B1674" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1675" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -21780,7 +20676,7 @@
         <v>1666</v>
       </c>
       <c r="B1675" s="1" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1676" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21788,7 +20684,7 @@
         <v>1667</v>
       </c>
       <c r="B1676" s="1" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1677" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21820,7 +20716,7 @@
         <v>1671</v>
       </c>
       <c r="B1680" s="1" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1681" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21828,7 +20724,7 @@
         <v>1672</v>
       </c>
       <c r="B1681" s="1" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1682" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21836,7 +20732,7 @@
         <v>1673</v>
       </c>
       <c r="B1682" s="1" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1683" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21868,7 +20764,7 @@
         <v>1677</v>
       </c>
       <c r="B1686" s="1" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1687" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21892,7 +20788,7 @@
         <v>1680</v>
       </c>
       <c r="B1689" s="1" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1690" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21908,7 +20804,7 @@
         <v>1682</v>
       </c>
       <c r="B1691" s="1" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1692" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21916,7 +20812,7 @@
         <v>1683</v>
       </c>
       <c r="B1692" s="1" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="1693" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -21924,7 +20820,7 @@
         <v>1684</v>
       </c>
       <c r="B1693" s="1" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="1694" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21940,7 +20836,7 @@
         <v>1686</v>
       </c>
       <c r="B1695" s="1" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1696" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21956,7 +20852,7 @@
         <v>1688</v>
       </c>
       <c r="B1697" s="1" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1698" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21972,7 +20868,7 @@
         <v>1690</v>
       </c>
       <c r="B1699" s="1" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="1700" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -21988,7 +20884,7 @@
         <v>1692</v>
       </c>
       <c r="B1701" s="1" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1702" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22004,7 +20900,7 @@
         <v>1694</v>
       </c>
       <c r="B1703" s="1" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="1704" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22020,7 +20916,7 @@
         <v>1696</v>
       </c>
       <c r="B1705" s="1" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="1706" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22036,7 +20932,7 @@
         <v>1698</v>
       </c>
       <c r="B1707" s="1" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1708" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22052,7 +20948,7 @@
         <v>1700</v>
       </c>
       <c r="B1709" s="1" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="1710" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22068,7 +20964,7 @@
         <v>1702</v>
       </c>
       <c r="B1711" s="1" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1712" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22076,7 +20972,7 @@
         <v>1703</v>
       </c>
       <c r="B1712" s="1" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1713" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22084,7 +20980,7 @@
         <v>1704</v>
       </c>
       <c r="B1713" s="1" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1714" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22092,7 +20988,7 @@
         <v>1705</v>
       </c>
       <c r="B1714" s="1" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1715" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22100,7 +20996,7 @@
         <v>1706</v>
       </c>
       <c r="B1715" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1716" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22108,7 +21004,7 @@
         <v>1707</v>
       </c>
       <c r="B1716" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1717" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22116,7 +21012,7 @@
         <v>1708</v>
       </c>
       <c r="B1717" s="1" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1718" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -22124,7 +21020,7 @@
         <v>1709</v>
       </c>
       <c r="B1718" s="1" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1719" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -22132,7 +21028,7 @@
         <v>1710</v>
       </c>
       <c r="B1719" s="1" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1720" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22140,7 +21036,7 @@
         <v>1711</v>
       </c>
       <c r="B1720" s="1" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1721" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22148,7 +21044,7 @@
         <v>1712</v>
       </c>
       <c r="B1721" s="1" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="1722" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22196,7 +21092,7 @@
         <v>1718</v>
       </c>
       <c r="B1727" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="1728" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22204,7 +21100,7 @@
         <v>1719</v>
       </c>
       <c r="B1728" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="1729" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22212,15 +21108,15 @@
         <v>1720</v>
       </c>
       <c r="B1729" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1730" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1730" s="1" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B1730" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1731" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22228,7 +21124,7 @@
         <v>1721</v>
       </c>
       <c r="B1731" s="1" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="1732" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22236,7 +21132,7 @@
         <v>1722</v>
       </c>
       <c r="B1732" s="1" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="1733" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22268,7 +21164,7 @@
         <v>1726</v>
       </c>
       <c r="B1736" s="1" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1737" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22276,7 +21172,7 @@
         <v>1727</v>
       </c>
       <c r="B1737" s="1" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1738" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22284,7 +21180,7 @@
         <v>1728</v>
       </c>
       <c r="B1738" s="1" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1739" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22292,7 +21188,7 @@
         <v>1729</v>
       </c>
       <c r="B1739" s="1" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1740" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22300,7 +21196,7 @@
         <v>1730</v>
       </c>
       <c r="B1740" s="1" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="1741" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22308,7 +21204,7 @@
         <v>1731</v>
       </c>
       <c r="B1741" s="1" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1742" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22316,7 +21212,7 @@
         <v>1732</v>
       </c>
       <c r="B1742" s="1" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1743" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -22324,7 +21220,7 @@
         <v>1733</v>
       </c>
       <c r="B1743" s="1" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="1744" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -22332,7 +21228,7 @@
         <v>1734</v>
       </c>
       <c r="B1744" s="1" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="1745" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -22340,7 +21236,7 @@
         <v>1735</v>
       </c>
       <c r="B1745" s="1" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1746" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -22348,7 +21244,7 @@
         <v>1736</v>
       </c>
       <c r="B1746" s="1" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1747" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22356,7 +21252,7 @@
         <v>1737</v>
       </c>
       <c r="B1747" s="1" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1748" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -22364,7 +21260,7 @@
         <v>1738</v>
       </c>
       <c r="B1748" s="1" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="1749" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -22372,7 +21268,7 @@
         <v>1739</v>
       </c>
       <c r="B1749" s="1" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="1750" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22380,7 +21276,7 @@
         <v>1740</v>
       </c>
       <c r="B1750" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1751" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22388,7 +21284,7 @@
         <v>1741</v>
       </c>
       <c r="B1751" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1752" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22396,7 +21292,7 @@
         <v>1742</v>
       </c>
       <c r="B1752" s="1" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1753" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22404,7 +21300,7 @@
         <v>1743</v>
       </c>
       <c r="B1753" s="1" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1754" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22412,7 +21308,7 @@
         <v>1744</v>
       </c>
       <c r="B1754" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="1755" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22420,7 +21316,7 @@
         <v>1745</v>
       </c>
       <c r="B1755" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="1756" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -22428,7 +21324,7 @@
         <v>1746</v>
       </c>
       <c r="B1756" s="1" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1757" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -22436,7 +21332,7 @@
         <v>1747</v>
       </c>
       <c r="B1757" s="1" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1758" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -22444,7 +21340,7 @@
         <v>1748</v>
       </c>
       <c r="B1758" s="1" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1759" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -22452,7 +21348,7 @@
         <v>1749</v>
       </c>
       <c r="B1759" s="1" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1760" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22564,7 +21460,7 @@
         <v>1772</v>
       </c>
       <c r="B1773" s="1" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1774" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22572,7 +21468,7 @@
         <v>1773</v>
       </c>
       <c r="B1774" s="1" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1775" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22580,7 +21476,7 @@
         <v>1774</v>
       </c>
       <c r="B1775" s="1" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1776" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22588,7 +21484,7 @@
         <v>1775</v>
       </c>
       <c r="B1776" s="1" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1777" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -22596,7 +21492,7 @@
         <v>1776</v>
       </c>
       <c r="B1777" s="1" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1778" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22604,7 +21500,7 @@
         <v>1777</v>
       </c>
       <c r="B1778" s="1" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1779" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -22612,7 +21508,7 @@
         <v>1778</v>
       </c>
       <c r="B1779" s="1" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1780" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -22620,7 +21516,7 @@
         <v>1779</v>
       </c>
       <c r="B1780" s="1" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1781" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22628,7 +21524,7 @@
         <v>1780</v>
       </c>
       <c r="B1781" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1782" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22636,7 +21532,7 @@
         <v>1781</v>
       </c>
       <c r="B1782" s="1" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1783" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22644,7 +21540,7 @@
         <v>1782</v>
       </c>
       <c r="B1783" s="1" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1784" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22652,7 +21548,7 @@
         <v>1783</v>
       </c>
       <c r="B1784" s="1" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1785" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -22660,7 +21556,7 @@
         <v>1784</v>
       </c>
       <c r="B1785" s="1" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1786" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -22668,7 +21564,7 @@
         <v>1785</v>
       </c>
       <c r="B1786" s="1" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1787" spans="1:2" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -22676,7 +21572,7 @@
         <v>1786</v>
       </c>
       <c r="B1787" s="1" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1788" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22684,7 +21580,7 @@
         <v>1787</v>
       </c>
       <c r="B1788" s="1" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1789" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22692,7 +21588,7 @@
         <v>1788</v>
       </c>
       <c r="B1789" s="1" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1790" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22700,7 +21596,7 @@
         <v>1789</v>
       </c>
       <c r="B1790" s="1" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1791" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22708,7 +21604,7 @@
         <v>1790</v>
       </c>
       <c r="B1791" s="1" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1792" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22716,7 +21612,7 @@
         <v>1791</v>
       </c>
       <c r="B1792" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1793" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22724,7 +21620,7 @@
         <v>1792</v>
       </c>
       <c r="B1793" s="1" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1794" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22732,7 +21628,7 @@
         <v>1793</v>
       </c>
       <c r="B1794" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="1795" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22740,7 +21636,7 @@
         <v>1794</v>
       </c>
       <c r="B1795" s="1" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="1796" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22772,7 +21668,7 @@
         <v>1798</v>
       </c>
       <c r="B1799" s="1" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1800" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22780,7 +21676,7 @@
         <v>1799</v>
       </c>
       <c r="B1800" s="1" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1801" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -22788,7 +21684,7 @@
         <v>1800</v>
       </c>
       <c r="B1801" s="1" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="1802" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22820,7 +21716,7 @@
         <v>1804</v>
       </c>
       <c r="B1805" s="1" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1806" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22828,7 +21724,7 @@
         <v>1805</v>
       </c>
       <c r="B1806" s="1" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1807" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -22836,7 +21732,7 @@
         <v>1806</v>
       </c>
       <c r="B1807" s="1" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1808" spans="1:2" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -22844,7 +21740,7 @@
         <v>1807</v>
       </c>
       <c r="B1808" s="1" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1809" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -22884,7 +21780,7 @@
         <v>1812</v>
       </c>
       <c r="B1813" s="1" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1814" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -23399,20 +22295,20 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="1878" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1878" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1878" s="1" t="s">
         <v>1877</v>
       </c>
       <c r="B1878" s="1" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1879" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1879" s="1" t="s">
         <v>1878</v>
       </c>
       <c r="B1879" s="1" t="s">
-        <v>2204</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1880" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -23423,15 +22319,15 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="1881" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1881" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1881" s="1" t="s">
         <v>1880</v>
       </c>
       <c r="B1881" s="1" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="1882" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1882" s="1" t="s">
         <v>1881</v>
       </c>
@@ -23439,12 +22335,12 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="1883" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1883" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1883" s="1" t="s">
         <v>1882</v>
       </c>
       <c r="B1883" s="1" t="s">
-        <v>2172</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1884" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -23455,34 +22351,34 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="1885" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1885" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1885" s="1" t="s">
         <v>1884</v>
       </c>
       <c r="B1885" s="1" t="s">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="1886" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>2172</v>
+      </c>
+      <c r="C1885" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1886" s="1" t="s">
         <v>1885</v>
       </c>
       <c r="B1886" s="1" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="C1886" s="1" t="s">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="1887" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1887" s="1" t="s">
         <v>1886</v>
       </c>
       <c r="B1887" s="1" t="s">
-        <v>2175</v>
-      </c>
-      <c r="C1887" s="1" t="s">
-        <v>2176</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1888" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -23493,37 +22389,37 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="1889" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1889" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1889" s="1" t="s">
         <v>1888</v>
       </c>
       <c r="B1889" s="1" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="1890" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>2176</v>
+      </c>
+      <c r="C1889" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D1889" s="1" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1890" s="1" t="s">
         <v>1889</v>
       </c>
       <c r="B1890" s="1" t="s">
-        <v>2177</v>
-      </c>
-      <c r="C1890" s="1" t="s">
-        <v>2178</v>
-      </c>
-      <c r="D1890" s="1" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="1891" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1891" s="1" t="s">
         <v>1890</v>
       </c>
       <c r="B1891" s="1" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="1892" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:4" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1892" s="1" t="s">
         <v>1891</v>
       </c>
@@ -23531,12 +22427,12 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="1893" spans="1:4" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1893" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1893" s="1" t="s">
         <v>1892</v>
       </c>
       <c r="B1893" s="1" t="s">
-        <v>2206</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1894" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -23555,20 +22451,20 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="1896" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1896" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1896" s="1" t="s">
         <v>1895</v>
       </c>
       <c r="B1896" s="1" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="1897" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1897" s="1" t="s">
         <v>1896</v>
       </c>
       <c r="B1897" s="1" t="s">
-        <v>2207</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1898" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -23595,15 +22491,15 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="1901" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1901" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1901" s="1" t="s">
         <v>1900</v>
       </c>
       <c r="B1901" s="1" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="1902" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:4" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1902" s="1" t="s">
         <v>1901</v>
       </c>
@@ -23611,12 +22507,12 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="1903" spans="1:4" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1903" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1903" s="1" t="s">
         <v>1902</v>
       </c>
       <c r="B1903" s="1" t="s">
-        <v>2145</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1904" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -23626,6 +22522,7 @@
       <c r="B1904" s="1" t="s">
         <v>1903</v>
       </c>
+      <c r="C1904"/>
     </row>
     <row r="1905" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1905" s="1" t="s">
@@ -23645,43 +22542,42 @@
       </c>
       <c r="C1906"/>
     </row>
-    <row r="1907" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1907" spans="1:3" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1907" s="1" t="s">
         <v>1906</v>
       </c>
       <c r="B1907" s="1" t="s">
-        <v>1906</v>
-      </c>
-      <c r="C1907"/>
-    </row>
-    <row r="1908" spans="1:3" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>2141</v>
+      </c>
+      <c r="C1907" s="1" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1908" s="1" t="s">
         <v>1907</v>
       </c>
       <c r="B1908" s="1" t="s">
-        <v>2142</v>
-      </c>
-      <c r="C1908" s="1" t="s">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="1909" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1907</v>
+      </c>
+      <c r="C1908"/>
+    </row>
+    <row r="1909" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1909" s="1" t="s">
         <v>1908</v>
       </c>
       <c r="B1909" s="1" t="s">
-        <v>1908</v>
+        <v>2169</v>
       </c>
       <c r="C1909"/>
     </row>
-    <row r="1910" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1910" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1910" s="1" t="s">
         <v>1909</v>
       </c>
       <c r="B1910" s="1" t="s">
-        <v>2170</v>
-      </c>
-      <c r="C1910"/>
+        <v>1909</v>
+      </c>
     </row>
     <row r="1911" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1911" s="1" t="s">
@@ -23803,7 +22699,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="1926" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1926" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1926" s="1" t="s">
         <v>1925</v>
       </c>
@@ -23827,7 +22723,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="1929" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1929" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1929" s="1" t="s">
         <v>1928</v>
       </c>
@@ -23835,7 +22731,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="1930" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1930" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1930" s="1" t="s">
         <v>1929</v>
       </c>
@@ -23851,7 +22747,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="1932" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1932" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1932" s="1" t="s">
         <v>1931</v>
       </c>
@@ -23883,7 +22779,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="1936" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1936" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1936" s="1" t="s">
         <v>1935</v>
       </c>
@@ -23891,7 +22787,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="1937" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1937" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1937" s="1" t="s">
         <v>1936</v>
       </c>
@@ -24163,7 +23059,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="1971" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1971" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1971" s="1" t="s">
         <v>1970</v>
       </c>
@@ -24179,7 +23075,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="1973" spans="1:2" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1973" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1973" s="1" t="s">
         <v>1972</v>
       </c>
@@ -24299,19 +23195,26 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="1988" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1988" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1988" s="1" t="s">
-        <v>1987</v>
+        <v>1568</v>
       </c>
       <c r="B1988" s="1" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="1989" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+      <c r="D1988" s="1"/>
+      <c r="E1988" s="1"/>
+      <c r="F1988" s="1"/>
+      <c r="G1988" s="1"/>
+    </row>
+    <row r="1989" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1989" s="1" t="s">
-        <v>1568</v>
+        <v>1767</v>
       </c>
       <c r="B1989" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C1989" s="1" t="s">
         <v>2001</v>
       </c>
       <c r="D1989" s="1"/>
@@ -24319,119 +23222,112 @@
       <c r="F1989" s="1"/>
       <c r="G1989" s="1"/>
     </row>
-    <row r="1990" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1990" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1990" s="1" t="s">
-        <v>1767</v>
+        <v>30</v>
       </c>
       <c r="B1990" s="1" t="s">
         <v>2003</v>
-      </c>
-      <c r="C1990" s="1" t="s">
-        <v>2002</v>
       </c>
       <c r="D1990" s="1"/>
       <c r="E1990" s="1"/>
       <c r="F1990" s="1"/>
       <c r="G1990" s="1"/>
     </row>
-    <row r="1991" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1991" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1991" s="1" t="s">
-        <v>30</v>
+        <v>2062</v>
       </c>
       <c r="B1991" s="1" t="s">
-        <v>2004</v>
-      </c>
-      <c r="D1991" s="1"/>
-      <c r="E1991" s="1"/>
-      <c r="F1991" s="1"/>
-      <c r="G1991" s="1"/>
-    </row>
-    <row r="1992" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1992" s="1" t="s">
-        <v>2063</v>
+        <v>2074</v>
       </c>
       <c r="B1992" s="1" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="1993" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1993" s="1" t="s">
-        <v>2075</v>
+        <v>2096</v>
       </c>
       <c r="B1993" s="1" t="s">
-        <v>2076</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1994" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1994" s="1" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="B1994" s="1" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="1995" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1995" s="1" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="B1995" s="1" t="s">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="1996" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1996" s="1" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="B1996" s="1" t="s">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="1997" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1997" s="1" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="B1997" s="1" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="1998" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1998" s="1" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="B1998" s="1" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="1999" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1999" s="1" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="B1999" s="1" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="2000" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2000" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B2000" s="1" t="s">
         <v>2110</v>
       </c>
-      <c r="B2000" s="1" t="s">
+    </row>
+    <row r="2001" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2001" s="1" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="2001" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2001" s="1" t="s">
-        <v>2109</v>
-      </c>
       <c r="B2001" s="1" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="2002" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2002" s="1" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="B2002" s="1" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="2003" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -24439,18 +23335,18 @@
         <v>2114</v>
       </c>
       <c r="B2003" s="1" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2004" s="1" t="s">
         <v>2116</v>
       </c>
-    </row>
-    <row r="2004" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2004" s="1" t="s">
-        <v>2115</v>
-      </c>
       <c r="B2004" s="1" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="2005" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2005" s="1" t="s">
         <v>2117</v>
       </c>
@@ -24458,276 +23354,268 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="2006" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2006" spans="1:7" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2006" s="1" t="s">
-        <v>2118</v>
+        <v>1995</v>
       </c>
       <c r="B2006" s="1" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="2007" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+        <v>2225</v>
+      </c>
+      <c r="C2006" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D2006" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E2006" s="1"/>
+      <c r="F2006" s="2"/>
+    </row>
+    <row r="2007" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2007" s="1" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="B2007" s="1" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="C2007" s="1" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="D2007" s="1" t="s">
-        <v>2228</v>
-      </c>
-      <c r="E2007" s="1"/>
-      <c r="F2007" s="2"/>
-    </row>
-    <row r="2008" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+        <v>2230</v>
+      </c>
+      <c r="E2007" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="F2007" s="1" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2008" s="1" t="s">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="B2008" s="1" t="s">
-        <v>2229</v>
+        <v>2233</v>
       </c>
       <c r="C2008" s="1" t="s">
-        <v>2230</v>
+        <v>2234</v>
       </c>
       <c r="D2008" s="1" t="s">
-        <v>2231</v>
+        <v>2235</v>
       </c>
       <c r="E2008" s="1" t="s">
-        <v>2232</v>
+        <v>2236</v>
       </c>
       <c r="F2008" s="1" t="s">
-        <v>2233</v>
-      </c>
-    </row>
-    <row r="2009" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+        <v>2237</v>
+      </c>
+      <c r="G2008" s="1" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2009" s="1" t="s">
         <v>1999</v>
       </c>
       <c r="B2009" s="1" t="s">
-        <v>2234</v>
-      </c>
-      <c r="C2009" s="1" t="s">
-        <v>2235</v>
-      </c>
-      <c r="D2009" s="1" t="s">
-        <v>2236</v>
-      </c>
-      <c r="E2009" s="1" t="s">
-        <v>2237</v>
-      </c>
-      <c r="F2009" s="1" t="s">
-        <v>2238</v>
-      </c>
-      <c r="G2009" s="1" t="s">
         <v>2239</v>
       </c>
-    </row>
-    <row r="2010" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="D2009" s="1"/>
+      <c r="E2009" s="1"/>
+      <c r="F2009" s="2"/>
+    </row>
+    <row r="2010" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2010" s="1" t="s">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="B2010" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="D2010" s="1"/>
-      <c r="E2010" s="1"/>
-      <c r="F2010" s="2"/>
-    </row>
-    <row r="2011" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="C2010" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D2010" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E2010" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="F2010" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="G2010" s="1" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2011" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B2011" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C2011" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D2011" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E2011" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="F2011" s="1" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2012" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B2012" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C2012" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D2012" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="E2012" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="F2012" s="1" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2013" s="1" t="s">
         <v>1989</v>
       </c>
-      <c r="B2011" s="1" t="s">
-        <v>2241</v>
-      </c>
-      <c r="C2011" s="1" t="s">
-        <v>2242</v>
-      </c>
-      <c r="D2011" s="1" t="s">
-        <v>2243</v>
-      </c>
-      <c r="E2011" s="1" t="s">
-        <v>2244</v>
-      </c>
-      <c r="F2011" s="1" t="s">
-        <v>2245</v>
-      </c>
-      <c r="G2011" s="1" t="s">
-        <v>2246</v>
-      </c>
-    </row>
-    <row r="2012" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2012" s="1" t="s">
-        <v>1988</v>
-      </c>
-      <c r="B2012" s="1" t="s">
-        <v>2247</v>
-      </c>
-      <c r="C2012" s="1" t="s">
-        <v>2248</v>
-      </c>
-      <c r="D2012" s="1" t="s">
-        <v>2249</v>
-      </c>
-      <c r="E2012" s="1" t="s">
-        <v>2250</v>
-      </c>
-      <c r="F2012" s="1" t="s">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="2013" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2013" s="1" t="s">
+      <c r="B2013" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C2013" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D2013" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E2013" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="F2013" s="1" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2014" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B2014" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C2014" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D2014" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="E2014" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="F2014" s="1"/>
+    </row>
+    <row r="2015" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2015" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B2015" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C2015" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D2015" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="E2015" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="F2015" s="1" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:7" ht="210" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2016" s="1" t="s">
         <v>1992</v>
       </c>
-      <c r="B2013" s="1" t="s">
-        <v>2252</v>
-      </c>
-      <c r="C2013" s="1" t="s">
-        <v>2253</v>
-      </c>
-      <c r="D2013" s="1" t="s">
-        <v>2254</v>
-      </c>
-      <c r="E2013" s="1" t="s">
-        <v>2255</v>
-      </c>
-      <c r="F2013" s="1" t="s">
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="2014" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2014" s="1" t="s">
+      <c r="B2016" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C2016" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D2016" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="E2016" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="F2016" s="1"/>
+      <c r="G2016" s="1"/>
+    </row>
+    <row r="2017" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2017" s="1" t="s">
         <v>1990</v>
       </c>
-      <c r="B2014" s="1" t="s">
-        <v>2257</v>
-      </c>
-      <c r="C2014" s="1" t="s">
-        <v>2258</v>
-      </c>
-      <c r="D2014" s="1" t="s">
-        <v>2259</v>
-      </c>
-      <c r="E2014" s="1" t="s">
-        <v>2260</v>
-      </c>
-      <c r="F2014" s="1" t="s">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="2015" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2015" s="1" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B2015" s="1" t="s">
-        <v>2262</v>
-      </c>
-      <c r="C2015" s="1" t="s">
-        <v>2263</v>
-      </c>
-      <c r="D2015" s="1" t="s">
-        <v>2264</v>
-      </c>
-      <c r="E2015" s="1" t="s">
-        <v>2265</v>
-      </c>
-      <c r="F2015" s="1"/>
-    </row>
-    <row r="2016" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2016" s="1" t="s">
-        <v>1995</v>
-      </c>
-      <c r="B2016" s="1" t="s">
-        <v>2266</v>
-      </c>
-      <c r="C2016" s="1" t="s">
-        <v>2267</v>
-      </c>
-      <c r="D2016" s="1" t="s">
-        <v>2268</v>
-      </c>
-      <c r="E2016" s="1" t="s">
-        <v>2269</v>
-      </c>
-      <c r="F2016" s="1" t="s">
-        <v>2270</v>
-      </c>
-    </row>
-    <row r="2017" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A2017" s="1" t="s">
-        <v>1993</v>
-      </c>
       <c r="B2017" s="1" t="s">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="C2017" s="1" t="s">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="D2017" s="1" t="s">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="E2017" s="1" t="s">
-        <v>2274</v>
+        <v>2277</v>
       </c>
       <c r="F2017" s="1"/>
       <c r="G2017" s="1"/>
     </row>
-    <row r="2018" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="2018" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2018" s="1" t="s">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="B2018" s="1" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="C2018" s="1" t="s">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="D2018" s="1" t="s">
-        <v>2277</v>
+        <v>2280</v>
       </c>
       <c r="E2018" s="1" t="s">
-        <v>2278</v>
-      </c>
-      <c r="F2018" s="1"/>
-      <c r="G2018" s="1"/>
-    </row>
-    <row r="2019" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2019" s="1" t="s">
-        <v>1998</v>
-      </c>
-      <c r="B2019" s="1" t="s">
-        <v>2279</v>
-      </c>
-      <c r="C2019" s="1" t="s">
-        <v>2280</v>
-      </c>
-      <c r="D2019" s="1" t="s">
         <v>2281</v>
       </c>
-      <c r="E2019" s="1" t="s">
+      <c r="F2018" s="1" t="s">
         <v>2282</v>
       </c>
-      <c r="F2019" s="1" t="s">
+      <c r="G2018" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="G2019" s="1" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="2020" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D2020" s="1"/>
-      <c r="E2020" s="1"/>
-      <c r="F2020" s="2"/>
+    </row>
+    <row r="2019" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2019" s="1"/>
+      <c r="E2019" s="1"/>
+      <c r="F2019" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F2019" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
+  <autoFilter ref="A2:F2018" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
     <filterColumn colId="0">
       <customFilters>
-        <customFilter val="*tại cung đối Tật Ách"/>
+        <customFilter val="*Tại Huynh Đệ"/>
       </customFilters>
     </filterColumn>
   </autoFilter>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4EF3AC-03B9-40DD-9042-D405CD734DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72E5A90-B19C-4CDB-99A2-02704D0A059F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$F$1027</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$2:$F$952</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="1221">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -96,12 +96,6 @@
     <t>Vị trí địa sinh cung Phụ Mẫu tại Bình thường</t>
   </si>
   <si>
-    <t>ũ Khúc tọa thủ cung Phụ Mẫu ở Mùi</t>
-  </si>
-  <si>
-    <t>ũ Khúc tọa thủ cung Phụ Mẫu đồng cung Tham Lang</t>
-  </si>
-  <si>
     <t>Thái Dương tọa thủ cung Phụ Mẫu ở Tỵ</t>
   </si>
   <si>
@@ -960,42 +954,12 @@
     <t>Hoá Quyền, Thiên Khốc đồng cung tại Phụ Mẫu</t>
   </si>
   <si>
-    <t>Đại Hao toạ thủ tại cung Phụ Mẫu ở Dần</t>
-  </si>
-  <si>
-    <t>Tiểu Hao toạ thủ tại cung Phụ Mẫu ở Dần</t>
-  </si>
-  <si>
-    <t>Đại Hao toạ thủ tại cung Phụ Mẫu ở Thân</t>
-  </si>
-  <si>
-    <t>Tiểu Hao toạ thủ tại cung Phụ Mẫu ở Thân</t>
-  </si>
-  <si>
-    <t>Đại Hao toạ thủ tại cung Phụ Mẫu ở Mão</t>
-  </si>
-  <si>
-    <t>Tiểu Hao toạ thủ tại cung Phụ Mẫu ở Mão</t>
-  </si>
-  <si>
-    <t>Đại Hao toạ thủ tại cung Phụ Mẫu ở Dậu</t>
-  </si>
-  <si>
-    <t>Tiểu Hao toạ thủ tại cung Phụ Mẫu ở Dậu</t>
-  </si>
-  <si>
     <t>Cung Phụ Mẫu Vô Chính Diệu có Đại Hao</t>
   </si>
   <si>
     <t>Cung Phụ Mẫu Vô Chính Diệu có Tiểu Hao</t>
   </si>
   <si>
-    <t>Cung Phụ Mẫu có Tang Môn</t>
-  </si>
-  <si>
-    <t>Cung Phụ Mẫu có Bạch Hổ</t>
-  </si>
-  <si>
     <t>Tang Môn toạ thủ cung Phụ Mẫu gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
   </si>
   <si>
@@ -1026,168 +990,6 @@
     <t>Bạch Hổ, Phi Liêm đồng cung tại Phụ Mẫu</t>
   </si>
   <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Tý</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Tý gặp Hóa Lộc</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Ngọ</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Ngọ gặp Hóa Lộc</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Mão</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Mão gặp Hóa Lộc</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Dậu</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Dậu gặp Hóa Lộc</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Sửu</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Sửu gặp Hóa Lộc</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Mùi</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Mùi gặp Hóa Lộc</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Tý</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Tý gặp Hóa Lộc</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Ngọ</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Ngọ gặp Hóa Lộc</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Mão</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Mão gặp Hóa Lộc</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Dậu</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Dậu gặp Hóa Lộc</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Sửu</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Sửu gặp Hóa Lộc</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Mùi</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Mùi gặp Hóa Lộc</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Tý gặp Kình Dương, Đà La, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Thiên Khốc đồng cung Phá Quân tại Phụ Mẫu ở Tý</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Ngọ gặp Kình Dương, Đà La, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Thiên Khốc đồng cung Phá Quân tại Phụ Mẫu ở Ngọ</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Tý gặp Kình Dương, Đà La, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Thiên Hư đồng cung Phá Quân tại Phụ Mẫu ở Tý</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Ngọ gặp Kình Dương, Đà La, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Thiên Hư đồng cung Phá Quân tại Phụ Mẫu ở Ngọ</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Dần</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Thân</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Tỵ</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Hợi</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Thìn</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Tuất</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Dần</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Thân</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Tỵ</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Hợi</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Thìn</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Tuất</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Dần gặp Kình Dương, Đà La</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Dần gặp Thiên Hình, Thiên Mã</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Thân gặp Kình Dương, Đà La</t>
-  </si>
-  <si>
-    <t>Thiên Khốc toạ thủ cung Phụ Mẫu tại Thân gặp Thiên Hình, Thiên Mã</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Dần gặp Kình Dương, Đà La</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Dần gặp Thiên Hình, Thiên Mã</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Thân gặp Kình Dương, Đà La</t>
-  </si>
-  <si>
-    <t>Thiên Hư toạ thủ cung Phụ Mẫu tại Thân gặp Thiên Hình, Thiên Mã</t>
-  </si>
-  <si>
     <t>Đại Hao toạ thủ cung Phụ Mẫu tại Mão gặp Thiên Cơ, Cự Môn</t>
   </si>
   <si>
@@ -1353,15 +1155,9 @@
     <t>Người tuổi Mậu có Phá Quân tọa thủ cung Phụ Mẫu ở Hợi</t>
   </si>
   <si>
-    <t>Văn Xương toạ thủ cung Phụ Mẫu</t>
-  </si>
-  <si>
     <t>Văn Khúc toạ thủ cung Phụ Mẫu</t>
   </si>
   <si>
-    <t>Văn Xương toạ thủ cung Phụ Mẫu ở Thìn</t>
-  </si>
-  <si>
     <t>Văn Xương toạ thủ cung Phụ Mẫu ở Thìn gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
   </si>
   <si>
@@ -1401,9 +1197,6 @@
     <t>Văn Khúc đồng cung Tả Phù tại cung Phụ Mẫu ở Thìn</t>
   </si>
   <si>
-    <t>Văn Xương toạ thủ cung Phụ Mẫu ở Tuất</t>
-  </si>
-  <si>
     <t>Văn Xương toạ thủ cung Phụ Mẫu ở Tuất gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
   </si>
   <si>
@@ -1443,9 +1236,6 @@
     <t>Văn Khúc đồng cung Tả Phù tại cung Phụ Mẫu ở Tuất</t>
   </si>
   <si>
-    <t>Văn Xương toạ thủ cung Phụ Mẫu ở Sửu</t>
-  </si>
-  <si>
     <t>Văn Xương toạ thủ cung Phụ Mẫu ở Sửu gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
   </si>
   <si>
@@ -1569,9 +1359,6 @@
     <t>Văn Khúc đồng cung Tả Phù tại cung Phụ Mẫu ở Tỵ</t>
   </si>
   <si>
-    <t>Văn Xương toạ thủ cung Phụ Mẫu ở Hợi</t>
-  </si>
-  <si>
     <t>Văn Xương toạ thủ cung Phụ Mẫu ở Hợi gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
   </si>
   <si>
@@ -1590,9 +1377,6 @@
     <t>Văn Xương đồng cung Tả Phù tại cung Phụ Mẫu ở Hợi</t>
   </si>
   <si>
-    <t>Văn Khúc toạ thủ cung Phụ Mẫu ở Hợi</t>
-  </si>
-  <si>
     <t>Văn Khúc toạ thủ cung Phụ Mẫu ở Hợi gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
   </si>
   <si>
@@ -1716,9 +1500,6 @@
     <t>Địa Không toạ thủ cung Phụ Mẫu ở Tý gặp Đào Hoa, Hồng Loan</t>
   </si>
   <si>
-    <t>Địa Kiếp toạ thủ cung Phụ Mẫu ở Tý</t>
-  </si>
-  <si>
     <t>Địa Kiếp toạ thủ cung Phụ Mẫu ở Tý gặp Tử Vi, Thiên Phủ</t>
   </si>
   <si>
@@ -1728,9 +1509,6 @@
     <t>Địa Kiếp toạ thủ cung Phụ Mẫu ở Tý gặp Đào Hoa, Hồng Loan</t>
   </si>
   <si>
-    <t>Địa Không toạ thủ cung Phụ Mẫu ở Sửu</t>
-  </si>
-  <si>
     <t>Địa Không toạ thủ cung Phụ Mẫu ở Sửu gặp Tử Vi, Thiên Phủ</t>
   </si>
   <si>
@@ -1762,9 +1540,6 @@
   </si>
   <si>
     <t>Địa Không toạ thủ cung Phụ Mẫu ở Mão gặp Đào Hoa, Hồng Loan</t>
-  </si>
-  <si>
-    <t>Địa Kiếp toạ thủ cung Phụ Mẫu ở Mão</t>
   </si>
   <si>
     <t>Bạch Hổ toạ thủ cung Phụ Mẫu gặp Thiên Hình</t>
@@ -4268,10 +4043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G1027"/>
+  <dimension ref="A2:G952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A361" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A494" sqref="A494:XFD494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4286,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1220</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4294,7 +4069,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1010</v>
+        <v>935</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4302,7 +4077,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1011</v>
+        <v>936</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4310,7 +4085,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1012</v>
+        <v>937</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4318,7 +4093,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1013</v>
+        <v>938</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4326,7 +4101,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1014</v>
+        <v>939</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4347,18 +4122,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1015</v>
+        <v>940</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>967</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4366,7 +4141,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>967</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4374,7 +4149,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1042</v>
+        <v>967</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4382,7 +4157,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1042</v>
+        <v>967</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4390,7 +4165,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1042</v>
+        <v>967</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4398,7 +4173,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1042</v>
+        <v>968</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4406,7 +4181,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1042</v>
+        <v>968</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4414,7 +4189,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1043</v>
+        <v>968</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4422,7 +4197,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1043</v>
+        <v>968</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4430,23 +4205,23 @@
         <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1043</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4454,10 +4229,10 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -4465,12 +4240,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1086</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4505,7 +4280,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -4513,7 +4288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -4534,7 +4309,7 @@
         <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -4542,7 +4317,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -4550,26 +4325,26 @@
         <v>46</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -4577,7 +4352,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -4601,39 +4376,39 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -4641,15 +4416,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -4657,7 +4432,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -4665,15 +4440,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -4681,15 +4456,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
@@ -4697,7 +4472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -4705,7 +4480,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
@@ -4713,7 +4488,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -4729,7 +4504,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -4745,7 +4520,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -4761,7 +4536,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -4777,7 +4552,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -4793,7 +4568,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
@@ -4809,7 +4584,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
@@ -4825,7 +4600,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>80</v>
       </c>
@@ -4841,7 +4616,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -4849,7 +4624,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
@@ -4870,7 +4645,7 @@
         <v>85</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>85</v>
+        <v>975</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4881,15 +4656,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
@@ -4897,7 +4672,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
@@ -4921,7 +4696,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -4929,7 +4704,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -5033,7 +4808,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -5041,7 +4816,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -5081,7 +4856,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -5089,7 +4864,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
@@ -5129,7 +4904,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -5145,7 +4920,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
@@ -5158,7 +4933,7 @@
         <v>121</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>121</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5166,15 +4941,15 @@
         <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1093</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5182,10 +4957,10 @@
         <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
@@ -5201,7 +4976,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -5217,7 +4992,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
@@ -5233,7 +5008,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>131</v>
       </c>
@@ -5249,7 +5024,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>133</v>
       </c>
@@ -5265,7 +5040,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>135</v>
       </c>
@@ -5281,7 +5056,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>137</v>
       </c>
@@ -5297,7 +5072,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>139</v>
       </c>
@@ -5313,7 +5088,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>141</v>
       </c>
@@ -5329,7 +5104,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>143</v>
       </c>
@@ -5345,7 +5120,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>145</v>
       </c>
@@ -5361,7 +5136,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>147</v>
       </c>
@@ -5377,7 +5152,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>149</v>
       </c>
@@ -5393,7 +5168,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>151</v>
       </c>
@@ -5409,7 +5184,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>153</v>
       </c>
@@ -5425,7 +5200,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>155</v>
       </c>
@@ -5441,7 +5216,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>157</v>
       </c>
@@ -5729,7 +5504,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>193</v>
       </c>
@@ -5745,7 +5520,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>195</v>
       </c>
@@ -5761,7 +5536,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>197</v>
       </c>
@@ -5777,7 +5552,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>199</v>
       </c>
@@ -5793,7 +5568,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>201</v>
       </c>
@@ -5809,7 +5584,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>203</v>
       </c>
@@ -5825,7 +5600,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>205</v>
       </c>
@@ -5841,7 +5616,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>207</v>
       </c>
@@ -5857,7 +5632,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>209</v>
       </c>
@@ -5873,7 +5648,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>211</v>
       </c>
@@ -5889,7 +5664,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>213</v>
       </c>
@@ -5905,7 +5680,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>215</v>
       </c>
@@ -5921,7 +5696,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>217</v>
       </c>
@@ -5937,7 +5712,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>219</v>
       </c>
@@ -5953,7 +5728,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>221</v>
       </c>
@@ -5969,7 +5744,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>223</v>
       </c>
@@ -5985,7 +5760,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>225</v>
       </c>
@@ -6001,7 +5776,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>227</v>
       </c>
@@ -6017,7 +5792,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>229</v>
       </c>
@@ -6033,7 +5808,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>231</v>
       </c>
@@ -6049,7 +5824,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>233</v>
       </c>
@@ -6057,7 +5832,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>234</v>
       </c>
@@ -6081,7 +5856,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>237</v>
       </c>
@@ -6089,7 +5864,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>238</v>
       </c>
@@ -6097,7 +5872,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>239</v>
       </c>
@@ -6105,7 +5880,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>240</v>
       </c>
@@ -6113,7 +5888,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>241</v>
       </c>
@@ -6121,7 +5896,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>242</v>
       </c>
@@ -6153,12 +5928,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>246</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6169,12 +5944,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1098</v>
+        <v>248</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6185,7 +5960,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>250</v>
       </c>
@@ -6206,7 +5981,7 @@
         <v>252</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>252</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6217,12 +5992,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1099</v>
+        <v>254</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6233,7 +6008,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>256</v>
       </c>
@@ -6249,7 +6024,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>258</v>
       </c>
@@ -6265,7 +6040,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>260</v>
       </c>
@@ -6273,15 +6048,15 @@
         <v>260</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>262</v>
       </c>
@@ -6289,12 +6064,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1100</v>
+        <v>263</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6305,7 +6080,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>265</v>
       </c>
@@ -6321,7 +6096,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>267</v>
       </c>
@@ -6334,7 +6109,7 @@
         <v>268</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>268</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6350,10 +6125,10 @@
         <v>270</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>271</v>
       </c>
@@ -6369,7 +6144,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>273</v>
       </c>
@@ -6377,7 +6152,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>274</v>
       </c>
@@ -6385,7 +6160,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>275</v>
       </c>
@@ -6401,7 +6176,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>277</v>
       </c>
@@ -6409,7 +6184,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>278</v>
       </c>
@@ -6537,7 +6312,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>294</v>
       </c>
@@ -6553,7 +6328,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>296</v>
       </c>
@@ -6569,7 +6344,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>298</v>
       </c>
@@ -6585,7 +6360,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>300</v>
       </c>
@@ -6593,7 +6368,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>301</v>
       </c>
@@ -6609,7 +6384,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>303</v>
       </c>
@@ -6625,7 +6400,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>305</v>
       </c>
@@ -6641,7 +6416,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>307</v>
       </c>
@@ -6649,7 +6424,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>308</v>
       </c>
@@ -6665,7 +6440,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>310</v>
       </c>
@@ -6673,7 +6448,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>311</v>
       </c>
@@ -6681,7 +6456,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>312</v>
       </c>
@@ -6689,7 +6464,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>313</v>
       </c>
@@ -6697,7 +6472,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>314</v>
       </c>
@@ -6705,7 +6480,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>315</v>
       </c>
@@ -6713,7 +6488,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>316</v>
       </c>
@@ -6721,7 +6496,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>317</v>
       </c>
@@ -6745,7 +6520,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>320</v>
       </c>
@@ -6753,7 +6528,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>321</v>
       </c>
@@ -6777,20 +6552,20 @@
         <v>323</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>325</v>
+        <v>961</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6825,7 +6600,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>330</v>
       </c>
@@ -6833,7 +6608,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>331</v>
       </c>
@@ -6841,7 +6616,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>332</v>
       </c>
@@ -6849,7 +6624,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>333</v>
       </c>
@@ -6865,7 +6640,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>335</v>
       </c>
@@ -6881,7 +6656,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>337</v>
       </c>
@@ -6897,12 +6672,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>339</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>339</v>
+        <v>990</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6910,10 +6685,10 @@
         <v>340</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>341</v>
       </c>
@@ -6929,7 +6704,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>343</v>
       </c>
@@ -6945,7 +6720,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>345</v>
       </c>
@@ -6953,7 +6728,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>346</v>
       </c>
@@ -6961,7 +6736,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>347</v>
       </c>
@@ -6969,7 +6744,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>348</v>
       </c>
@@ -6985,7 +6760,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>350</v>
       </c>
@@ -7001,12 +6776,12 @@
         <v>351</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>352</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7017,7 +6792,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>354</v>
       </c>
@@ -7033,7 +6808,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>356</v>
       </c>
@@ -7057,7 +6832,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>359</v>
       </c>
@@ -7089,7 +6864,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>363</v>
       </c>
@@ -7105,7 +6880,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>365</v>
       </c>
@@ -7113,7 +6888,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>366</v>
       </c>
@@ -7121,7 +6896,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>367</v>
       </c>
@@ -7129,7 +6904,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>368</v>
       </c>
@@ -7137,7 +6912,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>369</v>
       </c>
@@ -7145,7 +6920,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>370</v>
       </c>
@@ -7153,7 +6928,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>371</v>
       </c>
@@ -7161,7 +6936,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>372</v>
       </c>
@@ -7169,7 +6944,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>373</v>
       </c>
@@ -7177,7 +6952,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>374</v>
       </c>
@@ -7190,10 +6965,10 @@
         <v>375</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>376</v>
       </c>
@@ -7201,7 +6976,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>377</v>
       </c>
@@ -7217,7 +6992,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>379</v>
       </c>
@@ -7241,7 +7016,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>382</v>
       </c>
@@ -7249,7 +7024,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>383</v>
       </c>
@@ -7273,7 +7048,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>386</v>
       </c>
@@ -7297,7 +7072,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>389</v>
       </c>
@@ -7305,23 +7080,23 @@
         <v>389</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>392</v>
       </c>
@@ -7345,7 +7120,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>395</v>
       </c>
@@ -7353,7 +7128,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>396</v>
       </c>
@@ -7377,7 +7152,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>399</v>
       </c>
@@ -7401,7 +7176,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>402</v>
       </c>
@@ -7425,12 +7200,12 @@
         <v>404</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>405</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1065</v>
+        <v>405</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7438,7 +7213,7 @@
         <v>406</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1066</v>
+        <v>406</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -7449,7 +7224,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>408</v>
       </c>
@@ -7457,7 +7232,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>409</v>
       </c>
@@ -7481,7 +7256,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>412</v>
       </c>
@@ -7505,7 +7280,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>415</v>
       </c>
@@ -7513,7 +7288,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>416</v>
       </c>
@@ -7534,10 +7309,10 @@
         <v>418</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>419</v>
       </c>
@@ -7561,7 +7336,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>422</v>
       </c>
@@ -7569,7 +7344,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>423</v>
       </c>
@@ -7593,7 +7368,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>426</v>
       </c>
@@ -7617,7 +7392,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>429</v>
       </c>
@@ -7625,7 +7400,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>430</v>
       </c>
@@ -7649,7 +7424,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>433</v>
       </c>
@@ -7673,7 +7448,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>436</v>
       </c>
@@ -7681,7 +7456,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>437</v>
       </c>
@@ -7705,7 +7480,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>440</v>
       </c>
@@ -7713,12 +7488,12 @@
         <v>440</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1094</v>
+        <v>441</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -7726,10 +7501,10 @@
         <v>442</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>443</v>
       </c>
@@ -7737,7 +7512,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>444</v>
       </c>
@@ -7753,7 +7528,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>446</v>
       </c>
@@ -7761,7 +7536,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>447</v>
       </c>
@@ -7777,7 +7552,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>449</v>
       </c>
@@ -7785,7 +7560,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>450</v>
       </c>
@@ -7793,7 +7568,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>451</v>
       </c>
@@ -7801,7 +7576,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>452</v>
       </c>
@@ -7817,7 +7592,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>454</v>
       </c>
@@ -7825,7 +7600,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>455</v>
       </c>
@@ -7841,7 +7616,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>457</v>
       </c>
@@ -7849,7 +7624,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>458</v>
       </c>
@@ -7873,7 +7648,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>461</v>
       </c>
@@ -7897,7 +7672,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>464</v>
       </c>
@@ -7905,7 +7680,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>465</v>
       </c>
@@ -7921,15 +7696,15 @@
         <v>466</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>467</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>468</v>
       </c>
@@ -7937,7 +7712,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>469</v>
       </c>
@@ -7953,7 +7728,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>471</v>
       </c>
@@ -7961,7 +7736,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>472</v>
       </c>
@@ -7985,15 +7760,15 @@
         <v>474</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>475</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>476</v>
       </c>
@@ -8001,7 +7776,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>477</v>
       </c>
@@ -8009,7 +7784,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>478</v>
       </c>
@@ -8017,7 +7792,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>479</v>
       </c>
@@ -8041,7 +7816,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>482</v>
       </c>
@@ -8049,7 +7824,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>483</v>
       </c>
@@ -8057,7 +7832,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>484</v>
       </c>
@@ -8073,15 +7848,15 @@
         <v>485</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>486</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>487</v>
       </c>
@@ -8097,7 +7872,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>489</v>
       </c>
@@ -8121,7 +7896,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>492</v>
       </c>
@@ -8129,7 +7904,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>493</v>
       </c>
@@ -8177,7 +7952,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>499</v>
       </c>
@@ -8185,7 +7960,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="490" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>500</v>
       </c>
@@ -8209,7 +7984,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>503</v>
       </c>
@@ -8217,1234 +7992,1234 @@
         <v>503</v>
       </c>
     </row>
-    <row r="494" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>504</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B495" s="1" t="s">
+      <c r="B507" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="1" t="s">
+    <row r="508" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B496" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A497" s="1" t="s">
+      <c r="B508" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B497" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A498" s="1" t="s">
+      <c r="B509" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B498" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A499" s="1" t="s">
+      <c r="B510" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B499" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" s="1" t="s">
+      <c r="B511" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B500" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A501" s="1" t="s">
+      <c r="B512" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B501" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" s="1" t="s">
+      <c r="B513" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B502" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" s="1" t="s">
+      <c r="B514" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B503" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A504" s="1" t="s">
+      <c r="B515" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B504" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A505" s="1" t="s">
+      <c r="B516" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B505" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A506" s="1" t="s">
+      <c r="B517" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B506" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" s="1" t="s">
+      <c r="B518" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B507" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A508" s="1" t="s">
+      <c r="B519" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B508" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A509" s="1" t="s">
+      <c r="B520" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B509" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510" s="1" t="s">
+      <c r="B521" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B510" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A511" s="1" t="s">
+      <c r="B522" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B511" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A512" s="1" t="s">
+      <c r="B523" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B512" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A513" s="1" t="s">
+      <c r="B524" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B513" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" s="1" t="s">
+      <c r="B525" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B514" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A515" s="1" t="s">
+      <c r="B526" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B515" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A516" s="1" t="s">
+      <c r="B527" s="1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B516" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" s="1" t="s">
+      <c r="B528" s="1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B517" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A518" s="1" t="s">
+      <c r="B529" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B518" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A519" s="1" t="s">
+      <c r="B530" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B519" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A520" s="1" t="s">
+      <c r="B531" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B520" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A521" s="1" t="s">
+      <c r="B532" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B521" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A522" s="1" t="s">
+      <c r="B533" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B522" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A523" s="1" t="s">
+      <c r="B534" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B523" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A524" s="1" t="s">
+      <c r="B535" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B524" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A525" s="1" t="s">
+      <c r="B536" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B525" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A526" s="1" t="s">
+      <c r="B537" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B526" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A527" s="1" t="s">
+      <c r="B538" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B527" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A528" s="1" t="s">
+      <c r="B539" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B528" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A529" s="1" t="s">
+      <c r="B540" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B529" s="1" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A530" s="1" t="s">
+      <c r="B541" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B530" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A531" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B531" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A532" s="1" t="s">
+      <c r="B542" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B532" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A533" s="1" t="s">
+      <c r="B543" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B533" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A534" s="1" t="s">
+      <c r="B544" s="1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B534" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A535" s="1" t="s">
+      <c r="B545" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B535" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A536" s="1" t="s">
+      <c r="B546" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B536" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A537" s="1" t="s">
+      <c r="B547" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B537" s="1" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A538" s="1" t="s">
+      <c r="B548" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B538" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A539" s="1" t="s">
+      <c r="B549" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B539" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A540" s="1" t="s">
+      <c r="B550" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B540" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A541" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B541" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A542" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B542" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A543" s="1" t="s">
+      <c r="B560" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B543" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A544" s="1" t="s">
+      <c r="B562" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B544" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545" s="1" t="s">
+      <c r="B563" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B545" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546" s="1" t="s">
+      <c r="B564" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B546" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" s="1" t="s">
+      <c r="B565" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B547" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A548" s="1" t="s">
+      <c r="B566" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B548" s="1" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A549" s="1" t="s">
+      <c r="B567" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B549" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A550" s="1" t="s">
+      <c r="B568" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B550" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A551" s="1" t="s">
+      <c r="B569" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B551" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" s="1" t="s">
+      <c r="B570" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B552" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A553" s="1" t="s">
+      <c r="B571" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B553" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A554" s="1" t="s">
+      <c r="B572" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B554" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A555" s="1" t="s">
+      <c r="B573" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B555" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" s="1" t="s">
+      <c r="B574" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B556" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A557" s="1" t="s">
+      <c r="B575" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B557" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A558" s="1" t="s">
+      <c r="B576" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B558" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A559" s="1" t="s">
+      <c r="B577" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B559" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" s="1" t="s">
+      <c r="B578" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B560" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A561" s="1" t="s">
+      <c r="B579" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B561" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A562" s="1" t="s">
+      <c r="B580" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B562" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A563" s="1" t="s">
+      <c r="B581" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B563" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A564" s="1" t="s">
+      <c r="B582" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B564" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A565" s="1" t="s">
+      <c r="B583" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B565" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A566" s="1" t="s">
+      <c r="B584" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B566" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A567" s="1" t="s">
+      <c r="B585" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B567" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A568" s="1" t="s">
+      <c r="B586" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B568" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A569" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B569" s="1" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A570" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B570" s="1" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A571" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B571" s="1" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A572" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B572" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C572" s="1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A573" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B573" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C573" s="1" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A574" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B574" s="1" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A575" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B575" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A576" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B576" s="1" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="577" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A577" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B577" s="1" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A578" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B578" s="1" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A579" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B579" s="1" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A580" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B580" s="1" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A581" s="1" t="s">
+      <c r="B587" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B581" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A582" s="1" t="s">
+      <c r="B588" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B582" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A583" s="1" t="s">
+      <c r="B589" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B583" s="1" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A584" s="1" t="s">
+      <c r="B590" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B584" s="1" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A585" s="1" t="s">
+      <c r="B591" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B585" s="1" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A586" s="1" t="s">
+      <c r="B592" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B586" s="1" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A587" s="1" t="s">
+      <c r="B593" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B587" s="1" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="588" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A588" s="1" t="s">
+      <c r="B594" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B588" s="1" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="589" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A589" s="1" t="s">
+      <c r="B595" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B589" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A590" s="1" t="s">
+      <c r="B596" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B590" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C590" s="1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A591" s="1" t="s">
+      <c r="B597" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B591" s="1" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A592" s="1" t="s">
+      <c r="B598" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B592" s="1" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A593" s="1" t="s">
+      <c r="B599" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B593" s="1" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A594" s="1" t="s">
+      <c r="B600" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B594" s="1" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="595" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A595" s="1" t="s">
+      <c r="B601" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B595" s="1" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="596" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A596" s="1" t="s">
+      <c r="B602" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B596" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="597" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A597" s="1" t="s">
+      <c r="B603" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B597" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C597" s="1" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="598" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A598" s="1" t="s">
+      <c r="B604" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B598" s="1" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A599" s="1" t="s">
+      <c r="B605" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B599" s="1" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A600" s="1" t="s">
+      <c r="B606" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B600" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C600" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D600" s="1" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="601" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A601" s="1" t="s">
+      <c r="B607" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B601" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C601" s="1" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="602" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A602" s="1" t="s">
+      <c r="B608" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B602" s="1" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="603" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A603" s="1" t="s">
+      <c r="B609" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B603" s="1" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="604" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A604" s="1" t="s">
+      <c r="B610" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B604" s="1" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="605" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A605" s="1" t="s">
+      <c r="B611" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B605" s="1" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="606" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A606" s="1" t="s">
+      <c r="B612" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B606" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C606" s="1" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="607" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A607" s="1" t="s">
+      <c r="B613" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B607" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C607" s="1" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="608" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A608" s="1" t="s">
+      <c r="B614" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B608" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C608" s="1" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="609" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A609" s="1" t="s">
+      <c r="B615" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B609" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C609" s="1" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A610" s="1" t="s">
+      <c r="B616" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B610" s="1" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A611" s="1" t="s">
+      <c r="B617" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B611" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A612" s="1" t="s">
+      <c r="B618" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B612" s="1" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A613" s="1" t="s">
+      <c r="B619" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B613" s="1" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A614" s="1" t="s">
+      <c r="B620" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B614" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C614" s="1" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A615" s="1" t="s">
+      <c r="B621" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B615" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C615" s="1" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A616" s="1" t="s">
+      <c r="B622" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B616" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C616" s="1" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A617" s="1" t="s">
+      <c r="B623" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B617" s="1" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A618" s="1" t="s">
+      <c r="B624" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B618" s="1" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A619" s="1" t="s">
+      <c r="B626" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B619" s="1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A620" s="1" t="s">
+      <c r="B627" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B620" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C620" s="1" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A621" s="1" t="s">
+      <c r="B628" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B621" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C621" s="1" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A622" s="1" t="s">
+      <c r="B629" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B622" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C622" s="1" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A623" s="1" t="s">
+      <c r="B630" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B623" s="1" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A624" s="1" t="s">
+      <c r="B631" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B624" s="1" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A625" s="1" t="s">
+      <c r="B632" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B625" s="1" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A626" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="B626" s="1" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A627" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B627" s="1" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A628" s="1" t="s">
+      <c r="B633" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B628" s="1" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A629" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B629" s="1" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A630" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B630" s="1" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A631" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B631" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C631" s="1" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A632" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B632" s="1" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="633" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A633" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B633" s="1" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A634" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B634" s="1" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A635" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B635" s="1" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A636" s="1" t="s">
-        <v>777</v>
-      </c>
       <c r="B636" s="1" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>628</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>629</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>630</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>631</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>1018</v>
+        <v>995</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -9452,71 +9227,71 @@
         <v>632</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>633</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>634</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>635</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>637</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>638</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>639</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>640</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>1042</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9524,7 +9299,7 @@
         <v>641</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>1222</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="651" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9532,23 +9307,23 @@
         <v>642</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>643</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>644</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>1222</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -9556,23 +9331,23 @@
         <v>645</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>646</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
         <v>647</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>1036</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
@@ -9580,7 +9355,7 @@
         <v>648</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>1036</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="658" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9588,47 +9363,47 @@
         <v>649</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>650</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>651</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>652</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>653</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>654</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>1036</v>
+        <v>944</v>
       </c>
     </row>
     <row r="664" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9636,55 +9411,55 @@
         <v>655</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>656</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>657</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>658</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>659</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>660</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>661</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>1032</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="671" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9692,1050 +9467,1050 @@
         <v>662</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="672" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>663</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="673" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>664</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>1028</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
-        <v>665</v>
+        <v>1152</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>1051</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="675" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B675" s="1" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A676" s="1" t="s">
+      <c r="B676" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B676" s="1" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A677" s="1" t="s">
+      <c r="B677" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B677" s="1" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A678" s="1" t="s">
+      <c r="B678" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B678" s="1" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A679" s="1" t="s">
+      <c r="B679" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B679" s="1" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A680" s="1" t="s">
-        <v>671</v>
-      </c>
       <c r="B680" s="1" t="s">
-        <v>1053</v>
+        <v>963</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>1051</v>
+        <v>963</v>
       </c>
     </row>
     <row r="682" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>1053</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B683" s="1" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A684" s="1" t="s">
+      <c r="B684" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A685" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B684" s="1" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A685" s="1" t="s">
+      <c r="B685" s="1" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A686" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B685" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A686" s="1" t="s">
+      <c r="B686" s="1" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A687" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B686" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A687" s="1" t="s">
-        <v>678</v>
-      </c>
       <c r="B687" s="1" t="s">
-        <v>1055</v>
+        <v>966</v>
       </c>
     </row>
     <row r="688" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B688" s="1" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A689" s="1" t="s">
+      <c r="B689" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A690" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B689" s="1" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A690" s="1" t="s">
+      <c r="B690" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A691" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B690" s="1" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A691" s="1" t="s">
+      <c r="B691" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B691" s="1" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A692" s="1" t="s">
+      <c r="B692" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B692" s="1" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A693" s="1" t="s">
+      <c r="B693" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B693" s="1" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A694" s="1" t="s">
-        <v>685</v>
-      </c>
       <c r="B694" s="1" t="s">
-        <v>1060</v>
+        <v>949</v>
       </c>
     </row>
     <row r="695" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>1057</v>
+        <v>949</v>
       </c>
     </row>
     <row r="696" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>1059</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="697" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B697" s="1" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A698" s="1" t="s">
+      <c r="B698" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A699" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="B698" s="1" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A699" s="1" t="s">
+      <c r="B699" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A700" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B699" s="1" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A700" s="1" t="s">
+      <c r="B700" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A701" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B700" s="1" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A701" s="1" t="s">
-        <v>692</v>
-      </c>
       <c r="B701" s="1" t="s">
-        <v>1061</v>
+        <v>951</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>1061</v>
+        <v>692</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>1061</v>
+        <v>949</v>
       </c>
     </row>
     <row r="710" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>1070</v>
+        <v>952</v>
       </c>
     </row>
     <row r="713" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="722" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>1079</v>
+        <v>971</v>
       </c>
     </row>
     <row r="725" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>1078</v>
+        <v>973</v>
       </c>
     </row>
     <row r="726" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>1078</v>
+        <v>974</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="728" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>1082</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="730" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>1083</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="731" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="738" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>1225</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>1224</v>
+        <v>744</v>
       </c>
     </row>
     <row r="746" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>1228</v>
+        <v>745</v>
       </c>
     </row>
     <row r="747" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>1228</v>
+        <v>746</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>1226</v>
+        <v>747</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
-        <v>1227</v>
+        <v>748</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>1226</v>
+        <v>748</v>
       </c>
     </row>
     <row r="750" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>1223</v>
+        <v>750</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="753" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="754" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>1075</v>
+        <v>753</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>1038</v>
+        <v>754</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="757" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>1220</v>
+        <v>756</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>1219</v>
+        <v>757</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="760" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>1041</v>
+        <v>762</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>1218</v>
+        <v>765</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>1230</v>
+        <v>766</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="776" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>1026</v>
+        <v>775</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" s="1" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="779" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
         <v>778</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="780" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" s="1" t="s">
         <v>779</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="781" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" s="1" t="s">
         <v>780</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="782" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" s="1" t="s">
         <v>781</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="783" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="s">
         <v>782</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="784" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" s="1" t="s">
         <v>783</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
         <v>784</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="s">
         <v>785</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
         <v>786</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="788" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
         <v>787</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="789" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
         <v>788</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="s">
         <v>789</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="s">
         <v>790</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
         <v>791</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="793" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793" s="1" t="s">
         <v>792</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="794" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="s">
         <v>793</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
         <v>794</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="796" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
         <v>795</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
         <v>796</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
         <v>797</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
         <v>798</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="800" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
         <v>799</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="801" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
         <v>800</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
         <v>801</v>
       </c>
@@ -10743,47 +10518,47 @@
         <v>801</v>
       </c>
     </row>
-    <row r="803" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
         <v>802</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
         <v>803</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
         <v>804</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
         <v>805</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="807" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
         <v>806</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
         <v>807</v>
       </c>
@@ -10791,15 +10566,15 @@
         <v>807</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
         <v>808</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
         <v>809</v>
       </c>
@@ -10807,39 +10582,39 @@
         <v>809</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
         <v>810</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
         <v>811</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="813" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
         <v>812</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="814" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
         <v>813</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
         <v>814</v>
       </c>
@@ -10847,23 +10622,29 @@
         <v>814</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
         <v>815</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1103</v>
+      </c>
+      <c r="C816" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
         <v>816</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="818" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1105</v>
+      </c>
+      <c r="C817" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
         <v>817</v>
       </c>
@@ -10871,23 +10652,29 @@
         <v>817</v>
       </c>
     </row>
-    <row r="819" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
         <v>818</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
         <v>819</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1107</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D820" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
         <v>820</v>
       </c>
@@ -10895,23 +10682,23 @@
         <v>820</v>
       </c>
     </row>
-    <row r="822" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
         <v>821</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
         <v>822</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
         <v>823</v>
       </c>
@@ -10919,7 +10706,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="825" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
         <v>824</v>
       </c>
@@ -10927,7 +10714,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
         <v>825</v>
       </c>
@@ -10935,15 +10722,15 @@
         <v>825</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
         <v>826</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
         <v>827</v>
       </c>
@@ -10951,7 +10738,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
         <v>828</v>
       </c>
@@ -10959,7 +10746,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
         <v>829</v>
       </c>
@@ -10967,7 +10754,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
         <v>830</v>
       </c>
@@ -10975,23 +10762,23 @@
         <v>830</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
         <v>831</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
         <v>832</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
         <v>833</v>
       </c>
@@ -10999,55 +10786,63 @@
         <v>833</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
         <v>834</v>
       </c>
       <c r="B835" s="1" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C835"/>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
         <v>835</v>
       </c>
       <c r="B836" s="1" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C836"/>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
         <v>836</v>
       </c>
       <c r="B837" s="1" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C837"/>
+    </row>
+    <row r="838" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
         <v>837</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1072</v>
+      </c>
+      <c r="C838" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
         <v>838</v>
       </c>
       <c r="B839" s="1" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C839"/>
+    </row>
+    <row r="840" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
         <v>839</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+      <c r="C840"/>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
         <v>840</v>
       </c>
@@ -11055,7 +10850,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
         <v>841</v>
       </c>
@@ -11063,7 +10858,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
         <v>842</v>
       </c>
@@ -11071,7 +10866,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
         <v>843</v>
       </c>
@@ -11079,7 +10874,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
         <v>844</v>
       </c>
@@ -11087,7 +10882,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
         <v>845</v>
       </c>
@@ -11095,7 +10890,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
         <v>846</v>
       </c>
@@ -11103,7 +10898,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
         <v>847</v>
       </c>
@@ -11175,7 +10970,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
         <v>856</v>
       </c>
@@ -11183,7 +10978,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
         <v>857</v>
       </c>
@@ -11191,7 +10986,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
         <v>858</v>
       </c>
@@ -11207,7 +11002,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
         <v>860</v>
       </c>
@@ -11215,7 +11010,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
         <v>861</v>
       </c>
@@ -11247,7 +11042,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="866" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
         <v>865</v>
       </c>
@@ -11255,7 +11050,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
         <v>866</v>
       </c>
@@ -11367,7 +11162,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
         <v>880</v>
       </c>
@@ -11375,7 +11170,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="s">
         <v>881</v>
       </c>
@@ -11383,7 +11178,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
         <v>882</v>
       </c>
@@ -11391,15 +11186,15 @@
         <v>882</v>
       </c>
     </row>
-    <row r="884" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
         <v>883</v>
       </c>
       <c r="B884" s="1" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
         <v>884</v>
       </c>
@@ -11407,7 +11202,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
         <v>885</v>
       </c>
@@ -11415,23 +11210,23 @@
         <v>885</v>
       </c>
     </row>
-    <row r="887" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
         <v>886</v>
       </c>
       <c r="B887" s="1" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="888" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
         <v>887</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
         <v>888</v>
       </c>
@@ -11439,7 +11234,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
         <v>889</v>
       </c>
@@ -11447,29 +11242,23 @@
         <v>889</v>
       </c>
     </row>
-    <row r="891" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
         <v>890</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C891" s="1" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="892" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="s">
         <v>891</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C892" s="1" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
         <v>892</v>
       </c>
@@ -11477,7 +11266,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
         <v>893</v>
       </c>
@@ -11485,21 +11274,15 @@
         <v>893</v>
       </c>
     </row>
-    <row r="895" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
         <v>894</v>
       </c>
       <c r="B895" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C895" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D895" s="1" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="s">
         <v>895</v>
       </c>
@@ -11507,23 +11290,23 @@
         <v>895</v>
       </c>
     </row>
-    <row r="897" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
         <v>896</v>
       </c>
       <c r="B897" s="1" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="898" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
         <v>897</v>
       </c>
       <c r="B898" s="1" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
         <v>898</v>
       </c>
@@ -11531,7 +11314,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
         <v>899</v>
       </c>
@@ -11539,7 +11322,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
         <v>900</v>
       </c>
@@ -11547,15 +11330,15 @@
         <v>900</v>
       </c>
     </row>
-    <row r="902" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
         <v>901</v>
       </c>
       <c r="B902" s="1" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
         <v>902</v>
       </c>
@@ -11563,7 +11346,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
         <v>903</v>
       </c>
@@ -11571,7 +11354,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
         <v>904</v>
       </c>
@@ -11579,7 +11362,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
         <v>905</v>
       </c>
@@ -11587,23 +11370,23 @@
         <v>905</v>
       </c>
     </row>
-    <row r="907" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
         <v>906</v>
       </c>
       <c r="B907" s="1" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="908" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
         <v>907</v>
       </c>
       <c r="B908" s="1" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
         <v>908</v>
       </c>
@@ -11611,63 +11394,55 @@
         <v>908</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
         <v>909</v>
       </c>
       <c r="B910" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="C910"/>
-    </row>
-    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
         <v>910</v>
       </c>
       <c r="B911" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="C911"/>
-    </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
         <v>911</v>
       </c>
       <c r="B912" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="C912"/>
-    </row>
-    <row r="913" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
         <v>912</v>
       </c>
       <c r="B913" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C913" s="1" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
         <v>913</v>
       </c>
       <c r="B914" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="C914"/>
-    </row>
-    <row r="915" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
         <v>914</v>
       </c>
       <c r="B915" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C915"/>
-    </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
         <v>915</v>
       </c>
@@ -11675,7 +11450,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
         <v>916</v>
       </c>
@@ -11683,7 +11458,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
         <v>917</v>
       </c>
@@ -11691,1046 +11466,446 @@
         <v>917</v>
       </c>
     </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B919" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="D919" s="1"/>
+      <c r="E919" s="1"/>
+      <c r="F919" s="1"/>
+      <c r="G919" s="1"/>
+    </row>
+    <row r="920" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A920" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B920" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C920" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D920" s="1"/>
+      <c r="E920" s="1"/>
+      <c r="F920" s="1"/>
+      <c r="G920" s="1"/>
+    </row>
+    <row r="921" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A921" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B921" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="D921" s="1"/>
+      <c r="E921" s="1"/>
+      <c r="F921" s="1"/>
+      <c r="G921" s="1"/>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A922" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B922" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A923" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B923" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A924" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B924" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A925" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B925" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A926" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B926" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A927" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B927" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A928" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B928" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A929" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B929" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A930" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B930" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A931" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B931" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A932" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B932" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A933" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B933" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A934" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B934" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A935" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B935" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A936" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B936" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A937" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B937" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C937" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D937" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E937" s="1"/>
+      <c r="F937" s="2"/>
+    </row>
+    <row r="938" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A938" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B938" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C938" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D938" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E938" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F938" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A939" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B939" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C939" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D939" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E939" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F939" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G939" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A940" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B940" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D940" s="1"/>
+      <c r="E940" s="1"/>
+      <c r="F940" s="2"/>
+    </row>
+    <row r="941" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A941" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B941" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C941" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D941" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E941" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F941" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G941" s="1" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A942" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="B919" s="1" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A920" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="B920" s="1" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A921" s="1" t="s">
+      <c r="B942" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C942" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D942" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E942" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F942" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A943" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B943" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C943" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D943" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E943" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F943" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A944" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="B921" s="1" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A922" s="1" t="s">
+      <c r="B944" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C944" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D944" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E944" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F944" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A945" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B945" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C945" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D945" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E945" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F945" s="1"/>
+    </row>
+    <row r="946" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A946" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B946" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C946" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D946" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E946" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F946" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A947" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B947" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C947" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D947" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E947" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F947" s="1"/>
+      <c r="G947" s="1"/>
+    </row>
+    <row r="948" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A948" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="B922" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A923" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="B923" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A924" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="B924" s="1" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A925" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="B925" s="1" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A926" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="B926" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A927" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="B927" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A928" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="B928" s="1" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A929" s="1" t="s">
+      <c r="B948" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C948" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D948" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E948" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F948" s="1"/>
+      <c r="G948" s="1"/>
+    </row>
+    <row r="949" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A949" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="B929" s="1" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A930" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="B930" s="1" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A931" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="B931" s="1" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="932" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A932" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="B932" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="933" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A933" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="B933" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="934" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A934" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="B934" s="1" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A935" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="B935" s="1" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="936" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A936" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="B936" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="937" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A937" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="B937" s="1" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A938" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="B938" s="1" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A939" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="B939" s="1" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A940" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="B940" s="1" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A941" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="B941" s="1" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="942" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A942" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="B942" s="1" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A943" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="B943" s="1" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A944" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="B944" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A945" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="B945" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A946" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="B946" s="1" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A947" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="B947" s="1" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A948" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="B948" s="1" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A949" s="1" t="s">
-        <v>948</v>
-      </c>
       <c r="B949" s="1" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+      <c r="C949" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D949" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E949" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F949" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G949" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
-        <v>949</v>
+        <v>1215</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1218</v>
+      </c>
+      <c r="D950" s="1"/>
+      <c r="E950" s="1"/>
+      <c r="F950" s="2"/>
+    </row>
+    <row r="951" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
-        <v>950</v>
+        <v>1216</v>
       </c>
       <c r="B951" s="1" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
-        <v>951</v>
+        <v>1217</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A953" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="B953" s="1" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A954" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="B954" s="1" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A955" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="B955" s="1" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A956" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B956" s="1" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A957" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="B957" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A958" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="B958" s="1" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A959" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="B959" s="1" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A960" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="B960" s="1" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A961" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="B961" s="1" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A962" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="B962" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A963" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="B963" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A964" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="B964" s="1" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A965" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="B965" s="1" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A966" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="B966" s="1" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A967" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="B967" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A968" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="B968" s="1" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A969" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="B969" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A970" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="B970" s="1" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A971" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="B971" s="1" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A972" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B972" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A973" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="B973" s="1" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A974" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="B974" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A975" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="B975" s="1" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A976" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="B976" s="1" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="977" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A977" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="B977" s="1" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="978" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A978" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="B978" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A979" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="B979" s="1" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A980" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="B980" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A981" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="B981" s="1" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A982" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="B982" s="1" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A983" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="B983" s="1" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A984" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="B984" s="1" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A985" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="B985" s="1" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A986" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="B986" s="1" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A987" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="B987" s="1" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A988" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="B988" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A989" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="B989" s="1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A990" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="B990" s="1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A991" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="B991" s="1" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A992" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="B992" s="1" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="993" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A993" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="B993" s="1" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="994" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A994" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B994" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D994" s="1"/>
-      <c r="E994" s="1"/>
-      <c r="F994" s="1"/>
-      <c r="G994" s="1"/>
-    </row>
-    <row r="995" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A995" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B995" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C995" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D995" s="1"/>
-      <c r="E995" s="1"/>
-      <c r="F995" s="1"/>
-      <c r="G995" s="1"/>
-    </row>
-    <row r="996" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A996" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B996" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D996" s="1"/>
-      <c r="E996" s="1"/>
-      <c r="F996" s="1"/>
-      <c r="G996" s="1"/>
-    </row>
-    <row r="997" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A997" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B997" s="1" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="998" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A998" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B998" s="1" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="999" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A999" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B999" s="1" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1000" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B1000" s="1" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1001" s="1" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B1001" s="1" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1002" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B1002" s="1" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1003" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B1003" s="1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1004" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B1004" s="1" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1005" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B1005" s="1" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1006" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B1006" s="1" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1007" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B1007" s="1" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1008" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B1008" s="1" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1009" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B1009" s="1" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1010" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B1010" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1011" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B1011" s="1" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="A1012" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B1012" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C1012" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D1012" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E1012" s="1"/>
-      <c r="F1012" s="2"/>
-    </row>
-    <row r="1013" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A1013" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="B1013" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C1013" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D1013" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E1013" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F1013" s="1" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A1014" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B1014" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C1014" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D1014" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E1014" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F1014" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G1014" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1015" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B1015" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D1015" s="1"/>
-      <c r="E1015" s="1"/>
-      <c r="F1015" s="2"/>
-    </row>
-    <row r="1016" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A1016" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="B1016" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C1016" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D1016" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E1016" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F1016" s="1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="G1016" s="1" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1017" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="B1017" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C1017" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D1017" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E1017" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F1017" s="1" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A1018" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="B1018" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C1018" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D1018" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E1018" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F1018" s="1" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1019" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="B1019" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C1019" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D1019" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E1019" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F1019" s="1" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A1020" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B1020" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C1020" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D1020" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E1020" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="F1020" s="1"/>
-    </row>
-    <row r="1021" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1021" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B1021" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C1021" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D1021" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E1021" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F1021" s="1" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A1022" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B1022" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C1022" s="1" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D1022" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E1022" s="1" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F1022" s="1"/>
-      <c r="G1022" s="1"/>
-    </row>
-    <row r="1023" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A1023" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="B1023" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C1023" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D1023" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E1023" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F1023" s="1"/>
-      <c r="G1023" s="1"/>
-    </row>
-    <row r="1024" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1024" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B1024" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C1024" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D1024" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E1024" s="1" t="s">
-        <v>1287</v>
-      </c>
-      <c r="F1024" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G1024" s="1" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1025" s="1" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B1025" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D1025" s="1"/>
-      <c r="E1025" s="1"/>
-      <c r="F1025" s="2"/>
-    </row>
-    <row r="1026" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1026" s="1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B1026" s="1" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1027" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B1027" s="1" t="s">
-        <v>1293</v>
+        <v>1218</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F1027" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
+  <autoFilter ref="A2:F952" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="A1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72E5A90-B19C-4CDB-99A2-02704D0A059F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517872B8-0039-4278-A379-C9CD6EF2A406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4045,8 +4045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A2:G952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494:XFD494"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LuanPhuMau.xlsx
+++ b/LuanPhuMau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517872B8-0039-4278-A379-C9CD6EF2A406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B410104-E09D-4BA2-9774-735F1D71527A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="1167">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -3514,183 +3514,6 @@
     <t xml:space="preserve">Cha mẹ khá giả và sống lâu. </t>
   </si>
   <si>
-    <t>Vũ khúc là sao mang nhiều đặc tính khác nhau. Có phần năng động như Thái Dương, phần suy nghĩ như Thiên Đồng, phần mưu tính như Thiên Cơ, phần thụ động như Thái Âm; tuy vậy nói chung vẫn ngã về phía tĩnh, có tinh thần trách nhiệm, nhưng cầu mong sự an ổn. Thiên Tướng cũng mang đặc tính thụ động, muốn giảm thiểu mọi sự đổi thay. Hai sao hợp lại gây ra khuynh hướng bảo thủ, thiếu tính sáng tạo, không phát triển cái mới mà chỉ giữ những gì có sẵn. Người có Vũ Tướng cùng cung không phải lo vật lộn với miếng cơm manh áo, nhưng vì tâm lý thụ động, lại thiếu những vận may lớn nên rất khó trở thành đại phú.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Nhiều khả năng, chịu học hỏi, không quản lao khổ, lời nói đi đôi với việc làm, ra công hết sức.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Tính ương nhạnh, hành sự nôn nóng, không chịu nghe lời khuyên bảo, nhiều bệnh tật, ít gặp may mắn. Thiếu khả năng sáng tạo, đời sống thường khổ tâm vì hay so sánh với người khác mà sinh bất đắc chí.</t>
-  </si>
-  <si>
-    <t>Thái Dương là "trung thiên đế vương tinh" uy cường, Thiên Lương là phúc tinh ôn nhã, hai sao cùng cung tất phải tương nhượng nhau mà hướng về trung đạo.</t>
-  </si>
-  <si>
-    <t>Hai vị trí cùng cung là Mão Dậu, thuộc "tứ chính đào hoa địa". Mão là đất vượng của Thái Dương, nên Thái Dương lấn áp Thiên Lương; Dậu là phương hãm của Thái Dương, nên ảnh hưởng của Thiên Lương có phần trội vượt. Vì đặc tính đào hoa, ở cả hai nơi cá nhân sẽ có nhiều duyên may mắn. Nếu chọn ngành thương mãi thì dễ đạt mục tiêu vật chất. Nhưng trong mọi trường hợp, e là khó tìm được hạnh phúc gia đình.</t>
-  </si>
-  <si>
-    <t>Cá nhân sẽ có nhiều điểm cố chấp nhưng lại có trái tim dễ bị xúc dộng nên khả năng quyết định không chuyên nhất, thành bại vì thế khó lường.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Quang minh chính dại, tích cực, hiền hòa, thích phục vụ xã hội, không sợ mệt nhọc, hiểm nguy, thất bại. Có phong thái quí phái, làm việc cẩn trọng suy tính. Biết trọng người trên, nhường kẻ dưới.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Tâm lý do dự, khả năng phán đoán thiếu sót, không biết mình biết người, nên dễ lao tâm vô ích. Không biết lẽ tiến thủ nên hay kẹt vào những hoàn cảnh, nhất là hoàn cảnh tình cảm, không thể tìm đường giải quyết.</t>
-  </si>
-  <si>
-    <t>Là cách cục đại cát, phú quý lâu dài</t>
-  </si>
-  <si>
-    <t>Chỉ cùng cung tại Dần Thân, thuộc "tứ mã địa", đại biểu của khuynh hướng chuyển biến, nên mặc dù có tính bảo thủ đời sống lại có nhiều thay đổi.</t>
-  </si>
-  <si>
-    <t>Thiên Đồng vốn thụ động, an phận thủ thường; trong khi đó Thiên Lương mang nhiều ước vọng cao vời, cá nhân vì vậy có tâm lý rất phức tạp, nhiều khi đổi thay chỉ vì cá tính, nhiều khi đổi thay vì muốn thăng tiến sự nghiệp. Nói chung, những đổi thay thường có đắn đo kèm theo, nên thiếu sự bình tĩnh vốn là đặc tính của cả hai sao khi đứng riêng rẽ. Nhưng số may mắn, đổi thay đa số dẫn đến kết quả tốt, vô hình chung khiến con người trở thành kinh nghiệm, lịch duyệt.</t>
-  </si>
-  <si>
-    <t>Đây là loại người dấu kín nội tâm. Bề ngoài mềm mỏng, ít gây thù oán.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Có lòng tốt, thích giúp đỡ kẻ khác, thị phi phân minh. Biết chỗ đứng của mình, ít giữ thù hận trong lòng. Không tranh chấp. Đối xử hòa đồng với mọi người. Chịu khó học hỏi. Cá tính kiên nhẫn. Có duyên gặp gỡ và hòa hợp với nhiều loại người, già cũng như trẻ.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Lòng tự tôn quá caọ Tâm tư bất định. Ước muốn không rõ ràng. Thường hành sự cô độc. Cho dù có ý muốn hợp tác với người khác, thì khi vào việc vẫn có khuynh hướng chạy làng. Có nhiều duyên với người khác phái, nhưng vì vậy mà tình cảm thường gặp phức tạp. Trong khi đó tâm giao, tri kỷ thì lại hiếm hoi.</t>
-  </si>
-  <si>
-    <t>Liêm Trinh còn là sao Tù Tinh, có tính chất ăn chơi phóng khoáng, liều lĩnh, nóng nảy, bốc đồng, khó kiểm soát bản thân, Tham Lang là sao Dâm Tinh, bướng bỉnh, ham vui ham chơi, bất cần. Vậy nên khi hai sao này đi cùng nhau rất dễ vì tình ái và sự liều lĩnh mà dễ dính dáng đến pháp luật, tính khí thất thường, sáng nắng chiều mưa</t>
-  </si>
-  <si>
-    <t>Bạn xử sự có mạch lạc, lớp lang, ngăn nắp, thứ tự, có thể dựa vào đó để định phương kế và kế hoạch làm việc, cho nên thích hợp làm công chức, hoặc đảm nhiệm chức vụ trong công ty. Xã hội hiện đại xem trọng việc quản lý công ty, rất thích hợp với Bạn có mệnh cách này.</t>
-  </si>
-  <si>
-    <t>Thiên Cơ thuộc Mộc biểu tượng mưu trí, tính toán, nhẫn nại; Thái Âm thuộc thủy biểu tượng cung cách nho nhã, tình cảm lãng mạn. Luận về ngũ hành thì hai sao tương hợp. Nhưng Dần Thân thuộc "tứ mã địa" chủ sự dời đổi, biến chuyển; nên có thể thấy từ đặc tính của hai sao rằng đây không phải là vị trí thích hợp lắm.</t>
-  </si>
-  <si>
-    <t>Ở Dần Thái Âm hãm, ở Thân Thái Âm vượng, nên có Cơ Âm đồng cung ở Thân thì gặp nhiều may mắn hơn ở Dần; nhưng cả hai cung vẫn có chung một số tính chất. Cá nhân có "Cơ Nguyệt tương phùng cách" nội tâm ít khi thỏa mãn với hoàn cảnh hiện tại, hay thay đổi bất chợt, nhưng lại e sợ hậu quả, nên mọi đổi thay đều ở mức lưng chừng, thiếu dứt khoát, nên dễ khốn khổ vì lâm vào những hoàn cảnh khúc mắc, khó giải quyết.</t>
-  </si>
-  <si>
-    <t>Người có Cơ Nguyệt ở Dần Thân thiếu uy nghiêm nên không hợp với vai trò lãnh đạo. Nên tìm những công việc chuyên môn, hoặc buôn bán độc lập. Nếu không lượng sức mình mà đi vào những địa hạt cần quyền biến mau lẹ thì khó lòng tránh khỏi thất bại.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Cốt cách, phong tư nho nhã, dễ chiếm cảm tình của người khác (đặc biệt là người khác phái). Thông minh, hiểu chuyện mau lẹ. Có trực giác linh mẫn. Có cơ may gặp nhiều duyên lạ trong tình cảm cũng như sự nghiệp.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Thiếu nghị lực, ý chí, khả năng điều hànhg. Nhiều mơ mộng, thiếu thực tế. Trọng hư danh. Nội tâm nhiều mâu thuẫn, và (trừ khi có nhiều sao chế hóa) khá ích kỷ. Tình cảm biến đổi, trước trọng sau khinh. Khó được người đời kính trọng.</t>
-  </si>
-  <si>
-    <t>Bạn là Bạn yếu thế,nhìn đời bằng ánh mắt tiêu cực hay muốn thoát tục đi tu. Hoặc chỉ có thoát tục đi tu thì bạn mới có thể an yên, bớt vất vả.</t>
-  </si>
-  <si>
-    <t>Tử Vi vốn đã có khí phái phong lưu, Tham Lang lại là sao của lòng tham vật dục, nên trường hợp thông thường là đời sống buông thả. Nhưng chú ý! Vì khuynh hướng của hai sao quá tương phản nên liên tục khắc chế nhau, mà tùy hoàn cảnh kết cuộc có thể hoàn toàn trái ngược.</t>
-  </si>
-  <si>
-    <t>Đó là lý do tại sao Tử Tham  Dậu cũng là cách của nhiều bậc chân tu, coi thường mọi thú vui của đời sống.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Đa tài đa nghệ, học hỏi rất nhanh, kiến thức phong phú, ngôn ngữ có phong cách nho nhã, thân thiết với nhiều người, xử sự khéo léọ Nếu sống đời buông thả thì đáng gọi là tay chơi. Nếu sống đời ẩn dật lại đáng gọi là bậc chân tu.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Thiếu tính nhẫn nại, thiếu khả năng chịu đựng thất bại, nhiều chủ kiến, (thường) tham lam hưởng thụ, dễ đổi thay ý kiến, quan điểm. Sống vô kỷ luật, qui củ, gây ra những hoàn cảnh phức tạp tự mình không giải quyết nổi, thường vì tình mà khổ lụy, đời sống thành bại khó lường.</t>
-  </si>
-  <si>
-    <t>Thái Dương là trung đẩu đế tinh, nên mặc dù thuộc nhóm sao tĩnh (Cơ Nguyệt Đồng Lương Cự Nhật ) mà vẫn có nhiều tính chất xung động, mãnh liệt như nhóm "Tử Phủ Sát Phá Tham ". Ngược lại, Thái Âm là sao nhu nhuyễn, thích sự bình lặng, làm việc gì cũng muốn đạt sự toàn mỹ, mang nhiều lãng mạn tính. Hai sao hợp lại, không khỏi có nhiều mâu thuẫn.</t>
-  </si>
-  <si>
-    <t>Sửu Mùi là hai cung mộ địa mang đặc tính bảo thủ, nên khuynh hướng đấu tranh của Thái Dương bị biến hóa, trở thành bất chợt, nhưng cá nhân vẫn hiếu thắng, cố chấp.</t>
-  </si>
-  <si>
-    <t>Thái Dương nhiều năng lực, hăng hái xông pha, trong khi Thái Âm thích sự nhàn tản, lãng mạn. Hai sao hợp lại thường có bề ngoài mềm dẻo bề trong cứng cỏi, nhưng có lúc hoàn toàn ngược lại, rất khó xác định. Thích ở vị trí thủ lãnh, nhưng rất khó đóng trọn vai trò này là vì những mâu thuẫn như đã kể.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Không tham danh lợi, thích làm việc nghĩa, thích đóng vai người hùng cứu khổn phò nguy, đầu óc thông minh, học hỏi hiểu biết nhanh.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Nhiều mâu thuẫn, nhiều khi suy nghĩ trước sau trái ngược, ý chí không cứng cỏi, tình cảm bất định. Luôn cho rằng mình hơn người khác, dễ trở thành bệnh tưởng. Hôn nhân thiếu hòa thuận, không gần gủi người thân.</t>
-  </si>
-  <si>
-    <t>Thiên Cơ trí tụê mẫn cảm, nho nhã thư sinh, dễ gây cảm tình; Cự Môn thành kiến chủ quan, cố chấp, dễ khiến người khác khó chịu. Hai sao cùng cung chế hóa nhau, kết quả là cá tính vẫn chủ quan, nhưng biết xử thế, được người yêu nhiều hơn ghét.</t>
-  </si>
-  <si>
-    <t>Mão Dậu là đào hoa địa, nên cá nhân có khuynh hướng liên quan nhiều với xã hội, có khả năng biến lạ thành quen, sinh hoạt hăng hái, xử sự nhậm lẹ. Mặc dù thỉnh thoảng ngôn ngữ bất cẩn làm kẻ khác phiền lòng, nhưng nói chung được nhiều sự yêu mến.</t>
-  </si>
-  <si>
-    <t>Chỉ tiếc là thiếu sự nhẫn nại, nên mặc dù bỏ nhiều năng lực và sáng kiến, ít khi được kết quả tương xứng, có tiếng mà không có miếng, ngay cả khi thành công cũng thường là dọn cỗ cho người còn mình chẳng được hưởng bao nhiêu.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Quyết định nhanh chóng, trí tuệ mẫn cảm, biết chịu đựng khó khăn, làm việc tận lực, biết lẽ tiến thối, liên tục học hỏi, quân bình tình cảm và lý trí. Nếu theo các nghề doanh thương, buôn bán thì rất dễ thành công lớn, vì có sự ứng hợp với cách "Cự Cơ Mão Dậu".</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Cá tính bướng bỉnh, sinh cường hiếu thắng, dễ mắc vào vòng thị phi, đời sống tình cảm không được ổn định.</t>
-  </si>
-  <si>
-    <t>Cả hai sao đều thuộc Thủỵ Chỉ cùng cung tại Tý Ngọ, thuộc "đào hao địa". Cá nhân ôn nhu, u mặc, đa tình. Ước vọng cao, nhiều cơ hội đi lại, nhiều nhân duyên kỳ diệu, lịch duyệt phong phú. Thiên đồng chủ phúc, Thái Âm chủ điền trạch, nên bất luận vượng hãm nhất định không sợ thiếu ăn thiếu mặc. Từ nhỏ đã được yêu quí. Tóm lại phúc phận tốt. Nhưng nếu ở Ngọ không bằng Tý vì Ngọ là chốn hãm của Thái Âm, nên ảnh hưởng lây Thiên Đồng, phần may mắn không thể bằng cung Tý được.</t>
-  </si>
-  <si>
-    <t>Về mặt xử thế, không hay cạnh tranh với người, nên có nhiều người thương, ít kẻ ghét.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Thông minh hiếu học, đa tài đa nghệ. Phong thái mềm dẻo, không tranh dành hơn thua với người. Có ý muốn phục vụ, được thân nhân bằng hữu ưa thích. Dễ đạt hạnh phúc.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Thiếu uy, quá dễ tin người, nhận xét sự kiện hay sai lầm. Thiếu khả năng quyết định, hay ỷ lại kẻ khác. Trốn tránh sự thật đau lòng, mơ mộng quá nhiều. Không chịu nổi hoàn cảnh khó khăn. Hay dính líu đến những hoàn cảnh tình cảm rắc rối.</t>
-  </si>
-  <si>
-    <t>Lúc thiếu thời, công danh trắc trở, tài lộc tụ tán thất thường, nhưng từ ngoài ba mươi tuổi trở đi, chắc chắn là được hưởng phú qúy song toàn và càng già lại càng giàu có.</t>
-  </si>
-  <si>
-    <t>Mùi cùng là âm Thổ mộ cung, thiếu niên chỉ tích tụ kinh nghiệm mà khó phát huy khả năng. Từ trung niên trở đi, nhờ kiến thức có sẵn, cộng thêm may mắn mới tạo thành sự nghiệp, vì thế mới có câu "Vũ Tham bất phát thiếu niên nhân "</t>
-  </si>
-  <si>
-    <t>Vũ khúc chủ sự uy nghiêm, Tham Lang chủ sự buông thả. Hợp nhất là nghề buôn bán, nghệ sĩ trình diễn v.v...Nhất định không hợp với các nghề như thầy giáo, bác sĩ, nhà văn v.v...</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Biết sống hòa với người, nhiều khả năng, biết thu nhận kinh nghiệm trải qua trong đời sống, dám bỏ cũ theo mới, không ngại gian lao khốn khó, dám làm dám chịu.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Tâm tính cô độc, xem mình quá cao nên hay bất mãn, đời sống không qui củ, tình cảm thay đổi luôn luôn, thiếu tính nhẫn nại, thích tranh cường háo thắng, không chịu dưới tay kẻ khác. Dù có đạt mọi điều kiện mong muốn, vẫn vì ham muốn nhiều thú vui mà không tìm được bình an.</t>
-  </si>
-  <si>
-    <t>Thái Dương là biểu hiệu của ánh sáng, Cự Môn là ám tinh như mây che ánh sáng, đứng cùng với Thái Dương có tác dụng cản ngăn những đặc sắc của Thái Dương.</t>
-  </si>
-  <si>
-    <t>Hai sao cùng cung ở Dần Thân. Xét về thời gian thì Dần trời chưa sáng, Thân trời đã ngã về chiều, Thái Dương không đủ sức mạnh vượt thắng ảnh hưởng của Cự Môn, nên hai sao cùng cung gây ra tình trạng bất toàn. Nếu thành đạt tất phải có chuyện không ổn trong gia đình, như vợ chồng bất hòa, hoặc sức khỏe suy yếu, hoặc con cái bất hiếu v.v.. Cá nhân vẫn có thể đạt công danh, hạnh phúc, nhưng không có đủ khả năng và may mắn để đối phó với những khó khăn, nên công danh hạnh phúc bao năm đạt được chỉ cần gặp một vài chuyện không may nho nhỏ là có thể vỡ tan bất cứ lúc nào.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Tính khí cương cường, dũng cảm. Có tài miệng lưỡi, mưu trí, nhờ đó có khi biến họa thành may, biết nắm thời cơ. Có khả năng lãnh đạo.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Khá bướng bỉnh, háo thắng. Suy tính chuyện ngoài tầm tay. Tham vọng lớn, lại quá chủ quan, nên khó đạt thành công theo ý muốn.</t>
-  </si>
-  <si>
-    <t>Chỉ đồng cung tại Thìn Tuất, là đất miếu vượng của hai sao. Nên do ảnh hưởng tốt của Thiên Cơ mà có đầu óc mưu cơ, do ảnh hưởng tốt của Thiên Lương mà có sự quan tâm đến bối cảnh xung quanh, muốn phục vụ, làm lợi cho kẻ khác. Vì Thìn Tuất là "thiên la địa võng", lại là mộ địa, nên đời sống có nguyên tắc. Nếu hoàn cảnh thuận lợi, có thể là cộng sự viên đắc lực cho lãnh tụ, tài ba hoặc trở thành bậc hiền nhân danh sĩ.</t>
-  </si>
-  <si>
-    <t>Nói chung gặp nhiều may mắn, dễ đạt thành công về vật chất cũng như tình cảm. Nhưng tham vọng rất cao nên ngay cả khi thành công cũng khó bằng lòng với hoàn cảnh của mình.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Tốt bụng, thông minh, chịu học hỏi, xử thế hòa nhã với mọi ngườị Có thủy có chung, có khả năng đảm nhận trọng trách (miễn là không đòi hỏi ứng biến nhậm lẹ ).</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Tham vọng quá cao, nên dễ trở thành trí xảo. Nhiều tình cảm nên hay dính líu vào những hoàn cảnh phức tạp, khó tháo gỡ. Nếu gặp quá nhiều cảnh ngoài ý muốn, rất có thể trở thành người vô cùng giả dối.</t>
-  </si>
-  <si>
-    <t>Làm mạnh thêm sắc thái thị phi khẩu thiệt, nhưng đồng thời cũng làm mạnh thêm tính chất phục vụ công chúng, vì thế rất nên theo các ngành dịch vụ, công tác xã hội,giáo dục, truyền bá, có thể thành nhân vật lãnh đạo</t>
-  </si>
-  <si>
-    <t>Hai sao chỉ cùng cung tại Sửu Mùi, là mộ địa, biểu tượng sự bảo thủ, lại cùng tĩnh diệu, chủ sự bình hòa, không mang tham vọng lớn. Cá tính thiếu chuyên nhất, nên khó phát huy khả năng, thường chỉ đạt mức trung bình về mọi mặt.</t>
-  </si>
-  <si>
-    <t>Sửu Mùi là vị trí hãm của cả hai sao. Thiên đồng hãm gây ra khuynh hướng thay đổi đường lối không đúng lúc; Cự Môn hãm gây ra khuynh hướng hay lo nghĩ vẩn vơ. Cá nhân có hai mặt: Bên ngoài là sự xung động, bên trong là sự cô độc không tìm được người chia sẻ.</t>
-  </si>
-  <si>
-    <t>Cách xử sự không được phân minh, rất dễ khiến người khác hiểu lầm. Hay nhất là yên phận thủ thường thì đời sống có thể ổn cố bình an.</t>
-  </si>
-  <si>
-    <t>Ưu điểm: Hầu hết đều có tâm lý bằng lòng với thực tại, ít tham lam, không tranh dành với kẻ khác. Đối xử dung hòa với mọi người.</t>
-  </si>
-  <si>
-    <t>Khuyết điểm: Nhiều mơ ước ấu trĩ. Thiếu tự tin, không dám biểu lộ quan điểm riêng của mình. Cách suy nghĩ cũng như hành động đều bất định. Lý trí yếu, không đủ kềm hãm con tim; dễ bị thua thiệt trong tình cảm. Thiếu khả năng lãnh đạo, điều hợp. Không thể đảm nhận việc quan trọng.</t>
-  </si>
-  <si>
     <t>Thái Âm tọa thủ tại Mão</t>
   </si>
   <si>
@@ -3709,6 +3532,21 @@
   <si>
     <t xml:space="preserve">Hai thân vất và, sớm khắc một trong hai thân.
 Nên làm con nuôi họ khác. </t>
+  </si>
+  <si>
+    <t>Cha mẹ có nhiều của cải và quyền uy, nghiêm khắc với bạn.</t>
+  </si>
+  <si>
+    <t>Cha mẹ chịu học hỏi, không quản lao khổ, lời nói đi đôi với việc làm, ra công hết sức.</t>
+  </si>
+  <si>
+    <t>Được lực che chở rất lớn của cha mẹ, cũng chủ về cha mẹ có tính độc đoán</t>
+  </si>
+  <si>
+    <t>Hôn nhân của cha mẹ xảy ra sóng gió, trắc trở, từng hủy bỏ hôn ước thì cha mẹ mới sống với nhau đến bạc đầu.</t>
+  </si>
+  <si>
+    <t>Con cái nên xa cha mẹ để tránh hình khắc</t>
   </si>
 </sst>
 </file>
@@ -3756,7 +3594,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4045,8 +3893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A2:G952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C238" sqref="C238"/>
+    <sheetView tabSelected="1" topLeftCell="A931" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B949" sqref="B949"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9510,12 +9358,12 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>667</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>667</v>
+        <v>990</v>
       </c>
     </row>
     <row r="678" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9923,7 +9771,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>1219</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="729" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -9931,7 +9779,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>1220</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="730" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -11625,264 +11473,166 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="937" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
         <v>926</v>
       </c>
       <c r="B937" s="1" t="s">
-        <v>1156</v>
+        <v>1163</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D937" s="1" t="s">
-        <v>1158</v>
-      </c>
+        <v>1162</v>
+      </c>
+      <c r="D937" s="1"/>
       <c r="E937" s="1"/>
       <c r="F937" s="2"/>
     </row>
-    <row r="938" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
         <v>924</v>
       </c>
       <c r="B938" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C938" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D938" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E938" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F938" s="1" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="939" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+        <v>1164</v>
+      </c>
+      <c r="D938" s="1"/>
+      <c r="E938" s="1"/>
+      <c r="F938" s="1"/>
+    </row>
+    <row r="939" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
         <v>929</v>
       </c>
       <c r="B939" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C939" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="D939" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E939" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F939" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G939" s="1" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="940" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="D939" s="1"/>
+      <c r="E939" s="1"/>
+      <c r="F939" s="1"/>
+      <c r="G939" s="1"/>
+    </row>
+    <row r="940" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
         <v>930</v>
       </c>
       <c r="B940" s="1" t="s">
-        <v>1170</v>
+        <v>1166</v>
+      </c>
+      <c r="C940" s="1" t="s">
+        <v>1142</v>
       </c>
       <c r="D940" s="1"/>
       <c r="E940" s="1"/>
       <c r="F940" s="2"/>
     </row>
-    <row r="941" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
         <v>919</v>
       </c>
       <c r="B941" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C941" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D941" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E941" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F941" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="G941" s="1" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="942" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>1150</v>
+      </c>
+      <c r="D941" s="1"/>
+      <c r="E941" s="1"/>
+      <c r="F941" s="1"/>
+      <c r="G941" s="1"/>
+    </row>
+    <row r="942" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
         <v>918</v>
       </c>
       <c r="B942" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C942" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D942" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E942" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F942" s="1" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="943" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+      <c r="D942" s="1"/>
+      <c r="E942" s="1"/>
+      <c r="F942" s="1"/>
+    </row>
+    <row r="943" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
         <v>922</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C943" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D943" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E943" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F943" s="1" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="944" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>1148</v>
+      </c>
+      <c r="D943" s="1"/>
+      <c r="E943" s="1"/>
+      <c r="F943" s="1"/>
+    </row>
+    <row r="944" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
         <v>920</v>
       </c>
       <c r="B944" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C944" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D944" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E944" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F944" s="1" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="945" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+      <c r="D944" s="1"/>
+      <c r="E944" s="1"/>
+      <c r="F944" s="1"/>
+    </row>
+    <row r="945" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
         <v>927</v>
       </c>
       <c r="B945" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C945" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D945" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E945" s="1" t="s">
-        <v>1195</v>
-      </c>
+        <v>1154</v>
+      </c>
+      <c r="D945" s="1"/>
+      <c r="E945" s="1"/>
       <c r="F945" s="1"/>
     </row>
-    <row r="946" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
         <v>925</v>
       </c>
       <c r="B946" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C946" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D946" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E946" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F946" s="1" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="947" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+        <v>1145</v>
+      </c>
+      <c r="D946" s="1"/>
+      <c r="E946" s="1"/>
+      <c r="F946" s="1"/>
+    </row>
+    <row r="947" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
         <v>923</v>
       </c>
       <c r="B947" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C947" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D947" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E947" s="1" t="s">
-        <v>1204</v>
-      </c>
+        <v>990</v>
+      </c>
+      <c r="D947" s="1"/>
+      <c r="E947" s="1"/>
       <c r="F947" s="1"/>
       <c r="G947" s="1"/>
     </row>
-    <row r="948" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
         <v>921</v>
       </c>
       <c r="B948" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C948" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D948" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E948" s="1" t="s">
-        <v>1208</v>
-      </c>
+        <v>1151</v>
+      </c>
+      <c r="D948" s="1"/>
+      <c r="E948" s="1"/>
       <c r="F948" s="1"/>
       <c r="G948" s="1"/>
     </row>
-    <row r="949" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
         <v>928</v>
       </c>
       <c r="B949" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C949" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D949" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E949" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F949" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="G949" s="1" t="s">
-        <v>1214</v>
-      </c>
+        <v>1143</v>
+      </c>
+      <c r="D949" s="1"/>
+      <c r="E949" s="1"/>
+      <c r="F949" s="1"/>
+      <c r="G949" s="1"/>
     </row>
     <row r="950" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
-        <v>1215</v>
+        <v>1156</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>1218</v>
+        <v>1159</v>
       </c>
       <c r="D950" s="1"/>
       <c r="E950" s="1"/>
@@ -11890,26 +11640,23 @@
     </row>
     <row r="951" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
-        <v>1216</v>
+        <v>1157</v>
       </c>
       <c r="B951" s="1" t="s">
-        <v>1218</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="952" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
-        <v>1217</v>
+        <v>1158</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>1218</v>
+        <v>1159</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:F952" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
